--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>地理</t>
+  </si>
+  <si>
+    <t>地质</t>
   </si>
   <si>
     <t>insular</t>
@@ -1010,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,10 +1026,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,500 +1354,507 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.7421875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="1" customWidth="1"/>
-    <col min="3" max="17" width="9" style="1"/>
+    <col min="2" max="2" width="31.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.078125" style="1" customWidth="1"/>
+    <col min="5" max="17" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="7" ht="20" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="20" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" ht="20" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" ht="20" spans="1:2">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" ht="20" spans="1:2">
-      <c r="A14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" ht="20" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="20" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" ht="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" ht="20" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" ht="20" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" ht="20" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" ht="20" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" ht="20" spans="1:2">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" ht="20" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" ht="20" spans="1:2">
-      <c r="A28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" ht="20" spans="1:2">
-      <c r="A29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" ht="20" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" ht="20" spans="1:2">
+      <c r="A31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" ht="20" spans="1:2">
+      <c r="A32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" ht="20" spans="1:2">
+      <c r="A33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" ht="20" spans="1:2">
+      <c r="A34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" ht="20" spans="1:2">
+      <c r="A35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" ht="20" spans="1:2">
+      <c r="A43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" ht="20" spans="1:2">
+      <c r="A45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" ht="20" spans="1:2">
+      <c r="A49" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" ht="20" spans="1:2">
+      <c r="A51" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" ht="20" spans="1:2">
-      <c r="A31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" ht="20" spans="1:2">
-      <c r="A32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" ht="20" spans="1:2">
-      <c r="A33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" ht="20" spans="1:2">
-      <c r="A34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" ht="20" spans="1:2">
-      <c r="A35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" ht="20" spans="1:2">
-      <c r="A45" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" ht="20" spans="1:2">
-      <c r="A49" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" ht="20" spans="1:2">
-      <c r="A51" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="B54" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="55" ht="20" spans="1:2">
-      <c r="A55" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>102</v>
       </c>
+      <c r="B55" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="56" ht="20" spans="1:2">
-      <c r="A56" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>104</v>
       </c>
+      <c r="B56" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="57" ht="20" spans="1:2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="58" ht="20" spans="1:2">
-      <c r="A58" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>107</v>
       </c>
+      <c r="B58" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="59" ht="20" spans="1:2">
-      <c r="A59" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="6" t="s">
         <v>109</v>
       </c>
+      <c r="B59" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="B60" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="11320"/>
+    <workbookView windowWidth="28800" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
   <si>
     <t>地理</t>
   </si>
@@ -28,267 +28,549 @@
     <t>孤立的, 岛民的</t>
   </si>
   <si>
+    <t>vein</t>
+  </si>
+  <si>
+    <t>岩脉</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
     <t>岛</t>
   </si>
   <si>
+    <t>pit</t>
+  </si>
+  <si>
+    <t>深坑、矿井</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
     <t>半岛</t>
   </si>
   <si>
+    <t>borehole</t>
+  </si>
+  <si>
+    <t>地上凿洞</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
     <t>小岛</t>
   </si>
   <si>
+    <t>quartz</t>
+  </si>
+  <si>
+    <t>石英</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
     <t>海洋的，海军的</t>
   </si>
   <si>
+    <t>marble</t>
+  </si>
+  <si>
+    <t>大理石</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
     <t>航海的</t>
   </si>
   <si>
+    <t>gem</t>
+  </si>
+  <si>
+    <t>经过切割、磨光的宝石</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
     <t>潮湿的</t>
   </si>
   <si>
+    <t>fieldstone</t>
+  </si>
+  <si>
+    <t>粗石、大卵石</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
     <t>暗礁，矿层</t>
   </si>
   <si>
+    <t>emerald</t>
+  </si>
+  <si>
+    <t>绿宝石</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
     <t>绿洲</t>
   </si>
   <si>
+    <t>wiikite</t>
+  </si>
+  <si>
+    <t>杂泥矿（矿石）</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
     <t>潮汐</t>
   </si>
   <si>
+    <t>granite</t>
+  </si>
+  <si>
+    <t>花岗岩</t>
+  </si>
+  <si>
     <t>ebb</t>
   </si>
   <si>
     <t>退潮</t>
   </si>
   <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <r>
+      <t>铅、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <charset val="134"/>
+      </rPr>
+      <t>石墨</t>
+    </r>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
     <t>州，大陆</t>
   </si>
   <si>
+    <t>limestone</t>
+  </si>
+  <si>
+    <t>石灰岩</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
     <t>陆地的</t>
   </si>
   <si>
+    <t>lava</t>
+  </si>
+  <si>
+    <t>火山岩浆</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
     <t>郊区，市郊</t>
   </si>
   <si>
+    <t>ruby</t>
+  </si>
+  <si>
+    <t>红宝石</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
     <t>地区</t>
   </si>
   <si>
+    <t>bonanza</t>
+  </si>
+  <si>
+    <t>富矿带</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
     <t>地方性的</t>
   </si>
   <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>矿石</t>
+  </si>
+  <si>
     <t>cosmopolitan</t>
   </si>
   <si>
     <t>全球的，全世界的</t>
   </si>
   <si>
+    <t>ore</t>
+  </si>
+  <si>
     <t>subterrane</t>
   </si>
   <si>
     <t>洞穴</t>
   </si>
   <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>化石</t>
+  </si>
+  <si>
     <t>subterranean</t>
   </si>
   <si>
     <t>地表下的；地下的</t>
   </si>
   <si>
+    <t>petrify</t>
+  </si>
+  <si>
+    <t>石化</t>
+  </si>
+  <si>
     <t>cavern</t>
   </si>
   <si>
+    <t>geology</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
     <t>缺陷</t>
   </si>
   <si>
+    <t>aluminum</t>
+  </si>
+  <si>
+    <t>铝</t>
+  </si>
+  <si>
     <t>cleft</t>
   </si>
   <si>
     <t>裂缝</t>
   </si>
   <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>地核心</t>
+  </si>
+  <si>
     <t>crevice</t>
   </si>
   <si>
+    <t>crater</t>
+  </si>
+  <si>
+    <t>火山口</t>
+  </si>
+  <si>
     <t>gap</t>
   </si>
   <si>
     <t>缺口</t>
   </si>
   <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
     <t>zone</t>
   </si>
   <si>
+    <t>glacial</t>
+  </si>
+  <si>
+    <t>冰的</t>
+  </si>
+  <si>
     <t>equator</t>
   </si>
   <si>
     <t>赤道</t>
   </si>
   <si>
+    <t>iceberg</t>
+  </si>
+  <si>
+    <t>冰山</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
     <t>经度</t>
   </si>
   <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>平板</t>
+  </si>
+  <si>
     <t>altitude</t>
   </si>
   <si>
     <t>海拔</t>
   </si>
   <si>
+    <t>tremor</t>
+  </si>
+  <si>
+    <t>颤动</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
     <t>纬度</t>
   </si>
   <si>
+    <t>earthquake</t>
+  </si>
+  <si>
+    <t>地震</t>
+  </si>
+  <si>
     <t>meridian</t>
   </si>
   <si>
     <t>子午线</t>
   </si>
   <si>
+    <t>seism</t>
+  </si>
+  <si>
     <t>subsidiary</t>
   </si>
   <si>
     <t>附属的，附带的，次要的</t>
   </si>
   <si>
+    <t>seismic</t>
+  </si>
+  <si>
+    <t>地震的</t>
+  </si>
+  <si>
     <t>Antarctic</t>
   </si>
   <si>
     <t>南极的</t>
   </si>
   <si>
+    <t>seismology</t>
+  </si>
+  <si>
+    <t>地震学</t>
+  </si>
+  <si>
     <t>Antarctica</t>
   </si>
   <si>
     <t>南极洲</t>
   </si>
   <si>
+    <t>magnitude</t>
+  </si>
+  <si>
+    <t>巨大、重要的，天星等</t>
+  </si>
+  <si>
     <t>Arctic</t>
   </si>
   <si>
     <t>北极洲</t>
   </si>
   <si>
+    <t>cataclysm</t>
+  </si>
+  <si>
+    <t>大灾难</t>
+  </si>
+  <si>
     <t>coastland</t>
   </si>
   <si>
     <t>沿海地区</t>
   </si>
   <si>
+    <t>stratum</t>
+  </si>
+  <si>
+    <t>岩层</t>
+  </si>
+  <si>
     <t>hemisphere</t>
   </si>
   <si>
     <t>半球</t>
   </si>
   <si>
+    <t>mantle</t>
+  </si>
+  <si>
+    <t>地幔</t>
+  </si>
+  <si>
     <t>contour</t>
   </si>
   <si>
     <t>轮廓，等高线</t>
   </si>
   <si>
+    <t>lithogenous</t>
+  </si>
+  <si>
+    <t>岩成的</t>
+  </si>
+  <si>
     <t>geography</t>
   </si>
   <si>
     <t>地理的</t>
   </si>
   <si>
+    <t>lithosphere</t>
+  </si>
+  <si>
+    <t>岩石圈</t>
+  </si>
+  <si>
     <t>horizon</t>
   </si>
   <si>
     <t>水平线</t>
   </si>
   <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>层</t>
+  </si>
+  <si>
     <t>lowland</t>
   </si>
   <si>
     <t>低地</t>
   </si>
   <si>
+    <t>crust</t>
+  </si>
+  <si>
+    <t>地壳、外壳</t>
+  </si>
+  <si>
     <t>plain</t>
   </si>
   <si>
     <t>平原</t>
   </si>
   <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>断层</t>
+  </si>
+  <si>
     <t>strait</t>
   </si>
   <si>
     <t>海峡</t>
   </si>
   <si>
+    <t>magma</t>
+  </si>
+  <si>
+    <t>岩浆</t>
+  </si>
+  <si>
     <t>channel</t>
   </si>
   <si>
+    <t>squirt</t>
+  </si>
+  <si>
+    <t>喷射</t>
+  </si>
+  <si>
     <t>valley</t>
   </si>
   <si>
     <t>山谷</t>
   </si>
   <si>
+    <t>erupt</t>
+  </si>
+  <si>
+    <t>爆发</t>
+  </si>
+  <si>
     <t>volcano</t>
   </si>
   <si>
     <t>火山</t>
   </si>
   <si>
+    <t>outburst</t>
+  </si>
+  <si>
     <t>plateau</t>
   </si>
   <si>
+    <t>eruption</t>
+  </si>
+  <si>
+    <t>喷发，爆发</t>
+  </si>
+  <si>
     <t>basin</t>
   </si>
   <si>
     <t>盆地</t>
   </si>
   <si>
+    <t>volcanic</t>
+  </si>
+  <si>
+    <t>火山的</t>
+  </si>
+  <si>
     <t>navigation</t>
   </si>
   <si>
@@ -353,6 +635,11 @@
   </si>
   <si>
     <t>温和的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usage: 1. UnKnown words would be with Green Block. 
+             2. Words with Yellow background would be the words not Familiar.
+</t>
   </si>
 </sst>
 </file>
@@ -362,10 +649,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,7 +668,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <i/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -398,23 +694,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,16 +718,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -458,8 +772,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,38 +818,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,31 +840,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,197 +862,240 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -766,17 +1114,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,35 +1156,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,177 +1189,266 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1354,507 +1769,985 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.7421875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.078125" style="1" customWidth="1"/>
-    <col min="5" max="17" width="9" style="1"/>
+    <col min="2" max="2" width="18.7421875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.640625" style="1" customWidth="1"/>
+    <col min="7" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:6">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:2">
-      <c r="A4" s="5" t="s">
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="F3" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" ht="20" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" ht="20" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="F5" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="20" spans="1:2">
-      <c r="A10" s="6" t="s">
+    <row r="6" ht="20" spans="1:6">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="F6" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="20" spans="1:2">
-      <c r="A12" s="6" t="s">
+    <row r="7" ht="20" spans="1:6">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="F7" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="20" spans="1:2">
-      <c r="A14" s="6" t="s">
+    <row r="8" ht="20" spans="1:6">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" ht="20" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="F8" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+    <row r="9" ht="20" spans="1:6">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C9" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="F9" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+    <row r="10" ht="20" spans="1:6">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C10" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" ht="20" spans="1:2">
-      <c r="A19" s="6" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="F10" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="20" spans="1:2">
-      <c r="A20" s="6" t="s">
+    <row r="11" ht="20" spans="1:6">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="F11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="5" t="s">
+    </row>
+    <row r="12" ht="24" spans="1:6">
+      <c r="A12" s="12"/>
+      <c r="B12" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" ht="20" spans="1:2">
-      <c r="A23" s="6" t="s">
+      <c r="C12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" ht="20" spans="1:2">
-      <c r="A24" s="6" t="s">
+      <c r="F12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
+    </row>
+    <row r="13" ht="20" spans="1:6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="F13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="5" t="s">
+    </row>
+    <row r="14" ht="20" spans="1:6">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" ht="20" spans="1:2">
-      <c r="A28" s="6" t="s">
+      <c r="C14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" ht="20" spans="1:2">
-      <c r="A29" s="6" t="s">
+      <c r="F14" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="6" t="s">
+    </row>
+    <row r="15" ht="20" spans="1:6">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" ht="20" spans="1:2">
-      <c r="A30" s="6" t="s">
+      <c r="C15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" ht="20" spans="1:2">
-      <c r="A31" s="6" t="s">
+      <c r="F15" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="6" t="s">
+    </row>
+    <row r="16" ht="20" spans="1:6">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" ht="20" spans="1:2">
-      <c r="A32" s="6" t="s">
+      <c r="C16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" ht="20" spans="1:2">
-      <c r="A33" s="6" t="s">
+      <c r="F16" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="6" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="14"/>
+      <c r="B17" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" ht="20" spans="1:2">
-      <c r="A34" s="6" t="s">
+      <c r="C17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" ht="20" spans="1:2">
-      <c r="A35" s="6" t="s">
+      <c r="F17" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="6" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12"/>
+      <c r="B18" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
+      <c r="C18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
+      <c r="F18" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" ht="20" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C19" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="F19" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
+    <row r="20" ht="20" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C20" s="15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="F20" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="12"/>
+      <c r="B21" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
+      <c r="F21" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="20" spans="1:6">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C22" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" ht="20" spans="1:2">
-      <c r="A43" s="6" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="F22" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
+    <row r="23" ht="20" spans="1:6">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" ht="20" spans="1:2">
-      <c r="A45" s="6" t="s">
+      <c r="C23" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
+      <c r="F23" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="5" t="s">
+    </row>
+    <row r="24" ht="20" spans="1:6">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="5" t="s">
+      <c r="C24" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="5" t="s">
+      <c r="F24" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="5" t="s">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12"/>
+      <c r="B25" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" ht="20" spans="1:2">
-      <c r="A49" s="6" t="s">
+      <c r="C25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="5" t="s">
+      <c r="F25" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="5" t="s">
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12"/>
+      <c r="B26" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" ht="20" spans="1:2">
-      <c r="A51" s="6" t="s">
+      <c r="C26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="F26" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="5" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C27" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="5" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="5" t="s">
+      <c r="F27" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="5" t="s">
+    </row>
+    <row r="28" ht="20" spans="1:6">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" ht="20" spans="1:2">
-      <c r="A55" s="6" t="s">
+      <c r="C28" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" ht="20" spans="1:2">
-      <c r="A56" s="6" t="s">
+      <c r="F28" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="6" t="s">
+    </row>
+    <row r="29" ht="20" spans="1:6">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" ht="20" spans="1:2">
-      <c r="A57" s="6" t="s">
+      <c r="C29" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" ht="20" spans="1:2">
-      <c r="A58" s="6" t="s">
+      <c r="D29" s="18"/>
+      <c r="E29" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="F29" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="59" ht="20" spans="1:2">
-      <c r="A59" s="6" t="s">
+    <row r="30" ht="20" spans="1:6">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C30" s="15" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="F30" s="22" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="31" ht="20" spans="1:6">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" ht="20" spans="1:6">
+      <c r="A32" s="12"/>
+      <c r="B32" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" ht="20" spans="1:6">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" ht="20" spans="1:6">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" ht="20" spans="1:6">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" ht="20" spans="1:6">
+      <c r="A36" s="12"/>
+      <c r="B36" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" ht="20" spans="1:6">
+      <c r="A38" s="12"/>
+      <c r="B38" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" ht="20" spans="1:6">
+      <c r="A39" s="12"/>
+      <c r="B39" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="12"/>
+      <c r="B40" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" ht="20" spans="1:6">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="12"/>
+      <c r="B42" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" ht="20" spans="1:6">
+      <c r="A43" s="12"/>
+      <c r="B43" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" ht="20" spans="1:6">
+      <c r="A44" s="12"/>
+      <c r="B44" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" ht="20" spans="1:6">
+      <c r="A45" s="12"/>
+      <c r="B45" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="E45" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="12"/>
+      <c r="B47" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="12"/>
+      <c r="B48" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" ht="20" spans="1:4">
+      <c r="A49" s="12"/>
+      <c r="B49" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12"/>
+      <c r="B50" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" ht="20" spans="1:4">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="12"/>
+      <c r="B53" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="12"/>
+      <c r="B54" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" ht="20" spans="1:4">
+      <c r="A55" s="12"/>
+      <c r="B55" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" ht="20" spans="1:4">
+      <c r="A56" s="12"/>
+      <c r="B56" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" ht="20" spans="1:4">
+      <c r="A57" s="12"/>
+      <c r="B57" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" ht="20" spans="1:4">
+      <c r="A58" s="12"/>
+      <c r="B58" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" ht="20" spans="1:4">
+      <c r="A59" s="12"/>
+      <c r="B59" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="12"/>
+      <c r="B60" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A68:D70"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -152,6 +152,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>铅、</t>
     </r>
     <r>
@@ -160,6 +168,7 @@
         <i/>
         <sz val="16"/>
         <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>石墨</t>
@@ -648,11 +657,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,29 +712,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -733,55 +719,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,7 +736,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,6 +781,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -818,15 +827,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,6 +855,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -868,43 +885,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,139 +1017,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,11 +1144,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,7 +1178,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,36 +1213,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1224,157 +1232,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1423,12 +1440,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1436,12 +1453,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1771,15 +1782,16 @@
   <sheetPr/>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="5"/>
   <cols>
+    <col min="1" max="1" width="3.5078125" customWidth="1"/>
     <col min="2" max="2" width="18.7421875" style="2" customWidth="1"/>
     <col min="3" max="3" width="31.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.640625" style="1" customWidth="1"/>
     <col min="7" max="19" width="9" style="1"/>
@@ -1806,10 +1818,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1822,10 +1834,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1838,10 +1850,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1854,10 +1866,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1870,10 +1882,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1886,10 +1898,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1902,10 +1914,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1917,11 +1929,11 @@
       <c r="C9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="15" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1933,11 +1945,11 @@
       <c r="C10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1949,11 +1961,11 @@
       <c r="C11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="22" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1965,11 +1977,11 @@
       <c r="C12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1982,10 +1994,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="15" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1997,11 +2009,11 @@
       <c r="C14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2013,11 +2025,11 @@
       <c r="C15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2030,10 +2042,10 @@
         <v>59</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2046,10 +2058,10 @@
         <v>63</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2062,10 +2074,10 @@
         <v>67</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2077,11 +2089,11 @@
       <c r="C19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2093,11 +2105,11 @@
       <c r="C20" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2110,10 +2122,10 @@
         <v>70</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2126,10 +2138,10 @@
         <v>80</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2141,11 +2153,11 @@
       <c r="C23" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2158,10 +2170,10 @@
         <v>84</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2174,10 +2186,10 @@
         <v>91</v>
       </c>
       <c r="D25" s="13"/>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2190,10 +2202,10 @@
         <v>59</v>
       </c>
       <c r="D26" s="13"/>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="10" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2206,10 +2218,10 @@
         <v>98</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2221,11 +2233,11 @@
       <c r="C28" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="22" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2238,10 +2250,10 @@
         <v>106</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2253,11 +2265,11 @@
       <c r="C30" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="22" t="s">
+      <c r="D30" s="17"/>
+      <c r="E30" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2269,11 +2281,11 @@
       <c r="C31" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="15" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2285,11 +2297,11 @@
       <c r="C32" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="21" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="15" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2301,11 +2313,11 @@
       <c r="C33" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="21" t="s">
+      <c r="D33" s="16"/>
+      <c r="E33" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="15" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2317,11 +2329,11 @@
       <c r="C34" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="22" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="10" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2333,11 +2345,11 @@
       <c r="C35" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="21" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2350,10 +2362,10 @@
         <v>133</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="15" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2366,10 +2378,10 @@
         <v>137</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2381,11 +2393,11 @@
       <c r="C38" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="21" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="15" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2397,11 +2409,11 @@
       <c r="C39" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="21" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="15" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2414,10 +2426,10 @@
         <v>149</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2430,10 +2442,10 @@
         <v>153</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="10" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2446,10 +2458,10 @@
         <v>157</v>
       </c>
       <c r="D42" s="13"/>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="10" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2461,11 +2473,11 @@
       <c r="C43" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="21" t="s">
+      <c r="D43" s="16"/>
+      <c r="E43" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="21" t="s">
+      <c r="F43" s="15" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2477,11 +2489,11 @@
       <c r="C44" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="21" t="s">
+      <c r="D44" s="11"/>
+      <c r="E44" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="15" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2493,11 +2505,11 @@
       <c r="C45" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="22" t="s">
+      <c r="D45" s="17"/>
+      <c r="E45" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="10" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2510,10 +2522,10 @@
         <v>172</v>
       </c>
       <c r="D46" s="13"/>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="10" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2526,10 +2538,10 @@
         <v>157</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="10" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2542,10 +2554,10 @@
         <v>178</v>
       </c>
       <c r="D48" s="13"/>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="10" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2669,79 +2681,79 @@
       </c>
       <c r="D60" s="20"/>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="23" t="s">
+    <row r="68" ht="14" spans="1:4">
+      <c r="A68" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="23"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+    </row>
+    <row r="69" ht="14" spans="1:4">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+    </row>
+    <row r="70" ht="14" spans="1:4">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" ht="14" spans="1:4">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+    </row>
+    <row r="72" ht="14" spans="1:4">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+    </row>
+    <row r="73" ht="14" spans="1:4">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+    </row>
+    <row r="74" ht="14" spans="1:4">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+    </row>
+    <row r="75" ht="14" spans="1:4">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+    </row>
+    <row r="76" ht="14" spans="1:4">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+    </row>
+    <row r="77" ht="14" spans="1:4">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+    </row>
+    <row r="78" ht="14" spans="1:4">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+    </row>
+    <row r="79" ht="14" spans="1:4">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424">
   <si>
     <t>地理</t>
   </si>
@@ -22,6 +22,9 @@
     <t>地质</t>
   </si>
   <si>
+    <t>动物</t>
+  </si>
+  <si>
     <t>insular</t>
   </si>
   <si>
@@ -34,6 +37,12 @@
     <t>岩脉</t>
   </si>
   <si>
+    <t>gregarious</t>
+  </si>
+  <si>
+    <t>爱交际的、群居的</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -46,6 +55,12 @@
     <t>深坑、矿井</t>
   </si>
   <si>
+    <t>swarm</t>
+  </si>
+  <si>
+    <t>蜂群</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -58,6 +73,12 @@
     <t>地上凿洞</t>
   </si>
   <si>
+    <t>flock</t>
+  </si>
+  <si>
+    <t>群</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -70,6 +91,12 @@
     <t>石英</t>
   </si>
   <si>
+    <t>herd</t>
+  </si>
+  <si>
+    <t>兽群</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -82,6 +109,12 @@
     <t>大理石</t>
   </si>
   <si>
+    <t>mammal</t>
+  </si>
+  <si>
+    <t>哺乳动物</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -94,6 +127,12 @@
     <t>经过切割、磨光的宝石</t>
   </si>
   <si>
+    <t>carnivore</t>
+  </si>
+  <si>
+    <t>食肉动物</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
@@ -106,6 +145,12 @@
     <t>粗石、大卵石</t>
   </si>
   <si>
+    <t>carnivorous</t>
+  </si>
+  <si>
+    <t>食肉的</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -118,6 +163,12 @@
     <t>绿宝石</t>
   </si>
   <si>
+    <t>appetite</t>
+  </si>
+  <si>
+    <t>食欲</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -130,6 +181,12 @@
     <t>杂泥矿（矿石）</t>
   </si>
   <si>
+    <t>herbivorous</t>
+  </si>
+  <si>
+    <t>食草的</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -142,6 +199,12 @@
     <t>花岗岩</t>
   </si>
   <si>
+    <t>omnivorous</t>
+  </si>
+  <si>
+    <t>杂食的</t>
+  </si>
+  <si>
     <t>ebb</t>
   </si>
   <si>
@@ -152,14 +215,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="16"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>铅、</t>
     </r>
     <r>
@@ -175,6 +230,9 @@
     </r>
   </si>
   <si>
+    <t>predator</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -187,6 +245,9 @@
     <t>石灰岩</t>
   </si>
   <si>
+    <t>predatory</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -199,6 +260,12 @@
     <t>火山岩浆</t>
   </si>
   <si>
+    <t>prey</t>
+  </si>
+  <si>
+    <t>捕猎</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
@@ -211,6 +278,12 @@
     <t>红宝石</t>
   </si>
   <si>
+    <t>poikilotherm</t>
+  </si>
+  <si>
+    <t>冷血动物</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -223,6 +296,12 @@
     <t>富矿带</t>
   </si>
   <si>
+    <t>rodent</t>
+  </si>
+  <si>
+    <t>啮齿动物</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
@@ -235,6 +314,12 @@
     <t>矿石</t>
   </si>
   <si>
+    <t>scavenger</t>
+  </si>
+  <si>
+    <t>食腐动物</t>
+  </si>
+  <si>
     <t>cosmopolitan</t>
   </si>
   <si>
@@ -244,6 +329,12 @@
     <t>ore</t>
   </si>
   <si>
+    <t>microbe</t>
+  </si>
+  <si>
+    <t>微生物、细菌</t>
+  </si>
+  <si>
     <t>subterrane</t>
   </si>
   <si>
@@ -256,6 +347,12 @@
     <t>化石</t>
   </si>
   <si>
+    <t>reptile</t>
+  </si>
+  <si>
+    <t>爬行动物</t>
+  </si>
+  <si>
     <t>subterranean</t>
   </si>
   <si>
@@ -268,12 +365,24 @@
     <t>石化</t>
   </si>
   <si>
+    <t>homotherm</t>
+  </si>
+  <si>
+    <t>恒温动物</t>
+  </si>
+  <si>
     <t>cavern</t>
   </si>
   <si>
     <t>geology</t>
   </si>
   <si>
+    <t>primate</t>
+  </si>
+  <si>
+    <t>灵长目动物</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
@@ -286,6 +395,12 @@
     <t>铝</t>
   </si>
   <si>
+    <t>primates</t>
+  </si>
+  <si>
+    <t>灵长类</t>
+  </si>
+  <si>
     <t>cleft</t>
   </si>
   <si>
@@ -298,6 +413,12 @@
     <t>地核心</t>
   </si>
   <si>
+    <t>mollusk</t>
+  </si>
+  <si>
+    <t>软体动物</t>
+  </si>
+  <si>
     <t>crevice</t>
   </si>
   <si>
@@ -307,6 +428,12 @@
     <t>火山口</t>
   </si>
   <si>
+    <t>coelenterate</t>
+  </si>
+  <si>
+    <t>腔肠动物</t>
+  </si>
+  <si>
     <t>gap</t>
   </si>
   <si>
@@ -319,6 +446,12 @@
     <t>钻石</t>
   </si>
   <si>
+    <t>vertebrate</t>
+  </si>
+  <si>
+    <t>脊椎动物</t>
+  </si>
+  <si>
     <t>zone</t>
   </si>
   <si>
@@ -328,6 +461,12 @@
     <t>冰的</t>
   </si>
   <si>
+    <t>invertebrate</t>
+  </si>
+  <si>
+    <t>无脊椎动物</t>
+  </si>
+  <si>
     <t>equator</t>
   </si>
   <si>
@@ -340,6 +479,12 @@
     <t>冰山</t>
   </si>
   <si>
+    <t>finch</t>
+  </si>
+  <si>
+    <t>雀类</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
@@ -352,6 +497,12 @@
     <t>平板</t>
   </si>
   <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>鸟类</t>
+  </si>
+  <si>
     <t>altitude</t>
   </si>
   <si>
@@ -364,6 +515,12 @@
     <t>颤动</t>
   </si>
   <si>
+    <t>fowl</t>
+  </si>
+  <si>
+    <t>鸟</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -376,6 +533,12 @@
     <t>地震</t>
   </si>
   <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>巨兽</t>
+  </si>
+  <si>
     <t>meridian</t>
   </si>
   <si>
@@ -385,6 +548,12 @@
     <t>seism</t>
   </si>
   <si>
+    <t>hordes</t>
+  </si>
+  <si>
+    <t>一大群</t>
+  </si>
+  <si>
     <t>subsidiary</t>
   </si>
   <si>
@@ -397,6 +566,12 @@
     <t>地震的</t>
   </si>
   <si>
+    <t>insect</t>
+  </si>
+  <si>
+    <t>昆虫</t>
+  </si>
+  <si>
     <t>Antarctic</t>
   </si>
   <si>
@@ -409,6 +584,12 @@
     <t>地震学</t>
   </si>
   <si>
+    <t>worm</t>
+  </si>
+  <si>
+    <t>虫</t>
+  </si>
+  <si>
     <t>Antarctica</t>
   </si>
   <si>
@@ -421,6 +602,12 @@
     <t>巨大、重要的，天星等</t>
   </si>
   <si>
+    <t>beast</t>
+  </si>
+  <si>
+    <t>野兽</t>
+  </si>
+  <si>
     <t>Arctic</t>
   </si>
   <si>
@@ -433,6 +620,12 @@
     <t>大灾难</t>
   </si>
   <si>
+    <t>aquatic</t>
+  </si>
+  <si>
+    <t>水生植物</t>
+  </si>
+  <si>
     <t>coastland</t>
   </si>
   <si>
@@ -445,6 +638,12 @@
     <t>岩层</t>
   </si>
   <si>
+    <t>amphibian</t>
+  </si>
+  <si>
+    <t>两栖动物</t>
+  </si>
+  <si>
     <t>hemisphere</t>
   </si>
   <si>
@@ -457,6 +656,12 @@
     <t>地幔</t>
   </si>
   <si>
+    <t>migrate</t>
+  </si>
+  <si>
+    <t>迁移</t>
+  </si>
+  <si>
     <t>contour</t>
   </si>
   <si>
@@ -469,6 +674,12 @@
     <t>岩成的</t>
   </si>
   <si>
+    <t>graze</t>
+  </si>
+  <si>
+    <t>吃草</t>
+  </si>
+  <si>
     <t>geography</t>
   </si>
   <si>
@@ -481,6 +692,12 @@
     <t>岩石圈</t>
   </si>
   <si>
+    <t>peck</t>
+  </si>
+  <si>
+    <t>啄食</t>
+  </si>
+  <si>
     <t>horizon</t>
   </si>
   <si>
@@ -493,6 +710,12 @@
     <t>层</t>
   </si>
   <si>
+    <t>trot</t>
+  </si>
+  <si>
+    <t>马小跑的步态</t>
+  </si>
+  <si>
     <t>lowland</t>
   </si>
   <si>
@@ -505,6 +728,12 @@
     <t>地壳、外壳</t>
   </si>
   <si>
+    <t>dormant</t>
+  </si>
+  <si>
+    <t>休眠的</t>
+  </si>
+  <si>
     <t>plain</t>
   </si>
   <si>
@@ -517,6 +746,12 @@
     <t>断层</t>
   </si>
   <si>
+    <t>offspring</t>
+  </si>
+  <si>
+    <t>后代</t>
+  </si>
+  <si>
     <t>strait</t>
   </si>
   <si>
@@ -529,6 +764,12 @@
     <t>岩浆</t>
   </si>
   <si>
+    <t>spawn</t>
+  </si>
+  <si>
+    <t>产卵</t>
+  </si>
+  <si>
     <t>channel</t>
   </si>
   <si>
@@ -538,6 +779,12 @@
     <t>喷射</t>
   </si>
   <si>
+    <t>pregnant</t>
+  </si>
+  <si>
+    <t>怀孕</t>
+  </si>
+  <si>
     <t>valley</t>
   </si>
   <si>
@@ -550,6 +797,12 @@
     <t>爆发</t>
   </si>
   <si>
+    <t>hatch</t>
+  </si>
+  <si>
+    <t>孵化</t>
+  </si>
+  <si>
     <t>volcano</t>
   </si>
   <si>
@@ -559,6 +812,12 @@
     <t>outburst</t>
   </si>
   <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>繁殖</t>
+  </si>
+  <si>
     <t>plateau</t>
   </si>
   <si>
@@ -568,6 +827,12 @@
     <t>喷发，爆发</t>
   </si>
   <si>
+    <t>domesticate</t>
+  </si>
+  <si>
+    <t>训化</t>
+  </si>
+  <si>
     <t>basin</t>
   </si>
   <si>
@@ -580,75 +845,462 @@
     <t>火山的</t>
   </si>
   <si>
+    <t>fertilize</t>
+  </si>
+  <si>
+    <t>施肥</t>
+  </si>
+  <si>
     <t>navigation</t>
   </si>
   <si>
     <t>航行，航海</t>
   </si>
   <si>
+    <t>regeneration</t>
+  </si>
+  <si>
+    <t>再生</t>
+  </si>
+  <si>
     <t>ranges</t>
   </si>
   <si>
     <t>山脉</t>
   </si>
   <si>
+    <t>reproduce</t>
+  </si>
+  <si>
     <t>salinity</t>
   </si>
   <si>
     <t>盐分，盐度</t>
   </si>
   <si>
+    <t>squeak</t>
+  </si>
+  <si>
+    <t>以短促尖声发出</t>
+  </si>
+  <si>
     <t>sediment</t>
   </si>
   <si>
     <t>沉淀</t>
   </si>
   <si>
+    <t>chirp</t>
+  </si>
+  <si>
+    <t>叽叽喳喳声</t>
+  </si>
+  <si>
     <t>elevation</t>
   </si>
   <si>
+    <t>hibernate</t>
+  </si>
+  <si>
+    <t>冬眠</t>
+  </si>
+  <si>
     <t>formation</t>
   </si>
   <si>
     <t>形成</t>
   </si>
   <si>
+    <t>camouflage</t>
+  </si>
+  <si>
+    <t>伪装</t>
+  </si>
+  <si>
     <t>geothermy</t>
   </si>
   <si>
     <t>地热</t>
   </si>
   <si>
+    <t>polyandrous</t>
+  </si>
+  <si>
+    <t>一夫多妻制、一雌多雄制</t>
+  </si>
+  <si>
     <t>terrain</t>
   </si>
   <si>
     <t>地形</t>
   </si>
   <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>筑巢</t>
+  </si>
+  <si>
     <t>topography</t>
   </si>
   <si>
+    <t>niche</t>
+  </si>
+  <si>
+    <t>生态圈</t>
+  </si>
+  <si>
     <t>tropical</t>
   </si>
   <si>
     <t>热带的</t>
   </si>
   <si>
+    <t>pest</t>
+  </si>
+  <si>
+    <t>害虫</t>
+  </si>
+  <si>
     <t>tropics</t>
   </si>
   <si>
     <t>热带地区</t>
   </si>
   <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>栖息地</t>
+  </si>
+  <si>
     <t>temperate</t>
   </si>
   <si>
     <t>温和的</t>
+  </si>
+  <si>
+    <t>rhinoceros</t>
+  </si>
+  <si>
+    <t>犀牛</t>
+  </si>
+  <si>
+    <t>chimpanzee</t>
+  </si>
+  <si>
+    <t>大猩猩</t>
+  </si>
+  <si>
+    <t>baboon</t>
+  </si>
+  <si>
+    <t>狒狒</t>
+  </si>
+  <si>
+    <t>gorilla</t>
+  </si>
+  <si>
+    <t>lizard</t>
+  </si>
+  <si>
+    <t>蜥蜴</t>
+  </si>
+  <si>
+    <t>moth</t>
+  </si>
+  <si>
+    <t>蛾子</t>
+  </si>
+  <si>
+    <t>canary</t>
+  </si>
+  <si>
+    <t>金丝雀</t>
+  </si>
+  <si>
+    <t>caterpillar</t>
+  </si>
+  <si>
+    <t>毛毛虫</t>
   </si>
   <si>
     <t xml:space="preserve">Usage: 1. UnKnown words would be with Green Block. 
              2. Words with Yellow background would be the words not Familiar.
 </t>
+  </si>
+  <si>
+    <t>dinosaur</t>
+  </si>
+  <si>
+    <t>恐龙</t>
+  </si>
+  <si>
+    <t>chameleon</t>
+  </si>
+  <si>
+    <t>变色龙</t>
+  </si>
+  <si>
+    <t>larva</t>
+  </si>
+  <si>
+    <t>幼虫</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>家庭</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>属类</t>
+  </si>
+  <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>亚目</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>类目</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>类、属、种</t>
+  </si>
+  <si>
+    <t>antenna</t>
+  </si>
+  <si>
+    <t>触角</t>
+  </si>
+  <si>
+    <t>tentacle</t>
+  </si>
+  <si>
+    <t>触手</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>大脑</t>
+  </si>
+  <si>
+    <t>spleen</t>
+  </si>
+  <si>
+    <t>脾脏</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>躲藏</t>
+  </si>
+  <si>
+    <t>spine</t>
+  </si>
+  <si>
+    <t>脊椎</t>
+  </si>
+  <si>
+    <t>spineless</t>
+  </si>
+  <si>
+    <t>无脊椎</t>
+  </si>
+  <si>
+    <t>toe</t>
+  </si>
+  <si>
+    <t>脚趾</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>账单</t>
+  </si>
+  <si>
+    <t>beak</t>
+  </si>
+  <si>
+    <t>鸟嘴</t>
+  </si>
+  <si>
+    <t>fuzzy</t>
+  </si>
+  <si>
+    <t>有绒毛的</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>头部</t>
+  </si>
+  <si>
+    <t>hump</t>
+  </si>
+  <si>
+    <t>动物背部的隆肉</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>尺度、范围</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>翅膀</t>
+  </si>
+  <si>
+    <t>fluffy</t>
+  </si>
+  <si>
+    <t>蓬松的、毛茸茸的</t>
+  </si>
+  <si>
+    <t>carnal</t>
+  </si>
+  <si>
+    <t>肉体的、肉欲的</t>
+  </si>
+  <si>
+    <t>nervous</t>
+  </si>
+  <si>
+    <t>紧张的</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>肥胖的</t>
+  </si>
+  <si>
+    <t>grease</t>
+  </si>
+  <si>
+    <t>油脂</t>
+  </si>
+  <si>
+    <t>greasy</t>
+  </si>
+  <si>
+    <t>油腻</t>
+  </si>
+  <si>
+    <t>turtle</t>
+  </si>
+  <si>
+    <t>乌龟</t>
+  </si>
+  <si>
+    <t>beaver</t>
+  </si>
+  <si>
+    <t>海狸</t>
+  </si>
+  <si>
+    <t>jellyfish</t>
+  </si>
+  <si>
+    <t>水母、海蜇</t>
+  </si>
+  <si>
+    <t>starfish</t>
+  </si>
+  <si>
+    <t>海星</t>
+  </si>
+  <si>
+    <t>whale</t>
+  </si>
+  <si>
+    <t>鲸</t>
+  </si>
+  <si>
+    <t>porpoise</t>
+  </si>
+  <si>
+    <t>海豚</t>
+  </si>
+  <si>
+    <t>dolphine</t>
+  </si>
+  <si>
+    <t>prawn</t>
+  </si>
+  <si>
+    <t>对虾、明虾</t>
+  </si>
+  <si>
+    <t>shrimp</t>
+  </si>
+  <si>
+    <t>虾</t>
+  </si>
+  <si>
+    <t>lobster</t>
+  </si>
+  <si>
+    <t>龙虾</t>
+  </si>
+  <si>
+    <t>sponge</t>
+  </si>
+  <si>
+    <t>海绵</t>
+  </si>
+  <si>
+    <t>plankton</t>
+  </si>
+  <si>
+    <t>浮游生物</t>
+  </si>
+  <si>
+    <t>oyster</t>
+  </si>
+  <si>
+    <t>牡蛎</t>
+  </si>
+  <si>
+    <t>clam</t>
+  </si>
+  <si>
+    <t>蛤</t>
+  </si>
+  <si>
+    <t>coral</t>
+  </si>
+  <si>
+    <t>珊瑚</t>
+  </si>
+  <si>
+    <t>crab</t>
+  </si>
+  <si>
+    <t>螃蟹</t>
   </si>
 </sst>
 </file>
@@ -656,12 +1308,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,16 +1364,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Songti SC"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,6 +1383,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,15 +1427,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -773,19 +1442,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -797,8 +1486,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,43 +1511,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,7 +1545,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,25 +1623,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,145 +1719,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,21 +1804,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1179,6 +1824,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,13 +1867,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,9 +1893,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,152 +1906,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1403,6 +2063,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1437,7 +2100,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1455,11 +2118,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1780,13 +2467,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
   <cols>
     <col min="1" max="1" width="3.5078125" customWidth="1"/>
     <col min="2" max="2" width="18.7421875" style="2" customWidth="1"/>
@@ -1794,972 +2481,1847 @@
     <col min="4" max="4" width="3.515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.640625" style="1" customWidth="1"/>
-    <col min="7" max="19" width="9" style="1"/>
+    <col min="7" max="7" width="4.296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7890625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.6484375" style="4" customWidth="1"/>
+    <col min="10" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:6">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="G1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:9">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="15" t="s">
+      <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15" t="s">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:9">
+      <c r="A3" s="8"/>
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="15" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="I3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:9">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" ht="20" spans="1:6">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="G4" s="23"/>
+      <c r="H4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15" t="s">
+      <c r="I4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="15" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" ht="20" spans="1:6">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15" t="s">
+      <c r="F5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" ht="20" spans="1:6">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10" t="s">
+      <c r="I5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="10" t="s">
+    </row>
+    <row r="6" ht="20" spans="1:9">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" ht="20" spans="1:6">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15" t="s">
+      <c r="I6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="15" t="s">
+    </row>
+    <row r="7" ht="20" spans="1:9">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" ht="20" spans="1:6">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15" t="s">
+      <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" ht="20" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15" t="s">
+      <c r="I7" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="15" t="s">
+    </row>
+    <row r="8" ht="20" spans="1:9">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" ht="24" spans="1:6">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15" t="s">
+      <c r="F8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15" t="s">
+      <c r="I8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="15" t="s">
+    </row>
+    <row r="9" ht="20" spans="1:9">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" ht="20" spans="1:6">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10" t="s">
+      <c r="C9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15" t="s">
+      <c r="F9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" ht="20" spans="1:6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15" t="s">
+      <c r="I9" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="15" t="s">
+    </row>
+    <row r="10" ht="20" spans="1:9">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" ht="20" spans="1:6">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+      <c r="F10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="10" t="s">
+      <c r="I10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="10" t="s">
+    </row>
+    <row r="11" ht="20" spans="1:9">
+      <c r="A11" s="13"/>
+      <c r="B11" s="16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" ht="20" spans="1:6">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10" t="s">
+      <c r="C11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="15" t="s">
+      <c r="F11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="14"/>
-      <c r="B17" s="10" t="s">
+      <c r="I11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="10" t="s">
+    </row>
+    <row r="12" ht="24" spans="1:9">
+      <c r="A12" s="13"/>
+      <c r="B12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="10" t="s">
+      <c r="C12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10" t="s">
+      <c r="F12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="G12" s="23"/>
+      <c r="H12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="10" t="s">
+      <c r="I12" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="1:9">
+      <c r="A13" s="13"/>
+      <c r="B13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" ht="20" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="10" t="s">
+      <c r="F13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" ht="20" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
+      <c r="I13" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" ht="20" spans="1:9">
+      <c r="A14" s="13"/>
+      <c r="B14" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="15" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F14" s="27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10" t="s">
+      <c r="G14" s="23"/>
+      <c r="H14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="10" t="s">
+      <c r="I14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="10" t="s">
+    </row>
+    <row r="15" ht="20" spans="1:9">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" ht="20" spans="1:9">
+      <c r="A16" s="13"/>
+      <c r="B16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" ht="20" spans="1:9">
+      <c r="A17" s="15"/>
+      <c r="B17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" ht="20" spans="1:9">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" ht="20" spans="1:9">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13"/>
+      <c r="B21" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" ht="20" spans="1:6">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" ht="20" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="10" t="s">
+      <c r="G21" s="23"/>
+      <c r="H21" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" ht="20" spans="1:9">
+      <c r="A22" s="13"/>
+      <c r="B22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" ht="20" spans="1:9">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" ht="20" spans="1:9">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" ht="20" spans="1:9">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" ht="20" spans="1:9">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" ht="20" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="12"/>
-      <c r="B27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" ht="20" spans="1:6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" ht="20" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" ht="20" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" ht="20" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" ht="20" spans="1:6">
-      <c r="A32" s="12"/>
-      <c r="B32" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" ht="20" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" ht="20" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" ht="20" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" ht="20" spans="1:6">
-      <c r="A36" s="12"/>
-      <c r="B36" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="12"/>
-      <c r="B37" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" ht="20" spans="1:6">
-      <c r="A38" s="12"/>
-      <c r="B38" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="15" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F26" s="27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="39" ht="20" spans="1:6">
-      <c r="A39" s="12"/>
-      <c r="B39" s="10" t="s">
+      <c r="G26" s="25"/>
+      <c r="H26" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="I26" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="15" t="s">
+    </row>
+    <row r="27" ht="20" spans="1:9">
+      <c r="A27" s="13"/>
+      <c r="B27" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="12"/>
-      <c r="B40" s="10" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="F27" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="10" t="s">
+      <c r="G27" s="25"/>
+      <c r="H27" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="I27" s="26" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="41" ht="20" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15" t="s">
+    <row r="28" ht="20" spans="1:9">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="10" t="s">
+      <c r="D28" s="18"/>
+      <c r="E28" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F28" s="27" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="12"/>
-      <c r="B42" s="10" t="s">
+      <c r="G28" s="23"/>
+      <c r="H28" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="I28" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="10" t="s">
+    </row>
+    <row r="29" ht="20" spans="1:9">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="C29" s="16" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="43" ht="20" spans="1:6">
-      <c r="A43" s="12"/>
-      <c r="B43" s="15" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="F29" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="15" t="s">
+      <c r="G29" s="25"/>
+      <c r="H29" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="I29" s="26" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" ht="20" spans="1:6">
-      <c r="A44" s="12"/>
-      <c r="B44" s="10" t="s">
+    <row r="30" ht="20" spans="1:9">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="15" t="s">
+      <c r="C30" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="45" ht="20" spans="1:6">
-      <c r="A45" s="12"/>
-      <c r="B45" s="15" t="s">
+      <c r="F30" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="G30" s="23"/>
+      <c r="H30" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="10" t="s">
+      <c r="I30" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="10" t="s">
+    </row>
+    <row r="31" ht="20" spans="1:9">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="12"/>
-      <c r="B46" s="10" t="s">
+      <c r="C31" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="D31" s="18"/>
+      <c r="E31" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="10" t="s">
+      <c r="F31" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="12"/>
-      <c r="B47" s="10" t="s">
+      <c r="I31" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="10" t="s">
+    </row>
+    <row r="32" ht="20" spans="1:9">
+      <c r="A32" s="13"/>
+      <c r="B32" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="C32" s="16" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="12"/>
-      <c r="B48" s="10" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="F32" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="10" t="s">
+      <c r="G32" s="23"/>
+      <c r="H32" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="I32" s="24" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" ht="20" spans="1:4">
-      <c r="A49" s="12"/>
-      <c r="B49" s="15" t="s">
+    <row r="33" ht="20" spans="1:9">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="19"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="12"/>
-      <c r="B50" s="10" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="F33" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" ht="20" spans="1:4">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15" t="s">
+      <c r="G33" s="23"/>
+      <c r="H33" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="I33" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="12"/>
-      <c r="B52" s="10" t="s">
+    </row>
+    <row r="34" ht="20" spans="1:9">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C34" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="12"/>
-      <c r="B53" s="10" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="12"/>
-      <c r="B54" s="10" t="s">
+      <c r="F34" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="G34" s="23"/>
+      <c r="H34" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55" ht="20" spans="1:4">
-      <c r="A55" s="12"/>
-      <c r="B55" s="15" t="s">
+      <c r="I34" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="15" t="s">
+    </row>
+    <row r="35" ht="20" spans="1:9">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D55" s="19"/>
-    </row>
-    <row r="56" ht="20" spans="1:4">
-      <c r="A56" s="12"/>
-      <c r="B56" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D56" s="19"/>
-    </row>
-    <row r="57" ht="20" spans="1:4">
-      <c r="A57" s="12"/>
-      <c r="B57" s="15" t="s">
+      <c r="F35" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D57" s="19"/>
-    </row>
-    <row r="58" ht="20" spans="1:4">
-      <c r="A58" s="12"/>
-      <c r="B58" s="15" t="s">
+      <c r="G35" s="25"/>
+      <c r="H35" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="I35" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" ht="20" spans="1:4">
-      <c r="A59" s="12"/>
-      <c r="B59" s="15" t="s">
+    </row>
+    <row r="36" ht="20" spans="1:9">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C36" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D59" s="19"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="12"/>
-      <c r="B60" s="10" t="s">
+      <c r="D36" s="12"/>
+      <c r="E36" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="F36" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="68" ht="14" spans="1:4">
-      <c r="A68" s="21" t="s">
+      <c r="G36" s="25"/>
+      <c r="H36" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-    </row>
-    <row r="69" ht="14" spans="1:4">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-    </row>
-    <row r="70" ht="14" spans="1:4">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-    </row>
-    <row r="71" ht="14" spans="1:4">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-    </row>
-    <row r="72" ht="14" spans="1:4">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-    </row>
-    <row r="73" ht="14" spans="1:4">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-    </row>
-    <row r="74" ht="14" spans="1:4">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-    </row>
-    <row r="75" ht="14" spans="1:4">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-    </row>
-    <row r="76" ht="14" spans="1:4">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-    </row>
-    <row r="77" ht="14" spans="1:4">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-    </row>
-    <row r="78" ht="14" spans="1:4">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-    </row>
-    <row r="79" ht="14" spans="1:4">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="I36" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" ht="20" spans="1:9">
+      <c r="A38" s="13"/>
+      <c r="B38" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" ht="20" spans="1:9">
+      <c r="A39" s="13"/>
+      <c r="B39" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" ht="20" spans="1:9">
+      <c r="A40" s="13"/>
+      <c r="B40" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" ht="20" spans="1:9">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="13"/>
+      <c r="B42" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" ht="20" spans="1:9">
+      <c r="A43" s="13"/>
+      <c r="B43" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" ht="20" spans="1:9">
+      <c r="A44" s="13"/>
+      <c r="B44" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" ht="20" spans="1:9">
+      <c r="A45" s="13"/>
+      <c r="B45" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="13"/>
+      <c r="B46" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" ht="20" spans="1:9">
+      <c r="A47" s="13"/>
+      <c r="B47" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" ht="20" spans="1:9">
+      <c r="A48" s="13"/>
+      <c r="B48" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" ht="20" spans="1:9">
+      <c r="A49" s="13"/>
+      <c r="B49" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" ht="20" spans="1:9">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" ht="20" spans="1:9">
+      <c r="A52" s="13"/>
+      <c r="B52" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="13"/>
+      <c r="B53" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" ht="20" spans="1:9">
+      <c r="A54" s="13"/>
+      <c r="B54" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" ht="20" spans="1:9">
+      <c r="A55" s="13"/>
+      <c r="B55" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" ht="20" spans="1:9">
+      <c r="A56" s="13"/>
+      <c r="B56" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" ht="20" spans="1:9">
+      <c r="A57" s="13"/>
+      <c r="B57" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" ht="20" spans="1:9">
+      <c r="A58" s="13"/>
+      <c r="B58" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" ht="20" spans="1:9">
+      <c r="A59" s="13"/>
+      <c r="B59" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="60" ht="20" spans="1:9">
+      <c r="A60" s="13"/>
+      <c r="B60" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" ht="20" spans="7:9">
+      <c r="G61" s="25"/>
+      <c r="H61" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" ht="20" spans="7:9">
+      <c r="G62" s="25"/>
+      <c r="H62" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9">
+      <c r="G63" s="23"/>
+      <c r="H63" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" ht="20" spans="7:9">
+      <c r="G64" s="23"/>
+      <c r="H64" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="I64" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9">
+      <c r="G65" s="23"/>
+      <c r="H65" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="I65" s="24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" ht="20" spans="7:9">
+      <c r="G66" s="25"/>
+      <c r="H66" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" ht="20" spans="7:9">
+      <c r="G67" s="25"/>
+      <c r="H67" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" ht="20" spans="1:9">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" ht="20" spans="1:9">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" ht="20" spans="1:9">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" ht="20" spans="1:9">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="I77" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" ht="20" spans="1:9">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" ht="20" spans="7:9">
+      <c r="G80" s="25"/>
+      <c r="H80" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9">
+      <c r="G81" s="23"/>
+      <c r="H81" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" ht="20" spans="7:9">
+      <c r="G82" s="25"/>
+      <c r="H82" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="I82" s="26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="83" ht="20" spans="7:9">
+      <c r="G83" s="25"/>
+      <c r="H83" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9">
+      <c r="G84" s="23"/>
+      <c r="H84" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9">
+      <c r="G85" s="23"/>
+      <c r="H85" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" ht="20" spans="7:9">
+      <c r="G86" s="25"/>
+      <c r="H86" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" ht="20" spans="7:9">
+      <c r="G87" s="25"/>
+      <c r="H87" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="I87" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9">
+      <c r="G88" s="23"/>
+      <c r="H88" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="89" ht="20" spans="7:9">
+      <c r="G89" s="25"/>
+      <c r="H89" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="I89" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9">
+      <c r="G90" s="23"/>
+      <c r="H90" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9">
+      <c r="G91" s="23"/>
+      <c r="H91" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="92" ht="20" spans="7:9">
+      <c r="G92" s="25"/>
+      <c r="H92" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="I92" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9">
+      <c r="G93" s="23"/>
+      <c r="H93" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="I93" s="31" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="94" spans="7:9">
+      <c r="G94" s="23"/>
+      <c r="H94" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="I94" s="24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9">
+      <c r="G95" s="23"/>
+      <c r="H95" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="96" ht="20" spans="7:9">
+      <c r="G96" s="25"/>
+      <c r="H96" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" ht="20" spans="7:9">
+      <c r="G97" s="25"/>
+      <c r="H97" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9">
+      <c r="G98" s="23"/>
+      <c r="H98" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="I98" s="24" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" ht="20" spans="7:9">
+      <c r="G99" s="23"/>
+      <c r="H99" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="I99" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="100" ht="20" spans="7:9">
+      <c r="G100" s="25"/>
+      <c r="H100" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="I100" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9">
+      <c r="G101" s="23"/>
+      <c r="H101" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="I101" s="24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9">
+      <c r="G102" s="23"/>
+      <c r="H102" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="I102" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="103" ht="20" spans="7:9">
+      <c r="G103" s="25"/>
+      <c r="H103" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="I103" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9">
+      <c r="G104" s="23"/>
+      <c r="H104" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="I104" s="24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105" ht="20" spans="7:9">
+      <c r="G105" s="25"/>
+      <c r="H105" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="I105" s="26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9">
+      <c r="G106" s="23"/>
+      <c r="H106" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="I106" s="24" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9">
+      <c r="G107" s="23"/>
+      <c r="H107" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="I107" s="24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="108" ht="20" spans="7:9">
+      <c r="G108" s="25"/>
+      <c r="H108" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="I108" s="26" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" ht="20" spans="7:9">
+      <c r="G109" s="25"/>
+      <c r="H109" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="I109" s="26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="110" spans="7:9">
+      <c r="G110" s="23"/>
+      <c r="H110" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="I110" s="24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="111" ht="20" spans="7:9">
+      <c r="G111" s="25"/>
+      <c r="H111" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="I111" s="26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="112" ht="20" spans="7:9">
+      <c r="G112" s="25"/>
+      <c r="H112" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="I112" s="26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9">
+      <c r="G113" s="23"/>
+      <c r="H113" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="I113" s="24" t="s">
+        <v>423</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A68:D70"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A68:D71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748">
   <si>
     <t>地理</t>
   </si>
@@ -28,6 +28,9 @@
     <t>法律</t>
   </si>
   <si>
+    <t>化学</t>
+  </si>
+  <si>
     <t>insular</t>
   </si>
   <si>
@@ -52,6 +55,12 @@
     <t>刑罚的</t>
   </si>
   <si>
+    <t>hackneyed</t>
+  </si>
+  <si>
+    <t>陈腐的</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -76,6 +85,12 @@
     <t>非法的</t>
   </si>
   <si>
+    <t>caustic</t>
+  </si>
+  <si>
+    <t>腐蚀性的</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -100,6 +115,12 @@
     <t>不规矩的</t>
   </si>
   <si>
+    <t>erosion</t>
+  </si>
+  <si>
+    <t>腐蚀、侵蚀</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -124,6 +145,9 @@
     <t>非法的、法律不容的</t>
   </si>
   <si>
+    <t>erode</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -148,6 +172,12 @@
     <t>违约的</t>
   </si>
   <si>
+    <t>stale</t>
+  </si>
+  <si>
+    <t>陈旧的</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -172,6 +202,12 @@
     <t>违反</t>
   </si>
   <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>腐烂</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
@@ -193,6 +229,12 @@
     <t>violation</t>
   </si>
   <si>
+    <t>rotten</t>
+  </si>
+  <si>
+    <t>腐烂的、堕落的</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -217,6 +259,12 @@
     <t>侵犯</t>
   </si>
   <si>
+    <t>decay</t>
+  </si>
+  <si>
+    <t>腐烂、腐朽</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -241,6 +289,9 @@
     <t>被捆绑的</t>
   </si>
   <si>
+    <t>corrode</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -263,6 +314,12 @@
   </si>
   <si>
     <t>强制性的</t>
+  </si>
+  <si>
+    <t>decomposition</t>
+  </si>
+  <si>
+    <t>分解、腐烂</t>
   </si>
   <si>
     <t>ebb</t>
@@ -307,6 +364,12 @@
     <t>强制</t>
   </si>
   <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>生锈</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -328,6 +391,12 @@
     <t>必要的、必须的</t>
   </si>
   <si>
+    <t>silica</t>
+  </si>
+  <si>
+    <t>硅石</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -376,6 +445,12 @@
     <t>刚彬自用、喜欢支配别人的</t>
   </si>
   <si>
+    <t>crystal</t>
+  </si>
+  <si>
+    <t>晶体</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -397,6 +472,12 @@
     <t>mandatory</t>
   </si>
   <si>
+    <t>gasline</t>
+  </si>
+  <si>
+    <t>汽油</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
@@ -421,6 +502,12 @@
     <t>得到许可的</t>
   </si>
   <si>
+    <t>methane</t>
+  </si>
+  <si>
+    <t>甲烷、沼气</t>
+  </si>
+  <si>
     <t>cosmopolitan</t>
   </si>
   <si>
@@ -442,6 +529,12 @@
     <t>继承权</t>
   </si>
   <si>
+    <t>hydrocarbon</t>
+  </si>
+  <si>
+    <t>碳氢化合物</t>
+  </si>
+  <si>
     <t>subterrane</t>
   </si>
   <si>
@@ -466,6 +559,12 @@
     <t>司法权</t>
   </si>
   <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>石油</t>
+  </si>
+  <si>
     <t>subterranean</t>
   </si>
   <si>
@@ -490,6 +589,12 @@
     <t>仲裁</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>塑料</t>
+  </si>
+  <si>
     <t>cavern</t>
   </si>
   <si>
@@ -508,6 +613,12 @@
     <t>罚款</t>
   </si>
   <si>
+    <t>intermediary</t>
+  </si>
+  <si>
+    <t>中间、媒介</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
@@ -532,6 +643,12 @@
     <t>没收</t>
   </si>
   <si>
+    <t>catalysis</t>
+  </si>
+  <si>
+    <t>催化作用</t>
+  </si>
+  <si>
     <t>cleft</t>
   </si>
   <si>
@@ -556,6 +673,12 @@
     <t>囚犯</t>
   </si>
   <si>
+    <t>catalyst</t>
+  </si>
+  <si>
+    <t>催化剂</t>
+  </si>
+  <si>
     <t>crevice</t>
   </si>
   <si>
@@ -574,6 +697,12 @@
     <t>verdict</t>
   </si>
   <si>
+    <t>adhesive</t>
+  </si>
+  <si>
+    <t>粘合剂</t>
+  </si>
+  <si>
     <t>gap</t>
   </si>
   <si>
@@ -598,6 +727,12 @@
     <t>审判</t>
   </si>
   <si>
+    <t>scorch</t>
+  </si>
+  <si>
+    <t>烧焦</t>
+  </si>
+  <si>
     <t>zone</t>
   </si>
   <si>
@@ -619,6 +754,12 @@
     <t>赔偿</t>
   </si>
   <si>
+    <t>bleach</t>
+  </si>
+  <si>
+    <t>漂白</t>
+  </si>
+  <si>
     <t>equator</t>
   </si>
   <si>
@@ -643,6 +784,12 @@
     <t>关押、监禁</t>
   </si>
   <si>
+    <t>tint</t>
+  </si>
+  <si>
+    <t>色彩、染色</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
@@ -667,6 +814,12 @@
     <t>使无效、使作废</t>
   </si>
   <si>
+    <t>dye</t>
+  </si>
+  <si>
+    <t>染料</t>
+  </si>
+  <si>
     <t>altitude</t>
   </si>
   <si>
@@ -691,6 +844,9 @@
     <t>囚禁</t>
   </si>
   <si>
+    <t>chemistry</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -715,6 +871,12 @@
     <t>试验</t>
   </si>
   <si>
+    <t>biochemistry</t>
+  </si>
+  <si>
+    <t>生物化学</t>
+  </si>
+  <si>
     <t>meridian</t>
   </si>
   <si>
@@ -736,6 +898,12 @@
     <t>扣押</t>
   </si>
   <si>
+    <t>hydroid</t>
+  </si>
+  <si>
+    <t>水螅虫</t>
+  </si>
+  <si>
     <t>subsidiary</t>
   </si>
   <si>
@@ -760,6 +928,12 @@
     <t>减轻</t>
   </si>
   <si>
+    <t>alchemy</t>
+  </si>
+  <si>
+    <t>点金术、魔力</t>
+  </si>
+  <si>
     <t>Antarctic</t>
   </si>
   <si>
@@ -784,6 +958,12 @@
     <t>承受、负担</t>
   </si>
   <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>人工的</t>
+  </si>
+  <si>
     <t>Antarctica</t>
   </si>
   <si>
@@ -808,6 +988,12 @@
     <t>法院</t>
   </si>
   <si>
+    <t>ion</t>
+  </si>
+  <si>
+    <t>离子</t>
+  </si>
+  <si>
     <t>Arctic</t>
   </si>
   <si>
@@ -832,6 +1018,12 @@
     <t>禁止</t>
   </si>
   <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>分子</t>
+  </si>
+  <si>
     <t>coastland</t>
   </si>
   <si>
@@ -856,6 +1048,12 @@
     <t>授权</t>
   </si>
   <si>
+    <t>solubility</t>
+  </si>
+  <si>
+    <t>可溶性的</t>
+  </si>
+  <si>
     <t>hemisphere</t>
   </si>
   <si>
@@ -877,6 +1075,12 @@
     <t>empower</t>
   </si>
   <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>溶液</t>
+  </si>
+  <si>
     <t>contour</t>
   </si>
   <si>
@@ -901,6 +1105,12 @@
     <t>请求</t>
   </si>
   <si>
+    <t>solvent</t>
+  </si>
+  <si>
+    <t>有溶解能力的</t>
+  </si>
+  <si>
     <t>geography</t>
   </si>
   <si>
@@ -925,6 +1135,12 @@
     <t>誓言</t>
   </si>
   <si>
+    <t>dissolve</t>
+  </si>
+  <si>
+    <t>溶解</t>
+  </si>
+  <si>
     <t>horizon</t>
   </si>
   <si>
@@ -949,6 +1165,12 @@
     <t>誓言、保证</t>
   </si>
   <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>元素</t>
+  </si>
+  <si>
     <t>lowland</t>
   </si>
   <si>
@@ -973,6 +1195,12 @@
     <t>原告</t>
   </si>
   <si>
+    <t>impurity</t>
+  </si>
+  <si>
+    <t>不纯净的</t>
+  </si>
+  <si>
     <t>plain</t>
   </si>
   <si>
@@ -997,6 +1225,12 @@
     <t>请求、恳求</t>
   </si>
   <si>
+    <t>blend</t>
+  </si>
+  <si>
+    <t>混合</t>
+  </si>
+  <si>
     <t>strait</t>
   </si>
   <si>
@@ -1021,6 +1255,12 @@
     <t>逃跑</t>
   </si>
   <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>混合物</t>
+  </si>
+  <si>
     <t>channel</t>
   </si>
   <si>
@@ -1042,6 +1282,12 @@
     <t>辩护、防护</t>
   </si>
   <si>
+    <t>substance</t>
+  </si>
+  <si>
+    <t>物质</t>
+  </si>
+  <si>
     <t>valley</t>
   </si>
   <si>
@@ -1066,6 +1312,12 @@
     <t>正式宣布...有危害或被禁止</t>
   </si>
   <si>
+    <t>particle</t>
+  </si>
+  <si>
+    <t>粒子</t>
+  </si>
+  <si>
     <t>volcano</t>
   </si>
   <si>
@@ -1084,6 +1336,12 @@
     <t>forbid</t>
   </si>
   <si>
+    <t>explosive</t>
+  </si>
+  <si>
+    <t>爆炸性的</t>
+  </si>
+  <si>
     <t>plateau</t>
   </si>
   <si>
@@ -1105,6 +1363,12 @@
     <t>节制、禁欲</t>
   </si>
   <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
     <t>basin</t>
   </si>
   <si>
@@ -1129,6 +1393,9 @@
     <t>自制、避免</t>
   </si>
   <si>
+    <t>explode</t>
+  </si>
+  <si>
     <t>navigation</t>
   </si>
   <si>
@@ -1144,6 +1411,12 @@
     <t>ban</t>
   </si>
   <si>
+    <t>burning</t>
+  </si>
+  <si>
+    <t>燃烧</t>
+  </si>
+  <si>
     <t>ranges</t>
   </si>
   <si>
@@ -1159,6 +1432,12 @@
     <t>否决、禁止</t>
   </si>
   <si>
+    <t>kindle</t>
+  </si>
+  <si>
+    <t>点燃</t>
+  </si>
+  <si>
     <t>salinity</t>
   </si>
   <si>
@@ -1177,6 +1456,12 @@
     <t>修订</t>
   </si>
   <si>
+    <t>sear</t>
+  </si>
+  <si>
+    <t>枯萎、烧焦</t>
+  </si>
+  <si>
     <t>sediment</t>
   </si>
   <si>
@@ -1195,6 +1480,9 @@
     <t>证明</t>
   </si>
   <si>
+    <t>ignite</t>
+  </si>
+  <si>
     <t>elevation</t>
   </si>
   <si>
@@ -1210,6 +1498,12 @@
     <t>应得、值得</t>
   </si>
   <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>行为</t>
+  </si>
+  <si>
     <t>formation</t>
   </si>
   <si>
@@ -1228,6 +1522,9 @@
     <t>规定、约定</t>
   </si>
   <si>
+    <t>combination</t>
+  </si>
+  <si>
     <t>geothermy</t>
   </si>
   <si>
@@ -1243,6 +1540,12 @@
     <t>testify</t>
   </si>
   <si>
+    <t>neutralize</t>
+  </si>
+  <si>
+    <t>使中性</t>
+  </si>
+  <si>
     <t>terrain</t>
   </si>
   <si>
@@ -1261,6 +1564,12 @@
     <t>证实、证明</t>
   </si>
   <si>
+    <t>polymerization</t>
+  </si>
+  <si>
+    <t>聚合</t>
+  </si>
+  <si>
     <t>topography</t>
   </si>
   <si>
@@ -1276,6 +1585,12 @@
     <t>确定</t>
   </si>
   <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>作用的</t>
+  </si>
+  <si>
     <t>tropical</t>
   </si>
   <si>
@@ -1294,6 +1609,12 @@
     <t>肯定、证实</t>
   </si>
   <si>
+    <t>synthetic</t>
+  </si>
+  <si>
+    <t>合成的</t>
+  </si>
+  <si>
     <t>tropics</t>
   </si>
   <si>
@@ -1312,6 +1633,12 @@
     <t>保证、确信</t>
   </si>
   <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>碳</t>
+  </si>
+  <si>
     <t>temperate</t>
   </si>
   <si>
@@ -1330,6 +1657,12 @@
     <t>证据</t>
   </si>
   <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
     <t>chimpanzee</t>
   </si>
   <si>
@@ -1342,6 +1675,9 @@
     <t>遵从</t>
   </si>
   <si>
+    <t>石墨</t>
+  </si>
+  <si>
     <t>baboon</t>
   </si>
   <si>
@@ -1354,6 +1690,12 @@
     <t>遵守、遵从</t>
   </si>
   <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>水星、水银</t>
+  </si>
+  <si>
     <t>gorilla</t>
   </si>
   <si>
@@ -1363,6 +1705,12 @@
     <t>遵守</t>
   </si>
   <si>
+    <t>nickel</t>
+  </si>
+  <si>
+    <t>镍</t>
+  </si>
+  <si>
     <t>lizard</t>
   </si>
   <si>
@@ -1375,6 +1723,12 @@
     <t>容忍</t>
   </si>
   <si>
+    <t>platinum</t>
+  </si>
+  <si>
+    <t>铂金</t>
+  </si>
+  <si>
     <t>moth</t>
   </si>
   <si>
@@ -1387,6 +1741,12 @@
     <t>指责</t>
   </si>
   <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>银</t>
+  </si>
+  <si>
     <t>canary</t>
   </si>
   <si>
@@ -1399,6 +1759,12 @@
     <t>指控</t>
   </si>
   <si>
+    <t>sodium</t>
+  </si>
+  <si>
+    <t>钠</t>
+  </si>
+  <si>
     <t>caterpillar</t>
   </si>
   <si>
@@ -1409,6 +1775,12 @@
   </si>
   <si>
     <t>抱怨</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>锡</t>
   </si>
   <si>
     <t xml:space="preserve">Usage: 1. UnKnown words would be with Green Block. 
@@ -1428,6 +1800,12 @@
     <t>控告某人犯罪</t>
   </si>
   <si>
+    <t>zinc</t>
+  </si>
+  <si>
+    <t>锌</t>
+  </si>
+  <si>
     <t>chameleon</t>
   </si>
   <si>
@@ -1440,6 +1818,12 @@
     <t>指控、控告</t>
   </si>
   <si>
+    <t>calcium</t>
+  </si>
+  <si>
+    <t>钙</t>
+  </si>
+  <si>
     <t>larva</t>
   </si>
   <si>
@@ -1452,6 +1836,12 @@
     <t>归罪于</t>
   </si>
   <si>
+    <t>helium</t>
+  </si>
+  <si>
+    <t>氦</t>
+  </si>
+  <si>
     <t>bat</t>
   </si>
   <si>
@@ -1464,6 +1854,12 @@
     <t>控告</t>
   </si>
   <si>
+    <t>silicon</t>
+  </si>
+  <si>
+    <t>硅</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -1476,6 +1872,12 @@
     <t>谴责</t>
   </si>
   <si>
+    <t>ammonia</t>
+  </si>
+  <si>
+    <t>氨</t>
+  </si>
+  <si>
     <t>class</t>
   </si>
   <si>
@@ -1488,6 +1890,12 @@
     <t>诉讼</t>
   </si>
   <si>
+    <t>sulfur</t>
+  </si>
+  <si>
+    <t>硫磺</t>
+  </si>
+  <si>
     <t>suborder</t>
   </si>
   <si>
@@ -1500,6 +1908,12 @@
     <t>质疑</t>
   </si>
   <si>
+    <t>iodine</t>
+  </si>
+  <si>
+    <t>碘</t>
+  </si>
+  <si>
     <t>order</t>
   </si>
   <si>
@@ -1512,6 +1926,12 @@
     <t>询问、质问、审问</t>
   </si>
   <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>氮</t>
+  </si>
+  <si>
     <t>genus</t>
   </si>
   <si>
@@ -1522,6 +1942,12 @@
   </si>
   <si>
     <t>不受惩罚</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>氧</t>
   </si>
   <si>
     <t>antenna</t>
@@ -1863,9 +2289,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1934,8 +2360,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1948,9 +2383,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1958,14 +2392,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1981,14 +2407,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2003,45 +2444,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2064,7 +2467,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2099,31 +2525,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2135,13 +2609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2153,31 +2621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2195,7 +2645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2207,19 +2663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2231,31 +2681,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2267,25 +2705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2296,21 +2722,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2334,6 +2745,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2364,11 +2790,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2382,17 +2814,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2401,142 +2827,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2546,7 +2972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2592,15 +3018,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2610,34 +3027,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2965,10 +3382,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22:L22"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
@@ -2985,10 +3402,13 @@
     <col min="10" max="10" width="4.5546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.09375" style="1" customWidth="1"/>
     <col min="12" max="12" width="41.40625" style="1" customWidth="1"/>
-    <col min="13" max="19" width="9" style="1"/>
+    <col min="13" max="13" width="5.8515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.0859375" style="1" customWidth="1"/>
+    <col min="16" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:12">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2999,2745 +3419,3278 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:12">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:15">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="G2" s="15"/>
       <c r="H2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:12">
+      <c r="L2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:15">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="22"/>
+        <v>18</v>
+      </c>
+      <c r="G3" s="18"/>
       <c r="H3" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:15">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" ht="20" spans="1:12">
+    </row>
+    <row r="6" ht="20" spans="1:15">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" ht="20" spans="1:12">
+        <v>49</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" ht="20" spans="1:15">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" ht="20" spans="1:12">
+        <v>59</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" ht="20" spans="1:15">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" ht="20" spans="1:12">
+        <v>69</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" ht="20" spans="1:15">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" ht="20" spans="1:12">
+        <v>78</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" ht="20" spans="1:15">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="22"/>
+        <v>86</v>
+      </c>
+      <c r="G10" s="18"/>
       <c r="H10" s="5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" ht="20" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="20" spans="1:15">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="22"/>
+        <v>93</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="18"/>
       <c r="H11" s="5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="1:12">
+        <v>97</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:15">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="21"/>
+        <v>104</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" ht="20" spans="1:12">
+        <v>59</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="1:15">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="21"/>
+        <v>114</v>
+      </c>
+      <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" ht="20" spans="1:12">
-      <c r="A14" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" ht="20" spans="1:15">
+      <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="21"/>
+      <c r="E14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="15"/>
       <c r="H14" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" ht="20" spans="1:12">
+        <v>125</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" ht="20" spans="1:15">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="22"/>
+        <v>131</v>
+      </c>
+      <c r="G15" s="18"/>
       <c r="H15" s="5" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" ht="20" spans="1:12">
+        <v>133</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" ht="20" spans="1:15">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="21"/>
+        <v>141</v>
+      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" ht="20" spans="1:12">
+        <v>143</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" ht="20" spans="1:15">
       <c r="A17" s="11"/>
-      <c r="B17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>121</v>
+      <c r="B17" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="22"/>
+        <v>150</v>
+      </c>
+      <c r="G17" s="18"/>
       <c r="H17" s="5" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>152</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" ht="20" spans="1:15">
       <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="21"/>
+        <v>150</v>
+      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" ht="20" spans="1:12">
+        <v>161</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" ht="20" spans="1:15">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="21"/>
+        <v>169</v>
+      </c>
+      <c r="G19" s="15"/>
       <c r="H19" s="7" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" ht="20" spans="1:12">
+        <v>171</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" ht="20" spans="1:15">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="5" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="21"/>
+        <v>179</v>
+      </c>
+      <c r="G20" s="15"/>
       <c r="H20" s="5" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>181</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" ht="20" spans="1:15">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="7" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="L21" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" ht="20" spans="1:12">
+        <v>189</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" ht="20" spans="1:15">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="21"/>
+        <v>197</v>
+      </c>
+      <c r="G22" s="15"/>
       <c r="H22" s="7" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" ht="20" spans="1:12">
+        <v>199</v>
+      </c>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" ht="20" spans="1:15">
       <c r="A23" s="11"/>
       <c r="B23" s="5" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="22"/>
+        <v>207</v>
+      </c>
+      <c r="G23" s="18"/>
       <c r="H23" s="5" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" ht="20" spans="1:12">
+        <v>209</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" s="25"/>
+      <c r="N23" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" ht="20" spans="1:15">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="22"/>
+        <v>216</v>
+      </c>
+      <c r="G24" s="18"/>
       <c r="H24" s="5" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" ht="20" spans="1:12">
+        <v>218</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" ht="20" spans="1:15">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="22"/>
+        <v>225</v>
+      </c>
+      <c r="G25" s="18"/>
       <c r="H25" s="5" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" ht="20" spans="1:12">
+        <v>227</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" ht="20" spans="1:15">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="22"/>
+        <v>234</v>
+      </c>
+      <c r="G26" s="18"/>
       <c r="H26" s="5" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" ht="20" spans="1:12">
+        <v>236</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" ht="20" spans="1:15">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" s="22"/>
+        <v>244</v>
+      </c>
+      <c r="G27" s="18"/>
       <c r="H27" s="5" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" ht="20" spans="1:12">
+        <v>246</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" ht="20" spans="1:15">
       <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" s="21"/>
+        <v>254</v>
+      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="7" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" ht="20" spans="1:12">
+        <v>256</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" ht="20" spans="1:15">
       <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="5" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G29" s="22"/>
+        <v>264</v>
+      </c>
+      <c r="G29" s="18"/>
       <c r="H29" s="5" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="L29" s="28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" ht="20" spans="1:12">
+        <v>266</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="20" spans="1:15">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G30" s="21"/>
+        <v>273</v>
+      </c>
+      <c r="G30" s="15"/>
       <c r="H30" s="7" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="L30" s="26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" ht="20" spans="1:12">
+        <v>275</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="O30" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31" ht="20" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31" s="13"/>
+        <v>281</v>
+      </c>
+      <c r="D31" s="12"/>
       <c r="E31" s="5" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="22"/>
+        <v>273</v>
+      </c>
+      <c r="G31" s="18"/>
       <c r="H31" s="5" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="L31" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" ht="20" spans="1:12">
+        <v>284</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="M31" s="25"/>
+      <c r="N31" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" ht="20" spans="1:15">
       <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D32" s="13"/>
+        <v>290</v>
+      </c>
+      <c r="D32" s="12"/>
       <c r="E32" s="5" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G32" s="21"/>
+        <v>292</v>
+      </c>
+      <c r="G32" s="15"/>
       <c r="H32" s="7" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="L32" s="30" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" ht="20" spans="1:12">
+        <v>294</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" ht="20" spans="1:15">
       <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="5" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="G33" s="21"/>
+        <v>302</v>
+      </c>
+      <c r="G33" s="15"/>
       <c r="H33" s="7" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="L33" s="28" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" ht="20" spans="1:12">
+        <v>304</v>
+      </c>
+      <c r="J33" s="21"/>
+      <c r="K33" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" ht="20" spans="1:15">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G34" s="21"/>
+        <v>312</v>
+      </c>
+      <c r="G34" s="15"/>
       <c r="H34" s="7" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="L34" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" ht="20" spans="1:12">
+        <v>314</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" ht="20" spans="1:15">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>257</v>
+        <v>319</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G35" s="22"/>
+        <v>322</v>
+      </c>
+      <c r="G35" s="18"/>
       <c r="H35" s="5" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="L35" s="28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" ht="20" spans="1:12">
+        <v>324</v>
+      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" ht="20" spans="1:15">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G36" s="22"/>
+        <v>332</v>
+      </c>
+      <c r="G36" s="18"/>
       <c r="H36" s="5" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K36" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="L36" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>334</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M36" s="25"/>
+      <c r="N36" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="O36" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="7" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G37" s="21"/>
+        <v>342</v>
+      </c>
+      <c r="G37" s="15"/>
       <c r="H37" s="7" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K37" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="L37" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" ht="20" spans="1:12">
+        <v>344</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" ht="20" spans="1:15">
       <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>282</v>
+        <v>350</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G38" s="21"/>
+        <v>351</v>
+      </c>
+      <c r="G38" s="15"/>
       <c r="H38" s="7" t="s">
-        <v>284</v>
+        <v>352</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="L38" s="26" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="39" ht="20" spans="1:12">
+        <v>353</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" ht="20" spans="1:15">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G39" s="22"/>
+        <v>361</v>
+      </c>
+      <c r="G39" s="18"/>
       <c r="H39" s="5" t="s">
-        <v>292</v>
+        <v>362</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K39" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="L39" s="28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" ht="20" spans="1:12">
+        <v>363</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="M39" s="25"/>
+      <c r="N39" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" ht="20" spans="1:15">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
-        <v>296</v>
+        <v>368</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>297</v>
+        <v>369</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="7" t="s">
-        <v>298</v>
+        <v>370</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G40" s="22"/>
+        <v>371</v>
+      </c>
+      <c r="G40" s="18"/>
       <c r="H40" s="5" t="s">
-        <v>300</v>
+        <v>372</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="K40" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="L40" s="28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="41" ht="20" spans="1:12">
+        <v>373</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" ht="20" spans="1:15">
       <c r="A41" s="11"/>
       <c r="B41" s="5" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>305</v>
+        <v>379</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="7" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G41" s="21"/>
+        <v>381</v>
+      </c>
+      <c r="G41" s="15"/>
       <c r="H41" s="7" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="J41" s="27"/>
-      <c r="K41" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="L41" s="28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>383</v>
+      </c>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="M41" s="25"/>
+      <c r="N41" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="O41" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G42" s="21"/>
+        <v>391</v>
+      </c>
+      <c r="G42" s="15"/>
       <c r="H42" s="7" t="s">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K42" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="L42" s="26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" ht="20" spans="1:12">
+        <v>393</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" ht="20" spans="1:15">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="5" t="s">
-        <v>322</v>
+        <v>400</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="G43" s="21"/>
+        <v>401</v>
+      </c>
+      <c r="G43" s="15"/>
       <c r="H43" s="7" t="s">
-        <v>324</v>
+        <v>402</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K43" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="L43" s="26" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="44" ht="20" spans="1:12">
+        <v>403</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" ht="20" spans="1:15">
       <c r="A44" s="9"/>
       <c r="B44" s="7" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="G44" s="21"/>
+        <v>410</v>
+      </c>
+      <c r="G44" s="15"/>
       <c r="H44" s="7" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="J44" s="27"/>
-      <c r="K44" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="L44" s="28" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="45" ht="20" spans="1:12">
+        <v>412</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45" ht="20" spans="1:15">
       <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
-        <v>335</v>
+        <v>417</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G45" s="21"/>
+        <v>420</v>
+      </c>
+      <c r="G45" s="15"/>
       <c r="H45" s="7" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="J45" s="27"/>
-      <c r="K45" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="L45" s="28" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>422</v>
+      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="L45" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="M45" s="27"/>
+      <c r="N45" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="7" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G46" s="21"/>
+        <v>420</v>
+      </c>
+      <c r="G46" s="15"/>
       <c r="H46" s="7" t="s">
-        <v>346</v>
+        <v>430</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K46" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="L46" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" ht="20" spans="1:12">
+        <v>431</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="47" ht="20" spans="1:15">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="7" t="s">
-        <v>350</v>
+        <v>436</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G47" s="22"/>
+        <v>437</v>
+      </c>
+      <c r="G47" s="18"/>
       <c r="H47" s="5" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="J47" s="27"/>
-      <c r="K47" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="L47" s="28" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="48" ht="20" spans="1:12">
+        <v>439</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="O47" s="27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="48" ht="20" spans="1:15">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>357</v>
+        <v>445</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="7" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G48" s="22"/>
+        <v>447</v>
+      </c>
+      <c r="G48" s="18"/>
       <c r="H48" s="5" t="s">
-        <v>360</v>
+        <v>448</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="J48" s="27"/>
-      <c r="K48" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="L48" s="28" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="49" ht="20" spans="1:12">
+        <v>449</v>
+      </c>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="O48" s="27" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" ht="20" spans="1:15">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
-        <v>364</v>
+        <v>453</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="21"/>
+        <v>454</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="7" t="s">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K49" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="L49" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>456</v>
+      </c>
+      <c r="K49" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="50" ht="20" spans="1:15">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>369</v>
+        <v>460</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="21"/>
+        <v>461</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="7" t="s">
-        <v>371</v>
+        <v>462</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K50" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="L50" s="26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="51" ht="20" spans="1:12">
+        <v>431</v>
+      </c>
+      <c r="J50" s="21"/>
+      <c r="K50" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="L50" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="O50" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" ht="20" spans="1:15">
       <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
-        <v>374</v>
+        <v>467</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="22"/>
+        <v>468</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="18"/>
       <c r="H51" s="5" t="s">
-        <v>376</v>
+        <v>469</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="K51" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="L51" s="26" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="52" ht="20" spans="1:12">
+        <v>470</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="O51" s="26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="52" ht="20" spans="1:15">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>380</v>
+        <v>475</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="22"/>
+        <v>476</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="18"/>
       <c r="H52" s="5" t="s">
-        <v>382</v>
+        <v>477</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="K52" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="L52" s="26" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>478</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="O52" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="21"/>
+        <v>262</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="7" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="K53" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="L53" s="26" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="54" ht="20" spans="1:12">
+        <v>484</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="O53" s="27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="54" ht="20" spans="1:15">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
-        <v>391</v>
+        <v>489</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="22"/>
+        <v>490</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="18"/>
       <c r="H54" s="5" t="s">
-        <v>393</v>
+        <v>491</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="J54" s="27"/>
-      <c r="K54" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="L54" s="28" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="55" ht="20" spans="1:12">
+        <v>492</v>
+      </c>
+      <c r="J54" s="21"/>
+      <c r="K54" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="L54" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="O54" s="27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55" ht="20" spans="1:15">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
-        <v>397</v>
+        <v>496</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="22"/>
+        <v>497</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="18"/>
       <c r="H55" s="5" t="s">
-        <v>399</v>
+        <v>498</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="K55" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="L55" s="26" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="56" ht="20" spans="1:12">
+        <v>499</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="O55" s="27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="56" ht="20" spans="1:15">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
-        <v>402</v>
+        <v>503</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="22"/>
+        <v>504</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="18"/>
       <c r="H56" s="5" t="s">
-        <v>404</v>
+        <v>505</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K56" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="L56" s="26" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="57" ht="20" spans="1:12">
+        <v>506</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="M56" s="25"/>
+      <c r="N56" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="O56" s="26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="57" ht="20" spans="1:15">
       <c r="A57" s="9"/>
       <c r="B57" s="5" t="s">
-        <v>408</v>
+        <v>511</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="22"/>
+        <v>504</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="18"/>
       <c r="H57" s="5" t="s">
-        <v>409</v>
+        <v>512</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="K57" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="L57" s="26" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="58" ht="20" spans="1:12">
+        <v>513</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="O57" s="27" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="58" ht="20" spans="1:15">
       <c r="A58" s="9"/>
       <c r="B58" s="5" t="s">
-        <v>413</v>
+        <v>518</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="21"/>
+        <v>519</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="7" t="s">
-        <v>415</v>
+        <v>520</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K58" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="L58" s="26" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="59" ht="20" spans="1:12">
+        <v>521</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="L58" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="M58" s="25"/>
+      <c r="N58" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="O58" s="26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="59" ht="20" spans="1:15">
       <c r="A59" s="9"/>
       <c r="B59" s="5" t="s">
-        <v>419</v>
+        <v>526</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="22"/>
+        <v>527</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="18"/>
       <c r="H59" s="5" t="s">
-        <v>421</v>
+        <v>528</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="J59" s="27"/>
-      <c r="K59" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="L59" s="28" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="60" ht="20" spans="1:12">
+        <v>529</v>
+      </c>
+      <c r="J59" s="21"/>
+      <c r="K59" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="O59" s="27" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="60" ht="20" spans="1:15">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
-        <v>425</v>
+        <v>534</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="22"/>
+        <v>535</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="18"/>
       <c r="H60" s="5" t="s">
-        <v>427</v>
+        <v>536</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="K60" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="L60" s="26" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="61" ht="20" spans="1:12">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="22"/>
+        <v>537</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="L60" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="61" ht="20" spans="1:15">
+      <c r="A61" s="9"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="18"/>
       <c r="H61" s="5" t="s">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="K61" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="L61" s="26" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="62" ht="20" spans="1:12">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="22"/>
+        <v>543</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="L61" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="M61" s="25"/>
+      <c r="N61" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="O61" s="26" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="62" ht="20" spans="1:15">
+      <c r="A62" s="9"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="18"/>
       <c r="H62" s="5" t="s">
-        <v>435</v>
+        <v>547</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="J62" s="27"/>
-      <c r="K62" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="L62" s="28" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="63" ht="20" spans="1:12">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="21"/>
+        <v>548</v>
+      </c>
+      <c r="J62" s="21"/>
+      <c r="K62" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="O62" s="27" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="63" ht="20" spans="1:15">
+      <c r="A63" s="9"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="15"/>
       <c r="H63" s="7" t="s">
-        <v>439</v>
+        <v>553</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="J63" s="27"/>
-      <c r="K63" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="L63" s="28" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="64" ht="20" spans="1:12">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="21"/>
+        <v>543</v>
+      </c>
+      <c r="J63" s="21"/>
+      <c r="K63" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="L63" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="M63" s="25"/>
+      <c r="N63" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="O63" s="26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="64" ht="20" spans="1:15">
+      <c r="A64" s="9"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="15"/>
       <c r="H64" s="5" t="s">
-        <v>442</v>
+        <v>558</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="J64" s="27"/>
-      <c r="K64" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="L64" s="28" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="21"/>
+        <v>559</v>
+      </c>
+      <c r="J64" s="21"/>
+      <c r="K64" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="O64" s="27" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="65" ht="20" spans="1:15">
+      <c r="A65" s="9"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="15"/>
       <c r="H65" s="7" t="s">
-        <v>446</v>
+        <v>564</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="K65" s="26" t="s">
-        <v>448</v>
-      </c>
-      <c r="L65" s="26" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="66" ht="20" spans="1:12">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="22"/>
+        <v>565</v>
+      </c>
+      <c r="K65" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="L65" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="M65" s="25"/>
+      <c r="N65" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="O65" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="66" ht="20" spans="1:15">
+      <c r="A66" s="9"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="18"/>
       <c r="H66" s="5" t="s">
-        <v>450</v>
+        <v>570</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="J66" s="27"/>
-      <c r="K66" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="L66" s="28" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="67" ht="20" spans="1:12">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="22"/>
+        <v>571</v>
+      </c>
+      <c r="J66" s="21"/>
+      <c r="K66" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="M66" s="25"/>
+      <c r="N66" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="O66" s="26" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="67" ht="20" spans="1:15">
+      <c r="A67" s="9"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="18"/>
       <c r="H67" s="5" t="s">
-        <v>454</v>
+        <v>576</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="K67" s="26" t="s">
-        <v>456</v>
-      </c>
-      <c r="L67" s="26" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="68" ht="20" spans="1:12">
-      <c r="A68" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="21"/>
+        <v>577</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="L67" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="M67" s="25"/>
+      <c r="N67" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="O67" s="26" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="68" ht="20" spans="1:15">
+      <c r="A68" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="15"/>
       <c r="H68" s="7" t="s">
-        <v>459</v>
+        <v>583</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="J68" s="27"/>
-      <c r="K68" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="L68" s="28" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="K69" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="L69" s="26" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="70" ht="20" spans="1:12">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="22"/>
+        <v>584</v>
+      </c>
+      <c r="J68" s="21"/>
+      <c r="K68" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="L68" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="M68" s="25"/>
+      <c r="N68" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="O68" s="26" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="69" ht="20" spans="1:15">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="K69" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="L69" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="O69" s="27" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="70" ht="20" spans="1:15">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="18"/>
       <c r="H70" s="5" t="s">
-        <v>467</v>
+        <v>595</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="J70" s="27"/>
-      <c r="K70" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="L70" s="28" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="71" ht="20" spans="1:12">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="21"/>
+        <v>596</v>
+      </c>
+      <c r="J70" s="21"/>
+      <c r="K70" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="L70" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="O70" s="27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" ht="20" spans="1:15">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="15"/>
       <c r="H71" s="7" t="s">
-        <v>471</v>
+        <v>601</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="J71" s="27"/>
-      <c r="K71" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="L71" s="28" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="21"/>
+        <v>602</v>
+      </c>
+      <c r="J71" s="21"/>
+      <c r="K71" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="L71" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="O71" s="27" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="72" ht="20" spans="1:15">
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="7" t="s">
-        <v>475</v>
+        <v>607</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="K72" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="L72" s="26" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="73" ht="20" spans="1:12">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="21"/>
+        <v>608</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="L72" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="M72" s="25"/>
+      <c r="N72" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="O72" s="26" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="73" ht="20" spans="1:15">
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="15"/>
       <c r="H73" s="7" t="s">
-        <v>479</v>
+        <v>613</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="J73" s="27"/>
-      <c r="K73" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="L73" s="28" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="74" ht="20" spans="1:12">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="22"/>
+        <v>614</v>
+      </c>
+      <c r="J73" s="21"/>
+      <c r="K73" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="O73" s="27" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="74" ht="20" spans="1:15">
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="18"/>
       <c r="H74" s="5" t="s">
-        <v>483</v>
+        <v>619</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="K74" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="L74" s="26" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="75" ht="20" spans="1:12">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="21"/>
+        <v>620</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="L74" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="M74" s="25"/>
+      <c r="N74" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="O74" s="26" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="75" ht="20" spans="1:15">
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="15"/>
       <c r="H75" s="7" t="s">
-        <v>487</v>
+        <v>625</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="J75" s="27"/>
-      <c r="K75" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="L75" s="28" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="76" ht="20" spans="1:12">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="22"/>
+        <v>626</v>
+      </c>
+      <c r="J75" s="21"/>
+      <c r="K75" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="L75" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="M75" s="25"/>
+      <c r="N75" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="O75" s="26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="76" ht="20" spans="1:15">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="18"/>
       <c r="H76" s="5" t="s">
-        <v>491</v>
+        <v>631</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="J76" s="27"/>
-      <c r="K76" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="L76" s="28" t="s">
-        <v>494</v>
+        <v>632</v>
+      </c>
+      <c r="J76" s="21"/>
+      <c r="K76" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="L76" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="O76" s="27" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="77" ht="20" spans="1:12">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="22"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="18"/>
       <c r="H77" s="5" t="s">
-        <v>495</v>
+        <v>637</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="K77" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="L77" s="26" t="s">
-        <v>498</v>
+        <v>638</v>
+      </c>
+      <c r="K77" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="L77" s="23" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="78" ht="20" spans="1:12">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="22"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="18"/>
       <c r="H78" s="5" t="s">
-        <v>499</v>
+        <v>641</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="J78" s="27"/>
-      <c r="K78" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="L78" s="28" t="s">
-        <v>502</v>
+        <v>642</v>
+      </c>
+      <c r="J78" s="21"/>
+      <c r="K78" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="L78" s="22" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="21"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="15"/>
       <c r="H79" s="7" t="s">
-        <v>503</v>
+        <v>645</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="K79" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="L79" s="26" t="s">
-        <v>506</v>
+        <v>646</v>
+      </c>
+      <c r="K79" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="L79" s="23" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="80" ht="20" spans="1:12">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="22"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="18"/>
       <c r="H80" s="5" t="s">
-        <v>507</v>
+        <v>649</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="J80" s="27"/>
-      <c r="K80" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="L80" s="28" t="s">
-        <v>502</v>
+        <v>650</v>
+      </c>
+      <c r="J80" s="21"/>
+      <c r="K80" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="21"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="15"/>
       <c r="H81" s="7" t="s">
-        <v>510</v>
+        <v>652</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="K81" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="L81" s="26" t="s">
-        <v>513</v>
+        <v>653</v>
+      </c>
+      <c r="K81" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="L81" s="23" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="82" ht="20" spans="1:12">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="22"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="18"/>
       <c r="H82" s="5" t="s">
-        <v>514</v>
+        <v>656</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="J82" s="27"/>
-      <c r="K82" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="L82" s="28" t="s">
-        <v>517</v>
+        <v>657</v>
+      </c>
+      <c r="J82" s="21"/>
+      <c r="K82" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="L82" s="22" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="83" ht="20" spans="1:12">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="22"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="18"/>
       <c r="H83" s="5" t="s">
-        <v>518</v>
+        <v>660</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="J83" s="27"/>
-      <c r="K83" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="L83" s="28" t="s">
-        <v>521</v>
+        <v>661</v>
+      </c>
+      <c r="J83" s="21"/>
+      <c r="K83" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="21"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="15"/>
       <c r="H84" s="7" t="s">
-        <v>522</v>
+        <v>664</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="K84" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="L84" s="26" t="s">
-        <v>525</v>
+        <v>665</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="L84" s="23" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="85" ht="20" spans="1:12">
-      <c r="A85" s="17"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="21"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="15"/>
       <c r="H85" s="7" t="s">
-        <v>526</v>
+        <v>668</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="J85" s="27"/>
-      <c r="K85" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="L85" s="28" t="s">
-        <v>529</v>
+        <v>669</v>
+      </c>
+      <c r="J85" s="21"/>
+      <c r="K85" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="86" ht="20" spans="1:12">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="22"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="18"/>
       <c r="H86" s="5" t="s">
-        <v>530</v>
+        <v>672</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="K86" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="L86" s="26" t="s">
-        <v>533</v>
+        <v>673</v>
+      </c>
+      <c r="K86" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="L86" s="23" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="87" ht="20" spans="1:12">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="22"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="18"/>
       <c r="H87" s="5" t="s">
-        <v>534</v>
+        <v>676</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="J87" s="27"/>
-      <c r="K87" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="L87" s="28" t="s">
-        <v>536</v>
+        <v>677</v>
+      </c>
+      <c r="J87" s="21"/>
+      <c r="K87" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="21"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="15"/>
       <c r="H88" s="7" t="s">
-        <v>537</v>
+        <v>679</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="K88" s="26" t="s">
-        <v>539</v>
-      </c>
-      <c r="L88" s="26" t="s">
-        <v>540</v>
+        <v>680</v>
+      </c>
+      <c r="K88" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="L88" s="23" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="89" ht="20" spans="1:12">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="22"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="18"/>
       <c r="H89" s="5" t="s">
-        <v>541</v>
+        <v>683</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="J89" s="27"/>
-      <c r="K89" s="28" t="s">
-        <v>543</v>
-      </c>
-      <c r="L89" s="28" t="s">
-        <v>544</v>
+        <v>684</v>
+      </c>
+      <c r="J89" s="21"/>
+      <c r="K89" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="21"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="15"/>
       <c r="H90" s="7" t="s">
-        <v>545</v>
+        <v>687</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="K90" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="L90" s="26" t="s">
-        <v>548</v>
+        <v>688</v>
+      </c>
+      <c r="K90" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="L90" s="23" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="17"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="21"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="15"/>
       <c r="H91" s="7" t="s">
-        <v>549</v>
+        <v>691</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="K91" s="26" t="s">
-        <v>551</v>
-      </c>
-      <c r="L91" s="26" t="s">
-        <v>552</v>
+        <v>692</v>
+      </c>
+      <c r="K91" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="L91" s="23" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="92" ht="20" spans="1:12">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="22"/>
+      <c r="A92" s="9"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="18"/>
       <c r="H92" s="5" t="s">
-        <v>553</v>
+        <v>695</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="J92" s="27"/>
-      <c r="K92" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="L92" s="28" t="s">
-        <v>556</v>
+        <v>696</v>
+      </c>
+      <c r="J92" s="21"/>
+      <c r="K92" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="L92" s="22" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="17"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="21"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="15"/>
       <c r="H93" s="10" t="s">
-        <v>557</v>
+        <v>699</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="K93" s="26" t="s">
-        <v>559</v>
-      </c>
-      <c r="L93" s="26" t="s">
-        <v>560</v>
+        <v>700</v>
+      </c>
+      <c r="K93" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="L93" s="23" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="94" ht="20" spans="1:12">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="21"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="15"/>
       <c r="H94" s="7" t="s">
-        <v>561</v>
+        <v>703</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="J94" s="27"/>
-      <c r="K94" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="L94" s="28" t="s">
-        <v>564</v>
+        <v>704</v>
+      </c>
+      <c r="J94" s="21"/>
+      <c r="K94" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="L94" s="22" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="17"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="21"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="15"/>
       <c r="H95" s="7" t="s">
-        <v>565</v>
+        <v>707</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="K95" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="L95" s="26" t="s">
-        <v>568</v>
+        <v>708</v>
+      </c>
+      <c r="K95" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="L95" s="23" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="96" ht="20" spans="1:12">
-      <c r="A96" s="17"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="22"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="18"/>
       <c r="H96" s="5" t="s">
-        <v>569</v>
+        <v>711</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="J96" s="27"/>
-      <c r="K96" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="L96" s="28" t="s">
-        <v>572</v>
+        <v>712</v>
+      </c>
+      <c r="J96" s="21"/>
+      <c r="K96" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="L96" s="22" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="97" ht="20" spans="1:9">
-      <c r="A97" s="17"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="22"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="18"/>
       <c r="H97" s="5" t="s">
-        <v>573</v>
+        <v>715</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>574</v>
+        <v>716</v>
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="17"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="21"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="15"/>
       <c r="H98" s="7" t="s">
-        <v>575</v>
+        <v>717</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>576</v>
+        <v>718</v>
       </c>
     </row>
     <row r="99" ht="20" spans="1:9">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="21"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="15"/>
       <c r="H99" s="5" t="s">
-        <v>577</v>
+        <v>719</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>578</v>
+        <v>720</v>
       </c>
     </row>
     <row r="100" ht="20" spans="1:9">
-      <c r="A100" s="17"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="22"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="18"/>
       <c r="H100" s="5" t="s">
-        <v>579</v>
+        <v>721</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>580</v>
+        <v>722</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="17"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="21"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="15"/>
       <c r="H101" s="7" t="s">
-        <v>581</v>
+        <v>723</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>582</v>
+        <v>724</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="17"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="21"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="15"/>
       <c r="H102" s="7" t="s">
-        <v>583</v>
+        <v>725</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>584</v>
+        <v>726</v>
       </c>
     </row>
     <row r="103" ht="20" spans="1:9">
-      <c r="A103" s="17"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="22"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="18"/>
       <c r="H103" s="5" t="s">
-        <v>585</v>
+        <v>727</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>586</v>
+        <v>728</v>
       </c>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="21"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="15"/>
       <c r="H104" s="7" t="s">
-        <v>587</v>
+        <v>729</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>586</v>
+        <v>728</v>
       </c>
     </row>
     <row r="105" ht="20" spans="1:9">
-      <c r="A105" s="17"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="22"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="18"/>
       <c r="H105" s="5" t="s">
-        <v>588</v>
+        <v>730</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>589</v>
+        <v>731</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="17"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="21"/>
+      <c r="A106" s="9"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="15"/>
       <c r="H106" s="7" t="s">
-        <v>590</v>
+        <v>732</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>591</v>
+        <v>733</v>
       </c>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="17"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="21"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="15"/>
       <c r="H107" s="7" t="s">
-        <v>592</v>
+        <v>734</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>593</v>
+        <v>735</v>
       </c>
     </row>
     <row r="108" ht="20" spans="1:9">
-      <c r="A108" s="17"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="22"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="18"/>
       <c r="H108" s="5" t="s">
-        <v>594</v>
+        <v>736</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>595</v>
+        <v>737</v>
       </c>
     </row>
     <row r="109" ht="20" spans="1:9">
-      <c r="A109" s="17"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="22"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="18"/>
       <c r="H109" s="5" t="s">
-        <v>596</v>
+        <v>738</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>597</v>
+        <v>739</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="21"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="15"/>
       <c r="H110" s="7" t="s">
-        <v>598</v>
+        <v>740</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>599</v>
+        <v>741</v>
       </c>
     </row>
     <row r="111" ht="20" spans="1:9">
-      <c r="A111" s="17"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="22"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="18"/>
       <c r="H111" s="5" t="s">
-        <v>600</v>
+        <v>742</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>601</v>
+        <v>743</v>
       </c>
     </row>
     <row r="112" ht="20" spans="1:9">
-      <c r="A112" s="17"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="22"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="18"/>
       <c r="H112" s="5" t="s">
-        <v>602</v>
+        <v>744</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>603</v>
+        <v>745</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="17"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="21"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="15"/>
       <c r="H113" s="7" t="s">
-        <v>604</v>
+        <v>746</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>605</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="A68:D71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11320"/>
+    <workbookView windowWidth="22820" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2288,10 +2288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2368,23 +2368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2398,7 +2384,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2406,15 +2392,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2443,6 +2437,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -2451,41 +2453,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2531,7 +2531,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2543,37 +2663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2585,25 +2675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2615,79 +2687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2699,19 +2705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2734,6 +2734,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2750,6 +2759,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2760,21 +2784,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2808,15 +2817,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2827,142 +2827,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2972,7 +2972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3049,12 +3049,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3465,10 +3459,10 @@
         <v>12</v>
       </c>
       <c r="M2" s="25"/>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3501,10 +3495,10 @@
         <v>22</v>
       </c>
       <c r="M3" s="25"/>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3537,11 +3531,11 @@
       <c r="L4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3573,11 +3567,11 @@
       <c r="L5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3610,11 +3604,11 @@
       <c r="L6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3647,10 +3641,10 @@
         <v>61</v>
       </c>
       <c r="M7" s="25"/>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="22" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3683,10 +3677,10 @@
         <v>61</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="22" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3718,11 +3712,11 @@
       <c r="L9" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3755,11 +3749,11 @@
       <c r="L10" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3791,11 +3785,11 @@
       <c r="L11" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27" t="s">
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3829,10 +3823,10 @@
         <v>108</v>
       </c>
       <c r="M12" s="25"/>
-      <c r="N12" s="26" t="s">
+      <c r="N12" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="22" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3865,11 +3859,11 @@
       <c r="L13" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27" t="s">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3901,11 +3895,11 @@
       <c r="L14" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="26" t="s">
+      <c r="M14" s="4"/>
+      <c r="N14" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="22" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3938,11 +3932,11 @@
       <c r="L15" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27" t="s">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3974,11 +3968,11 @@
       <c r="L16" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27" t="s">
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4012,10 +4006,10 @@
         <v>154</v>
       </c>
       <c r="M17" s="25"/>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="22" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4048,10 +4042,10 @@
         <v>163</v>
       </c>
       <c r="M18" s="25"/>
-      <c r="N18" s="26" t="s">
+      <c r="N18" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="22" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4084,11 +4078,11 @@
       <c r="L19" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27" t="s">
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4121,11 +4115,11 @@
       <c r="L20" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27" t="s">
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="O20" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4158,10 +4152,10 @@
         <v>191</v>
       </c>
       <c r="M21" s="25"/>
-      <c r="N21" s="26" t="s">
+      <c r="N21" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="O21" s="22" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4195,10 +4189,10 @@
         <v>201</v>
       </c>
       <c r="M22" s="25"/>
-      <c r="N22" s="26" t="s">
+      <c r="N22" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="O22" s="22" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4232,10 +4226,10 @@
         <v>211</v>
       </c>
       <c r="M23" s="25"/>
-      <c r="N23" s="26" t="s">
+      <c r="N23" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="O23" s="26" t="s">
+      <c r="O23" s="22" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4268,11 +4262,11 @@
       <c r="L24" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27" t="s">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="O24" s="27" t="s">
+      <c r="O24" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4305,10 +4299,10 @@
         <v>229</v>
       </c>
       <c r="M25" s="25"/>
-      <c r="N25" s="26" t="s">
+      <c r="N25" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="O25" s="26" t="s">
+      <c r="O25" s="22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4341,11 +4335,11 @@
       <c r="L26" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27" t="s">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O26" s="27" t="s">
+      <c r="O26" s="4" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4379,10 +4373,10 @@
         <v>248</v>
       </c>
       <c r="M27" s="25"/>
-      <c r="N27" s="26" t="s">
+      <c r="N27" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="O27" s="26" t="s">
+      <c r="O27" s="22" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4415,11 +4409,11 @@
       <c r="L28" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27" t="s">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="O28" s="4" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4452,11 +4446,11 @@
       <c r="L29" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27" t="s">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="O29" s="27" t="s">
+      <c r="O29" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4489,10 +4483,10 @@
         <v>277</v>
       </c>
       <c r="M30" s="25"/>
-      <c r="N30" s="26" t="s">
+      <c r="N30" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="O30" s="26" t="s">
+      <c r="O30" s="22" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4525,10 +4519,10 @@
         <v>286</v>
       </c>
       <c r="M31" s="25"/>
-      <c r="N31" s="26" t="s">
+      <c r="N31" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="O31" s="26" t="s">
+      <c r="O31" s="22" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4562,10 +4556,10 @@
         <v>296</v>
       </c>
       <c r="M32" s="25"/>
-      <c r="N32" s="26" t="s">
+      <c r="N32" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="O32" s="26" t="s">
+      <c r="O32" s="22" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4598,11 +4592,11 @@
       <c r="L33" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27" t="s">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="O33" s="27" t="s">
+      <c r="O33" s="4" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4634,11 +4628,11 @@
       <c r="L34" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27" t="s">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="O34" s="27" t="s">
+      <c r="O34" s="4" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4671,11 +4665,11 @@
       <c r="L35" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27" t="s">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="O35" s="27" t="s">
+      <c r="O35" s="4" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4708,10 +4702,10 @@
         <v>336</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="26" t="s">
+      <c r="N36" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="O36" s="26" t="s">
+      <c r="O36" s="22" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4743,11 +4737,11 @@
       <c r="L37" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27" t="s">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="O37" s="27" t="s">
+      <c r="O37" s="4" t="s">
         <v>347</v>
       </c>
     </row>
@@ -4780,10 +4774,10 @@
         <v>355</v>
       </c>
       <c r="M38" s="25"/>
-      <c r="N38" s="26" t="s">
+      <c r="N38" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="O38" s="26" t="s">
+      <c r="O38" s="22" t="s">
         <v>357</v>
       </c>
     </row>
@@ -4816,10 +4810,10 @@
         <v>365</v>
       </c>
       <c r="M39" s="25"/>
-      <c r="N39" s="26" t="s">
+      <c r="N39" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="O39" s="26" t="s">
+      <c r="O39" s="22" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4851,11 +4845,11 @@
       <c r="L40" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27" t="s">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="O40" s="27" t="s">
+      <c r="O40" s="4" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4889,10 +4883,10 @@
         <v>385</v>
       </c>
       <c r="M41" s="25"/>
-      <c r="N41" s="26" t="s">
+      <c r="N41" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="O41" s="26" t="s">
+      <c r="O41" s="22" t="s">
         <v>387</v>
       </c>
     </row>
@@ -4924,11 +4918,11 @@
       <c r="L42" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27" t="s">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="O42" s="27" t="s">
+      <c r="O42" s="4" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4960,11 +4954,11 @@
       <c r="L43" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27" t="s">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="O43" s="27" t="s">
+      <c r="O43" s="4" t="s">
         <v>407</v>
       </c>
     </row>
@@ -4997,11 +4991,11 @@
       <c r="L44" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27" t="s">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="O44" s="27" t="s">
+      <c r="O44" s="4" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5034,11 +5028,11 @@
       <c r="L45" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="M45" s="27"/>
-      <c r="N45" s="26" t="s">
+      <c r="M45" s="4"/>
+      <c r="N45" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="O45" s="26" t="s">
+      <c r="O45" s="22" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5070,11 +5064,11 @@
       <c r="L46" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27" t="s">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="O46" s="27" t="s">
+      <c r="O46" s="4" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5107,11 +5101,11 @@
       <c r="L47" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27" t="s">
+      <c r="M47" s="4"/>
+      <c r="N47" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="O47" s="27" t="s">
+      <c r="O47" s="4" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5144,11 +5138,11 @@
       <c r="L48" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27" t="s">
+      <c r="M48" s="4"/>
+      <c r="N48" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="O48" s="27" t="s">
+      <c r="O48" s="4" t="s">
         <v>443</v>
       </c>
     </row>
@@ -5176,11 +5170,11 @@
       <c r="L49" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27" t="s">
+      <c r="M49" s="4"/>
+      <c r="N49" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="O49" s="27" t="s">
+      <c r="O49" s="4" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5209,11 +5203,11 @@
       <c r="L50" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27" t="s">
+      <c r="M50" s="4"/>
+      <c r="N50" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="O50" s="27" t="s">
+      <c r="O50" s="4" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5242,10 +5236,10 @@
         <v>472</v>
       </c>
       <c r="M51" s="25"/>
-      <c r="N51" s="26" t="s">
+      <c r="N51" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="O51" s="26" t="s">
+      <c r="O51" s="22" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5273,11 +5267,11 @@
       <c r="L52" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27" t="s">
+      <c r="M52" s="4"/>
+      <c r="N52" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="O52" s="27" t="s">
+      <c r="O52" s="4" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5305,11 +5299,11 @@
       <c r="L53" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27" t="s">
+      <c r="M53" s="4"/>
+      <c r="N53" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="O53" s="27" t="s">
+      <c r="O53" s="4" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5338,11 +5332,11 @@
       <c r="L54" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27" t="s">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="O54" s="27" t="s">
+      <c r="O54" s="4" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5370,11 +5364,11 @@
       <c r="L55" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27" t="s">
+      <c r="M55" s="4"/>
+      <c r="N55" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="O55" s="27" t="s">
+      <c r="O55" s="4" t="s">
         <v>502</v>
       </c>
     </row>
@@ -5403,10 +5397,10 @@
         <v>508</v>
       </c>
       <c r="M56" s="25"/>
-      <c r="N56" s="26" t="s">
+      <c r="N56" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="O56" s="26" t="s">
+      <c r="O56" s="22" t="s">
         <v>510</v>
       </c>
     </row>
@@ -5434,11 +5428,11 @@
       <c r="L57" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27" t="s">
+      <c r="M57" s="4"/>
+      <c r="N57" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="O57" s="27" t="s">
+      <c r="O57" s="4" t="s">
         <v>517</v>
       </c>
     </row>
@@ -5467,10 +5461,10 @@
         <v>523</v>
       </c>
       <c r="M58" s="25"/>
-      <c r="N58" s="26" t="s">
+      <c r="N58" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="O58" s="26" t="s">
+      <c r="O58" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5499,11 +5493,11 @@
       <c r="L59" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27" t="s">
+      <c r="M59" s="4"/>
+      <c r="N59" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="O59" s="27" t="s">
+      <c r="O59" s="4" t="s">
         <v>533</v>
       </c>
     </row>
@@ -5531,11 +5525,11 @@
       <c r="L60" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27" t="s">
+      <c r="M60" s="4"/>
+      <c r="N60" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="O60" s="27" t="s">
+      <c r="O60" s="4" t="s">
         <v>541</v>
       </c>
     </row>
@@ -5560,10 +5554,10 @@
         <v>545</v>
       </c>
       <c r="M61" s="25"/>
-      <c r="N61" s="26" t="s">
+      <c r="N61" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="O61" s="26" t="s">
+      <c r="O61" s="22" t="s">
         <v>546</v>
       </c>
     </row>
@@ -5588,11 +5582,11 @@
       <c r="L62" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27" t="s">
+      <c r="M62" s="4"/>
+      <c r="N62" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="O62" s="27" t="s">
+      <c r="O62" s="4" t="s">
         <v>552</v>
       </c>
     </row>
@@ -5618,10 +5612,10 @@
         <v>555</v>
       </c>
       <c r="M63" s="25"/>
-      <c r="N63" s="26" t="s">
+      <c r="N63" s="22" t="s">
         <v>556</v>
       </c>
-      <c r="O63" s="26" t="s">
+      <c r="O63" s="22" t="s">
         <v>557</v>
       </c>
     </row>
@@ -5646,11 +5640,11 @@
       <c r="L64" s="22" t="s">
         <v>561</v>
       </c>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27" t="s">
+      <c r="M64" s="4"/>
+      <c r="N64" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="O64" s="27" t="s">
+      <c r="O64" s="4" t="s">
         <v>563</v>
       </c>
     </row>
@@ -5675,10 +5669,10 @@
         <v>567</v>
       </c>
       <c r="M65" s="25"/>
-      <c r="N65" s="26" t="s">
+      <c r="N65" s="22" t="s">
         <v>568</v>
       </c>
-      <c r="O65" s="26" t="s">
+      <c r="O65" s="22" t="s">
         <v>569</v>
       </c>
     </row>
@@ -5704,10 +5698,10 @@
         <v>573</v>
       </c>
       <c r="M66" s="25"/>
-      <c r="N66" s="26" t="s">
+      <c r="N66" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="O66" s="26" t="s">
+      <c r="O66" s="22" t="s">
         <v>575</v>
       </c>
     </row>
@@ -5732,20 +5726,20 @@
         <v>579</v>
       </c>
       <c r="M67" s="25"/>
-      <c r="N67" s="26" t="s">
+      <c r="N67" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="O67" s="26" t="s">
+      <c r="O67" s="22" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="68" ht="20" spans="1:15">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="15"/>
@@ -5763,18 +5757,18 @@
         <v>586</v>
       </c>
       <c r="M68" s="25"/>
-      <c r="N68" s="26" t="s">
+      <c r="N68" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="O68" s="26" t="s">
+      <c r="O68" s="22" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="69" ht="20" spans="1:15">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="18"/>
@@ -5790,19 +5784,19 @@
       <c r="L69" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27" t="s">
+      <c r="M69" s="4"/>
+      <c r="N69" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="O69" s="27" t="s">
+      <c r="O69" s="4" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="70" ht="20" spans="1:15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="18"/>
@@ -5819,19 +5813,19 @@
       <c r="L70" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27" t="s">
+      <c r="M70" s="4"/>
+      <c r="N70" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="O70" s="27" t="s">
+      <c r="O70" s="4" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="71" ht="20" spans="1:15">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="15"/>
@@ -5848,19 +5842,19 @@
       <c r="L71" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="M71" s="27"/>
-      <c r="N71" s="27" t="s">
+      <c r="M71" s="4"/>
+      <c r="N71" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="O71" s="27" t="s">
+      <c r="O71" s="4" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="72" ht="20" spans="1:15">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="15"/>
@@ -5877,18 +5871,18 @@
         <v>610</v>
       </c>
       <c r="M72" s="25"/>
-      <c r="N72" s="26" t="s">
+      <c r="N72" s="22" t="s">
         <v>611</v>
       </c>
-      <c r="O72" s="26" t="s">
+      <c r="O72" s="22" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="73" ht="20" spans="1:15">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="15"/>
@@ -5905,19 +5899,19 @@
       <c r="L73" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="M73" s="27"/>
-      <c r="N73" s="27" t="s">
+      <c r="M73" s="4"/>
+      <c r="N73" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="O73" s="27" t="s">
+      <c r="O73" s="4" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="74" ht="20" spans="1:15">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="18"/>
@@ -5934,18 +5928,18 @@
         <v>622</v>
       </c>
       <c r="M74" s="25"/>
-      <c r="N74" s="26" t="s">
+      <c r="N74" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="O74" s="26" t="s">
+      <c r="O74" s="22" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="75" ht="20" spans="1:15">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="15"/>
@@ -5963,18 +5957,18 @@
         <v>628</v>
       </c>
       <c r="M75" s="25"/>
-      <c r="N75" s="26" t="s">
+      <c r="N75" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="O75" s="26" t="s">
+      <c r="O75" s="22" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="76" ht="20" spans="1:15">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="18"/>
@@ -5991,19 +5985,19 @@
       <c r="L76" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27" t="s">
+      <c r="M76" s="4"/>
+      <c r="N76" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="O76" s="27" t="s">
+      <c r="O76" s="4" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="77" ht="20" spans="1:12">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="18"/>
@@ -6021,10 +6015,10 @@
       </c>
     </row>
     <row r="78" ht="20" spans="1:12">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="18"/>
@@ -6043,10 +6037,10 @@
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="15"/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22820" windowHeight="9600"/>
+    <workbookView windowWidth="28800" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799">
   <si>
     <t>地理</t>
   </si>
@@ -31,6 +31,12 @@
     <t>化学</t>
   </si>
   <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>教育</t>
+  </si>
+  <si>
     <t>insular</t>
   </si>
   <si>
@@ -61,6 +67,18 @@
     <t>陈腐的</t>
   </si>
   <si>
+    <t>noxious</t>
+  </si>
+  <si>
+    <t>有毒、有害的</t>
+  </si>
+  <si>
+    <t>didactic</t>
+  </si>
+  <si>
+    <t>说教的</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -91,6 +109,18 @@
     <t>腐蚀性的</t>
   </si>
   <si>
+    <t>pollute</t>
+  </si>
+  <si>
+    <t>污染</t>
+  </si>
+  <si>
+    <t>leading</t>
+  </si>
+  <si>
+    <t>领导的</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -121,6 +151,18 @@
     <t>腐蚀、侵蚀</t>
   </si>
   <si>
+    <t>pollutant</t>
+  </si>
+  <si>
+    <t>污染物质</t>
+  </si>
+  <si>
+    <t>sermon</t>
+  </si>
+  <si>
+    <t>布道</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -148,6 +190,15 @@
     <t>erode</t>
   </si>
   <si>
+    <t>pollution</t>
+  </si>
+  <si>
+    <t>initiate</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -178,6 +229,15 @@
     <t>陈旧的</t>
   </si>
   <si>
+    <t>contaminate</t>
+  </si>
+  <si>
+    <t>instill</t>
+  </si>
+  <si>
+    <t>渗透</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -208,6 +268,18 @@
     <t>腐烂</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>浪费</t>
+  </si>
+  <si>
+    <t>instruct</t>
+  </si>
+  <si>
+    <t>指导、命令</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
@@ -235,6 +307,18 @@
     <t>腐烂的、堕落的</t>
   </si>
   <si>
+    <t>sewage</t>
+  </si>
+  <si>
+    <t>污水、污染</t>
+  </si>
+  <si>
+    <t>enlight</t>
+  </si>
+  <si>
+    <t>启发、开导、教化</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -265,6 +349,18 @@
     <t>腐烂、腐朽</t>
   </si>
   <si>
+    <t>fume</t>
+  </si>
+  <si>
+    <t>熏、冒烟</t>
+  </si>
+  <si>
+    <t>edify</t>
+  </si>
+  <si>
+    <t>启发、教化</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -292,6 +388,15 @@
     <t>corrode</t>
   </si>
   <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>栖息地、住处</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -322,13 +427,22 @@
     <t>分解、腐烂</t>
   </si>
   <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>平衡</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>直接</t>
+  </si>
+  <si>
     <t>ebb</t>
   </si>
   <si>
     <t>退潮</t>
-  </si>
-  <si>
-    <t>lead</t>
   </si>
   <si>
     <r>
@@ -370,6 +484,18 @@
     <t>生锈</t>
   </si>
   <si>
+    <t>ecosystem</t>
+  </si>
+  <si>
+    <t>生态系统</t>
+  </si>
+  <si>
+    <t>conduct</t>
+  </si>
+  <si>
+    <t>组织、实施</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -397,6 +523,18 @@
     <t>硅石</t>
   </si>
   <si>
+    <t>fauna</t>
+  </si>
+  <si>
+    <t>动物群</t>
+  </si>
+  <si>
+    <t>curriculum</t>
+  </si>
+  <si>
+    <t>总课程</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -421,6 +559,18 @@
     <t>负责任的</t>
   </si>
   <si>
+    <t>decibel</t>
+  </si>
+  <si>
+    <t>分贝</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>学科</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
@@ -451,6 +601,12 @@
     <t>晶体</t>
   </si>
   <si>
+    <t>ozonoshpere</t>
+  </si>
+  <si>
+    <t>臭氧层</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -1619,9 +1775,6 @@
   </si>
   <si>
     <t>热带地区</t>
-  </si>
-  <si>
-    <t>habitat</t>
   </si>
   <si>
     <t>栖息地</t>
@@ -2288,10 +2441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2361,6 +2514,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2368,16 +2529,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2391,16 +2566,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2415,15 +2582,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2438,22 +2604,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2468,29 +2627,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2531,7 +2684,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2543,19 +2744,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2567,19 +2768,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,43 +2804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2639,19 +2816,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2669,19 +2846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2693,19 +2858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2722,6 +2875,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2773,6 +2941,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2787,182 +2975,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2972,7 +3125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3048,7 +3201,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3376,10 +3544,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:C48"/>
+    <sheetView tabSelected="1" topLeftCell="J42" workbookViewId="0">
+      <selection activeCell="N48" sqref="L44:N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
@@ -3399,10 +3567,15 @@
     <col min="13" max="13" width="5.8515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="21.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="27.0859375" style="1" customWidth="1"/>
-    <col min="16" max="19" width="9" style="1"/>
+    <col min="16" max="16" width="5.859375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.6953125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.859375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18.234375" customWidth="1"/>
+    <col min="21" max="21" width="26.953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:15">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3428,2109 +3601,2308 @@
       </c>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:15">
+      <c r="P1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:21">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:21">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="30"/>
+      <c r="T3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:21">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" ht="20" spans="1:15">
+        <v>56</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="30"/>
+      <c r="T5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" ht="20" spans="1:21">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="22" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" ht="20" spans="1:15">
+        <v>68</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="28"/>
+      <c r="T6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" ht="20" spans="1:21">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="22" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" ht="20" spans="1:15">
+        <v>83</v>
+      </c>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="30"/>
+      <c r="T7" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" ht="20" spans="1:21">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="22" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" ht="20" spans="1:15">
+        <v>96</v>
+      </c>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" ht="20" spans="1:21">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" ht="20" spans="1:15">
+        <v>108</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="U9" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" ht="20" spans="1:21">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="5" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="5" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="22" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10" s="30"/>
+      <c r="T10" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="U10" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" ht="20" spans="1:15">
+    <row r="11" ht="20" spans="1:21">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="5" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="1:15">
+        <v>134</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="R11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="S11" s="28"/>
+      <c r="T11" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="U11" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:21">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="5" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="22" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="22" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" ht="20" spans="1:15">
+        <v>148</v>
+      </c>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="S12" s="28"/>
+      <c r="T12" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="U12" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="1:21">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="22" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" ht="20" spans="1:15">
+        <v>159</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="S13" s="28"/>
+      <c r="T13" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="U13" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" ht="20" spans="1:21">
       <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="5" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="7" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="M14" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="M14" s="25"/>
       <c r="N14" s="22" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" ht="20" spans="1:15">
+        <v>156</v>
+      </c>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="S14" s="30"/>
+      <c r="T14" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" ht="20" spans="1:18">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="5" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="22" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>137</v>
+        <v>185</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="16" ht="20" spans="1:15">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="17" ht="20" spans="1:15">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="5" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="22" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="22" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" ht="20" spans="1:15">
       <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="7" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="22" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" ht="20" spans="1:15">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="22" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>175</v>
+        <v>225</v>
+      </c>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="20" ht="20" spans="1:15">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="5" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="5" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="J20" s="21"/>
       <c r="K20" s="22" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>185</v>
+        <v>235</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="21" ht="20" spans="1:15">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="22" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" ht="20" spans="1:15">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="J22" s="21"/>
       <c r="K22" s="22" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="22" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="O22" s="22" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" ht="20" spans="1:15">
       <c r="A23" s="11"/>
       <c r="B23" s="5" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="5" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="22" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="22" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="O23" s="22" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" ht="20" spans="1:15">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="5" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="J24" s="21"/>
       <c r="K24" s="22" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>221</v>
+        <v>235</v>
+      </c>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="25" ht="20" spans="1:15">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="5" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="M25" s="25"/>
       <c r="N25" s="22" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" ht="20" spans="1:15">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="5" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="J26" s="21"/>
       <c r="K26" s="22" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>240</v>
+        <v>290</v>
+      </c>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="27" ht="20" spans="1:15">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="5" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="J27" s="21"/>
       <c r="K27" s="22" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="M27" s="25"/>
       <c r="N27" s="22" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" ht="20" spans="1:15">
       <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="7" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="J28" s="21"/>
       <c r="K28" s="22" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>260</v>
+        <v>310</v>
+      </c>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="29" ht="20" spans="1:15">
       <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="5" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="5" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="J29" s="21"/>
       <c r="K29" s="22" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O29" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="O29" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" ht="20" spans="1:15">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="7" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="M30" s="25"/>
       <c r="N30" s="22" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="O30" s="22" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" ht="20" spans="1:15">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="5" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="5" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="M31" s="25"/>
       <c r="N31" s="22" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="O31" s="22" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" ht="20" spans="1:15">
       <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="5" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="7" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="24" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="M32" s="25"/>
       <c r="N32" s="22" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="O32" s="22" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" ht="20" spans="1:15">
       <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="5" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="7" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="J33" s="21"/>
       <c r="K33" s="22" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>308</v>
+        <v>358</v>
+      </c>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="34" ht="20" spans="1:15">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="7" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>318</v>
+        <v>368</v>
+      </c>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="35" ht="20" spans="1:15">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="5" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="22" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>328</v>
+        <v>378</v>
+      </c>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="36" ht="20" spans="1:15">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="5" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="M36" s="25"/>
       <c r="N36" s="22" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="7" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="7" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>347</v>
+        <v>388</v>
+      </c>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="38" ht="20" spans="1:15">
       <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="7" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="M38" s="25"/>
       <c r="N38" s="22" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="O38" s="22" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" ht="20" spans="1:15">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="5" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="M39" s="25"/>
       <c r="N39" s="22" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="O39" s="22" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" ht="20" spans="1:15">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="7" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="5" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>377</v>
+        <v>427</v>
+      </c>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="O40" s="23" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="41" ht="20" spans="1:15">
       <c r="A41" s="11"/>
       <c r="B41" s="5" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="7" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="7" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="J41" s="21"/>
       <c r="K41" s="22" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="M41" s="25"/>
       <c r="N41" s="22" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="O41" s="22" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="7" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="K42" s="23" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>397</v>
+        <v>447</v>
+      </c>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="O42" s="23" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="43" ht="20" spans="1:15">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="5" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="7" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>407</v>
+        <v>457</v>
+      </c>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="O43" s="23" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="44" ht="20" spans="1:15">
       <c r="A44" s="9"/>
       <c r="B44" s="7" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="7" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="J44" s="21"/>
       <c r="K44" s="22" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>416</v>
+        <v>466</v>
+      </c>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="O44" s="23" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="45" ht="20" spans="1:15">
       <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="7" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="J45" s="21"/>
       <c r="K45" s="22" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="M45" s="4"/>
+        <v>476</v>
+      </c>
+      <c r="M45" s="25"/>
       <c r="N45" s="22" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="O45" s="22" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="7" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="7" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="K46" s="23" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>434</v>
+        <v>378</v>
+      </c>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="O46" s="23" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="47" ht="20" spans="1:15">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="7" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="5" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" s="22" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>443</v>
+        <v>493</v>
+      </c>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="O47" s="23" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="48" ht="20" spans="1:15">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="7" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="5" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" s="22" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>443</v>
+        <v>503</v>
+      </c>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="O48" s="23" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="49" ht="20" spans="1:15">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="15"/>
       <c r="H49" s="7" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="O49" s="4" t="s">
-        <v>459</v>
+        <v>378</v>
+      </c>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="O49" s="23" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="50" ht="20" spans="1:15">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="15"/>
       <c r="H50" s="7" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="J50" s="21"/>
       <c r="K50" s="22" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>466</v>
+        <v>516</v>
+      </c>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="O50" s="23" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="51" ht="20" spans="1:15">
       <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="18"/>
       <c r="H51" s="5" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="K51" s="23" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="M51" s="25"/>
       <c r="N51" s="22" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="O51" s="22" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" ht="20" spans="1:15">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="18"/>
       <c r="H52" s="5" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="K52" s="23" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>466</v>
+        <v>532</v>
+      </c>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="O52" s="23" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="15"/>
       <c r="H53" s="7" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="K53" s="23" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>488</v>
+        <v>538</v>
+      </c>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="O53" s="23" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="54" ht="20" spans="1:15">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
-        <v>489</v>
+        <v>541</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="18"/>
       <c r="H54" s="5" t="s">
-        <v>491</v>
+        <v>543</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>492</v>
+        <v>544</v>
       </c>
       <c r="J54" s="21"/>
       <c r="K54" s="22" t="s">
-        <v>493</v>
+        <v>545</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>397</v>
+        <v>546</v>
+      </c>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="O54" s="23" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="55" ht="20" spans="1:15">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="18"/>
       <c r="H55" s="5" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="K55" s="23" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>502</v>
+        <v>532</v>
+      </c>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="O55" s="23" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="56" ht="20" spans="1:15">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="18"/>
       <c r="H56" s="5" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="K56" s="23" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="M56" s="25"/>
       <c r="N56" s="22" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="O56" s="22" t="s">
-        <v>510</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" ht="20" spans="1:15">
       <c r="A57" s="9"/>
       <c r="B57" s="5" t="s">
-        <v>511</v>
+        <v>563</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="18"/>
       <c r="H57" s="5" t="s">
-        <v>512</v>
+        <v>564</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>517</v>
+        <v>567</v>
+      </c>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="O57" s="23" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="58" ht="20" spans="1:15">
       <c r="A58" s="9"/>
       <c r="B58" s="5" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="15"/>
       <c r="H58" s="7" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>522</v>
+        <v>574</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="M58" s="25"/>
       <c r="N58" s="22" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
       <c r="O58" s="22" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
     </row>
     <row r="59" ht="20" spans="1:15">
       <c r="A59" s="9"/>
       <c r="B59" s="5" t="s">
-        <v>526</v>
+        <v>578</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>527</v>
+        <v>579</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="18"/>
       <c r="H59" s="5" t="s">
-        <v>528</v>
+        <v>124</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>529</v>
+        <v>580</v>
       </c>
       <c r="J59" s="21"/>
       <c r="K59" s="22" t="s">
-        <v>530</v>
+        <v>581</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>533</v>
+        <v>582</v>
+      </c>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="O59" s="23" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="60" ht="20" spans="1:15">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
-        <v>534</v>
+        <v>585</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>535</v>
+        <v>586</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="18"/>
       <c r="H60" s="5" t="s">
-        <v>536</v>
+        <v>587</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>537</v>
+        <v>588</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>538</v>
+        <v>589</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>539</v>
-      </c>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>541</v>
+        <v>590</v>
+      </c>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="O60" s="23" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="61" ht="20" spans="1:15">
@@ -5542,23 +5914,23 @@
       <c r="F61" s="6"/>
       <c r="G61" s="18"/>
       <c r="H61" s="5" t="s">
-        <v>542</v>
+        <v>593</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>543</v>
+        <v>594</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>544</v>
+        <v>595</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>545</v>
+        <v>596</v>
       </c>
       <c r="M61" s="25"/>
       <c r="N61" s="22" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="O61" s="22" t="s">
-        <v>546</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" ht="20" spans="1:15">
@@ -5570,24 +5942,24 @@
       <c r="F62" s="6"/>
       <c r="G62" s="18"/>
       <c r="H62" s="5" t="s">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="J62" s="21"/>
       <c r="K62" s="22" t="s">
-        <v>549</v>
+        <v>600</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>552</v>
+        <v>601</v>
+      </c>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="O62" s="23" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="63" ht="20" spans="1:15">
@@ -5599,24 +5971,24 @@
       <c r="F63" s="6"/>
       <c r="G63" s="15"/>
       <c r="H63" s="7" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>543</v>
+        <v>594</v>
       </c>
       <c r="J63" s="21"/>
       <c r="K63" s="22" t="s">
-        <v>554</v>
+        <v>605</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>555</v>
+        <v>606</v>
       </c>
       <c r="M63" s="25"/>
       <c r="N63" s="22" t="s">
-        <v>556</v>
+        <v>607</v>
       </c>
       <c r="O63" s="22" t="s">
-        <v>557</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" ht="20" spans="1:15">
@@ -5628,24 +6000,24 @@
       <c r="F64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="5" t="s">
-        <v>558</v>
+        <v>609</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>559</v>
+        <v>610</v>
       </c>
       <c r="J64" s="21"/>
       <c r="K64" s="22" t="s">
-        <v>560</v>
+        <v>611</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>563</v>
+        <v>612</v>
+      </c>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="O64" s="23" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="65" ht="20" spans="1:15">
@@ -5657,23 +6029,23 @@
       <c r="F65" s="6"/>
       <c r="G65" s="15"/>
       <c r="H65" s="7" t="s">
-        <v>564</v>
+        <v>615</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>565</v>
+        <v>616</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>566</v>
+        <v>617</v>
       </c>
       <c r="L65" s="23" t="s">
-        <v>567</v>
+        <v>618</v>
       </c>
       <c r="M65" s="25"/>
       <c r="N65" s="22" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="O65" s="22" t="s">
-        <v>569</v>
+        <v>620</v>
       </c>
     </row>
     <row r="66" ht="20" spans="1:15">
@@ -5685,24 +6057,24 @@
       <c r="F66" s="6"/>
       <c r="G66" s="18"/>
       <c r="H66" s="5" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
       <c r="J66" s="21"/>
       <c r="K66" s="22" t="s">
-        <v>572</v>
+        <v>623</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
       <c r="M66" s="25"/>
       <c r="N66" s="22" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
       <c r="O66" s="22" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
     </row>
     <row r="67" ht="20" spans="1:15">
@@ -5714,347 +6086,347 @@
       <c r="F67" s="6"/>
       <c r="G67" s="18"/>
       <c r="H67" s="5" t="s">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>577</v>
+        <v>628</v>
       </c>
       <c r="K67" s="23" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
       <c r="L67" s="23" t="s">
-        <v>579</v>
+        <v>630</v>
       </c>
       <c r="M67" s="25"/>
       <c r="N67" s="22" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="O67" s="22" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
     </row>
     <row r="68" ht="20" spans="1:15">
-      <c r="A68" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="15"/>
       <c r="H68" s="7" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>584</v>
+        <v>635</v>
       </c>
       <c r="J68" s="21"/>
       <c r="K68" s="22" t="s">
-        <v>585</v>
+        <v>636</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>586</v>
+        <v>637</v>
       </c>
       <c r="M68" s="25"/>
       <c r="N68" s="22" t="s">
-        <v>587</v>
+        <v>638</v>
       </c>
       <c r="O68" s="22" t="s">
-        <v>588</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" ht="20" spans="1:15">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="18"/>
       <c r="H69" s="5" t="s">
-        <v>589</v>
+        <v>640</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>590</v>
+        <v>641</v>
       </c>
       <c r="K69" s="23" t="s">
-        <v>591</v>
+        <v>642</v>
       </c>
       <c r="L69" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>594</v>
+        <v>643</v>
+      </c>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="O69" s="23" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="70" ht="20" spans="1:15">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="18"/>
       <c r="H70" s="5" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>596</v>
+        <v>647</v>
       </c>
       <c r="J70" s="21"/>
       <c r="K70" s="22" t="s">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>600</v>
+        <v>649</v>
+      </c>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="O70" s="23" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="71" ht="20" spans="1:15">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="15"/>
       <c r="H71" s="7" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>602</v>
+        <v>653</v>
       </c>
       <c r="J71" s="21"/>
       <c r="K71" s="22" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>606</v>
+        <v>655</v>
+      </c>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="O71" s="23" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="72" ht="20" spans="1:15">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="15"/>
       <c r="H72" s="7" t="s">
-        <v>607</v>
+        <v>658</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>608</v>
+        <v>659</v>
       </c>
       <c r="K72" s="23" t="s">
-        <v>609</v>
+        <v>660</v>
       </c>
       <c r="L72" s="23" t="s">
-        <v>610</v>
+        <v>661</v>
       </c>
       <c r="M72" s="25"/>
       <c r="N72" s="22" t="s">
-        <v>611</v>
+        <v>662</v>
       </c>
       <c r="O72" s="22" t="s">
-        <v>612</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73" ht="20" spans="1:15">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="15"/>
       <c r="H73" s="7" t="s">
-        <v>613</v>
+        <v>664</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>614</v>
+        <v>665</v>
       </c>
       <c r="J73" s="21"/>
       <c r="K73" s="22" t="s">
-        <v>615</v>
+        <v>666</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="O73" s="4" t="s">
-        <v>618</v>
+        <v>667</v>
+      </c>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="O73" s="23" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="74" ht="20" spans="1:15">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="18"/>
       <c r="H74" s="5" t="s">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="K74" s="23" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="L74" s="23" t="s">
-        <v>622</v>
+        <v>673</v>
       </c>
       <c r="M74" s="25"/>
       <c r="N74" s="22" t="s">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="O74" s="22" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
     </row>
     <row r="75" ht="20" spans="1:15">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="15"/>
       <c r="H75" s="7" t="s">
-        <v>625</v>
+        <v>676</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>626</v>
+        <v>677</v>
       </c>
       <c r="J75" s="21"/>
       <c r="K75" s="22" t="s">
-        <v>627</v>
+        <v>678</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>628</v>
+        <v>679</v>
       </c>
       <c r="M75" s="25"/>
       <c r="N75" s="22" t="s">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="O75" s="22" t="s">
-        <v>630</v>
+        <v>681</v>
       </c>
     </row>
     <row r="76" ht="20" spans="1:15">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="18"/>
       <c r="H76" s="5" t="s">
-        <v>631</v>
+        <v>682</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="J76" s="21"/>
       <c r="K76" s="22" t="s">
-        <v>633</v>
+        <v>684</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>636</v>
+        <v>685</v>
+      </c>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="O76" s="23" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="77" ht="20" spans="1:12">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="18"/>
       <c r="H77" s="5" t="s">
-        <v>637</v>
+        <v>688</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>638</v>
+        <v>689</v>
       </c>
       <c r="K77" s="23" t="s">
-        <v>639</v>
+        <v>690</v>
       </c>
       <c r="L77" s="23" t="s">
-        <v>640</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78" ht="20" spans="1:12">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="18"/>
       <c r="H78" s="5" t="s">
-        <v>641</v>
+        <v>692</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>642</v>
+        <v>693</v>
       </c>
       <c r="J78" s="21"/>
       <c r="K78" s="22" t="s">
-        <v>643</v>
+        <v>694</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>644</v>
+        <v>695</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="15"/>
       <c r="H79" s="7" t="s">
-        <v>645</v>
+        <v>696</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>646</v>
+        <v>697</v>
       </c>
       <c r="K79" s="23" t="s">
-        <v>647</v>
+        <v>698</v>
       </c>
       <c r="L79" s="23" t="s">
-        <v>648</v>
+        <v>699</v>
       </c>
     </row>
     <row r="80" ht="20" spans="1:12">
@@ -6066,17 +6438,17 @@
       <c r="F80" s="6"/>
       <c r="G80" s="18"/>
       <c r="H80" s="5" t="s">
-        <v>649</v>
+        <v>700</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>650</v>
+        <v>701</v>
       </c>
       <c r="J80" s="21"/>
       <c r="K80" s="22" t="s">
-        <v>651</v>
+        <v>702</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>644</v>
+        <v>695</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -6088,16 +6460,16 @@
       <c r="F81" s="6"/>
       <c r="G81" s="15"/>
       <c r="H81" s="7" t="s">
-        <v>652</v>
+        <v>703</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>653</v>
+        <v>704</v>
       </c>
       <c r="K81" s="23" t="s">
-        <v>654</v>
+        <v>705</v>
       </c>
       <c r="L81" s="23" t="s">
-        <v>655</v>
+        <v>706</v>
       </c>
     </row>
     <row r="82" ht="20" spans="1:12">
@@ -6109,17 +6481,17 @@
       <c r="F82" s="6"/>
       <c r="G82" s="18"/>
       <c r="H82" s="5" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>657</v>
+        <v>708</v>
       </c>
       <c r="J82" s="21"/>
       <c r="K82" s="22" t="s">
-        <v>658</v>
+        <v>709</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>659</v>
+        <v>710</v>
       </c>
     </row>
     <row r="83" ht="20" spans="1:12">
@@ -6131,17 +6503,17 @@
       <c r="F83" s="6"/>
       <c r="G83" s="18"/>
       <c r="H83" s="5" t="s">
-        <v>660</v>
+        <v>711</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>661</v>
+        <v>712</v>
       </c>
       <c r="J83" s="21"/>
       <c r="K83" s="22" t="s">
-        <v>662</v>
+        <v>713</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>663</v>
+        <v>714</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -6153,16 +6525,16 @@
       <c r="F84" s="6"/>
       <c r="G84" s="15"/>
       <c r="H84" s="7" t="s">
-        <v>664</v>
+        <v>715</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>665</v>
+        <v>716</v>
       </c>
       <c r="K84" s="23" t="s">
-        <v>666</v>
+        <v>717</v>
       </c>
       <c r="L84" s="23" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
     </row>
     <row r="85" ht="20" spans="1:12">
@@ -6174,17 +6546,17 @@
       <c r="F85" s="6"/>
       <c r="G85" s="15"/>
       <c r="H85" s="7" t="s">
-        <v>668</v>
+        <v>719</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>669</v>
+        <v>720</v>
       </c>
       <c r="J85" s="21"/>
       <c r="K85" s="22" t="s">
-        <v>670</v>
+        <v>721</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>671</v>
+        <v>722</v>
       </c>
     </row>
     <row r="86" ht="20" spans="1:12">
@@ -6196,16 +6568,16 @@
       <c r="F86" s="6"/>
       <c r="G86" s="18"/>
       <c r="H86" s="5" t="s">
-        <v>672</v>
+        <v>723</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>673</v>
+        <v>724</v>
       </c>
       <c r="K86" s="23" t="s">
-        <v>674</v>
+        <v>725</v>
       </c>
       <c r="L86" s="23" t="s">
-        <v>675</v>
+        <v>726</v>
       </c>
     </row>
     <row r="87" ht="20" spans="1:12">
@@ -6217,17 +6589,17 @@
       <c r="F87" s="6"/>
       <c r="G87" s="18"/>
       <c r="H87" s="5" t="s">
-        <v>676</v>
+        <v>727</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>677</v>
+        <v>728</v>
       </c>
       <c r="J87" s="21"/>
       <c r="K87" s="22" t="s">
-        <v>668</v>
+        <v>719</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>678</v>
+        <v>729</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -6239,16 +6611,16 @@
       <c r="F88" s="6"/>
       <c r="G88" s="15"/>
       <c r="H88" s="7" t="s">
-        <v>679</v>
+        <v>730</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>680</v>
+        <v>731</v>
       </c>
       <c r="K88" s="23" t="s">
-        <v>681</v>
+        <v>732</v>
       </c>
       <c r="L88" s="23" t="s">
-        <v>682</v>
+        <v>733</v>
       </c>
     </row>
     <row r="89" ht="20" spans="1:12">
@@ -6260,17 +6632,17 @@
       <c r="F89" s="6"/>
       <c r="G89" s="18"/>
       <c r="H89" s="5" t="s">
-        <v>683</v>
+        <v>734</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>684</v>
+        <v>735</v>
       </c>
       <c r="J89" s="21"/>
       <c r="K89" s="22" t="s">
-        <v>685</v>
+        <v>736</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>686</v>
+        <v>737</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -6282,16 +6654,16 @@
       <c r="F90" s="6"/>
       <c r="G90" s="15"/>
       <c r="H90" s="7" t="s">
-        <v>687</v>
+        <v>738</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>688</v>
+        <v>739</v>
       </c>
       <c r="K90" s="23" t="s">
-        <v>689</v>
+        <v>740</v>
       </c>
       <c r="L90" s="23" t="s">
-        <v>690</v>
+        <v>741</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -6303,16 +6675,16 @@
       <c r="F91" s="6"/>
       <c r="G91" s="15"/>
       <c r="H91" s="7" t="s">
-        <v>691</v>
+        <v>742</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>692</v>
+        <v>743</v>
       </c>
       <c r="K91" s="23" t="s">
-        <v>693</v>
+        <v>744</v>
       </c>
       <c r="L91" s="23" t="s">
-        <v>694</v>
+        <v>745</v>
       </c>
     </row>
     <row r="92" ht="20" spans="1:12">
@@ -6324,17 +6696,17 @@
       <c r="F92" s="6"/>
       <c r="G92" s="18"/>
       <c r="H92" s="5" t="s">
-        <v>695</v>
+        <v>746</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>696</v>
+        <v>747</v>
       </c>
       <c r="J92" s="21"/>
       <c r="K92" s="22" t="s">
-        <v>697</v>
+        <v>748</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>698</v>
+        <v>749</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -6346,16 +6718,16 @@
       <c r="F93" s="6"/>
       <c r="G93" s="15"/>
       <c r="H93" s="10" t="s">
-        <v>699</v>
+        <v>750</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>700</v>
+        <v>751</v>
       </c>
       <c r="K93" s="23" t="s">
-        <v>701</v>
+        <v>752</v>
       </c>
       <c r="L93" s="23" t="s">
-        <v>702</v>
+        <v>753</v>
       </c>
     </row>
     <row r="94" ht="20" spans="1:12">
@@ -6367,17 +6739,17 @@
       <c r="F94" s="6"/>
       <c r="G94" s="15"/>
       <c r="H94" s="7" t="s">
-        <v>703</v>
+        <v>754</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>704</v>
+        <v>755</v>
       </c>
       <c r="J94" s="21"/>
       <c r="K94" s="22" t="s">
-        <v>705</v>
+        <v>756</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>706</v>
+        <v>757</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -6389,16 +6761,16 @@
       <c r="F95" s="6"/>
       <c r="G95" s="15"/>
       <c r="H95" s="7" t="s">
-        <v>707</v>
+        <v>758</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>708</v>
+        <v>759</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>709</v>
+        <v>760</v>
       </c>
       <c r="L95" s="23" t="s">
-        <v>710</v>
+        <v>761</v>
       </c>
     </row>
     <row r="96" ht="20" spans="1:12">
@@ -6410,17 +6782,17 @@
       <c r="F96" s="6"/>
       <c r="G96" s="18"/>
       <c r="H96" s="5" t="s">
-        <v>711</v>
+        <v>762</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>712</v>
+        <v>763</v>
       </c>
       <c r="J96" s="21"/>
       <c r="K96" s="22" t="s">
-        <v>713</v>
+        <v>764</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>714</v>
+        <v>765</v>
       </c>
     </row>
     <row r="97" ht="20" spans="1:9">
@@ -6432,10 +6804,10 @@
       <c r="F97" s="6"/>
       <c r="G97" s="18"/>
       <c r="H97" s="5" t="s">
-        <v>715</v>
+        <v>766</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>716</v>
+        <v>767</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6447,10 +6819,10 @@
       <c r="F98" s="6"/>
       <c r="G98" s="15"/>
       <c r="H98" s="7" t="s">
-        <v>717</v>
+        <v>768</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>718</v>
+        <v>769</v>
       </c>
     </row>
     <row r="99" ht="20" spans="1:9">
@@ -6462,10 +6834,10 @@
       <c r="F99" s="6"/>
       <c r="G99" s="15"/>
       <c r="H99" s="5" t="s">
-        <v>719</v>
+        <v>770</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>720</v>
+        <v>771</v>
       </c>
     </row>
     <row r="100" ht="20" spans="1:9">
@@ -6477,10 +6849,10 @@
       <c r="F100" s="6"/>
       <c r="G100" s="18"/>
       <c r="H100" s="5" t="s">
-        <v>721</v>
+        <v>772</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>722</v>
+        <v>773</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6492,10 +6864,10 @@
       <c r="F101" s="6"/>
       <c r="G101" s="15"/>
       <c r="H101" s="7" t="s">
-        <v>723</v>
+        <v>774</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>724</v>
+        <v>775</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6507,10 +6879,10 @@
       <c r="F102" s="6"/>
       <c r="G102" s="15"/>
       <c r="H102" s="7" t="s">
-        <v>725</v>
+        <v>776</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>726</v>
+        <v>777</v>
       </c>
     </row>
     <row r="103" ht="20" spans="1:9">
@@ -6522,10 +6894,10 @@
       <c r="F103" s="6"/>
       <c r="G103" s="18"/>
       <c r="H103" s="5" t="s">
-        <v>727</v>
+        <v>778</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>728</v>
+        <v>779</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6537,10 +6909,10 @@
       <c r="F104" s="6"/>
       <c r="G104" s="15"/>
       <c r="H104" s="7" t="s">
-        <v>729</v>
+        <v>780</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>728</v>
+        <v>779</v>
       </c>
     </row>
     <row r="105" ht="20" spans="1:9">
@@ -6552,10 +6924,10 @@
       <c r="F105" s="6"/>
       <c r="G105" s="18"/>
       <c r="H105" s="5" t="s">
-        <v>730</v>
+        <v>781</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>731</v>
+        <v>782</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6567,10 +6939,10 @@
       <c r="F106" s="6"/>
       <c r="G106" s="15"/>
       <c r="H106" s="7" t="s">
-        <v>732</v>
+        <v>783</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>733</v>
+        <v>784</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6582,10 +6954,10 @@
       <c r="F107" s="6"/>
       <c r="G107" s="15"/>
       <c r="H107" s="7" t="s">
-        <v>734</v>
+        <v>785</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>735</v>
+        <v>786</v>
       </c>
     </row>
     <row r="108" ht="20" spans="1:9">
@@ -6597,10 +6969,10 @@
       <c r="F108" s="6"/>
       <c r="G108" s="18"/>
       <c r="H108" s="5" t="s">
-        <v>736</v>
+        <v>787</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>737</v>
+        <v>788</v>
       </c>
     </row>
     <row r="109" ht="20" spans="1:9">
@@ -6612,10 +6984,10 @@
       <c r="F109" s="6"/>
       <c r="G109" s="18"/>
       <c r="H109" s="5" t="s">
-        <v>738</v>
+        <v>789</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>739</v>
+        <v>790</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6627,10 +6999,10 @@
       <c r="F110" s="6"/>
       <c r="G110" s="15"/>
       <c r="H110" s="7" t="s">
-        <v>740</v>
+        <v>791</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>741</v>
+        <v>792</v>
       </c>
     </row>
     <row r="111" ht="20" spans="1:9">
@@ -6642,10 +7014,10 @@
       <c r="F111" s="6"/>
       <c r="G111" s="18"/>
       <c r="H111" s="5" t="s">
-        <v>742</v>
+        <v>793</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>743</v>
+        <v>794</v>
       </c>
     </row>
     <row r="112" ht="20" spans="1:9">
@@ -6657,10 +7029,10 @@
       <c r="F112" s="6"/>
       <c r="G112" s="18"/>
       <c r="H112" s="5" t="s">
-        <v>744</v>
+        <v>795</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>745</v>
+        <v>796</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6672,19 +7044,21 @@
       <c r="F113" s="6"/>
       <c r="G113" s="15"/>
       <c r="H113" s="7" t="s">
-        <v>746</v>
+        <v>797</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>747</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="A68:D71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11320"/>
+    <workbookView windowWidth="24800" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,27 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799">
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>地质</t>
-  </si>
-  <si>
-    <t>动物</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
-    <t>化学</t>
-  </si>
-  <si>
-    <t>环境</t>
-  </si>
-  <si>
-    <t>教育</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973">
+  <si>
+    <t>Geography -地理</t>
+  </si>
+  <si>
+    <t>Geology - 地质</t>
+  </si>
+  <si>
+    <t>Animal - 动物</t>
+  </si>
+  <si>
+    <t>Law - 法律</t>
+  </si>
+  <si>
+    <t>Chemstry - 化学</t>
+  </si>
+  <si>
+    <t>Environment - 环境</t>
+  </si>
+  <si>
+    <t>Education - 教育</t>
+  </si>
+  <si>
+    <t>Economy - 经济</t>
   </si>
   <si>
     <t>insular</t>
@@ -79,6 +82,12 @@
     <t>说教的</t>
   </si>
   <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>征税</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -121,6 +130,12 @@
     <t>领导的</t>
   </si>
   <si>
+    <t>precious</t>
+  </si>
+  <si>
+    <t>珍贵的</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -163,6 +178,12 @@
     <t>布道</t>
   </si>
   <si>
+    <t>prosperous</t>
+  </si>
+  <si>
+    <t>繁荣的</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -199,6 +220,12 @@
     <t>开始</t>
   </si>
   <si>
+    <t>prosperity</t>
+  </si>
+  <si>
+    <t>繁荣</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -238,6 +265,12 @@
     <t>渗透</t>
   </si>
   <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>富有的</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -280,6 +313,12 @@
     <t>指导、命令</t>
   </si>
   <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>稀少的</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
@@ -313,12 +352,18 @@
     <t>污水、污染</t>
   </si>
   <si>
-    <t>enlight</t>
+    <t>enlighten</t>
   </si>
   <si>
     <t>启发、开导、教化</t>
   </si>
   <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -361,6 +406,12 @@
     <t>启发、教化</t>
   </si>
   <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>运气、财产</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -397,6 +448,12 @@
     <t>lead</t>
   </si>
   <si>
+    <t>opulence</t>
+  </si>
+  <si>
+    <t>富饶、丰富</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -437,6 +494,12 @@
   </si>
   <si>
     <t>直接</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>财政</t>
   </si>
   <si>
     <t>ebb</t>
@@ -496,6 +559,12 @@
     <t>组织、实施</t>
   </si>
   <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>经济上的</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -535,6 +604,12 @@
     <t>总课程</t>
   </si>
   <si>
+    <t>indigent</t>
+  </si>
+  <si>
+    <t>缺钱的、贫困的</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -571,6 +646,12 @@
     <t>学科</t>
   </si>
   <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>萧条、经济不景气</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
@@ -607,6 +688,12 @@
     <t>臭氧层</t>
   </si>
   <si>
+    <t>penury</t>
+  </si>
+  <si>
+    <t>赤贫</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -634,6 +721,12 @@
     <t>汽油</t>
   </si>
   <si>
+    <t>bidding</t>
+  </si>
+  <si>
+    <t>投标</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
@@ -664,6 +757,12 @@
     <t>甲烷、沼气</t>
   </si>
   <si>
+    <t>drawback</t>
+  </si>
+  <si>
+    <t>缺点、缺陷</t>
+  </si>
+  <si>
     <t>cosmopolitan</t>
   </si>
   <si>
@@ -691,6 +790,12 @@
     <t>碳氢化合物</t>
   </si>
   <si>
+    <t>exponent</t>
+  </si>
+  <si>
+    <t>指数</t>
+  </si>
+  <si>
     <t>subterrane</t>
   </si>
   <si>
@@ -721,6 +826,12 @@
     <t>石油</t>
   </si>
   <si>
+    <t>lease</t>
+  </si>
+  <si>
+    <t>租约</t>
+  </si>
+  <si>
     <t>subterranean</t>
   </si>
   <si>
@@ -751,12 +862,21 @@
     <t>塑料</t>
   </si>
   <si>
+    <t>redress</t>
+  </si>
+  <si>
+    <t>救济、纠正</t>
+  </si>
+  <si>
     <t>cavern</t>
   </si>
   <si>
     <t>geology</t>
   </si>
   <si>
+    <t>地理</t>
+  </si>
+  <si>
     <t>primate</t>
   </si>
   <si>
@@ -775,6 +895,12 @@
     <t>中间、媒介</t>
   </si>
   <si>
+    <t>compensation</t>
+  </si>
+  <si>
+    <t>补偿、赔偿</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
@@ -805,6 +931,12 @@
     <t>催化作用</t>
   </si>
   <si>
+    <t>deficit</t>
+  </si>
+  <si>
+    <t>赤字</t>
+  </si>
+  <si>
     <t>cleft</t>
   </si>
   <si>
@@ -835,6 +967,12 @@
     <t>催化剂</t>
   </si>
   <si>
+    <t>levy</t>
+  </si>
+  <si>
+    <t>征收</t>
+  </si>
+  <si>
     <t>crevice</t>
   </si>
   <si>
@@ -859,6 +997,12 @@
     <t>粘合剂</t>
   </si>
   <si>
+    <t>ration</t>
+  </si>
+  <si>
+    <t>限量供应、定量</t>
+  </si>
+  <si>
     <t>gap</t>
   </si>
   <si>
@@ -889,6 +1033,12 @@
     <t>烧焦</t>
   </si>
   <si>
+    <t>rebate</t>
+  </si>
+  <si>
+    <t>减少、打折扣</t>
+  </si>
+  <si>
     <t>zone</t>
   </si>
   <si>
@@ -916,6 +1066,12 @@
     <t>漂白</t>
   </si>
   <si>
+    <t>merchandise</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
     <t>equator</t>
   </si>
   <si>
@@ -946,6 +1102,12 @@
     <t>色彩、染色</t>
   </si>
   <si>
+    <t>commerce</t>
+  </si>
+  <si>
+    <t>商业、贸易</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
@@ -976,6 +1138,12 @@
     <t>染料</t>
   </si>
   <si>
+    <t>enterprise</t>
+  </si>
+  <si>
+    <t>企业</t>
+  </si>
+  <si>
     <t>altitude</t>
   </si>
   <si>
@@ -1003,6 +1171,15 @@
     <t>chemistry</t>
   </si>
   <si>
+    <t>化学</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -1033,6 +1210,12 @@
     <t>生物化学</t>
   </si>
   <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>存货</t>
+  </si>
+  <si>
     <t>meridian</t>
   </si>
   <si>
@@ -1060,6 +1243,12 @@
     <t>水螅虫</t>
   </si>
   <si>
+    <t>quota</t>
+  </si>
+  <si>
+    <t>定量、定额</t>
+  </si>
+  <si>
     <t>subsidiary</t>
   </si>
   <si>
@@ -1090,6 +1279,12 @@
     <t>点金术、魔力</t>
   </si>
   <si>
+    <t>traiff</t>
+  </si>
+  <si>
+    <t>关税表</t>
+  </si>
+  <si>
     <t>Antarctic</t>
   </si>
   <si>
@@ -1120,6 +1315,12 @@
     <t>人工的</t>
   </si>
   <si>
+    <t>inflation</t>
+  </si>
+  <si>
+    <t>通货膨胀</t>
+  </si>
+  <si>
     <t>Antarctica</t>
   </si>
   <si>
@@ -1150,6 +1351,12 @@
     <t>离子</t>
   </si>
   <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>交易</t>
+  </si>
+  <si>
     <t>Arctic</t>
   </si>
   <si>
@@ -1180,6 +1387,12 @@
     <t>分子</t>
   </si>
   <si>
+    <t>yen</t>
+  </si>
+  <si>
+    <t>日元</t>
+  </si>
+  <si>
     <t>coastland</t>
   </si>
   <si>
@@ -1210,6 +1423,12 @@
     <t>可溶性的</t>
   </si>
   <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>事业</t>
+  </si>
+  <si>
     <t>hemisphere</t>
   </si>
   <si>
@@ -1237,6 +1456,12 @@
     <t>溶液</t>
   </si>
   <si>
+    <t>consume</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
     <t>contour</t>
   </si>
   <si>
@@ -1267,6 +1492,12 @@
     <t>有溶解能力的</t>
   </si>
   <si>
+    <t>disburse</t>
+  </si>
+  <si>
+    <t>支付、支出</t>
+  </si>
+  <si>
     <t>geography</t>
   </si>
   <si>
@@ -1297,6 +1528,12 @@
     <t>溶解</t>
   </si>
   <si>
+    <t>acting</t>
+  </si>
+  <si>
+    <t>代理的</t>
+  </si>
+  <si>
     <t>horizon</t>
   </si>
   <si>
@@ -1327,6 +1564,12 @@
     <t>元素</t>
   </si>
   <si>
+    <t>inertia</t>
+  </si>
+  <si>
+    <t>不活动、惰性</t>
+  </si>
+  <si>
     <t>lowland</t>
   </si>
   <si>
@@ -1357,6 +1600,12 @@
     <t>不纯净的</t>
   </si>
   <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>打折扣、减价出售</t>
+  </si>
+  <si>
     <t>plain</t>
   </si>
   <si>
@@ -1387,6 +1636,12 @@
     <t>混合</t>
   </si>
   <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>查账</t>
+  </si>
+  <si>
     <t>strait</t>
   </si>
   <si>
@@ -1417,6 +1672,12 @@
     <t>混合物</t>
   </si>
   <si>
+    <t>shipment</t>
+  </si>
+  <si>
+    <t>一批货物</t>
+  </si>
+  <si>
     <t>channel</t>
   </si>
   <si>
@@ -1444,6 +1705,12 @@
     <t>物质</t>
   </si>
   <si>
+    <t>surplus</t>
+  </si>
+  <si>
+    <t>剩余的</t>
+  </si>
+  <si>
     <t>valley</t>
   </si>
   <si>
@@ -1474,6 +1741,12 @@
     <t>粒子</t>
   </si>
   <si>
+    <t>residue</t>
+  </si>
+  <si>
+    <t>剩余、残渣</t>
+  </si>
+  <si>
     <t>volcano</t>
   </si>
   <si>
@@ -1498,6 +1771,12 @@
     <t>爆炸性的</t>
   </si>
   <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>账户</t>
+  </si>
+  <si>
     <t>plateau</t>
   </si>
   <si>
@@ -1525,6 +1804,12 @@
     <t>爆炸</t>
   </si>
   <si>
+    <t>bankruptcy</t>
+  </si>
+  <si>
+    <t>倒闭、破产</t>
+  </si>
+  <si>
     <t>basin</t>
   </si>
   <si>
@@ -1552,6 +1837,12 @@
     <t>explode</t>
   </si>
   <si>
+    <t>savings</t>
+  </si>
+  <si>
+    <t>存款</t>
+  </si>
+  <si>
     <t>navigation</t>
   </si>
   <si>
@@ -1573,6 +1864,12 @@
     <t>燃烧</t>
   </si>
   <si>
+    <t>collateral</t>
+  </si>
+  <si>
+    <t>附属担保品</t>
+  </si>
+  <si>
     <t>ranges</t>
   </si>
   <si>
@@ -1594,6 +1891,12 @@
     <t>点燃</t>
   </si>
   <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>账单</t>
+  </si>
+  <si>
     <t>salinity</t>
   </si>
   <si>
@@ -1618,6 +1921,12 @@
     <t>枯萎、烧焦</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>支票、账单</t>
+  </si>
+  <si>
     <t>sediment</t>
   </si>
   <si>
@@ -1639,6 +1948,12 @@
     <t>ignite</t>
   </si>
   <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>硬币</t>
+  </si>
+  <si>
     <t>elevation</t>
   </si>
   <si>
@@ -1660,6 +1975,12 @@
     <t>行为</t>
   </si>
   <si>
+    <t>depreciate</t>
+  </si>
+  <si>
+    <t>贬值</t>
+  </si>
+  <si>
     <t>formation</t>
   </si>
   <si>
@@ -1681,6 +2002,9 @@
     <t>combination</t>
   </si>
   <si>
+    <t>merge</t>
+  </si>
+  <si>
     <t>geothermy</t>
   </si>
   <si>
@@ -1702,6 +2026,12 @@
     <t>使中性</t>
   </si>
   <si>
+    <t>reimburse</t>
+  </si>
+  <si>
+    <t>偿还、付还</t>
+  </si>
+  <si>
     <t>terrain</t>
   </si>
   <si>
@@ -1726,6 +2056,12 @@
     <t>聚合</t>
   </si>
   <si>
+    <t>garner</t>
+  </si>
+  <si>
+    <t>获得</t>
+  </si>
+  <si>
     <t>topography</t>
   </si>
   <si>
@@ -1747,6 +2083,12 @@
     <t>作用的</t>
   </si>
   <si>
+    <t>underestimate</t>
+  </si>
+  <si>
+    <t>低估</t>
+  </si>
+  <si>
     <t>tropical</t>
   </si>
   <si>
@@ -1771,6 +2113,12 @@
     <t>合成的</t>
   </si>
   <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>交换</t>
+  </si>
+  <si>
     <t>tropics</t>
   </si>
   <si>
@@ -1792,6 +2140,12 @@
     <t>碳</t>
   </si>
   <si>
+    <t>assess</t>
+  </si>
+  <si>
+    <t>评估、征税</t>
+  </si>
+  <si>
     <t>temperate</t>
   </si>
   <si>
@@ -1816,6 +2170,12 @@
     <t>铜</t>
   </si>
   <si>
+    <t>consolidate</t>
+  </si>
+  <si>
+    <t>巩固</t>
+  </si>
+  <si>
     <t>chimpanzee</t>
   </si>
   <si>
@@ -1831,6 +2191,12 @@
     <t>石墨</t>
   </si>
   <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>借贷</t>
+  </si>
+  <si>
     <t>baboon</t>
   </si>
   <si>
@@ -1849,6 +2215,12 @@
     <t>水星、水银</t>
   </si>
   <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>还款</t>
+  </si>
+  <si>
     <t>gorilla</t>
   </si>
   <si>
@@ -1864,6 +2236,12 @@
     <t>镍</t>
   </si>
   <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>公用事业、效用</t>
+  </si>
+  <si>
     <t>lizard</t>
   </si>
   <si>
@@ -1882,6 +2260,12 @@
     <t>铂金</t>
   </si>
   <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
     <t>moth</t>
   </si>
   <si>
@@ -1900,6 +2284,9 @@
     <t>银</t>
   </si>
   <si>
+    <t>option</t>
+  </si>
+  <si>
     <t>canary</t>
   </si>
   <si>
@@ -1918,6 +2305,12 @@
     <t>钠</t>
   </si>
   <si>
+    <t>economics</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
     <t>caterpillar</t>
   </si>
   <si>
@@ -1934,6 +2327,12 @@
   </si>
   <si>
     <t>锡</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>产出</t>
   </si>
   <si>
     <t xml:space="preserve">Usage: 1. UnKnown words would be with Green Block. 
@@ -1959,6 +2358,9 @@
     <t>锌</t>
   </si>
   <si>
+    <t>goods</t>
+  </si>
+  <si>
     <t>chameleon</t>
   </si>
   <si>
@@ -1977,6 +2379,12 @@
     <t>钙</t>
   </si>
   <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>机会</t>
+  </si>
+  <si>
     <t>larva</t>
   </si>
   <si>
@@ -1995,6 +2403,9 @@
     <t>氦</t>
   </si>
   <si>
+    <t>benefit</t>
+  </si>
+  <si>
     <t>bat</t>
   </si>
   <si>
@@ -2013,6 +2424,12 @@
     <t>硅</t>
   </si>
   <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>合同</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -2031,6 +2448,12 @@
     <t>氨</t>
   </si>
   <si>
+    <t>lottery</t>
+  </si>
+  <si>
+    <t>抽奖彩票</t>
+  </si>
+  <si>
     <t>class</t>
   </si>
   <si>
@@ -2049,6 +2472,12 @@
     <t>硫磺</t>
   </si>
   <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>交易、处理</t>
+  </si>
+  <si>
     <t>suborder</t>
   </si>
   <si>
@@ -2067,6 +2496,12 @@
     <t>碘</t>
   </si>
   <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>预算</t>
+  </si>
+  <si>
     <t>order</t>
   </si>
   <si>
@@ -2085,6 +2520,12 @@
     <t>氮</t>
   </si>
   <si>
+    <t>patronage</t>
+  </si>
+  <si>
+    <t>赞助、支持</t>
+  </si>
+  <si>
     <t>genus</t>
   </si>
   <si>
@@ -2103,6 +2544,9 @@
     <t>氧</t>
   </si>
   <si>
+    <t>choose</t>
+  </si>
+  <si>
     <t>antenna</t>
   </si>
   <si>
@@ -2115,6 +2559,9 @@
     <t>豁免</t>
   </si>
   <si>
+    <t>choice</t>
+  </si>
+  <si>
     <t>tentacle</t>
   </si>
   <si>
@@ -2127,6 +2574,12 @@
     <t>宽恕、豁免</t>
   </si>
   <si>
+    <t>barter</t>
+  </si>
+  <si>
+    <t>作物物交换</t>
+  </si>
+  <si>
     <t>brain</t>
   </si>
   <si>
@@ -2139,6 +2592,12 @@
     <t>释放、解放</t>
   </si>
   <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>购买</t>
+  </si>
+  <si>
     <t>spleen</t>
   </si>
   <si>
@@ -2148,6 +2607,9 @@
     <t>remit</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>hide</t>
   </si>
   <si>
@@ -2160,6 +2622,12 @@
     <t>释放</t>
   </si>
   <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>委托、授权</t>
+  </si>
+  <si>
     <t>spine</t>
   </si>
   <si>
@@ -2172,6 +2640,12 @@
     <t>豁免、免除</t>
   </si>
   <si>
+    <t>ransom</t>
+  </si>
+  <si>
+    <t>赎回</t>
+  </si>
+  <si>
     <t>spineless</t>
   </si>
   <si>
@@ -2184,6 +2658,12 @@
     <t>宣判无罪</t>
   </si>
   <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
     <t>toe</t>
   </si>
   <si>
@@ -2196,10 +2676,10 @@
     <t>废除、废止</t>
   </si>
   <si>
-    <t>bill</t>
-  </si>
-  <si>
-    <t>账单</t>
+    <t>bond</t>
+  </si>
+  <si>
+    <t>债券</t>
   </si>
   <si>
     <t>term</t>
@@ -2208,6 +2688,12 @@
     <t>期限</t>
   </si>
   <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>风俗、习惯</t>
+  </si>
+  <si>
     <t>beak</t>
   </si>
   <si>
@@ -2220,6 +2706,12 @@
     <t>条款</t>
   </si>
   <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>奖金</t>
+  </si>
+  <si>
     <t>fuzzy</t>
   </si>
   <si>
@@ -2229,6 +2721,12 @@
     <t>账单、开账单、法案</t>
   </si>
   <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>利息、利益</t>
+  </si>
+  <si>
     <t>head</t>
   </si>
   <si>
@@ -2241,6 +2739,12 @@
     <t>宪法</t>
   </si>
   <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>收入、财富；方法、手段</t>
+  </si>
+  <si>
     <t>hump</t>
   </si>
   <si>
@@ -2253,6 +2757,12 @@
     <t>法令、判决</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>债务</t>
+  </si>
+  <si>
     <t>scale</t>
   </si>
   <si>
@@ -2265,6 +2775,12 @@
     <t>立法、制定法律</t>
   </si>
   <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>现款</t>
+  </si>
+  <si>
     <t>wing</t>
   </si>
   <si>
@@ -2275,6 +2791,12 @@
   </si>
   <si>
     <t>法律、法规</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>收入</t>
   </si>
   <si>
     <t>fluffy</t>
@@ -2441,10 +2963,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2513,22 +3035,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2544,17 +3050,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2566,8 +3073,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2589,7 +3097,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2603,16 +3133,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2626,24 +3155,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2684,19 +3206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2708,19 +3224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2738,7 +3248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2756,7 +3266,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2768,19 +3278,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,25 +3326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2822,7 +3338,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2834,37 +3374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2875,21 +3397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2907,6 +3414,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2941,6 +3463,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2960,162 +3497,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3125,7 +3647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3177,16 +3699,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3204,20 +3723,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3544,10 +4060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U113"/>
+  <dimension ref="A1:X113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J42" workbookViewId="0">
-      <selection activeCell="N48" sqref="L44:N48"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
@@ -3573,9 +4089,12 @@
     <col min="19" max="19" width="5.859375" style="1" customWidth="1"/>
     <col min="20" max="20" width="18.234375" customWidth="1"/>
     <col min="21" max="21" width="26.953125" customWidth="1"/>
+    <col min="22" max="22" width="5.0703125" customWidth="1"/>
+    <col min="23" max="23" width="20.0546875" customWidth="1"/>
+    <col min="24" max="24" width="32.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:21">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:24">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3586,2383 +4105,2781 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="20" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="22" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:21">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:24">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26" t="s">
+      <c r="O2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29" t="s">
+      <c r="R2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:21">
+      <c r="U2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="20"/>
+      <c r="W2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:24">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="G3" s="17"/>
       <c r="H3" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26" t="s">
+      <c r="L3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="30"/>
-      <c r="T3" s="26" t="s">
+      <c r="O3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:21">
+      <c r="R3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:24">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29" t="s">
+      <c r="L4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="29" t="s">
+      <c r="M4" s="22"/>
+      <c r="N4" s="22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="O4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="25"/>
+      <c r="T4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="20"/>
+      <c r="W4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" ht="20" spans="1:21">
+        <v>61</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" ht="20" spans="1:24">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" ht="20" spans="1:21">
+        <v>75</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="25"/>
+      <c r="T6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" ht="20" spans="1:24">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="U7" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" ht="20" spans="1:21">
+        <v>90</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="U7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="W7" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" ht="20" spans="1:24">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="U8" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" ht="20" spans="1:21">
+      <c r="M8" s="24"/>
+      <c r="N8" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="T8" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="X8" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" ht="20" spans="1:24">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="R9" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="U9" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" ht="20" spans="1:21">
+        <v>121</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="S9" s="25"/>
+      <c r="T9" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="W9" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="X9" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" ht="20" spans="1:24">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="5" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="18"/>
+        <v>135</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="5" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="S10" s="30"/>
-      <c r="T10" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="U10" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="20" spans="1:21">
+        <v>137</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="U10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="28"/>
+      <c r="W10" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="X10" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" ht="20" spans="1:24">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="18"/>
+        <v>149</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="5" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="U11" s="29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="1:21">
+        <v>151</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="S11" s="25"/>
+      <c r="T11" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="W11" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="X11" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:24">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="19" t="s">
         <v>143</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="U12" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" ht="20" spans="1:21">
+        <v>90</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="R12" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="S12" s="25"/>
+      <c r="T12" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="X12" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="1:24">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="U13" s="29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" ht="20" spans="1:21">
+        <v>106</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" s="25"/>
+      <c r="T13" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="V13" s="28"/>
+      <c r="W13" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="X13" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" ht="20" spans="1:24">
       <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="5" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="S14" s="30"/>
-      <c r="T14" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="U14" s="26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" ht="20" spans="1:18">
+        <v>196</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U14" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="X14" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" ht="20" spans="1:24">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="G15" s="17"/>
       <c r="H15" s="5" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="R15" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" ht="20" spans="1:15">
+        <v>210</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="V15" s="28"/>
+      <c r="W15" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="X15" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" ht="20" spans="1:24">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" ht="20" spans="1:15">
+        <v>224</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="V16" s="28"/>
+      <c r="W16" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="X16" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" ht="20" spans="1:24">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" s="18"/>
+        <v>233</v>
+      </c>
+      <c r="G17" s="17"/>
       <c r="H17" s="5" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" ht="20" spans="1:15">
+        <v>235</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X17" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" ht="20" spans="1:24">
       <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="7" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" ht="20" spans="1:15">
+        <v>246</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="W18" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="X18" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" ht="20" spans="1:24">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" ht="20" spans="1:15">
+        <v>258</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="W19" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="X19" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" ht="20" spans="1:24">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="5" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="5" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" ht="20" spans="1:15">
+        <v>270</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="V20" s="28"/>
+      <c r="W20" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="X20" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" ht="20" spans="1:24">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" ht="20" spans="1:15">
+        <v>281</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="M21" s="24"/>
+      <c r="N21" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="W21" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="X21" s="27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" ht="20" spans="1:24">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" ht="20" spans="1:15">
+        <v>293</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="V22" s="28"/>
+      <c r="W22" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="X22" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" ht="20" spans="1:24">
       <c r="A23" s="11"/>
       <c r="B23" s="5" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G23" s="18"/>
+        <v>303</v>
+      </c>
+      <c r="G23" s="17"/>
       <c r="H23" s="5" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" ht="20" spans="1:15">
+        <v>305</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="V23" s="28"/>
+      <c r="W23" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="X23" s="26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" ht="20" spans="1:24">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>267</v>
+        <v>313</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G24" s="18"/>
+        <v>314</v>
+      </c>
+      <c r="G24" s="17"/>
       <c r="H24" s="5" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="L24" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="O24" s="23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" ht="20" spans="1:15">
+      <c r="M24" s="22"/>
+      <c r="N24" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="V24" s="28"/>
+      <c r="W24" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="X24" s="26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" ht="20" spans="1:24">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G25" s="18"/>
+        <v>325</v>
+      </c>
+      <c r="G25" s="17"/>
       <c r="H25" s="5" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" ht="20" spans="1:15">
+        <v>327</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="V25" s="28"/>
+      <c r="W25" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="X25" s="26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" ht="20" spans="1:24">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G26" s="18"/>
+        <v>336</v>
+      </c>
+      <c r="G26" s="17"/>
       <c r="H26" s="5" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" ht="20" spans="1:15">
+        <v>338</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="W26" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="X26" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" ht="20" spans="1:24">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G27" s="18"/>
+        <v>348</v>
+      </c>
+      <c r="G27" s="17"/>
       <c r="H27" s="5" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="M27" s="25"/>
-      <c r="N27" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" ht="20" spans="1:15">
+        <v>350</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="N27" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="W27" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="X27" s="27" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" ht="20" spans="1:24">
       <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="7" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="O28" s="23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="29" ht="20" spans="1:15">
+        <v>362</v>
+      </c>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="W28" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="X28" s="27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" ht="20" spans="1:24">
       <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="5" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G29" s="18"/>
+        <v>372</v>
+      </c>
+      <c r="G29" s="17"/>
       <c r="H29" s="5" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="O29" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" ht="20" spans="1:15">
+        <v>374</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="W29" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="X29" s="27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" ht="20" spans="1:24">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>324</v>
+        <v>383</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="7" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="O30" s="22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="31" ht="20" spans="1:15">
+        <v>386</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="M30" s="24"/>
+      <c r="N30" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="O30" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="W30" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="X30" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="31" ht="20" spans="1:24">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>332</v>
+        <v>393</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>333</v>
+        <v>394</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="5" t="s">
-        <v>334</v>
+        <v>395</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G31" s="18"/>
+        <v>384</v>
+      </c>
+      <c r="G31" s="17"/>
       <c r="H31" s="5" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="O31" s="22" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" ht="20" spans="1:15">
+        <v>397</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="M31" s="24"/>
+      <c r="N31" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="V31" s="28"/>
+      <c r="W31" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="X31" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" ht="20" spans="1:24">
       <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="5" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="7" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="M32" s="25"/>
-      <c r="N32" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="O32" s="22" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" ht="20" spans="1:15">
+      <c r="K32" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="M32" s="24"/>
+      <c r="N32" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="O32" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="V32" s="28"/>
+      <c r="W32" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="X32" s="26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" ht="20" spans="1:24">
       <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="5" t="s">
-        <v>353</v>
+        <v>418</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>354</v>
+        <v>419</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="7" t="s">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="O33" s="23" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="34" ht="20" spans="1:15">
+        <v>421</v>
+      </c>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="O33" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="W33" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="X33" s="27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="34" ht="20" spans="1:24">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
-        <v>361</v>
+        <v>428</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>363</v>
+        <v>430</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="7" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="K34" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="L34" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="O34" s="23" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" ht="20" spans="1:15">
+        <v>433</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="O34" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="W34" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="X34" s="27" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" ht="20" spans="1:24">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>371</v>
+        <v>440</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>372</v>
+        <v>441</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G35" s="18"/>
+        <v>443</v>
+      </c>
+      <c r="G35" s="17"/>
       <c r="H35" s="5" t="s">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="O35" s="23" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="36" ht="20" spans="1:15">
+        <v>445</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="O35" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="V35" s="28"/>
+      <c r="W35" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="X35" s="26" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" ht="20" spans="1:24">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>382</v>
+        <v>453</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="G36" s="18"/>
+        <v>455</v>
+      </c>
+      <c r="G36" s="17"/>
       <c r="H36" s="5" t="s">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="L36" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="M36" s="25"/>
-      <c r="N36" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="O36" s="22" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>457</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="M36" s="24"/>
+      <c r="N36" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="W36" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="X36" s="27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
-        <v>391</v>
+        <v>464</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>392</v>
+        <v>465</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="7" t="s">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="7" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="L37" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="O37" s="23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="38" ht="20" spans="1:15">
+        <v>469</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="O37" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="W37" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="X37" s="27" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="38" ht="20" spans="1:24">
       <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>401</v>
+        <v>476</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>402</v>
+        <v>477</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>403</v>
+        <v>478</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="7" t="s">
-        <v>404</v>
+        <v>479</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="L38" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="M38" s="25"/>
-      <c r="N38" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="O38" s="22" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="39" ht="20" spans="1:15">
+        <v>480</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="M38" s="24"/>
+      <c r="N38" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="O38" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="V38" s="28"/>
+      <c r="W38" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="X38" s="26" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" ht="20" spans="1:24">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>410</v>
+        <v>487</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>411</v>
+        <v>488</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>412</v>
+        <v>489</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G39" s="18"/>
+        <v>490</v>
+      </c>
+      <c r="G39" s="17"/>
       <c r="H39" s="5" t="s">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="M39" s="25"/>
-      <c r="N39" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="O39" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="40" ht="20" spans="1:15">
+        <v>492</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="M39" s="24"/>
+      <c r="N39" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="O39" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="W39" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="X39" s="27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="40" ht="20" spans="1:24">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>421</v>
+        <v>500</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="7" t="s">
-        <v>422</v>
+        <v>501</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G40" s="18"/>
+        <v>502</v>
+      </c>
+      <c r="G40" s="17"/>
       <c r="H40" s="5" t="s">
-        <v>424</v>
+        <v>503</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="O40" s="23" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="41" ht="20" spans="1:15">
+        <v>504</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="O40" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="V40" s="28"/>
+      <c r="W40" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="X40" s="26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="41" ht="20" spans="1:24">
       <c r="A41" s="11"/>
       <c r="B41" s="5" t="s">
-        <v>430</v>
+        <v>511</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>431</v>
+        <v>512</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="7" t="s">
-        <v>432</v>
+        <v>513</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>433</v>
+        <v>514</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="7" t="s">
-        <v>434</v>
+        <v>515</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="J41" s="21"/>
-      <c r="K41" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="M41" s="25"/>
-      <c r="N41" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="O41" s="22" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>516</v>
+      </c>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="M41" s="24"/>
+      <c r="N41" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="O41" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="W41" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="X41" s="27" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42" ht="20" spans="1:24">
       <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
-        <v>440</v>
+        <v>523</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>441</v>
+        <v>524</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="7" t="s">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="L42" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="O42" s="23" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="43" ht="20" spans="1:15">
+        <v>528</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="O42" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="V42" s="28"/>
+      <c r="W42" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="X42" s="26" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" ht="20" spans="1:24">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>451</v>
+        <v>536</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="5" t="s">
-        <v>452</v>
+        <v>537</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>453</v>
+        <v>538</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="7" t="s">
-        <v>454</v>
+        <v>539</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="K43" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="L43" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="O43" s="23" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="44" ht="20" spans="1:15">
+        <v>540</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="O43" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="V43" s="28"/>
+      <c r="W43" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="X43" s="26" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="44" ht="20" spans="1:24">
       <c r="A44" s="9"/>
       <c r="B44" s="7" t="s">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>451</v>
+        <v>536</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>461</v>
+        <v>548</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>462</v>
+        <v>549</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="7" t="s">
-        <v>463</v>
+        <v>550</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="O44" s="23" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="45" ht="20" spans="1:15">
+        <v>551</v>
+      </c>
+      <c r="J44" s="20"/>
+      <c r="K44" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="O44" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="V44" s="28"/>
+      <c r="W44" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="X44" s="26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="45" ht="20" spans="1:24">
       <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
-        <v>469</v>
+        <v>558</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>470</v>
+        <v>559</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>471</v>
+        <v>560</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>472</v>
+        <v>561</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="7" t="s">
-        <v>473</v>
+        <v>562</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="M45" s="25"/>
-      <c r="N45" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="O45" s="22" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>563</v>
+      </c>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="L45" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="M45" s="24"/>
+      <c r="N45" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="V45" s="28"/>
+      <c r="W45" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="X45" s="26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
-        <v>479</v>
+        <v>570</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>480</v>
+        <v>571</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="7" t="s">
-        <v>481</v>
+        <v>572</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>472</v>
+        <v>561</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="7" t="s">
-        <v>482</v>
+        <v>573</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="L46" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="O46" s="23" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="47" ht="20" spans="1:15">
+        <v>574</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="O46" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="W46" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="X46" s="27" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" ht="20" spans="1:24">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
-        <v>487</v>
+        <v>580</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>441</v>
+        <v>524</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="7" t="s">
-        <v>488</v>
+        <v>581</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G47" s="18"/>
+        <v>582</v>
+      </c>
+      <c r="G47" s="17"/>
       <c r="H47" s="5" t="s">
-        <v>490</v>
+        <v>583</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="L47" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23" t="s">
-        <v>494</v>
-      </c>
-      <c r="O47" s="23" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="48" ht="20" spans="1:15">
+        <v>584</v>
+      </c>
+      <c r="J47" s="20"/>
+      <c r="K47" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="L47" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="O47" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="W47" s="27" t="s">
+        <v>589</v>
+      </c>
+      <c r="X47" s="27" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="48" ht="20" spans="1:24">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>496</v>
+        <v>591</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>497</v>
+        <v>592</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="7" t="s">
-        <v>498</v>
+        <v>593</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G48" s="18"/>
+        <v>594</v>
+      </c>
+      <c r="G48" s="17"/>
       <c r="H48" s="5" t="s">
-        <v>500</v>
+        <v>595</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="L48" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="O48" s="23" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="49" ht="20" spans="1:15">
+        <v>596</v>
+      </c>
+      <c r="J48" s="20"/>
+      <c r="K48" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="O48" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="W48" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="X48" s="27" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="49" ht="20" spans="1:24">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
-        <v>505</v>
+        <v>602</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>506</v>
+        <v>603</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="15"/>
       <c r="H49" s="7" t="s">
-        <v>507</v>
+        <v>604</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="L49" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="O49" s="23" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="50" ht="20" spans="1:15">
+        <v>605</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="O49" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="V49" s="28"/>
+      <c r="W49" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="X49" s="26" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="50" ht="20" spans="1:24">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>512</v>
+        <v>611</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>513</v>
+        <v>612</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="15"/>
       <c r="H50" s="7" t="s">
-        <v>514</v>
+        <v>613</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="O50" s="23" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="51" ht="20" spans="1:15">
+        <v>574</v>
+      </c>
+      <c r="J50" s="20"/>
+      <c r="K50" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="O50" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="W50" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="X50" s="27" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="51" ht="20" spans="1:24">
       <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
-        <v>519</v>
+        <v>620</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>520</v>
+        <v>621</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="18"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="5" t="s">
-        <v>521</v>
+        <v>622</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="K51" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="M51" s="25"/>
-      <c r="N51" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="O51" s="22" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="52" ht="20" spans="1:15">
+        <v>623</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="L51" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="M51" s="24"/>
+      <c r="N51" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="V51" s="28"/>
+      <c r="W51" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="X51" s="26" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="52" ht="20" spans="1:24">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>527</v>
+        <v>630</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>528</v>
+        <v>631</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="18"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="5" t="s">
-        <v>529</v>
+        <v>632</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="K52" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="L52" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="O52" s="23" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>633</v>
+      </c>
+      <c r="K52" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="L52" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22" t="s">
+        <v>636</v>
+      </c>
+      <c r="O52" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="W52" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="X52" s="27" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="53" ht="20" spans="1:24">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>534</v>
+        <v>639</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="15"/>
       <c r="H53" s="7" t="s">
-        <v>535</v>
+        <v>640</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>537</v>
-      </c>
-      <c r="L53" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23" t="s">
-        <v>539</v>
-      </c>
-      <c r="O53" s="23" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="54" ht="20" spans="1:15">
+        <v>641</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="L53" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="O53" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="V53" s="28"/>
+      <c r="W53" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="X53" s="26" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="54" ht="20" spans="1:24">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
-        <v>541</v>
+        <v>648</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>542</v>
+        <v>649</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="18"/>
+      <c r="G54" s="17"/>
       <c r="H54" s="5" t="s">
-        <v>543</v>
+        <v>650</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="J54" s="21"/>
-      <c r="K54" s="22" t="s">
-        <v>545</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="O54" s="23" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="55" ht="20" spans="1:15">
+        <v>651</v>
+      </c>
+      <c r="J54" s="20"/>
+      <c r="K54" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="L54" s="21" t="s">
+        <v>653</v>
+      </c>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="O54" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="W54" s="27" t="s">
+        <v>655</v>
+      </c>
+      <c r="X54" s="27" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="55" ht="20" spans="1:24">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
-        <v>548</v>
+        <v>656</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>549</v>
+        <v>657</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="18"/>
+      <c r="G55" s="17"/>
       <c r="H55" s="5" t="s">
-        <v>550</v>
+        <v>658</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>552</v>
-      </c>
-      <c r="L55" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="O55" s="23" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="56" ht="20" spans="1:15">
+        <v>659</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="O55" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="V55" s="28"/>
+      <c r="W55" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="X55" s="26" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="56" ht="20" spans="1:24">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
-        <v>555</v>
+        <v>665</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>556</v>
+        <v>666</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="18"/>
+      <c r="G56" s="17"/>
       <c r="H56" s="5" t="s">
-        <v>557</v>
+        <v>667</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="L56" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="M56" s="25"/>
-      <c r="N56" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="O56" s="22" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="57" ht="20" spans="1:15">
+        <v>668</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>670</v>
+      </c>
+      <c r="M56" s="24"/>
+      <c r="N56" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="V56" s="28"/>
+      <c r="W56" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="X56" s="26" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="57" ht="20" spans="1:24">
       <c r="A57" s="9"/>
       <c r="B57" s="5" t="s">
-        <v>563</v>
+        <v>675</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>556</v>
+        <v>666</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="18"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="5" t="s">
-        <v>564</v>
+        <v>676</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="L57" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="O57" s="23" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="58" ht="20" spans="1:15">
+        <v>677</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="O57" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="W57" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="X57" s="27" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="58" ht="20" spans="1:24">
       <c r="A58" s="9"/>
       <c r="B58" s="5" t="s">
-        <v>570</v>
+        <v>684</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>571</v>
+        <v>685</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="15"/>
       <c r="H58" s="7" t="s">
-        <v>572</v>
+        <v>686</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="K58" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="L58" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="M58" s="25"/>
-      <c r="N58" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="O58" s="22" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="59" ht="20" spans="1:15">
+        <v>687</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="L58" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="M58" s="24"/>
+      <c r="N58" s="21" t="s">
+        <v>690</v>
+      </c>
+      <c r="O58" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="W58" s="27" t="s">
+        <v>692</v>
+      </c>
+      <c r="X58" s="27" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="59" ht="20" spans="1:24">
       <c r="A59" s="9"/>
       <c r="B59" s="5" t="s">
-        <v>578</v>
+        <v>694</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>579</v>
+        <v>695</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="18"/>
+      <c r="G59" s="17"/>
       <c r="H59" s="5" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="J59" s="21"/>
-      <c r="K59" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="L59" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="O59" s="23" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="60" ht="20" spans="1:15">
+        <v>696</v>
+      </c>
+      <c r="J59" s="20"/>
+      <c r="K59" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="L59" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="O59" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="V59" s="28"/>
+      <c r="W59" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="X59" s="26" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="60" ht="20" spans="1:24">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
-        <v>585</v>
+        <v>703</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>586</v>
+        <v>704</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="18"/>
+      <c r="G60" s="17"/>
       <c r="H60" s="5" t="s">
-        <v>587</v>
+        <v>705</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="K60" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="L60" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="O60" s="23" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="61" ht="20" spans="1:15">
+        <v>706</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="O60" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="V60" s="28"/>
+      <c r="W60" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="X60" s="26" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="61" ht="20" spans="1:24">
       <c r="A61" s="9"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="16"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="18"/>
+      <c r="G61" s="17"/>
       <c r="H61" s="5" t="s">
-        <v>593</v>
+        <v>713</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="K61" s="23" t="s">
-        <v>595</v>
-      </c>
-      <c r="L61" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="M61" s="25"/>
-      <c r="N61" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="O61" s="22" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="62" ht="20" spans="1:15">
+        <v>714</v>
+      </c>
+      <c r="K61" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="M61" s="24"/>
+      <c r="N61" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="W61" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="X61" s="27" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="62" ht="20" spans="1:24">
       <c r="A62" s="9"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="16"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="18"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="5" t="s">
-        <v>598</v>
+        <v>720</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="J62" s="21"/>
-      <c r="K62" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="L62" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23" t="s">
-        <v>602</v>
-      </c>
-      <c r="O62" s="23" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="63" ht="20" spans="1:15">
+        <v>721</v>
+      </c>
+      <c r="J62" s="20"/>
+      <c r="K62" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="L62" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22" t="s">
+        <v>724</v>
+      </c>
+      <c r="O62" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="W62" s="27" t="s">
+        <v>726</v>
+      </c>
+      <c r="X62" s="27" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="63" ht="20" spans="1:24">
       <c r="A63" s="9"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -5971,27 +6888,33 @@
       <c r="F63" s="6"/>
       <c r="G63" s="15"/>
       <c r="H63" s="7" t="s">
-        <v>604</v>
+        <v>728</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="J63" s="21"/>
-      <c r="K63" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="L63" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="M63" s="25"/>
-      <c r="N63" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="O63" s="22" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="64" ht="20" spans="1:15">
+        <v>714</v>
+      </c>
+      <c r="J63" s="20"/>
+      <c r="K63" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="L63" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="M63" s="24"/>
+      <c r="N63" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="O63" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="W63" s="27" t="s">
+        <v>733</v>
+      </c>
+      <c r="X63" s="27" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="64" ht="20" spans="1:24">
       <c r="A64" s="9"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -6000,27 +6923,33 @@
       <c r="F64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="5" t="s">
-        <v>609</v>
+        <v>735</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="J64" s="21"/>
-      <c r="K64" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="L64" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23" t="s">
-        <v>613</v>
-      </c>
-      <c r="O64" s="23" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="65" ht="20" spans="1:15">
+        <v>736</v>
+      </c>
+      <c r="J64" s="20"/>
+      <c r="K64" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="L64" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="O64" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="W64" s="27" t="s">
+        <v>741</v>
+      </c>
+      <c r="X64" s="27" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="65" ht="20" spans="1:24">
       <c r="A65" s="9"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -6029,429 +6958,530 @@
       <c r="F65" s="6"/>
       <c r="G65" s="15"/>
       <c r="H65" s="7" t="s">
-        <v>615</v>
+        <v>743</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="K65" s="23" t="s">
-        <v>617</v>
-      </c>
-      <c r="L65" s="23" t="s">
-        <v>618</v>
-      </c>
-      <c r="M65" s="25"/>
-      <c r="N65" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="O65" s="22" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="66" ht="20" spans="1:15">
+        <v>744</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="L65" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="M65" s="24"/>
+      <c r="N65" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="O65" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="W65" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="X65" s="27" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="66" ht="20" spans="1:24">
       <c r="A66" s="9"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="16"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="18"/>
+      <c r="G66" s="17"/>
       <c r="H66" s="5" t="s">
-        <v>621</v>
+        <v>750</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="J66" s="21"/>
-      <c r="K66" s="22" t="s">
-        <v>623</v>
-      </c>
-      <c r="L66" s="22" t="s">
-        <v>624</v>
-      </c>
-      <c r="M66" s="25"/>
-      <c r="N66" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="O66" s="22" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="67" ht="20" spans="1:15">
+        <v>751</v>
+      </c>
+      <c r="J66" s="20"/>
+      <c r="K66" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="L66" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="M66" s="24"/>
+      <c r="N66" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="W66" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="X66" s="27" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="67" ht="20" spans="1:24">
       <c r="A67" s="9"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="16"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="18"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="5" t="s">
-        <v>627</v>
+        <v>758</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="K67" s="23" t="s">
-        <v>629</v>
-      </c>
-      <c r="L67" s="23" t="s">
-        <v>630</v>
-      </c>
-      <c r="M67" s="25"/>
-      <c r="N67" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="O67" s="22" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="68" ht="20" spans="1:15">
-      <c r="A68" s="31" t="s">
-        <v>633</v>
-      </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
+        <v>759</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="M67" s="24"/>
+      <c r="N67" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="W67" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="X67" s="27" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="68" ht="20" spans="1:24">
+      <c r="A68" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="15"/>
       <c r="H68" s="7" t="s">
-        <v>634</v>
+        <v>767</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="J68" s="21"/>
-      <c r="K68" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="L68" s="22" t="s">
-        <v>637</v>
-      </c>
-      <c r="M68" s="25"/>
-      <c r="N68" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="O68" s="22" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="69" ht="20" spans="1:15">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
+        <v>768</v>
+      </c>
+      <c r="J68" s="20"/>
+      <c r="K68" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="L68" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="M68" s="24"/>
+      <c r="N68" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="O68" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="W68" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="X68" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" ht="20" spans="1:24">
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="18"/>
+      <c r="G69" s="17"/>
       <c r="H69" s="5" t="s">
-        <v>640</v>
+        <v>774</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="K69" s="23" t="s">
-        <v>642</v>
-      </c>
-      <c r="L69" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="O69" s="23" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="70" ht="20" spans="1:15">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
+        <v>775</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="L69" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="O69" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="W69" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="X69" s="27" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="70" ht="20" spans="1:24">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="18"/>
+      <c r="G70" s="17"/>
       <c r="H70" s="5" t="s">
-        <v>646</v>
+        <v>782</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="J70" s="21"/>
-      <c r="K70" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="L70" s="22" t="s">
-        <v>649</v>
-      </c>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="O70" s="23" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="71" ht="20" spans="1:15">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
+        <v>783</v>
+      </c>
+      <c r="J70" s="20"/>
+      <c r="K70" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="L70" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="O70" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="W70" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="X70" s="27" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="71" ht="20" spans="1:24">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="15"/>
       <c r="H71" s="7" t="s">
-        <v>652</v>
+        <v>789</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="J71" s="21"/>
-      <c r="K71" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="L71" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23" t="s">
-        <v>656</v>
-      </c>
-      <c r="O71" s="23" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="72" ht="20" spans="1:15">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
+        <v>790</v>
+      </c>
+      <c r="J71" s="20"/>
+      <c r="K71" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="L71" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="O71" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="V71" s="28"/>
+      <c r="W71" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="X71" s="26" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="72" ht="20" spans="1:24">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="15"/>
       <c r="H72" s="7" t="s">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="K72" s="23" t="s">
-        <v>660</v>
-      </c>
-      <c r="L72" s="23" t="s">
-        <v>661</v>
-      </c>
-      <c r="M72" s="25"/>
-      <c r="N72" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="O72" s="22" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="73" ht="20" spans="1:15">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
+        <v>798</v>
+      </c>
+      <c r="K72" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="M72" s="24"/>
+      <c r="N72" s="21" t="s">
+        <v>801</v>
+      </c>
+      <c r="O72" s="21" t="s">
+        <v>802</v>
+      </c>
+      <c r="V72" s="28"/>
+      <c r="W72" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="X72" s="26" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="73" ht="20" spans="1:24">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="15"/>
       <c r="H73" s="7" t="s">
-        <v>664</v>
+        <v>805</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="J73" s="21"/>
-      <c r="K73" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="L73" s="22" t="s">
-        <v>667</v>
-      </c>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23" t="s">
-        <v>668</v>
-      </c>
-      <c r="O73" s="23" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="74" ht="20" spans="1:15">
-      <c r="A74" s="32"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
+        <v>806</v>
+      </c>
+      <c r="J73" s="20"/>
+      <c r="K73" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="O73" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="W73" s="27" t="s">
+        <v>811</v>
+      </c>
+      <c r="X73" s="27" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="74" ht="20" spans="1:24">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="18"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="5" t="s">
-        <v>670</v>
+        <v>813</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="K74" s="23" t="s">
-        <v>672</v>
-      </c>
-      <c r="L74" s="23" t="s">
-        <v>673</v>
-      </c>
-      <c r="M74" s="25"/>
-      <c r="N74" s="22" t="s">
-        <v>674</v>
-      </c>
-      <c r="O74" s="22" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="75" ht="20" spans="1:15">
-      <c r="A75" s="32"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
+        <v>814</v>
+      </c>
+      <c r="K74" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="M74" s="24"/>
+      <c r="N74" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>818</v>
+      </c>
+      <c r="W74" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="X74" s="27" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="75" ht="20" spans="1:24">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="15"/>
       <c r="H75" s="7" t="s">
-        <v>676</v>
+        <v>821</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="J75" s="21"/>
-      <c r="K75" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="L75" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="M75" s="25"/>
-      <c r="N75" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="O75" s="22" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="76" ht="20" spans="1:15">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
+        <v>822</v>
+      </c>
+      <c r="J75" s="20"/>
+      <c r="K75" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="L75" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="M75" s="24"/>
+      <c r="N75" s="21" t="s">
+        <v>825</v>
+      </c>
+      <c r="O75" s="21" t="s">
+        <v>826</v>
+      </c>
+      <c r="V75" s="28"/>
+      <c r="W75" s="26" t="s">
+        <v>827</v>
+      </c>
+      <c r="X75" s="26" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="76" ht="20" spans="1:24">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="18"/>
+      <c r="G76" s="17"/>
       <c r="H76" s="5" t="s">
-        <v>682</v>
+        <v>829</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="J76" s="21"/>
-      <c r="K76" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="L76" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="O76" s="23" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="77" ht="20" spans="1:12">
-      <c r="A77" s="32"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+        <v>830</v>
+      </c>
+      <c r="J76" s="20"/>
+      <c r="K76" s="21" t="s">
+        <v>831</v>
+      </c>
+      <c r="L76" s="21" t="s">
+        <v>832</v>
+      </c>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="O76" s="22" t="s">
+        <v>834</v>
+      </c>
+      <c r="W76" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="X76" s="27" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="77" ht="20" spans="1:24">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="18"/>
+      <c r="G77" s="17"/>
       <c r="H77" s="5" t="s">
-        <v>688</v>
+        <v>836</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="K77" s="23" t="s">
-        <v>690</v>
-      </c>
-      <c r="L77" s="23" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="78" ht="20" spans="1:12">
-      <c r="A78" s="32"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
+        <v>837</v>
+      </c>
+      <c r="K77" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="L77" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="W77" s="27" t="s">
+        <v>840</v>
+      </c>
+      <c r="X77" s="27" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="78" ht="20" spans="1:24">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="18"/>
+      <c r="G78" s="17"/>
       <c r="H78" s="5" t="s">
-        <v>692</v>
+        <v>841</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="J78" s="21"/>
-      <c r="K78" s="22" t="s">
-        <v>694</v>
-      </c>
-      <c r="L78" s="22" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="32"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
+        <v>842</v>
+      </c>
+      <c r="J78" s="20"/>
+      <c r="K78" s="21" t="s">
+        <v>843</v>
+      </c>
+      <c r="L78" s="21" t="s">
+        <v>844</v>
+      </c>
+      <c r="V78" s="28"/>
+      <c r="W78" s="26" t="s">
+        <v>845</v>
+      </c>
+      <c r="X78" s="26" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="15"/>
       <c r="H79" s="7" t="s">
-        <v>696</v>
+        <v>847</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="K79" s="23" t="s">
-        <v>698</v>
-      </c>
-      <c r="L79" s="23" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="80" ht="20" spans="1:12">
+        <v>848</v>
+      </c>
+      <c r="K79" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="L79" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="W79" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="X79" s="27" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="80" ht="20" spans="1:24">
       <c r="A80" s="9"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
       <c r="D80" s="16"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="18"/>
+      <c r="G80" s="17"/>
       <c r="H80" s="5" t="s">
-        <v>700</v>
+        <v>853</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="J80" s="21"/>
-      <c r="K80" s="22" t="s">
-        <v>702</v>
-      </c>
-      <c r="L80" s="22" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>854</v>
+      </c>
+      <c r="J80" s="20"/>
+      <c r="K80" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="L80" s="21" t="s">
+        <v>844</v>
+      </c>
+      <c r="V80" s="28"/>
+      <c r="W80" s="26" t="s">
+        <v>856</v>
+      </c>
+      <c r="X80" s="26" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="9"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -6460,63 +7490,82 @@
       <c r="F81" s="6"/>
       <c r="G81" s="15"/>
       <c r="H81" s="7" t="s">
-        <v>703</v>
+        <v>857</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="K81" s="23" t="s">
-        <v>705</v>
-      </c>
-      <c r="L81" s="23" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="82" ht="20" spans="1:12">
+        <v>858</v>
+      </c>
+      <c r="K81" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="L81" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="W81" s="27" t="s">
+        <v>861</v>
+      </c>
+      <c r="X81" s="27" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="82" ht="20" spans="1:24">
       <c r="A82" s="9"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
       <c r="D82" s="16"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="18"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="5" t="s">
-        <v>707</v>
+        <v>863</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="J82" s="21"/>
-      <c r="K82" s="22" t="s">
-        <v>709</v>
-      </c>
-      <c r="L82" s="22" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="83" ht="20" spans="1:12">
+        <v>864</v>
+      </c>
+      <c r="J82" s="20"/>
+      <c r="K82" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="L82" s="21" t="s">
+        <v>866</v>
+      </c>
+      <c r="V82" s="28"/>
+      <c r="W82" s="26" t="s">
+        <v>867</v>
+      </c>
+      <c r="X82" s="26" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="83" ht="20" spans="1:24">
       <c r="A83" s="9"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
       <c r="D83" s="16"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="18"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="5" t="s">
-        <v>711</v>
+        <v>869</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="J83" s="21"/>
-      <c r="K83" s="22" t="s">
-        <v>713</v>
-      </c>
-      <c r="L83" s="22" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>870</v>
+      </c>
+      <c r="J83" s="20"/>
+      <c r="K83" s="21" t="s">
+        <v>871</v>
+      </c>
+      <c r="L83" s="21" t="s">
+        <v>872</v>
+      </c>
+      <c r="W83" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="X83" s="27" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="84" ht="20" spans="1:24">
       <c r="A84" s="9"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -6525,19 +7574,26 @@
       <c r="F84" s="6"/>
       <c r="G84" s="15"/>
       <c r="H84" s="7" t="s">
-        <v>715</v>
+        <v>875</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="K84" s="23" t="s">
-        <v>717</v>
-      </c>
-      <c r="L84" s="23" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="85" ht="20" spans="1:12">
+        <v>876</v>
+      </c>
+      <c r="K84" s="22" t="s">
+        <v>877</v>
+      </c>
+      <c r="L84" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="V84" s="28"/>
+      <c r="W84" s="26" t="s">
+        <v>879</v>
+      </c>
+      <c r="X84" s="26" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="85" ht="20" spans="1:24">
       <c r="A85" s="9"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -6546,63 +7602,82 @@
       <c r="F85" s="6"/>
       <c r="G85" s="15"/>
       <c r="H85" s="7" t="s">
-        <v>719</v>
+        <v>618</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="J85" s="21"/>
-      <c r="K85" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="L85" s="22" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="86" ht="20" spans="1:12">
+        <v>619</v>
+      </c>
+      <c r="J85" s="20"/>
+      <c r="K85" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="L85" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="W85" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="X85" s="27" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="86" ht="20" spans="1:24">
       <c r="A86" s="9"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
       <c r="D86" s="16"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="18"/>
+      <c r="G86" s="17"/>
       <c r="H86" s="5" t="s">
-        <v>723</v>
+        <v>885</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="K86" s="23" t="s">
-        <v>725</v>
-      </c>
-      <c r="L86" s="23" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="87" ht="20" spans="1:12">
+        <v>886</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="W86" s="27" t="s">
+        <v>889</v>
+      </c>
+      <c r="X86" s="27" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="87" ht="20" spans="1:24">
       <c r="A87" s="9"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
       <c r="D87" s="16"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="18"/>
+      <c r="G87" s="17"/>
       <c r="H87" s="5" t="s">
-        <v>727</v>
+        <v>891</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="J87" s="21"/>
-      <c r="K87" s="22" t="s">
-        <v>719</v>
-      </c>
-      <c r="L87" s="22" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>892</v>
+      </c>
+      <c r="J87" s="20"/>
+      <c r="K87" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="L87" s="21" t="s">
+        <v>893</v>
+      </c>
+      <c r="V87" s="28"/>
+      <c r="W87" s="26" t="s">
+        <v>894</v>
+      </c>
+      <c r="X87" s="26" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="88" ht="20" spans="1:24">
       <c r="A88" s="9"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -6611,41 +7686,54 @@
       <c r="F88" s="6"/>
       <c r="G88" s="15"/>
       <c r="H88" s="7" t="s">
-        <v>730</v>
+        <v>896</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="K88" s="23" t="s">
-        <v>732</v>
-      </c>
-      <c r="L88" s="23" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="89" ht="20" spans="1:12">
+        <v>897</v>
+      </c>
+      <c r="K88" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="V88" s="28"/>
+      <c r="W88" s="26" t="s">
+        <v>900</v>
+      </c>
+      <c r="X88" s="26" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="89" ht="20" spans="1:24">
       <c r="A89" s="9"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
       <c r="D89" s="16"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="18"/>
+      <c r="G89" s="17"/>
       <c r="H89" s="5" t="s">
-        <v>734</v>
+        <v>902</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="J89" s="21"/>
-      <c r="K89" s="22" t="s">
-        <v>736</v>
-      </c>
-      <c r="L89" s="22" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>903</v>
+      </c>
+      <c r="J89" s="20"/>
+      <c r="K89" s="21" t="s">
+        <v>904</v>
+      </c>
+      <c r="L89" s="21" t="s">
+        <v>905</v>
+      </c>
+      <c r="W89" s="27" t="s">
+        <v>906</v>
+      </c>
+      <c r="X89" s="27" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="90" ht="20" spans="1:24">
       <c r="A90" s="9"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -6654,19 +7742,26 @@
       <c r="F90" s="6"/>
       <c r="G90" s="15"/>
       <c r="H90" s="7" t="s">
-        <v>738</v>
+        <v>908</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="K90" s="23" t="s">
-        <v>740</v>
-      </c>
-      <c r="L90" s="23" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>909</v>
+      </c>
+      <c r="K90" s="22" t="s">
+        <v>910</v>
+      </c>
+      <c r="L90" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="V90" s="28"/>
+      <c r="W90" s="26" t="s">
+        <v>912</v>
+      </c>
+      <c r="X90" s="26" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="91" ht="20" spans="1:24">
       <c r="A91" s="9"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -6675,16 +7770,23 @@
       <c r="F91" s="6"/>
       <c r="G91" s="15"/>
       <c r="H91" s="7" t="s">
-        <v>742</v>
+        <v>914</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="K91" s="23" t="s">
-        <v>744</v>
-      </c>
-      <c r="L91" s="23" t="s">
-        <v>745</v>
+        <v>915</v>
+      </c>
+      <c r="K91" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="L91" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="V91" s="28"/>
+      <c r="W91" s="26" t="s">
+        <v>918</v>
+      </c>
+      <c r="X91" s="26" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="92" ht="20" spans="1:12">
@@ -6694,19 +7796,19 @@
       <c r="D92" s="16"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="18"/>
+      <c r="G92" s="17"/>
       <c r="H92" s="5" t="s">
-        <v>746</v>
+        <v>920</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="J92" s="21"/>
-      <c r="K92" s="22" t="s">
-        <v>748</v>
-      </c>
-      <c r="L92" s="22" t="s">
-        <v>749</v>
+        <v>921</v>
+      </c>
+      <c r="J92" s="20"/>
+      <c r="K92" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="L92" s="21" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -6718,16 +7820,16 @@
       <c r="F93" s="6"/>
       <c r="G93" s="15"/>
       <c r="H93" s="10" t="s">
-        <v>750</v>
+        <v>924</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="K93" s="23" t="s">
-        <v>752</v>
-      </c>
-      <c r="L93" s="23" t="s">
-        <v>753</v>
+        <v>925</v>
+      </c>
+      <c r="K93" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="L93" s="22" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="94" ht="20" spans="1:12">
@@ -6739,17 +7841,17 @@
       <c r="F94" s="6"/>
       <c r="G94" s="15"/>
       <c r="H94" s="7" t="s">
-        <v>754</v>
+        <v>928</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="J94" s="21"/>
-      <c r="K94" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="L94" s="22" t="s">
-        <v>757</v>
+        <v>929</v>
+      </c>
+      <c r="J94" s="20"/>
+      <c r="K94" s="21" t="s">
+        <v>930</v>
+      </c>
+      <c r="L94" s="21" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -6761,16 +7863,16 @@
       <c r="F95" s="6"/>
       <c r="G95" s="15"/>
       <c r="H95" s="7" t="s">
-        <v>758</v>
+        <v>932</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="K95" s="23" t="s">
-        <v>760</v>
-      </c>
-      <c r="L95" s="23" t="s">
-        <v>761</v>
+        <v>933</v>
+      </c>
+      <c r="K95" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="L95" s="22" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="96" ht="20" spans="1:12">
@@ -6780,19 +7882,19 @@
       <c r="D96" s="16"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="18"/>
+      <c r="G96" s="17"/>
       <c r="H96" s="5" t="s">
-        <v>762</v>
+        <v>936</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="J96" s="21"/>
-      <c r="K96" s="22" t="s">
-        <v>764</v>
-      </c>
-      <c r="L96" s="22" t="s">
-        <v>765</v>
+        <v>937</v>
+      </c>
+      <c r="J96" s="20"/>
+      <c r="K96" s="21" t="s">
+        <v>938</v>
+      </c>
+      <c r="L96" s="21" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="97" ht="20" spans="1:9">
@@ -6802,12 +7904,12 @@
       <c r="D97" s="16"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="18"/>
+      <c r="G97" s="17"/>
       <c r="H97" s="5" t="s">
-        <v>766</v>
+        <v>940</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>767</v>
+        <v>941</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6819,10 +7921,10 @@
       <c r="F98" s="6"/>
       <c r="G98" s="15"/>
       <c r="H98" s="7" t="s">
-        <v>768</v>
+        <v>942</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>769</v>
+        <v>943</v>
       </c>
     </row>
     <row r="99" ht="20" spans="1:9">
@@ -6834,10 +7936,10 @@
       <c r="F99" s="6"/>
       <c r="G99" s="15"/>
       <c r="H99" s="5" t="s">
-        <v>770</v>
+        <v>944</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>771</v>
+        <v>945</v>
       </c>
     </row>
     <row r="100" ht="20" spans="1:9">
@@ -6847,12 +7949,12 @@
       <c r="D100" s="16"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="18"/>
+      <c r="G100" s="17"/>
       <c r="H100" s="5" t="s">
-        <v>772</v>
+        <v>946</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>773</v>
+        <v>947</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6864,10 +7966,10 @@
       <c r="F101" s="6"/>
       <c r="G101" s="15"/>
       <c r="H101" s="7" t="s">
-        <v>774</v>
+        <v>948</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>775</v>
+        <v>949</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6879,10 +7981,10 @@
       <c r="F102" s="6"/>
       <c r="G102" s="15"/>
       <c r="H102" s="7" t="s">
-        <v>776</v>
+        <v>950</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>777</v>
+        <v>951</v>
       </c>
     </row>
     <row r="103" ht="20" spans="1:9">
@@ -6892,12 +7994,12 @@
       <c r="D103" s="16"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="18"/>
+      <c r="G103" s="17"/>
       <c r="H103" s="5" t="s">
-        <v>778</v>
+        <v>952</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>779</v>
+        <v>953</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6909,10 +8011,10 @@
       <c r="F104" s="6"/>
       <c r="G104" s="15"/>
       <c r="H104" s="7" t="s">
-        <v>780</v>
+        <v>954</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>779</v>
+        <v>953</v>
       </c>
     </row>
     <row r="105" ht="20" spans="1:9">
@@ -6922,12 +8024,12 @@
       <c r="D105" s="16"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="18"/>
+      <c r="G105" s="17"/>
       <c r="H105" s="5" t="s">
-        <v>781</v>
+        <v>955</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>782</v>
+        <v>956</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6939,10 +8041,10 @@
       <c r="F106" s="6"/>
       <c r="G106" s="15"/>
       <c r="H106" s="7" t="s">
-        <v>783</v>
+        <v>957</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>784</v>
+        <v>958</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6954,10 +8056,10 @@
       <c r="F107" s="6"/>
       <c r="G107" s="15"/>
       <c r="H107" s="7" t="s">
-        <v>785</v>
+        <v>959</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>786</v>
+        <v>960</v>
       </c>
     </row>
     <row r="108" ht="20" spans="1:9">
@@ -6967,12 +8069,12 @@
       <c r="D108" s="16"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="18"/>
+      <c r="G108" s="17"/>
       <c r="H108" s="5" t="s">
-        <v>787</v>
+        <v>961</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>788</v>
+        <v>962</v>
       </c>
     </row>
     <row r="109" ht="20" spans="1:9">
@@ -6982,12 +8084,12 @@
       <c r="D109" s="16"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="18"/>
+      <c r="G109" s="17"/>
       <c r="H109" s="5" t="s">
-        <v>789</v>
+        <v>963</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>790</v>
+        <v>964</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6999,10 +8101,10 @@
       <c r="F110" s="6"/>
       <c r="G110" s="15"/>
       <c r="H110" s="7" t="s">
-        <v>791</v>
+        <v>965</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>792</v>
+        <v>966</v>
       </c>
     </row>
     <row r="111" ht="20" spans="1:9">
@@ -7012,12 +8114,12 @@
       <c r="D111" s="16"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="18"/>
+      <c r="G111" s="17"/>
       <c r="H111" s="5" t="s">
-        <v>793</v>
+        <v>967</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>794</v>
+        <v>968</v>
       </c>
     </row>
     <row r="112" ht="20" spans="1:9">
@@ -7027,12 +8129,12 @@
       <c r="D112" s="16"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="18"/>
+      <c r="G112" s="17"/>
       <c r="H112" s="5" t="s">
-        <v>795</v>
+        <v>969</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>796</v>
+        <v>970</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -7044,14 +8146,14 @@
       <c r="F113" s="6"/>
       <c r="G113" s="15"/>
       <c r="H113" s="7" t="s">
-        <v>797</v>
+        <v>971</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>798</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -7059,6 +8161,7 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="A68:D71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="11320"/>
+    <workbookView windowWidth="21960" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023">
   <si>
     <t>Geography -地理</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Economy - 经济</t>
   </si>
   <si>
+    <t>Art - 艺术</t>
+  </si>
+  <si>
     <t>insular</t>
   </si>
   <si>
@@ -88,6 +91,12 @@
     <t>征税</t>
   </si>
   <si>
+    <t>picturesque</t>
+  </si>
+  <si>
+    <t>美丽的、风景如画</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -136,6 +145,12 @@
     <t>珍贵的</t>
   </si>
   <si>
+    <t>vivid</t>
+  </si>
+  <si>
+    <t>鲜活的、生动的</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -184,6 +199,12 @@
     <t>繁荣的</t>
   </si>
   <si>
+    <t>sculpture</t>
+  </si>
+  <si>
+    <t>雕塑</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -226,6 +247,12 @@
     <t>繁荣</t>
   </si>
   <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>雕塑、雕像</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -271,6 +298,12 @@
     <t>富有的</t>
   </si>
   <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>画、作画</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -319,6 +352,12 @@
     <t>稀少的</t>
   </si>
   <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>画廊</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
@@ -364,6 +403,12 @@
     <t>资产</t>
   </si>
   <si>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>人物像、画像</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -412,6 +457,12 @@
     <t>运气、财产</t>
   </si>
   <si>
+    <t>impressionism</t>
+  </si>
+  <si>
+    <t>印象主义</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -454,6 +505,12 @@
     <t>富饶、丰富</t>
   </si>
   <si>
+    <t>portray</t>
+  </si>
+  <si>
+    <t>画像、描述</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -500,6 +557,12 @@
   </si>
   <si>
     <t>财政</t>
+  </si>
+  <si>
+    <t>mold</t>
+  </si>
+  <si>
+    <t>塑造、用模子制作</t>
   </si>
   <si>
     <t>ebb</t>
@@ -565,6 +628,12 @@
     <t>经济上的</t>
   </si>
   <si>
+    <t>embroider</t>
+  </si>
+  <si>
+    <t>绣花、刺绣</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -610,6 +679,12 @@
     <t>缺钱的、贫困的</t>
   </si>
   <si>
+    <t>tragedy</t>
+  </si>
+  <si>
+    <t>悲剧</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -652,6 +727,12 @@
     <t>萧条、经济不景气</t>
   </si>
   <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>歌剧</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
@@ -694,6 +775,12 @@
     <t>赤贫</t>
   </si>
   <si>
+    <t>enact</t>
+  </si>
+  <si>
+    <t>颁发</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -727,6 +814,12 @@
     <t>投标</t>
   </si>
   <si>
+    <t>pose</t>
+  </si>
+  <si>
+    <t>提出</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
@@ -763,6 +856,12 @@
     <t>缺点、缺陷</t>
   </si>
   <si>
+    <t>rehearse</t>
+  </si>
+  <si>
+    <t>排练、预演</t>
+  </si>
+  <si>
     <t>cosmopolitan</t>
   </si>
   <si>
@@ -796,6 +895,12 @@
     <t>指数</t>
   </si>
   <si>
+    <t>preclude</t>
+  </si>
+  <si>
+    <t>妨碍、阻止</t>
+  </si>
+  <si>
     <t>subterrane</t>
   </si>
   <si>
@@ -832,6 +937,12 @@
     <t>租约</t>
   </si>
   <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>角色、人物</t>
+  </si>
+  <si>
     <t>subterranean</t>
   </si>
   <si>
@@ -868,6 +979,12 @@
     <t>救济、纠正</t>
   </si>
   <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>人物、角色</t>
+  </si>
+  <si>
     <t>cavern</t>
   </si>
   <si>
@@ -901,6 +1018,12 @@
     <t>补偿、赔偿</t>
   </si>
   <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
@@ -937,6 +1060,12 @@
     <t>赤字</t>
   </si>
   <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>形象</t>
+  </si>
+  <si>
     <t>cleft</t>
   </si>
   <si>
@@ -973,6 +1102,12 @@
     <t>征收</t>
   </si>
   <si>
+    <t>renaissance</t>
+  </si>
+  <si>
+    <t>文艺复兴</t>
+  </si>
+  <si>
     <t>crevice</t>
   </si>
   <si>
@@ -1003,6 +1138,12 @@
     <t>限量供应、定量</t>
   </si>
   <si>
+    <t>conjure</t>
+  </si>
+  <si>
+    <t>想象出的</t>
+  </si>
+  <si>
     <t>gap</t>
   </si>
   <si>
@@ -1039,6 +1180,12 @@
     <t>减少、打折扣</t>
   </si>
   <si>
+    <t>aesthetic</t>
+  </si>
+  <si>
+    <t>美学的</t>
+  </si>
+  <si>
     <t>zone</t>
   </si>
   <si>
@@ -1070,6 +1217,12 @@
   </si>
   <si>
     <t>商品</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>浪漫的</t>
   </si>
   <si>
     <t>equator</t>
@@ -2851,9 +3004,6 @@
   </si>
   <si>
     <t>油脂</t>
-  </si>
-  <si>
-    <t>enact</t>
   </si>
   <si>
     <t>颁布</t>
@@ -2963,12 +3113,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3027,9 +3177,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3042,31 +3199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3081,31 +3215,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3118,8 +3253,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3134,29 +3285,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3165,7 +3315,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3206,31 +3364,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3248,25 +3406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3278,13 +3424,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3296,55 +3472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3362,7 +3490,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3374,13 +3526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3405,15 +3563,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3448,6 +3597,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3459,21 +3617,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3497,157 +3640,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3726,13 +3884,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4060,10 +4227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:X113"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="W14" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23:AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
@@ -4092,9 +4259,12 @@
     <col min="22" max="22" width="5.0703125" customWidth="1"/>
     <col min="23" max="23" width="20.0546875" customWidth="1"/>
     <col min="24" max="24" width="32.4140625" customWidth="1"/>
+    <col min="25" max="25" width="5.078125" customWidth="1"/>
+    <col min="26" max="26" width="18.875" customWidth="1"/>
+    <col min="27" max="27" width="22.515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:24">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4135,2679 +4305,2859 @@
       </c>
       <c r="W1" s="21"/>
       <c r="X1" s="21"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:24">
+      <c r="Y1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:27">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V2" s="20"/>
-      <c r="W2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="26" t="s">
+      <c r="W2" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:24">
+      <c r="X2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:27">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:24">
+        <v>40</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:27">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="V4" s="20"/>
-      <c r="W4" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="W4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" ht="20" spans="1:27">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="22" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="W5" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="X5" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" ht="20" spans="1:24">
+        <v>74</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" ht="20" spans="1:27">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="21" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="21" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="W6" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" s="27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" ht="20" spans="1:24">
+        <v>91</v>
+      </c>
+      <c r="W6" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA6" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" ht="20" spans="1:27">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="21" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="22" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="W7" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="X7" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" ht="20" spans="1:24">
+        <v>109</v>
+      </c>
+      <c r="W7" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA7" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" ht="20" spans="1:27">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="21" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="21" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="21" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="W8" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="X8" s="27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" ht="20" spans="1:24">
+        <v>126</v>
+      </c>
+      <c r="W8" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="X8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA8" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" ht="20" spans="1:27">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="21" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="S9" s="25"/>
       <c r="T9" s="21" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="W9" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="X9" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" ht="20" spans="1:24">
+        <v>144</v>
+      </c>
+      <c r="W9" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="X9" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA9" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" ht="20" spans="1:27">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="5" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="21" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="22" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="28"/>
-      <c r="W10" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="X10" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" ht="20" spans="1:24">
+        <v>40</v>
+      </c>
+      <c r="V10" s="26"/>
+      <c r="W10" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA10" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" ht="20" spans="1:27">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="21" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="W11" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="X11" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="1:24">
+        <v>178</v>
+      </c>
+      <c r="W11" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA11" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:27">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="5" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="21" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="21" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="S12" s="25"/>
       <c r="T12" s="21" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="W12" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="X12" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" ht="20" spans="1:24">
+        <v>194</v>
+      </c>
+      <c r="W12" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="X12" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA12" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="1:27">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="21" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="S13" s="25"/>
       <c r="T13" s="21" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="V13" s="28"/>
-      <c r="W13" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="X13" s="26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" ht="20" spans="1:24">
+        <v>211</v>
+      </c>
+      <c r="V13" s="26"/>
+      <c r="W13" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="X13" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA13" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" ht="20" spans="1:27">
       <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="5" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="7" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="21" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="21" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="22" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="W14" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="X14" s="27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" ht="20" spans="1:24">
+        <v>227</v>
+      </c>
+      <c r="W14" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="X14" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA14" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" ht="20" spans="1:27">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="21" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="21" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="V15" s="28"/>
-      <c r="W15" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="X15" s="26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" ht="20" spans="1:24">
+        <v>243</v>
+      </c>
+      <c r="V15" s="26"/>
+      <c r="W15" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="X15" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA15" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" ht="20" spans="1:27">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="V16" s="28"/>
-      <c r="W16" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="X16" s="26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" ht="20" spans="1:24">
+        <v>256</v>
+      </c>
+      <c r="V16" s="26"/>
+      <c r="W16" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="X16" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA16" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" ht="20" spans="1:27">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="21" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="21" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="W17" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="X17" s="27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" ht="20" spans="1:24">
+        <v>270</v>
+      </c>
+      <c r="W17" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="X17" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA17" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" ht="20" spans="1:27">
       <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="7" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="21" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="W18" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="X18" s="27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" ht="20" spans="1:24">
+        <v>283</v>
+      </c>
+      <c r="W18" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="X18" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA18" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" ht="20" spans="1:27">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="W19" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="X19" s="27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" ht="20" spans="1:24">
+        <v>297</v>
+      </c>
+      <c r="W19" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="X19" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA19" s="29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" ht="20" spans="1:27">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="5" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="5" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="21" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="V20" s="28"/>
-      <c r="W20" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="X20" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" ht="20" spans="1:24">
+        <v>311</v>
+      </c>
+      <c r="V20" s="26"/>
+      <c r="W20" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="X20" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA20" s="29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" ht="20" spans="1:27">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="M21" s="24"/>
       <c r="N21" s="21" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="W21" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="X21" s="27" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" ht="20" spans="1:24">
+        <v>324</v>
+      </c>
+      <c r="W21" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="X21" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA21" s="29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" ht="20" spans="1:27">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="21" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="21" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="V22" s="28"/>
-      <c r="W22" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="X22" s="26" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="23" ht="20" spans="1:24">
+        <v>338</v>
+      </c>
+      <c r="V22" s="26"/>
+      <c r="W22" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="X22" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA22" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" ht="20" spans="1:27">
       <c r="A23" s="11"/>
       <c r="B23" s="5" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="21" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="M23" s="24"/>
       <c r="N23" s="21" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="V23" s="28"/>
-      <c r="W23" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="X23" s="26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" ht="20" spans="1:24">
+        <v>352</v>
+      </c>
+      <c r="V23" s="26"/>
+      <c r="W23" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="X23" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA23" s="28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" ht="20" spans="1:27">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="21" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="V24" s="28"/>
-      <c r="W24" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="X24" s="26" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" ht="20" spans="1:24">
+        <v>364</v>
+      </c>
+      <c r="V24" s="26"/>
+      <c r="W24" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="X24" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA24" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" ht="20" spans="1:27">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="21" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="V25" s="28"/>
-      <c r="W25" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="X25" s="26" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" ht="20" spans="1:24">
+        <v>378</v>
+      </c>
+      <c r="V25" s="26"/>
+      <c r="W25" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="X25" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA25" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" ht="20" spans="1:27">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="5" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="21" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="22" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="W26" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="X26" s="27" t="s">
-        <v>344</v>
+        <v>391</v>
+      </c>
+      <c r="W26" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="X26" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA26" s="29" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="27" ht="20" spans="1:24">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="21" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="21" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="W27" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="X27" s="27" t="s">
-        <v>356</v>
+        <v>405</v>
+      </c>
+      <c r="W27" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="X27" s="22" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="28" ht="20" spans="1:24">
       <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="7" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="21" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="W28" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="X28" s="27" t="s">
-        <v>368</v>
+        <v>417</v>
+      </c>
+      <c r="W28" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="X28" s="22" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="29" ht="20" spans="1:24">
       <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="5" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="21" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="W29" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="X29" s="27" t="s">
-        <v>380</v>
+        <v>429</v>
+      </c>
+      <c r="W29" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="X29" s="22" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="30" ht="20" spans="1:24">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>381</v>
+        <v>432</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="7" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="M30" s="24"/>
       <c r="N30" s="21" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="W30" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="X30" s="27" t="s">
-        <v>392</v>
+        <v>441</v>
+      </c>
+      <c r="W30" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="X30" s="22" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="31" ht="20" spans="1:24">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="5" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="M31" s="24"/>
       <c r="N31" s="21" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="V31" s="28"/>
-      <c r="W31" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="X31" s="26" t="s">
-        <v>403</v>
+        <v>452</v>
+      </c>
+      <c r="V31" s="26"/>
+      <c r="W31" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="X31" s="21" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="32" ht="20" spans="1:24">
       <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="5" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="7" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="23" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="21" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="V32" s="28"/>
-      <c r="W32" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="X32" s="26" t="s">
-        <v>415</v>
+        <v>464</v>
+      </c>
+      <c r="V32" s="26"/>
+      <c r="W32" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="X32" s="21" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="33" ht="20" spans="1:24">
       <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="5" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="7" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="21" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="W33" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="X33" s="27" t="s">
-        <v>427</v>
+        <v>476</v>
+      </c>
+      <c r="W33" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="X33" s="22" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="34" ht="20" spans="1:24">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="7" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>435</v>
+        <v>486</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="W34" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="X34" s="27" t="s">
-        <v>439</v>
+        <v>488</v>
+      </c>
+      <c r="W34" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="X34" s="22" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="35" ht="20" spans="1:24">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="5" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="21" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="V35" s="28"/>
-      <c r="W35" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="X35" s="26" t="s">
-        <v>451</v>
+        <v>500</v>
+      </c>
+      <c r="V35" s="26"/>
+      <c r="W35" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="X35" s="21" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="36" ht="20" spans="1:24">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="5" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="21" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="W36" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="X36" s="27" t="s">
-        <v>463</v>
+        <v>512</v>
+      </c>
+      <c r="W36" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="X36" s="22" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="7" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="7" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="O37" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="W37" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="X37" s="27" t="s">
-        <v>474</v>
+        <v>523</v>
+      </c>
+      <c r="W37" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="X37" s="22" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="38" ht="20" spans="1:24">
       <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="7" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>481</v>
+        <v>532</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="M38" s="24"/>
       <c r="N38" s="21" t="s">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="V38" s="28"/>
-      <c r="W38" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="X38" s="26" t="s">
-        <v>486</v>
+        <v>535</v>
+      </c>
+      <c r="V38" s="26"/>
+      <c r="W38" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="X38" s="21" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="39" ht="20" spans="1:24">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="5" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="M39" s="24"/>
       <c r="N39" s="21" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="W39" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="X39" s="27" t="s">
-        <v>498</v>
+        <v>547</v>
+      </c>
+      <c r="W39" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="X39" s="22" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="40" ht="20" spans="1:24">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
-        <v>499</v>
+        <v>550</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>500</v>
+        <v>551</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="7" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="5" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>505</v>
+        <v>556</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>506</v>
+        <v>557</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22" t="s">
-        <v>507</v>
+        <v>558</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="V40" s="28"/>
-      <c r="W40" s="26" t="s">
-        <v>509</v>
-      </c>
-      <c r="X40" s="26" t="s">
-        <v>510</v>
+        <v>559</v>
+      </c>
+      <c r="V40" s="26"/>
+      <c r="W40" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="X40" s="21" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="41" ht="20" spans="1:24">
       <c r="A41" s="11"/>
       <c r="B41" s="5" t="s">
-        <v>511</v>
+        <v>562</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="7" t="s">
-        <v>513</v>
+        <v>564</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="7" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>516</v>
+        <v>567</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="21" t="s">
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
       <c r="M41" s="24"/>
       <c r="N41" s="21" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="W41" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="X41" s="27" t="s">
-        <v>522</v>
+        <v>571</v>
+      </c>
+      <c r="W41" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="X41" s="22" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="42" ht="20" spans="1:24">
       <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>525</v>
+        <v>576</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>526</v>
+        <v>577</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="7" t="s">
-        <v>527</v>
+        <v>578</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>528</v>
+        <v>579</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>529</v>
+        <v>580</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>530</v>
+        <v>581</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22" t="s">
-        <v>531</v>
+        <v>582</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="V42" s="28"/>
-      <c r="W42" s="26" t="s">
-        <v>533</v>
-      </c>
-      <c r="X42" s="26" t="s">
-        <v>534</v>
+        <v>583</v>
+      </c>
+      <c r="V42" s="26"/>
+      <c r="W42" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="X42" s="21" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="43" ht="20" spans="1:24">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
-        <v>535</v>
+        <v>586</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>536</v>
+        <v>587</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="5" t="s">
-        <v>537</v>
+        <v>588</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>538</v>
+        <v>589</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="7" t="s">
-        <v>539</v>
+        <v>590</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>540</v>
+        <v>591</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>541</v>
+        <v>592</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>542</v>
+        <v>593</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22" t="s">
-        <v>543</v>
+        <v>594</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="V43" s="28"/>
-      <c r="W43" s="26" t="s">
-        <v>545</v>
-      </c>
-      <c r="X43" s="26" t="s">
-        <v>546</v>
+        <v>595</v>
+      </c>
+      <c r="V43" s="26"/>
+      <c r="W43" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="X43" s="21" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="44" ht="20" spans="1:24">
       <c r="A44" s="9"/>
       <c r="B44" s="7" t="s">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>536</v>
+        <v>587</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>549</v>
+        <v>600</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="7" t="s">
-        <v>550</v>
+        <v>601</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>551</v>
+        <v>602</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="21" t="s">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22" t="s">
-        <v>554</v>
+        <v>605</v>
       </c>
       <c r="O44" s="22" t="s">
-        <v>555</v>
-      </c>
-      <c r="V44" s="28"/>
-      <c r="W44" s="26" t="s">
-        <v>556</v>
-      </c>
-      <c r="X44" s="26" t="s">
-        <v>557</v>
+        <v>606</v>
+      </c>
+      <c r="V44" s="26"/>
+      <c r="W44" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="X44" s="21" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="45" ht="20" spans="1:24">
       <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
-        <v>558</v>
+        <v>609</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>559</v>
+        <v>610</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>560</v>
+        <v>611</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="7" t="s">
-        <v>562</v>
+        <v>613</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>563</v>
+        <v>614</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="21" t="s">
-        <v>564</v>
+        <v>615</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>565</v>
+        <v>616</v>
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="21" t="s">
-        <v>566</v>
+        <v>617</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="V45" s="28"/>
-      <c r="W45" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="X45" s="26" t="s">
-        <v>569</v>
+        <v>618</v>
+      </c>
+      <c r="V45" s="26"/>
+      <c r="W45" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="X45" s="21" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="7" t="s">
-        <v>572</v>
+        <v>623</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="7" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="22" t="s">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="O46" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="W46" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="X46" s="27" t="s">
-        <v>579</v>
+        <v>628</v>
+      </c>
+      <c r="W46" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="X46" s="22" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="47" ht="20" spans="1:24">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="7" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>582</v>
+        <v>633</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="5" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>584</v>
+        <v>635</v>
       </c>
       <c r="J47" s="20"/>
       <c r="K47" s="21" t="s">
-        <v>585</v>
+        <v>636</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>586</v>
+        <v>637</v>
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22" t="s">
-        <v>587</v>
+        <v>638</v>
       </c>
       <c r="O47" s="22" t="s">
-        <v>588</v>
-      </c>
-      <c r="W47" s="27" t="s">
-        <v>589</v>
-      </c>
-      <c r="X47" s="27" t="s">
-        <v>590</v>
+        <v>639</v>
+      </c>
+      <c r="W47" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="X47" s="22" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="48" ht="20" spans="1:24">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>591</v>
+        <v>642</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>592</v>
+        <v>643</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="7" t="s">
-        <v>593</v>
+        <v>644</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>594</v>
+        <v>645</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="5" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>596</v>
+        <v>647</v>
       </c>
       <c r="J48" s="20"/>
       <c r="K48" s="21" t="s">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>598</v>
+        <v>649</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22" t="s">
-        <v>599</v>
+        <v>650</v>
       </c>
       <c r="O48" s="22" t="s">
-        <v>588</v>
-      </c>
-      <c r="W48" s="27" t="s">
-        <v>600</v>
-      </c>
-      <c r="X48" s="27" t="s">
-        <v>601</v>
+        <v>639</v>
+      </c>
+      <c r="W48" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="X48" s="22" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="49" ht="20" spans="1:24">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
-        <v>602</v>
+        <v>653</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="15"/>
       <c r="H49" s="7" t="s">
-        <v>604</v>
+        <v>655</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>605</v>
+        <v>656</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>606</v>
+        <v>657</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22" t="s">
-        <v>607</v>
+        <v>658</v>
       </c>
       <c r="O49" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="V49" s="28"/>
-      <c r="W49" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="X49" s="26" t="s">
-        <v>610</v>
+        <v>659</v>
+      </c>
+      <c r="V49" s="26"/>
+      <c r="W49" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="X49" s="21" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="50" ht="20" spans="1:24">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>611</v>
+        <v>662</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>612</v>
+        <v>663</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="15"/>
       <c r="H50" s="7" t="s">
-        <v>613</v>
+        <v>664</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="21" t="s">
-        <v>614</v>
+        <v>665</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>615</v>
+        <v>666</v>
       </c>
       <c r="M50" s="22"/>
       <c r="N50" s="22" t="s">
-        <v>616</v>
+        <v>667</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="W50" s="27" t="s">
-        <v>618</v>
-      </c>
-      <c r="X50" s="27" t="s">
-        <v>619</v>
+        <v>668</v>
+      </c>
+      <c r="W50" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="X50" s="22" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="51" ht="20" spans="1:24">
       <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="17"/>
       <c r="H51" s="5" t="s">
-        <v>622</v>
+        <v>673</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>625</v>
+        <v>676</v>
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="21" t="s">
-        <v>626</v>
+        <v>677</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="V51" s="28"/>
-      <c r="W51" s="26" t="s">
-        <v>628</v>
-      </c>
-      <c r="X51" s="26" t="s">
-        <v>629</v>
+        <v>678</v>
+      </c>
+      <c r="V51" s="26"/>
+      <c r="W51" s="21" t="s">
+        <v>679</v>
+      </c>
+      <c r="X51" s="21" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="52" ht="20" spans="1:24">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>631</v>
+        <v>682</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="17"/>
       <c r="H52" s="5" t="s">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>633</v>
+        <v>684</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>634</v>
+        <v>685</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>635</v>
+        <v>686</v>
       </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22" t="s">
-        <v>636</v>
+        <v>687</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="W52" s="27" t="s">
-        <v>637</v>
-      </c>
-      <c r="X52" s="27" t="s">
-        <v>638</v>
+        <v>668</v>
+      </c>
+      <c r="W52" s="22" t="s">
+        <v>688</v>
+      </c>
+      <c r="X52" s="22" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="53" ht="20" spans="1:24">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>639</v>
+        <v>690</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="15"/>
       <c r="H53" s="7" t="s">
-        <v>640</v>
+        <v>691</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>641</v>
+        <v>692</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>642</v>
+        <v>693</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>643</v>
+        <v>694</v>
       </c>
       <c r="M53" s="22"/>
       <c r="N53" s="22" t="s">
-        <v>644</v>
+        <v>695</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>645</v>
-      </c>
-      <c r="V53" s="28"/>
-      <c r="W53" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="X53" s="26" t="s">
-        <v>647</v>
+        <v>696</v>
+      </c>
+      <c r="V53" s="26"/>
+      <c r="W53" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="X53" s="21" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="54" ht="20" spans="1:24">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
-        <v>648</v>
+        <v>699</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>649</v>
+        <v>700</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="17"/>
       <c r="H54" s="5" t="s">
-        <v>650</v>
+        <v>701</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>651</v>
+        <v>702</v>
       </c>
       <c r="J54" s="20"/>
       <c r="K54" s="21" t="s">
-        <v>652</v>
+        <v>703</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>653</v>
+        <v>704</v>
       </c>
       <c r="M54" s="22"/>
       <c r="N54" s="22" t="s">
-        <v>654</v>
+        <v>705</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="W54" s="27" t="s">
-        <v>655</v>
-      </c>
-      <c r="X54" s="27" t="s">
-        <v>532</v>
+        <v>583</v>
+      </c>
+      <c r="W54" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="X54" s="22" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="55" ht="20" spans="1:24">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
-        <v>656</v>
+        <v>707</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>657</v>
+        <v>708</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="17"/>
       <c r="H55" s="5" t="s">
-        <v>658</v>
+        <v>709</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>659</v>
+        <v>710</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>660</v>
+        <v>711</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>635</v>
+        <v>686</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="22" t="s">
-        <v>661</v>
+        <v>712</v>
       </c>
       <c r="O55" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="V55" s="28"/>
-      <c r="W55" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="X55" s="26" t="s">
-        <v>664</v>
+        <v>713</v>
+      </c>
+      <c r="V55" s="26"/>
+      <c r="W55" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="X55" s="21" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="56" ht="20" spans="1:24">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
-        <v>665</v>
+        <v>716</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>666</v>
+        <v>717</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="17"/>
       <c r="H56" s="5" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>668</v>
+        <v>719</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>669</v>
+        <v>720</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>670</v>
+        <v>721</v>
       </c>
       <c r="M56" s="24"/>
       <c r="N56" s="21" t="s">
-        <v>671</v>
+        <v>722</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>672</v>
-      </c>
-      <c r="V56" s="28"/>
-      <c r="W56" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="X56" s="26" t="s">
-        <v>674</v>
+        <v>723</v>
+      </c>
+      <c r="V56" s="26"/>
+      <c r="W56" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="X56" s="21" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="57" ht="20" spans="1:24">
       <c r="A57" s="9"/>
       <c r="B57" s="5" t="s">
-        <v>675</v>
+        <v>726</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>666</v>
+        <v>717</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="17"/>
       <c r="H57" s="5" t="s">
-        <v>676</v>
+        <v>727</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>677</v>
+        <v>728</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>678</v>
+        <v>729</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>679</v>
+        <v>730</v>
       </c>
       <c r="M57" s="22"/>
       <c r="N57" s="22" t="s">
-        <v>680</v>
+        <v>731</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="W57" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="X57" s="27" t="s">
-        <v>683</v>
+        <v>732</v>
+      </c>
+      <c r="W57" s="22" t="s">
+        <v>733</v>
+      </c>
+      <c r="X57" s="22" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="58" ht="20" spans="1:24">
       <c r="A58" s="9"/>
       <c r="B58" s="5" t="s">
-        <v>684</v>
+        <v>735</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>685</v>
+        <v>736</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="15"/>
       <c r="H58" s="7" t="s">
-        <v>686</v>
+        <v>737</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>687</v>
+        <v>738</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>688</v>
+        <v>739</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>689</v>
+        <v>740</v>
       </c>
       <c r="M58" s="24"/>
       <c r="N58" s="21" t="s">
-        <v>690</v>
+        <v>741</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>691</v>
-      </c>
-      <c r="W58" s="27" t="s">
-        <v>692</v>
-      </c>
-      <c r="X58" s="27" t="s">
-        <v>693</v>
+        <v>742</v>
+      </c>
+      <c r="W58" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="X58" s="22" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="59" ht="20" spans="1:24">
       <c r="A59" s="9"/>
       <c r="B59" s="5" t="s">
-        <v>694</v>
+        <v>745</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>695</v>
+        <v>746</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="17"/>
       <c r="H59" s="5" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>696</v>
+        <v>747</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="21" t="s">
-        <v>697</v>
+        <v>748</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>698</v>
+        <v>749</v>
       </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22" t="s">
-        <v>699</v>
+        <v>750</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>700</v>
-      </c>
-      <c r="V59" s="28"/>
-      <c r="W59" s="26" t="s">
-        <v>701</v>
-      </c>
-      <c r="X59" s="26" t="s">
-        <v>702</v>
+        <v>751</v>
+      </c>
+      <c r="V59" s="26"/>
+      <c r="W59" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="X59" s="21" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="60" ht="20" spans="1:24">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
-        <v>703</v>
+        <v>754</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>704</v>
+        <v>755</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="17"/>
       <c r="H60" s="5" t="s">
-        <v>705</v>
+        <v>756</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>706</v>
+        <v>757</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>707</v>
+        <v>758</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>708</v>
+        <v>759</v>
       </c>
       <c r="M60" s="22"/>
       <c r="N60" s="22" t="s">
-        <v>709</v>
+        <v>760</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>710</v>
-      </c>
-      <c r="V60" s="28"/>
-      <c r="W60" s="26" t="s">
-        <v>711</v>
-      </c>
-      <c r="X60" s="26" t="s">
-        <v>712</v>
+        <v>761</v>
+      </c>
+      <c r="V60" s="26"/>
+      <c r="W60" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="X60" s="21" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="61" ht="20" spans="1:24">
@@ -6819,29 +7169,29 @@
       <c r="F61" s="6"/>
       <c r="G61" s="17"/>
       <c r="H61" s="5" t="s">
-        <v>713</v>
+        <v>764</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>714</v>
+        <v>765</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>715</v>
+        <v>766</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>716</v>
+        <v>767</v>
       </c>
       <c r="M61" s="24"/>
       <c r="N61" s="21" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="W61" s="27" t="s">
-        <v>718</v>
-      </c>
-      <c r="X61" s="27" t="s">
-        <v>719</v>
+        <v>768</v>
+      </c>
+      <c r="W61" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="X61" s="22" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="62" ht="20" spans="1:24">
@@ -6853,30 +7203,30 @@
       <c r="F62" s="6"/>
       <c r="G62" s="17"/>
       <c r="H62" s="5" t="s">
-        <v>720</v>
+        <v>771</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>721</v>
+        <v>772</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="21" t="s">
-        <v>722</v>
+        <v>773</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>723</v>
+        <v>774</v>
       </c>
       <c r="M62" s="22"/>
       <c r="N62" s="22" t="s">
-        <v>724</v>
+        <v>775</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>725</v>
-      </c>
-      <c r="W62" s="27" t="s">
-        <v>726</v>
-      </c>
-      <c r="X62" s="27" t="s">
-        <v>727</v>
+        <v>776</v>
+      </c>
+      <c r="W62" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="X62" s="22" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="63" ht="20" spans="1:24">
@@ -6888,30 +7238,30 @@
       <c r="F63" s="6"/>
       <c r="G63" s="15"/>
       <c r="H63" s="7" t="s">
-        <v>728</v>
+        <v>779</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>714</v>
+        <v>765</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="21" t="s">
-        <v>729</v>
+        <v>780</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>730</v>
+        <v>781</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="21" t="s">
-        <v>731</v>
+        <v>782</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>732</v>
-      </c>
-      <c r="W63" s="27" t="s">
-        <v>733</v>
-      </c>
-      <c r="X63" s="27" t="s">
-        <v>734</v>
+        <v>783</v>
+      </c>
+      <c r="W63" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="X63" s="22" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="64" ht="20" spans="1:24">
@@ -6923,30 +7273,30 @@
       <c r="F64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="5" t="s">
-        <v>735</v>
+        <v>786</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>736</v>
+        <v>787</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="21" t="s">
-        <v>737</v>
+        <v>788</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>738</v>
+        <v>789</v>
       </c>
       <c r="M64" s="22"/>
       <c r="N64" s="22" t="s">
-        <v>739</v>
+        <v>790</v>
       </c>
       <c r="O64" s="22" t="s">
-        <v>740</v>
-      </c>
-      <c r="W64" s="27" t="s">
-        <v>741</v>
-      </c>
-      <c r="X64" s="27" t="s">
-        <v>742</v>
+        <v>791</v>
+      </c>
+      <c r="W64" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="X64" s="22" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="65" ht="20" spans="1:24">
@@ -6958,29 +7308,29 @@
       <c r="F65" s="6"/>
       <c r="G65" s="15"/>
       <c r="H65" s="7" t="s">
-        <v>743</v>
+        <v>794</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>744</v>
+        <v>795</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>745</v>
+        <v>796</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>746</v>
+        <v>797</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="21" t="s">
-        <v>747</v>
+        <v>798</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>748</v>
-      </c>
-      <c r="W65" s="27" t="s">
-        <v>749</v>
-      </c>
-      <c r="X65" s="27" t="s">
-        <v>742</v>
+        <v>799</v>
+      </c>
+      <c r="W65" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="X65" s="22" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="66" ht="20" spans="1:24">
@@ -6992,30 +7342,30 @@
       <c r="F66" s="6"/>
       <c r="G66" s="17"/>
       <c r="H66" s="5" t="s">
-        <v>750</v>
+        <v>801</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>751</v>
+        <v>802</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="21" t="s">
-        <v>752</v>
+        <v>803</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>753</v>
+        <v>804</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="21" t="s">
-        <v>754</v>
+        <v>805</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>755</v>
-      </c>
-      <c r="W66" s="27" t="s">
-        <v>756</v>
-      </c>
-      <c r="X66" s="27" t="s">
-        <v>757</v>
+        <v>806</v>
+      </c>
+      <c r="W66" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="X66" s="22" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="67" ht="20" spans="1:24">
@@ -7027,429 +7377,429 @@
       <c r="F67" s="6"/>
       <c r="G67" s="17"/>
       <c r="H67" s="5" t="s">
-        <v>758</v>
+        <v>809</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>759</v>
+        <v>810</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>760</v>
+        <v>811</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>761</v>
+        <v>812</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="21" t="s">
-        <v>762</v>
+        <v>813</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>763</v>
-      </c>
-      <c r="W67" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="X67" s="27" t="s">
-        <v>765</v>
+        <v>814</v>
+      </c>
+      <c r="W67" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="X67" s="22" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="68" ht="20" spans="1:24">
-      <c r="A68" s="29" t="s">
-        <v>766</v>
-      </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
+      <c r="A68" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="15"/>
       <c r="H68" s="7" t="s">
-        <v>767</v>
+        <v>818</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>768</v>
+        <v>819</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="21" t="s">
-        <v>769</v>
+        <v>820</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>770</v>
+        <v>821</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="21" t="s">
-        <v>771</v>
+        <v>822</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>772</v>
-      </c>
-      <c r="W68" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="X68" s="27" t="s">
-        <v>344</v>
+        <v>823</v>
+      </c>
+      <c r="W68" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="X68" s="22" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="69" ht="20" spans="1:24">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="17"/>
       <c r="H69" s="5" t="s">
-        <v>774</v>
+        <v>825</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>775</v>
+        <v>826</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>776</v>
+        <v>827</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>777</v>
+        <v>828</v>
       </c>
       <c r="M69" s="22"/>
       <c r="N69" s="22" t="s">
-        <v>778</v>
+        <v>829</v>
       </c>
       <c r="O69" s="22" t="s">
-        <v>779</v>
-      </c>
-      <c r="W69" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="X69" s="27" t="s">
-        <v>781</v>
+        <v>830</v>
+      </c>
+      <c r="W69" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="X69" s="22" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="70" ht="20" spans="1:24">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="17"/>
       <c r="H70" s="5" t="s">
-        <v>782</v>
+        <v>833</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>783</v>
+        <v>834</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="21" t="s">
-        <v>784</v>
+        <v>835</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>785</v>
+        <v>836</v>
       </c>
       <c r="M70" s="22"/>
       <c r="N70" s="22" t="s">
-        <v>786</v>
+        <v>837</v>
       </c>
       <c r="O70" s="22" t="s">
-        <v>787</v>
-      </c>
-      <c r="W70" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="X70" s="27" t="s">
-        <v>781</v>
+        <v>838</v>
+      </c>
+      <c r="W70" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="X70" s="22" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="71" ht="20" spans="1:24">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="15"/>
       <c r="H71" s="7" t="s">
-        <v>789</v>
+        <v>840</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>790</v>
+        <v>841</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="21" t="s">
-        <v>791</v>
+        <v>842</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>792</v>
+        <v>843</v>
       </c>
       <c r="M71" s="22"/>
       <c r="N71" s="22" t="s">
-        <v>793</v>
+        <v>844</v>
       </c>
       <c r="O71" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="V71" s="28"/>
-      <c r="W71" s="26" t="s">
-        <v>795</v>
-      </c>
-      <c r="X71" s="26" t="s">
-        <v>796</v>
+        <v>845</v>
+      </c>
+      <c r="V71" s="26"/>
+      <c r="W71" s="21" t="s">
+        <v>846</v>
+      </c>
+      <c r="X71" s="21" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="72" ht="20" spans="1:24">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="15"/>
       <c r="H72" s="7" t="s">
-        <v>797</v>
+        <v>848</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>798</v>
+        <v>849</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>799</v>
+        <v>850</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>800</v>
+        <v>851</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="21" t="s">
-        <v>801</v>
+        <v>852</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>802</v>
-      </c>
-      <c r="V72" s="28"/>
-      <c r="W72" s="26" t="s">
-        <v>803</v>
-      </c>
-      <c r="X72" s="26" t="s">
-        <v>804</v>
+        <v>853</v>
+      </c>
+      <c r="V72" s="26"/>
+      <c r="W72" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="X72" s="21" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="73" ht="20" spans="1:24">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="15"/>
       <c r="H73" s="7" t="s">
-        <v>805</v>
+        <v>856</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>806</v>
+        <v>857</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="21" t="s">
-        <v>807</v>
+        <v>858</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>808</v>
+        <v>859</v>
       </c>
       <c r="M73" s="22"/>
       <c r="N73" s="22" t="s">
-        <v>809</v>
+        <v>860</v>
       </c>
       <c r="O73" s="22" t="s">
-        <v>810</v>
-      </c>
-      <c r="W73" s="27" t="s">
-        <v>811</v>
-      </c>
-      <c r="X73" s="27" t="s">
-        <v>812</v>
+        <v>861</v>
+      </c>
+      <c r="W73" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="X73" s="22" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="74" ht="20" spans="1:24">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="17"/>
       <c r="H74" s="5" t="s">
-        <v>813</v>
+        <v>864</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>814</v>
+        <v>865</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>815</v>
+        <v>866</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>816</v>
+        <v>867</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="21" t="s">
-        <v>817</v>
+        <v>868</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>818</v>
-      </c>
-      <c r="W74" s="27" t="s">
-        <v>819</v>
-      </c>
-      <c r="X74" s="27" t="s">
-        <v>820</v>
+        <v>869</v>
+      </c>
+      <c r="W74" s="22" t="s">
+        <v>870</v>
+      </c>
+      <c r="X74" s="22" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="75" ht="20" spans="1:24">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="15"/>
       <c r="H75" s="7" t="s">
-        <v>821</v>
+        <v>872</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>822</v>
+        <v>873</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="21" t="s">
-        <v>823</v>
+        <v>874</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>824</v>
+        <v>875</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="21" t="s">
-        <v>825</v>
+        <v>876</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>826</v>
-      </c>
-      <c r="V75" s="28"/>
-      <c r="W75" s="26" t="s">
-        <v>827</v>
-      </c>
-      <c r="X75" s="26" t="s">
-        <v>828</v>
+        <v>877</v>
+      </c>
+      <c r="V75" s="26"/>
+      <c r="W75" s="21" t="s">
+        <v>878</v>
+      </c>
+      <c r="X75" s="21" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="76" ht="20" spans="1:24">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="17"/>
       <c r="H76" s="5" t="s">
-        <v>829</v>
+        <v>880</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>830</v>
+        <v>881</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="21" t="s">
-        <v>831</v>
+        <v>882</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>832</v>
+        <v>883</v>
       </c>
       <c r="M76" s="22"/>
       <c r="N76" s="22" t="s">
-        <v>833</v>
+        <v>884</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>834</v>
-      </c>
-      <c r="W76" s="27" t="s">
-        <v>835</v>
-      </c>
-      <c r="X76" s="27" t="s">
-        <v>742</v>
+        <v>885</v>
+      </c>
+      <c r="W76" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="X76" s="22" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="77" ht="20" spans="1:24">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="17"/>
       <c r="H77" s="5" t="s">
-        <v>836</v>
+        <v>887</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>837</v>
+        <v>888</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>838</v>
+        <v>889</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>839</v>
-      </c>
-      <c r="W77" s="27" t="s">
-        <v>840</v>
-      </c>
-      <c r="X77" s="27" t="s">
-        <v>742</v>
+        <v>890</v>
+      </c>
+      <c r="W77" s="22" t="s">
+        <v>891</v>
+      </c>
+      <c r="X77" s="22" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="78" ht="20" spans="1:24">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="17"/>
       <c r="H78" s="5" t="s">
-        <v>841</v>
+        <v>892</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>842</v>
+        <v>893</v>
       </c>
       <c r="J78" s="20"/>
       <c r="K78" s="21" t="s">
-        <v>843</v>
+        <v>894</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>844</v>
-      </c>
-      <c r="V78" s="28"/>
-      <c r="W78" s="26" t="s">
-        <v>845</v>
-      </c>
-      <c r="X78" s="26" t="s">
-        <v>846</v>
+        <v>895</v>
+      </c>
+      <c r="V78" s="26"/>
+      <c r="W78" s="21" t="s">
+        <v>896</v>
+      </c>
+      <c r="X78" s="21" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="79" spans="1:24">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="15"/>
       <c r="H79" s="7" t="s">
-        <v>847</v>
+        <v>898</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>848</v>
+        <v>899</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>849</v>
+        <v>900</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>850</v>
-      </c>
-      <c r="W79" s="27" t="s">
-        <v>851</v>
-      </c>
-      <c r="X79" s="27" t="s">
-        <v>852</v>
+        <v>901</v>
+      </c>
+      <c r="W79" s="22" t="s">
+        <v>902</v>
+      </c>
+      <c r="X79" s="22" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="80" ht="20" spans="1:24">
@@ -7461,24 +7811,24 @@
       <c r="F80" s="6"/>
       <c r="G80" s="17"/>
       <c r="H80" s="5" t="s">
-        <v>853</v>
+        <v>904</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>854</v>
+        <v>905</v>
       </c>
       <c r="J80" s="20"/>
       <c r="K80" s="21" t="s">
-        <v>855</v>
+        <v>906</v>
       </c>
       <c r="L80" s="21" t="s">
-        <v>844</v>
-      </c>
-      <c r="V80" s="28"/>
-      <c r="W80" s="26" t="s">
-        <v>856</v>
-      </c>
-      <c r="X80" s="26" t="s">
-        <v>601</v>
+        <v>895</v>
+      </c>
+      <c r="V80" s="26"/>
+      <c r="W80" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="X80" s="21" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -7490,22 +7840,22 @@
       <c r="F81" s="6"/>
       <c r="G81" s="15"/>
       <c r="H81" s="7" t="s">
-        <v>857</v>
+        <v>908</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>858</v>
+        <v>909</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>859</v>
+        <v>910</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="W81" s="27" t="s">
-        <v>861</v>
-      </c>
-      <c r="X81" s="27" t="s">
-        <v>862</v>
+        <v>911</v>
+      </c>
+      <c r="W81" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="X81" s="22" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="82" ht="20" spans="1:24">
@@ -7517,24 +7867,24 @@
       <c r="F82" s="6"/>
       <c r="G82" s="17"/>
       <c r="H82" s="5" t="s">
-        <v>863</v>
+        <v>914</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>864</v>
+        <v>915</v>
       </c>
       <c r="J82" s="20"/>
       <c r="K82" s="21" t="s">
-        <v>865</v>
+        <v>916</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="V82" s="28"/>
-      <c r="W82" s="26" t="s">
-        <v>867</v>
-      </c>
-      <c r="X82" s="26" t="s">
-        <v>868</v>
+        <v>917</v>
+      </c>
+      <c r="V82" s="26"/>
+      <c r="W82" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="X82" s="21" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="83" ht="20" spans="1:24">
@@ -7546,23 +7896,23 @@
       <c r="F83" s="6"/>
       <c r="G83" s="17"/>
       <c r="H83" s="5" t="s">
-        <v>869</v>
+        <v>920</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>870</v>
+        <v>921</v>
       </c>
       <c r="J83" s="20"/>
       <c r="K83" s="21" t="s">
-        <v>871</v>
+        <v>922</v>
       </c>
       <c r="L83" s="21" t="s">
-        <v>872</v>
-      </c>
-      <c r="W83" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="X83" s="27" t="s">
-        <v>874</v>
+        <v>923</v>
+      </c>
+      <c r="W83" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="X83" s="22" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="84" ht="20" spans="1:24">
@@ -7574,23 +7924,23 @@
       <c r="F84" s="6"/>
       <c r="G84" s="15"/>
       <c r="H84" s="7" t="s">
-        <v>875</v>
+        <v>926</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>876</v>
+        <v>927</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>877</v>
+        <v>928</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>878</v>
-      </c>
-      <c r="V84" s="28"/>
-      <c r="W84" s="26" t="s">
-        <v>879</v>
-      </c>
-      <c r="X84" s="26" t="s">
-        <v>880</v>
+        <v>929</v>
+      </c>
+      <c r="V84" s="26"/>
+      <c r="W84" s="21" t="s">
+        <v>930</v>
+      </c>
+      <c r="X84" s="21" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="85" ht="20" spans="1:24">
@@ -7602,23 +7952,23 @@
       <c r="F85" s="6"/>
       <c r="G85" s="15"/>
       <c r="H85" s="7" t="s">
-        <v>618</v>
+        <v>669</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="J85" s="20"/>
       <c r="K85" s="21" t="s">
-        <v>881</v>
+        <v>932</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>882</v>
-      </c>
-      <c r="W85" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="X85" s="27" t="s">
-        <v>884</v>
+        <v>933</v>
+      </c>
+      <c r="W85" s="22" t="s">
+        <v>934</v>
+      </c>
+      <c r="X85" s="22" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="86" ht="20" spans="1:24">
@@ -7630,22 +7980,22 @@
       <c r="F86" s="6"/>
       <c r="G86" s="17"/>
       <c r="H86" s="5" t="s">
-        <v>885</v>
+        <v>936</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>886</v>
+        <v>937</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>887</v>
+        <v>938</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>888</v>
-      </c>
-      <c r="W86" s="27" t="s">
-        <v>889</v>
-      </c>
-      <c r="X86" s="27" t="s">
-        <v>890</v>
+        <v>939</v>
+      </c>
+      <c r="W86" s="22" t="s">
+        <v>940</v>
+      </c>
+      <c r="X86" s="22" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="87" ht="20" spans="1:24">
@@ -7657,24 +8007,24 @@
       <c r="F87" s="6"/>
       <c r="G87" s="17"/>
       <c r="H87" s="5" t="s">
-        <v>891</v>
+        <v>942</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>892</v>
+        <v>943</v>
       </c>
       <c r="J87" s="20"/>
       <c r="K87" s="21" t="s">
-        <v>618</v>
+        <v>669</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>893</v>
-      </c>
-      <c r="V87" s="28"/>
-      <c r="W87" s="26" t="s">
-        <v>894</v>
-      </c>
-      <c r="X87" s="26" t="s">
-        <v>895</v>
+        <v>944</v>
+      </c>
+      <c r="V87" s="26"/>
+      <c r="W87" s="21" t="s">
+        <v>945</v>
+      </c>
+      <c r="X87" s="21" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="88" ht="20" spans="1:24">
@@ -7686,23 +8036,23 @@
       <c r="F88" s="6"/>
       <c r="G88" s="15"/>
       <c r="H88" s="7" t="s">
-        <v>896</v>
+        <v>947</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>897</v>
+        <v>948</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>898</v>
+        <v>949</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>899</v>
-      </c>
-      <c r="V88" s="28"/>
-      <c r="W88" s="26" t="s">
-        <v>900</v>
-      </c>
-      <c r="X88" s="26" t="s">
-        <v>901</v>
+        <v>950</v>
+      </c>
+      <c r="V88" s="26"/>
+      <c r="W88" s="21" t="s">
+        <v>951</v>
+      </c>
+      <c r="X88" s="21" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="89" ht="20" spans="1:24">
@@ -7714,23 +8064,23 @@
       <c r="F89" s="6"/>
       <c r="G89" s="17"/>
       <c r="H89" s="5" t="s">
-        <v>902</v>
+        <v>953</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>903</v>
+        <v>954</v>
       </c>
       <c r="J89" s="20"/>
       <c r="K89" s="21" t="s">
-        <v>904</v>
+        <v>955</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>905</v>
-      </c>
-      <c r="W89" s="27" t="s">
-        <v>906</v>
-      </c>
-      <c r="X89" s="27" t="s">
-        <v>907</v>
+        <v>956</v>
+      </c>
+      <c r="W89" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="X89" s="22" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="90" ht="20" spans="1:24">
@@ -7742,23 +8092,23 @@
       <c r="F90" s="6"/>
       <c r="G90" s="15"/>
       <c r="H90" s="7" t="s">
-        <v>908</v>
+        <v>959</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>909</v>
+        <v>960</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>910</v>
+        <v>961</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>911</v>
-      </c>
-      <c r="V90" s="28"/>
-      <c r="W90" s="26" t="s">
-        <v>912</v>
-      </c>
-      <c r="X90" s="26" t="s">
-        <v>913</v>
+        <v>962</v>
+      </c>
+      <c r="V90" s="26"/>
+      <c r="W90" s="21" t="s">
+        <v>963</v>
+      </c>
+      <c r="X90" s="21" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="91" ht="20" spans="1:24">
@@ -7770,23 +8120,23 @@
       <c r="F91" s="6"/>
       <c r="G91" s="15"/>
       <c r="H91" s="7" t="s">
-        <v>914</v>
+        <v>965</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>915</v>
+        <v>966</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>916</v>
+        <v>967</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>917</v>
-      </c>
-      <c r="V91" s="28"/>
-      <c r="W91" s="26" t="s">
-        <v>918</v>
-      </c>
-      <c r="X91" s="26" t="s">
-        <v>919</v>
+        <v>968</v>
+      </c>
+      <c r="V91" s="26"/>
+      <c r="W91" s="21" t="s">
+        <v>969</v>
+      </c>
+      <c r="X91" s="21" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="92" ht="20" spans="1:12">
@@ -7798,17 +8148,17 @@
       <c r="F92" s="6"/>
       <c r="G92" s="17"/>
       <c r="H92" s="5" t="s">
-        <v>920</v>
+        <v>971</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>921</v>
+        <v>972</v>
       </c>
       <c r="J92" s="20"/>
       <c r="K92" s="21" t="s">
-        <v>922</v>
+        <v>973</v>
       </c>
       <c r="L92" s="21" t="s">
-        <v>923</v>
+        <v>974</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -7820,16 +8170,16 @@
       <c r="F93" s="6"/>
       <c r="G93" s="15"/>
       <c r="H93" s="10" t="s">
-        <v>924</v>
+        <v>975</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>925</v>
+        <v>976</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>926</v>
+        <v>977</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>927</v>
+        <v>978</v>
       </c>
     </row>
     <row r="94" ht="20" spans="1:12">
@@ -7841,17 +8191,17 @@
       <c r="F94" s="6"/>
       <c r="G94" s="15"/>
       <c r="H94" s="7" t="s">
-        <v>928</v>
+        <v>979</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>929</v>
+        <v>980</v>
       </c>
       <c r="J94" s="20"/>
       <c r="K94" s="21" t="s">
-        <v>930</v>
+        <v>981</v>
       </c>
       <c r="L94" s="21" t="s">
-        <v>931</v>
+        <v>982</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -7863,16 +8213,16 @@
       <c r="F95" s="6"/>
       <c r="G95" s="15"/>
       <c r="H95" s="7" t="s">
-        <v>932</v>
+        <v>983</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>933</v>
+        <v>984</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>934</v>
+        <v>985</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>935</v>
+        <v>986</v>
       </c>
     </row>
     <row r="96" ht="20" spans="1:12">
@@ -7884,17 +8234,17 @@
       <c r="F96" s="6"/>
       <c r="G96" s="17"/>
       <c r="H96" s="5" t="s">
-        <v>936</v>
+        <v>987</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>937</v>
+        <v>988</v>
       </c>
       <c r="J96" s="20"/>
       <c r="K96" s="21" t="s">
-        <v>938</v>
+        <v>246</v>
       </c>
       <c r="L96" s="21" t="s">
-        <v>939</v>
+        <v>989</v>
       </c>
     </row>
     <row r="97" ht="20" spans="1:9">
@@ -7906,10 +8256,10 @@
       <c r="F97" s="6"/>
       <c r="G97" s="17"/>
       <c r="H97" s="5" t="s">
-        <v>940</v>
+        <v>990</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>941</v>
+        <v>991</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -7921,10 +8271,10 @@
       <c r="F98" s="6"/>
       <c r="G98" s="15"/>
       <c r="H98" s="7" t="s">
-        <v>942</v>
+        <v>992</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>943</v>
+        <v>993</v>
       </c>
     </row>
     <row r="99" ht="20" spans="1:9">
@@ -7936,10 +8286,10 @@
       <c r="F99" s="6"/>
       <c r="G99" s="15"/>
       <c r="H99" s="5" t="s">
-        <v>944</v>
+        <v>994</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>945</v>
+        <v>995</v>
       </c>
     </row>
     <row r="100" ht="20" spans="1:9">
@@ -7951,10 +8301,10 @@
       <c r="F100" s="6"/>
       <c r="G100" s="17"/>
       <c r="H100" s="5" t="s">
-        <v>946</v>
+        <v>996</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>947</v>
+        <v>997</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -7966,10 +8316,10 @@
       <c r="F101" s="6"/>
       <c r="G101" s="15"/>
       <c r="H101" s="7" t="s">
-        <v>948</v>
+        <v>998</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>949</v>
+        <v>999</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -7981,10 +8331,10 @@
       <c r="F102" s="6"/>
       <c r="G102" s="15"/>
       <c r="H102" s="7" t="s">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>951</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="103" ht="20" spans="1:9">
@@ -7996,10 +8346,10 @@
       <c r="F103" s="6"/>
       <c r="G103" s="17"/>
       <c r="H103" s="5" t="s">
-        <v>952</v>
+        <v>1002</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>953</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -8011,10 +8361,10 @@
       <c r="F104" s="6"/>
       <c r="G104" s="15"/>
       <c r="H104" s="7" t="s">
-        <v>954</v>
+        <v>1004</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>953</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="105" ht="20" spans="1:9">
@@ -8026,10 +8376,10 @@
       <c r="F105" s="6"/>
       <c r="G105" s="17"/>
       <c r="H105" s="5" t="s">
-        <v>955</v>
+        <v>1005</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>956</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -8041,10 +8391,10 @@
       <c r="F106" s="6"/>
       <c r="G106" s="15"/>
       <c r="H106" s="7" t="s">
-        <v>957</v>
+        <v>1007</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>958</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -8056,10 +8406,10 @@
       <c r="F107" s="6"/>
       <c r="G107" s="15"/>
       <c r="H107" s="7" t="s">
-        <v>959</v>
+        <v>1009</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>960</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="108" ht="20" spans="1:9">
@@ -8071,10 +8421,10 @@
       <c r="F108" s="6"/>
       <c r="G108" s="17"/>
       <c r="H108" s="5" t="s">
-        <v>961</v>
+        <v>1011</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>962</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="109" ht="20" spans="1:9">
@@ -8086,10 +8436,10 @@
       <c r="F109" s="6"/>
       <c r="G109" s="17"/>
       <c r="H109" s="5" t="s">
-        <v>963</v>
+        <v>1013</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>964</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -8101,10 +8451,10 @@
       <c r="F110" s="6"/>
       <c r="G110" s="15"/>
       <c r="H110" s="7" t="s">
-        <v>965</v>
+        <v>1015</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>966</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="111" ht="20" spans="1:9">
@@ -8116,10 +8466,10 @@
       <c r="F111" s="6"/>
       <c r="G111" s="17"/>
       <c r="H111" s="5" t="s">
-        <v>967</v>
+        <v>1017</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>968</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="112" ht="20" spans="1:9">
@@ -8131,10 +8481,10 @@
       <c r="F112" s="6"/>
       <c r="G112" s="17"/>
       <c r="H112" s="5" t="s">
-        <v>969</v>
+        <v>1019</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>970</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -8146,14 +8496,14 @@
       <c r="F113" s="6"/>
       <c r="G113" s="15"/>
       <c r="H113" s="7" t="s">
-        <v>971</v>
+        <v>1021</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>972</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -8162,6 +8512,7 @@
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="A68:D71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21960" windowHeight="11320"/>
+    <workbookView windowWidth="24800" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099">
   <si>
     <t>Geography -地理</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Art - 艺术</t>
   </si>
   <si>
+    <t>Military - 军事</t>
+  </si>
+  <si>
     <t>insular</t>
   </si>
   <si>
@@ -97,6 +100,12 @@
     <t>美丽的、风景如画</t>
   </si>
   <si>
+    <t>confidential</t>
+  </si>
+  <si>
+    <t>保密的</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -151,6 +160,12 @@
     <t>鲜活的、生动的</t>
   </si>
   <si>
+    <t>clandestine</t>
+  </si>
+  <si>
+    <t>暗中、秘密的</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -205,6 +220,12 @@
     <t>雕塑</t>
   </si>
   <si>
+    <t>cipher</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -253,6 +274,12 @@
     <t>雕塑、雕像</t>
   </si>
   <si>
+    <t>dissimulate</t>
+  </si>
+  <si>
+    <t>隐藏</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -304,6 +331,12 @@
     <t>画、作画</t>
   </si>
   <si>
+    <t>disarm</t>
+  </si>
+  <si>
+    <t>解除武装</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -358,6 +391,12 @@
     <t>画廊</t>
   </si>
   <si>
+    <t>disarming</t>
+  </si>
+  <si>
+    <t>消除敌意的</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
@@ -409,6 +448,12 @@
     <t>人物像、画像</t>
   </si>
   <si>
+    <t>scout</t>
+  </si>
+  <si>
+    <t>侦察机</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -463,6 +508,12 @@
     <t>印象主义</t>
   </si>
   <si>
+    <t>fort</t>
+  </si>
+  <si>
+    <t>城堡</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -511,6 +562,12 @@
     <t>画像、描述</t>
   </si>
   <si>
+    <t>fortress</t>
+  </si>
+  <si>
+    <t>要塞、堡垒</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -563,6 +620,12 @@
   </si>
   <si>
     <t>塑造、用模子制作</t>
+  </si>
+  <si>
+    <t>hatchet</t>
+  </si>
+  <si>
+    <t>短柄小斧</t>
   </si>
   <si>
     <t>ebb</t>
@@ -634,6 +697,12 @@
     <t>绣花、刺绣</t>
   </si>
   <si>
+    <t>dagger</t>
+  </si>
+  <si>
+    <t>匕首</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -685,6 +754,12 @@
     <t>悲剧</t>
   </si>
   <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>铠甲</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -733,6 +808,12 @@
     <t>歌剧</t>
   </si>
   <si>
+    <t>corps</t>
+  </si>
+  <si>
+    <t>军团</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
@@ -781,6 +862,12 @@
     <t>颁发</t>
   </si>
   <si>
+    <t>armament</t>
+  </si>
+  <si>
+    <t>武器、军备</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -820,6 +907,12 @@
     <t>提出</t>
   </si>
   <si>
+    <t>enlist</t>
+  </si>
+  <si>
+    <t>从军、入伍</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
@@ -862,6 +955,12 @@
     <t>排练、预演</t>
   </si>
   <si>
+    <t>recurit</t>
+  </si>
+  <si>
+    <t>招兵买马</t>
+  </si>
+  <si>
     <t>cosmopolitan</t>
   </si>
   <si>
@@ -901,6 +1000,12 @@
     <t>妨碍、阻止</t>
   </si>
   <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>列阵</t>
+  </si>
+  <si>
     <t>subterrane</t>
   </si>
   <si>
@@ -943,6 +1048,12 @@
     <t>角色、人物</t>
   </si>
   <si>
+    <t>squad</t>
+  </si>
+  <si>
+    <t>小队</t>
+  </si>
+  <si>
     <t>subterranean</t>
   </si>
   <si>
@@ -985,6 +1096,12 @@
     <t>人物、角色</t>
   </si>
   <si>
+    <t>raid</t>
+  </si>
+  <si>
+    <t>袭击、突袭</t>
+  </si>
+  <si>
     <t>cavern</t>
   </si>
   <si>
@@ -1024,6 +1141,12 @@
     <t>设计</t>
   </si>
   <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>命令</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
@@ -1066,6 +1189,12 @@
     <t>形象</t>
   </si>
   <si>
+    <t>encroach</t>
+  </si>
+  <si>
+    <t>侵蚀、侵占</t>
+  </si>
+  <si>
     <t>cleft</t>
   </si>
   <si>
@@ -1108,6 +1237,12 @@
     <t>文艺复兴</t>
   </si>
   <si>
+    <t>despoil</t>
+  </si>
+  <si>
+    <t>掠夺、剥夺</t>
+  </si>
+  <si>
     <t>crevice</t>
   </si>
   <si>
@@ -1144,6 +1279,12 @@
     <t>想象出的</t>
   </si>
   <si>
+    <t>invade</t>
+  </si>
+  <si>
+    <t>侵略、入侵</t>
+  </si>
+  <si>
     <t>gap</t>
   </si>
   <si>
@@ -1186,6 +1327,12 @@
     <t>美学的</t>
   </si>
   <si>
+    <t>assault</t>
+  </si>
+  <si>
+    <t>攻击、袭击</t>
+  </si>
+  <si>
     <t>zone</t>
   </si>
   <si>
@@ -1225,6 +1372,12 @@
     <t>浪漫的</t>
   </si>
   <si>
+    <t>exterminate</t>
+  </si>
+  <si>
+    <t>消灭、灭绝</t>
+  </si>
+  <si>
     <t>equator</t>
   </si>
   <si>
@@ -1261,6 +1414,12 @@
     <t>商业、贸易</t>
   </si>
   <si>
+    <t>extinguish</t>
+  </si>
+  <si>
+    <t>扑灭、熄灭</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
@@ -1297,6 +1456,12 @@
     <t>企业</t>
   </si>
   <si>
+    <t>absorb</t>
+  </si>
+  <si>
+    <t>吸收</t>
+  </si>
+  <si>
     <t>altitude</t>
   </si>
   <si>
@@ -1333,6 +1498,12 @@
     <t>货币</t>
   </si>
   <si>
+    <t>onset</t>
+  </si>
+  <si>
+    <t>开始、袭击</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -1369,6 +1540,12 @@
     <t>存货</t>
   </si>
   <si>
+    <t>repulse</t>
+  </si>
+  <si>
+    <t>击退、击败</t>
+  </si>
+  <si>
     <t>meridian</t>
   </si>
   <si>
@@ -1402,6 +1579,12 @@
     <t>定量、定额</t>
   </si>
   <si>
+    <t>expedition</t>
+  </si>
+  <si>
+    <t>远征、探险</t>
+  </si>
+  <si>
     <t>subsidiary</t>
   </si>
   <si>
@@ -1438,6 +1621,12 @@
     <t>关税表</t>
   </si>
   <si>
+    <t>siege</t>
+  </si>
+  <si>
+    <t>包围</t>
+  </si>
+  <si>
     <t>Antarctic</t>
   </si>
   <si>
@@ -1474,6 +1663,9 @@
     <t>通货膨胀</t>
   </si>
   <si>
+    <t>envelop</t>
+  </si>
+  <si>
     <t>Antarctica</t>
   </si>
   <si>
@@ -1510,6 +1702,12 @@
     <t>交易</t>
   </si>
   <si>
+    <t>beset</t>
+  </si>
+  <si>
+    <t>困扰、围攻</t>
+  </si>
+  <si>
     <t>Arctic</t>
   </si>
   <si>
@@ -1546,6 +1744,12 @@
     <t>日元</t>
   </si>
   <si>
+    <t>besiege</t>
+  </si>
+  <si>
+    <t>包围、围攻</t>
+  </si>
+  <si>
     <t>coastland</t>
   </si>
   <si>
@@ -1582,6 +1786,12 @@
     <t>事业</t>
   </si>
   <si>
+    <t>morale</t>
+  </si>
+  <si>
+    <t>斗志、士气</t>
+  </si>
+  <si>
     <t>hemisphere</t>
   </si>
   <si>
@@ -1615,6 +1825,9 @@
     <t>消耗</t>
   </si>
   <si>
+    <t>mandate</t>
+  </si>
+  <si>
     <t>contour</t>
   </si>
   <si>
@@ -1651,6 +1864,12 @@
     <t>支付、支出</t>
   </si>
   <si>
+    <t>tactics</t>
+  </si>
+  <si>
+    <t>战术、战略、手段</t>
+  </si>
+  <si>
     <t>geography</t>
   </si>
   <si>
@@ -1687,6 +1906,12 @@
     <t>代理的</t>
   </si>
   <si>
+    <t>naval</t>
+  </si>
+  <si>
+    <t>海军</t>
+  </si>
+  <si>
     <t>horizon</t>
   </si>
   <si>
@@ -1721,6 +1946,12 @@
   </si>
   <si>
     <t>不活动、惰性</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>军事的、军人</t>
   </si>
   <si>
     <t>lowland</t>
@@ -2809,9 +3040,6 @@
   </si>
   <si>
     <t>宣判无罪</t>
-  </si>
-  <si>
-    <t>charge</t>
   </si>
   <si>
     <t>费用</t>
@@ -3113,10 +3341,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -3185,6 +3413,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -3200,6 +3436,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -3207,34 +3451,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3246,10 +3466,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3263,14 +3484,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3285,7 +3499,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3299,31 +3551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3337,7 +3565,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3364,19 +3592,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3394,18 +3652,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3418,19 +3664,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3442,37 +3694,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3484,43 +3736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3538,7 +3754,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3567,17 +3801,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3597,11 +3825,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3621,26 +3866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3655,157 +3880,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3887,7 +4121,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3896,11 +4145,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4227,10 +4473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W14" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23:AA23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
@@ -4262,9 +4508,12 @@
     <col min="25" max="25" width="5.078125" customWidth="1"/>
     <col min="26" max="26" width="18.875" customWidth="1"/>
     <col min="27" max="27" width="22.515625" customWidth="1"/>
+    <col min="28" max="28" width="4.9453125" customWidth="1"/>
+    <col min="29" max="29" width="20.3125" customWidth="1"/>
+    <col min="30" max="30" width="26.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:27">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4310,2854 +4559,3132 @@
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:27">
+      <c r="AB1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:30">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" s="20"/>
       <c r="W2" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:27">
+      <c r="AA2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:30">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:27">
+      <c r="Z3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:30">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="V4" s="20"/>
       <c r="W4" s="21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" ht="20" spans="1:27">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" ht="20" spans="1:30">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="22" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA5" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" ht="20" spans="1:27">
+        <v>83</v>
+      </c>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD5" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" ht="20" spans="1:30">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="21" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA6" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" ht="20" spans="1:27">
+        <v>102</v>
+      </c>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD6" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" ht="20" spans="1:30">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="22" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="W7" s="22" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="X7" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA7" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" ht="20" spans="1:27">
+        <v>122</v>
+      </c>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD7" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" ht="20" spans="1:30">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="21" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="21" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="21" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="W8" s="22" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="X8" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA8" s="29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" ht="20" spans="1:27">
+        <v>141</v>
+      </c>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA8" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD8" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" ht="20" spans="1:30">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="21" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="S9" s="25"/>
       <c r="T9" s="21" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="X9" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA9" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" ht="20" spans="1:27">
+        <v>161</v>
+      </c>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD9" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" ht="20" spans="1:30">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="5" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="21" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="22" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V10" s="26"/>
       <c r="W10" s="21" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA10" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" ht="20" spans="1:27">
+        <v>179</v>
+      </c>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA10" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD10" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" ht="20" spans="1:30">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="W11" s="22" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="X11" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA11" s="28" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="1:27">
+        <v>199</v>
+      </c>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA11" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD11" s="33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:30">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="5" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="21" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="21" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="S12" s="25"/>
       <c r="T12" s="21" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="W12" s="22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="X12" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA12" s="28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" ht="20" spans="1:27">
+        <v>217</v>
+      </c>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD12" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="1:30">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="21" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="S13" s="25"/>
       <c r="T13" s="21" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="V13" s="26"/>
       <c r="W13" s="21" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="X13" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA13" s="29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" ht="20" spans="1:27">
+        <v>236</v>
+      </c>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA13" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD13" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" ht="20" spans="1:30">
       <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="5" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="7" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="21" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="21" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="22" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="X14" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA14" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" ht="20" spans="1:27">
+        <v>254</v>
+      </c>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA14" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="AD14" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" ht="20" spans="1:30">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="21" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="21" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="V15" s="26"/>
       <c r="W15" s="21" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="X15" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA15" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" ht="20" spans="1:27">
+        <v>272</v>
+      </c>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD15" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" ht="20" spans="1:30">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="V16" s="26"/>
       <c r="W16" s="21" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="X16" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA16" s="29" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" ht="20" spans="1:27">
+        <v>287</v>
+      </c>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD16" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" ht="20" spans="1:30">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="21" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="21" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="W17" s="22" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="X17" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA17" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" ht="20" spans="1:27">
+        <v>303</v>
+      </c>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA17" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD17" s="34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" ht="20" spans="1:30">
       <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="21" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="X18" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="AA18" s="28" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" ht="20" spans="1:27">
+        <v>318</v>
+      </c>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA18" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD18" s="33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" ht="20" spans="1:30">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="W19" s="22" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="X19" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA19" s="29" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" ht="20" spans="1:27">
+        <v>334</v>
+      </c>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA19" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD19" s="33" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" ht="20" spans="1:30">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="5" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="5" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="21" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="21" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="X20" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA20" s="29" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" ht="20" spans="1:27">
+        <v>350</v>
+      </c>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA20" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD20" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" ht="20" spans="1:30">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="M21" s="24"/>
       <c r="N21" s="21" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="W21" s="22" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="X21" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="AA21" s="29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" ht="20" spans="1:27">
+        <v>365</v>
+      </c>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA21" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD21" s="34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" ht="20" spans="1:30">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="21" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="21" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="21" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="X22" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA22" s="29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" ht="20" spans="1:27">
+        <v>381</v>
+      </c>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA22" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD22" s="33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" ht="20" spans="1:30">
       <c r="A23" s="11"/>
       <c r="B23" s="5" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="21" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="M23" s="24"/>
       <c r="N23" s="21" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="21" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA23" s="28" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" ht="20" spans="1:27">
+        <v>397</v>
+      </c>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA23" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD23" s="33" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" ht="20" spans="1:30">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="21" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="21" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA24" s="29" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="25" ht="20" spans="1:27">
+        <v>411</v>
+      </c>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="AA24" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD24" s="34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" ht="20" spans="1:30">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="21" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="21" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA25" s="29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="26" ht="20" spans="1:27">
+        <v>427</v>
+      </c>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA25" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD25" s="33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" ht="20" spans="1:30">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="5" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="21" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="22" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="W26" s="22" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="X26" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="AA26" s="29" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="27" ht="20" spans="1:24">
+        <v>442</v>
+      </c>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA26" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD26" s="34" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" ht="20" spans="1:30">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="21" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="21" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="W27" s="22" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="X27" s="22" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="28" ht="20" spans="1:24">
+        <v>458</v>
+      </c>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD27" s="34" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" ht="20" spans="1:30">
       <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="7" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="21" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="W28" s="22" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="X28" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="29" ht="20" spans="1:24">
+        <v>472</v>
+      </c>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD28" s="34" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="29" ht="20" spans="1:30">
       <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="5" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="21" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="W29" s="22" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="X29" s="22" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="30" ht="20" spans="1:24">
+        <v>486</v>
+      </c>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="AD29" s="34" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="30" ht="20" spans="1:30">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="7" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="M30" s="24"/>
       <c r="N30" s="21" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="W30" s="22" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="X30" s="22" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="31" ht="20" spans="1:24">
+        <v>500</v>
+      </c>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="AD30" s="33" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" ht="20" spans="1:30">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="5" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="M31" s="24"/>
       <c r="N31" s="21" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="V31" s="26"/>
       <c r="W31" s="21" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="X31" s="21" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="32" ht="20" spans="1:24">
+        <v>513</v>
+      </c>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="AD31" s="34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32" ht="20" spans="1:30">
       <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="5" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="7" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="23" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="21" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="V32" s="26"/>
       <c r="W32" s="21" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="X32" s="21" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="33" ht="20" spans="1:24">
+        <v>527</v>
+      </c>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="AD32" s="34" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="33" ht="20" spans="1:30">
       <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
-        <v>467</v>
+        <v>530</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="5" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="7" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="21" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="W33" s="22" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="X33" s="22" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="34" ht="20" spans="1:24">
+        <v>541</v>
+      </c>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="AD33" s="33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="34" ht="20" spans="1:30">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="7" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="W34" s="22" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="X34" s="22" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="35" ht="20" spans="1:24">
+        <v>554</v>
+      </c>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD34" s="34" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="35" ht="20" spans="1:30">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="5" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="21" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="V35" s="26"/>
       <c r="W35" s="21" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="X35" s="21" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="36" ht="20" spans="1:24">
+        <v>568</v>
+      </c>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD35" s="34" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" ht="20" spans="1:30">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>504</v>
+        <v>572</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>506</v>
+        <v>574</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="5" t="s">
-        <v>507</v>
+        <v>575</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>508</v>
+        <v>576</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="21" t="s">
-        <v>511</v>
+        <v>579</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>512</v>
+        <v>580</v>
       </c>
       <c r="W36" s="22" t="s">
-        <v>513</v>
+        <v>581</v>
       </c>
       <c r="X36" s="22" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <v>582</v>
+      </c>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD36" s="34" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
-        <v>515</v>
+        <v>585</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>516</v>
+        <v>586</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="7" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="7" t="s">
-        <v>519</v>
+        <v>589</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>521</v>
+        <v>591</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>510</v>
+        <v>578</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22" t="s">
-        <v>522</v>
+        <v>592</v>
       </c>
       <c r="O37" s="22" t="s">
-        <v>523</v>
+        <v>593</v>
       </c>
       <c r="W37" s="22" t="s">
-        <v>524</v>
+        <v>594</v>
       </c>
       <c r="X37" s="22" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="38" ht="20" spans="1:24">
+        <v>595</v>
+      </c>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD37" s="34" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" ht="20" spans="1:30">
       <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
-        <v>526</v>
+        <v>597</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>527</v>
+        <v>598</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>528</v>
+        <v>599</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="7" t="s">
-        <v>530</v>
+        <v>601</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>533</v>
+        <v>604</v>
       </c>
       <c r="M38" s="24"/>
       <c r="N38" s="21" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>535</v>
+        <v>606</v>
       </c>
       <c r="V38" s="26"/>
       <c r="W38" s="21" t="s">
-        <v>536</v>
+        <v>607</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="39" ht="20" spans="1:24">
+        <v>608</v>
+      </c>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD38" s="33" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="39" ht="20" spans="1:30">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="5" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>543</v>
+        <v>616</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>544</v>
+        <v>617</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>545</v>
+        <v>618</v>
       </c>
       <c r="M39" s="24"/>
       <c r="N39" s="21" t="s">
-        <v>546</v>
+        <v>619</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>547</v>
+        <v>620</v>
       </c>
       <c r="W39" s="22" t="s">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="X39" s="22" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="40" ht="20" spans="1:24">
+        <v>622</v>
+      </c>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="AD39" s="34" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="40" ht="20" spans="1:30">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>551</v>
+        <v>626</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="7" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>553</v>
+        <v>628</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="5" t="s">
-        <v>554</v>
+        <v>629</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>555</v>
+        <v>630</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>557</v>
+        <v>632</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="V40" s="26"/>
       <c r="W40" s="21" t="s">
-        <v>560</v>
+        <v>635</v>
       </c>
       <c r="X40" s="21" t="s">
-        <v>561</v>
+        <v>636</v>
+      </c>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="35" t="s">
+        <v>637</v>
+      </c>
+      <c r="AD40" s="35" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="41" ht="20" spans="1:24">
       <c r="A41" s="11"/>
       <c r="B41" s="5" t="s">
-        <v>562</v>
+        <v>639</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>563</v>
+        <v>640</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="7" t="s">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>565</v>
+        <v>642</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="7" t="s">
-        <v>566</v>
+        <v>643</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="21" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>569</v>
+        <v>646</v>
       </c>
       <c r="M41" s="24"/>
       <c r="N41" s="21" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
       <c r="W41" s="22" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="X41" s="22" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
     </row>
     <row r="42" ht="20" spans="1:24">
       <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="7" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="V42" s="26"/>
       <c r="W42" s="21" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="X42" s="21" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" ht="20" spans="1:24">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="5" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="7" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>592</v>
+        <v>669</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>593</v>
+        <v>670</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>595</v>
+        <v>672</v>
       </c>
       <c r="V43" s="26"/>
       <c r="W43" s="21" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="X43" s="21" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" ht="20" spans="1:24">
       <c r="A44" s="9"/>
       <c r="B44" s="7" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="7" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="21" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
       <c r="O44" s="22" t="s">
-        <v>606</v>
+        <v>683</v>
       </c>
       <c r="V44" s="26"/>
       <c r="W44" s="21" t="s">
-        <v>607</v>
+        <v>684</v>
       </c>
       <c r="X44" s="21" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
     </row>
     <row r="45" ht="20" spans="1:24">
       <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>610</v>
+        <v>687</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>611</v>
+        <v>688</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>612</v>
+        <v>689</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="7" t="s">
-        <v>613</v>
+        <v>690</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>614</v>
+        <v>691</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="21" t="s">
-        <v>615</v>
+        <v>692</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="21" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>618</v>
+        <v>695</v>
       </c>
       <c r="V45" s="26"/>
       <c r="W45" s="21" t="s">
-        <v>619</v>
+        <v>696</v>
       </c>
       <c r="X45" s="21" t="s">
-        <v>620</v>
+        <v>697</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
-        <v>621</v>
+        <v>698</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>622</v>
+        <v>699</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="7" t="s">
-        <v>623</v>
+        <v>700</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>612</v>
+        <v>689</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="7" t="s">
-        <v>624</v>
+        <v>701</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="22" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="O46" s="22" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="W46" s="22" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="X46" s="22" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
     </row>
     <row r="47" ht="20" spans="1:24">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="7" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="5" t="s">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="J47" s="20"/>
       <c r="K47" s="21" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="O47" s="22" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="W47" s="22" t="s">
-        <v>640</v>
+        <v>717</v>
       </c>
       <c r="X47" s="22" t="s">
-        <v>641</v>
+        <v>718</v>
       </c>
     </row>
     <row r="48" ht="20" spans="1:24">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>642</v>
+        <v>719</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="7" t="s">
-        <v>644</v>
+        <v>721</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="5" t="s">
-        <v>646</v>
+        <v>723</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
       <c r="J48" s="20"/>
       <c r="K48" s="21" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="O48" s="22" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="W48" s="22" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="X48" s="22" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
     </row>
     <row r="49" ht="20" spans="1:24">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>654</v>
+        <v>731</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="15"/>
       <c r="H49" s="7" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
       <c r="O49" s="22" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="V49" s="26"/>
       <c r="W49" s="21" t="s">
-        <v>660</v>
+        <v>737</v>
       </c>
       <c r="X49" s="21" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
     </row>
     <row r="50" ht="20" spans="1:24">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="15"/>
       <c r="H50" s="7" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>625</v>
+        <v>702</v>
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="21" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="M50" s="22"/>
       <c r="N50" s="22" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
       <c r="W50" s="22" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
       <c r="X50" s="22" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
     </row>
     <row r="51" ht="20" spans="1:24">
       <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
-        <v>671</v>
+        <v>748</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="17"/>
       <c r="H51" s="5" t="s">
-        <v>673</v>
+        <v>750</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="21" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>678</v>
+        <v>755</v>
       </c>
       <c r="V51" s="26"/>
       <c r="W51" s="21" t="s">
-        <v>679</v>
+        <v>756</v>
       </c>
       <c r="X51" s="21" t="s">
-        <v>680</v>
+        <v>757</v>
       </c>
     </row>
     <row r="52" ht="20" spans="1:24">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>681</v>
+        <v>758</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>682</v>
+        <v>759</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="17"/>
       <c r="H52" s="5" t="s">
-        <v>683</v>
+        <v>760</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>684</v>
+        <v>761</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>686</v>
+        <v>763</v>
       </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22" t="s">
-        <v>687</v>
+        <v>764</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
       <c r="W52" s="22" t="s">
-        <v>688</v>
+        <v>765</v>
       </c>
       <c r="X52" s="22" t="s">
-        <v>689</v>
+        <v>766</v>
       </c>
     </row>
     <row r="53" ht="20" spans="1:24">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>690</v>
+        <v>767</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="15"/>
       <c r="H53" s="7" t="s">
-        <v>691</v>
+        <v>768</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>692</v>
+        <v>769</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>693</v>
+        <v>770</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>694</v>
+        <v>771</v>
       </c>
       <c r="M53" s="22"/>
       <c r="N53" s="22" t="s">
-        <v>695</v>
+        <v>772</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>696</v>
+        <v>773</v>
       </c>
       <c r="V53" s="26"/>
       <c r="W53" s="21" t="s">
-        <v>697</v>
+        <v>774</v>
       </c>
       <c r="X53" s="21" t="s">
-        <v>698</v>
+        <v>775</v>
       </c>
     </row>
     <row r="54" ht="20" spans="1:24">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
-        <v>699</v>
+        <v>776</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>700</v>
+        <v>777</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="17"/>
       <c r="H54" s="5" t="s">
-        <v>701</v>
+        <v>778</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>702</v>
+        <v>779</v>
       </c>
       <c r="J54" s="20"/>
       <c r="K54" s="21" t="s">
-        <v>703</v>
+        <v>780</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>704</v>
+        <v>781</v>
       </c>
       <c r="M54" s="22"/>
       <c r="N54" s="22" t="s">
-        <v>705</v>
+        <v>782</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="W54" s="22" t="s">
-        <v>706</v>
+        <v>783</v>
       </c>
       <c r="X54" s="22" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
     </row>
     <row r="55" ht="20" spans="1:24">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
-        <v>707</v>
+        <v>784</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>708</v>
+        <v>785</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="17"/>
       <c r="H55" s="5" t="s">
-        <v>709</v>
+        <v>786</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>686</v>
+        <v>763</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="22" t="s">
-        <v>712</v>
+        <v>789</v>
       </c>
       <c r="O55" s="22" t="s">
-        <v>713</v>
+        <v>790</v>
       </c>
       <c r="V55" s="26"/>
       <c r="W55" s="21" t="s">
-        <v>714</v>
+        <v>791</v>
       </c>
       <c r="X55" s="21" t="s">
-        <v>715</v>
+        <v>792</v>
       </c>
     </row>
     <row r="56" ht="20" spans="1:24">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
-        <v>716</v>
+        <v>793</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>717</v>
+        <v>794</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="17"/>
       <c r="H56" s="5" t="s">
-        <v>718</v>
+        <v>795</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>719</v>
+        <v>796</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>720</v>
+        <v>797</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>721</v>
+        <v>798</v>
       </c>
       <c r="M56" s="24"/>
       <c r="N56" s="21" t="s">
-        <v>722</v>
+        <v>799</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>723</v>
+        <v>800</v>
       </c>
       <c r="V56" s="26"/>
       <c r="W56" s="21" t="s">
-        <v>724</v>
+        <v>801</v>
       </c>
       <c r="X56" s="21" t="s">
-        <v>725</v>
+        <v>802</v>
       </c>
     </row>
     <row r="57" ht="20" spans="1:24">
       <c r="A57" s="9"/>
       <c r="B57" s="5" t="s">
-        <v>726</v>
+        <v>803</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>717</v>
+        <v>794</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="17"/>
       <c r="H57" s="5" t="s">
-        <v>727</v>
+        <v>804</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>728</v>
+        <v>805</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>729</v>
+        <v>806</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>730</v>
+        <v>807</v>
       </c>
       <c r="M57" s="22"/>
       <c r="N57" s="22" t="s">
-        <v>731</v>
+        <v>808</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>732</v>
+        <v>809</v>
       </c>
       <c r="W57" s="22" t="s">
-        <v>733</v>
+        <v>810</v>
       </c>
       <c r="X57" s="22" t="s">
-        <v>734</v>
+        <v>811</v>
       </c>
     </row>
     <row r="58" ht="20" spans="1:24">
       <c r="A58" s="9"/>
       <c r="B58" s="5" t="s">
-        <v>735</v>
+        <v>812</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>736</v>
+        <v>813</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="15"/>
       <c r="H58" s="7" t="s">
-        <v>737</v>
+        <v>814</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>738</v>
+        <v>815</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>739</v>
+        <v>816</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>740</v>
+        <v>817</v>
       </c>
       <c r="M58" s="24"/>
       <c r="N58" s="21" t="s">
-        <v>741</v>
+        <v>818</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>742</v>
+        <v>819</v>
       </c>
       <c r="W58" s="22" t="s">
-        <v>743</v>
+        <v>820</v>
       </c>
       <c r="X58" s="22" t="s">
-        <v>744</v>
+        <v>821</v>
       </c>
     </row>
     <row r="59" ht="20" spans="1:24">
       <c r="A59" s="9"/>
       <c r="B59" s="5" t="s">
-        <v>745</v>
+        <v>822</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>746</v>
+        <v>823</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="17"/>
       <c r="H59" s="5" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>747</v>
+        <v>824</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="21" t="s">
-        <v>748</v>
+        <v>825</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>749</v>
+        <v>826</v>
       </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22" t="s">
-        <v>750</v>
+        <v>827</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>751</v>
+        <v>828</v>
       </c>
       <c r="V59" s="26"/>
       <c r="W59" s="21" t="s">
-        <v>752</v>
+        <v>829</v>
       </c>
       <c r="X59" s="21" t="s">
-        <v>753</v>
+        <v>830</v>
       </c>
     </row>
     <row r="60" ht="20" spans="1:24">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
-        <v>754</v>
+        <v>831</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>755</v>
+        <v>832</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="17"/>
       <c r="H60" s="5" t="s">
-        <v>756</v>
+        <v>833</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>757</v>
+        <v>834</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>758</v>
+        <v>835</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>759</v>
+        <v>836</v>
       </c>
       <c r="M60" s="22"/>
       <c r="N60" s="22" t="s">
-        <v>760</v>
+        <v>837</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>761</v>
+        <v>838</v>
       </c>
       <c r="V60" s="26"/>
       <c r="W60" s="21" t="s">
-        <v>762</v>
+        <v>839</v>
       </c>
       <c r="X60" s="21" t="s">
-        <v>763</v>
+        <v>840</v>
       </c>
     </row>
     <row r="61" ht="20" spans="1:24">
@@ -7169,29 +7696,29 @@
       <c r="F61" s="6"/>
       <c r="G61" s="17"/>
       <c r="H61" s="5" t="s">
-        <v>764</v>
+        <v>841</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>765</v>
+        <v>842</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>766</v>
+        <v>843</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>767</v>
+        <v>844</v>
       </c>
       <c r="M61" s="24"/>
       <c r="N61" s="21" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>768</v>
+        <v>845</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>769</v>
+        <v>846</v>
       </c>
       <c r="X61" s="22" t="s">
-        <v>770</v>
+        <v>847</v>
       </c>
     </row>
     <row r="62" ht="20" spans="1:24">
@@ -7203,30 +7730,30 @@
       <c r="F62" s="6"/>
       <c r="G62" s="17"/>
       <c r="H62" s="5" t="s">
-        <v>771</v>
+        <v>848</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>772</v>
+        <v>849</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="21" t="s">
-        <v>773</v>
+        <v>850</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>774</v>
+        <v>851</v>
       </c>
       <c r="M62" s="22"/>
       <c r="N62" s="22" t="s">
-        <v>775</v>
+        <v>852</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>776</v>
+        <v>853</v>
       </c>
       <c r="W62" s="22" t="s">
-        <v>777</v>
+        <v>854</v>
       </c>
       <c r="X62" s="22" t="s">
-        <v>778</v>
+        <v>855</v>
       </c>
     </row>
     <row r="63" ht="20" spans="1:24">
@@ -7238,30 +7765,30 @@
       <c r="F63" s="6"/>
       <c r="G63" s="15"/>
       <c r="H63" s="7" t="s">
-        <v>779</v>
+        <v>856</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>765</v>
+        <v>842</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="21" t="s">
-        <v>780</v>
+        <v>857</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>781</v>
+        <v>858</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="21" t="s">
-        <v>782</v>
+        <v>859</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="W63" s="22" t="s">
-        <v>784</v>
+        <v>861</v>
       </c>
       <c r="X63" s="22" t="s">
-        <v>785</v>
+        <v>862</v>
       </c>
     </row>
     <row r="64" ht="20" spans="1:24">
@@ -7273,30 +7800,30 @@
       <c r="F64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="5" t="s">
-        <v>786</v>
+        <v>863</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>787</v>
+        <v>864</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="21" t="s">
-        <v>788</v>
+        <v>865</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>789</v>
+        <v>866</v>
       </c>
       <c r="M64" s="22"/>
       <c r="N64" s="22" t="s">
-        <v>790</v>
+        <v>867</v>
       </c>
       <c r="O64" s="22" t="s">
-        <v>791</v>
+        <v>868</v>
       </c>
       <c r="W64" s="22" t="s">
-        <v>792</v>
+        <v>869</v>
       </c>
       <c r="X64" s="22" t="s">
-        <v>793</v>
+        <v>870</v>
       </c>
     </row>
     <row r="65" ht="20" spans="1:24">
@@ -7308,29 +7835,29 @@
       <c r="F65" s="6"/>
       <c r="G65" s="15"/>
       <c r="H65" s="7" t="s">
-        <v>794</v>
+        <v>871</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>795</v>
+        <v>872</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>796</v>
+        <v>873</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>797</v>
+        <v>874</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="21" t="s">
-        <v>798</v>
+        <v>875</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>799</v>
+        <v>876</v>
       </c>
       <c r="W65" s="22" t="s">
-        <v>800</v>
+        <v>877</v>
       </c>
       <c r="X65" s="22" t="s">
-        <v>793</v>
+        <v>870</v>
       </c>
     </row>
     <row r="66" ht="20" spans="1:24">
@@ -7342,30 +7869,30 @@
       <c r="F66" s="6"/>
       <c r="G66" s="17"/>
       <c r="H66" s="5" t="s">
-        <v>801</v>
+        <v>878</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>802</v>
+        <v>879</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="21" t="s">
-        <v>803</v>
+        <v>880</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>804</v>
+        <v>881</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="21" t="s">
-        <v>805</v>
+        <v>882</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>806</v>
+        <v>883</v>
       </c>
       <c r="W66" s="22" t="s">
-        <v>807</v>
+        <v>884</v>
       </c>
       <c r="X66" s="22" t="s">
-        <v>808</v>
+        <v>885</v>
       </c>
     </row>
     <row r="67" ht="20" spans="1:24">
@@ -7377,429 +7904,429 @@
       <c r="F67" s="6"/>
       <c r="G67" s="17"/>
       <c r="H67" s="5" t="s">
-        <v>809</v>
+        <v>886</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>810</v>
+        <v>887</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>811</v>
+        <v>888</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>812</v>
+        <v>889</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="21" t="s">
-        <v>813</v>
+        <v>890</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>814</v>
+        <v>891</v>
       </c>
       <c r="W67" s="22" t="s">
-        <v>815</v>
+        <v>892</v>
       </c>
       <c r="X67" s="22" t="s">
-        <v>816</v>
+        <v>893</v>
       </c>
     </row>
     <row r="68" ht="20" spans="1:24">
-      <c r="A68" s="32" t="s">
-        <v>817</v>
-      </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
+      <c r="A68" s="36" t="s">
+        <v>894</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="15"/>
       <c r="H68" s="7" t="s">
-        <v>818</v>
+        <v>895</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>819</v>
+        <v>896</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="21" t="s">
-        <v>820</v>
+        <v>897</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>821</v>
+        <v>898</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="21" t="s">
-        <v>822</v>
+        <v>899</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>823</v>
+        <v>900</v>
       </c>
       <c r="W68" s="22" t="s">
-        <v>824</v>
+        <v>901</v>
       </c>
       <c r="X68" s="22" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" ht="20" spans="1:24">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="17"/>
       <c r="H69" s="5" t="s">
-        <v>825</v>
+        <v>902</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>826</v>
+        <v>903</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>827</v>
+        <v>904</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>828</v>
+        <v>905</v>
       </c>
       <c r="M69" s="22"/>
       <c r="N69" s="22" t="s">
-        <v>829</v>
+        <v>906</v>
       </c>
       <c r="O69" s="22" t="s">
-        <v>830</v>
+        <v>907</v>
       </c>
       <c r="W69" s="22" t="s">
-        <v>831</v>
+        <v>908</v>
       </c>
       <c r="X69" s="22" t="s">
-        <v>832</v>
+        <v>909</v>
       </c>
     </row>
     <row r="70" ht="20" spans="1:24">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="17"/>
       <c r="H70" s="5" t="s">
-        <v>833</v>
+        <v>910</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>834</v>
+        <v>911</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="21" t="s">
-        <v>835</v>
+        <v>912</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>836</v>
+        <v>913</v>
       </c>
       <c r="M70" s="22"/>
       <c r="N70" s="22" t="s">
-        <v>837</v>
+        <v>914</v>
       </c>
       <c r="O70" s="22" t="s">
-        <v>838</v>
+        <v>915</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>839</v>
+        <v>916</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>832</v>
+        <v>909</v>
       </c>
     </row>
     <row r="71" ht="20" spans="1:24">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="15"/>
       <c r="H71" s="7" t="s">
-        <v>840</v>
+        <v>917</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>841</v>
+        <v>918</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="21" t="s">
-        <v>842</v>
+        <v>919</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>843</v>
+        <v>920</v>
       </c>
       <c r="M71" s="22"/>
       <c r="N71" s="22" t="s">
-        <v>844</v>
+        <v>921</v>
       </c>
       <c r="O71" s="22" t="s">
-        <v>845</v>
+        <v>922</v>
       </c>
       <c r="V71" s="26"/>
       <c r="W71" s="21" t="s">
-        <v>846</v>
+        <v>923</v>
       </c>
       <c r="X71" s="21" t="s">
-        <v>847</v>
+        <v>924</v>
       </c>
     </row>
     <row r="72" ht="20" spans="1:24">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="15"/>
       <c r="H72" s="7" t="s">
-        <v>848</v>
+        <v>925</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>849</v>
+        <v>926</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>850</v>
+        <v>927</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>851</v>
+        <v>928</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="21" t="s">
-        <v>852</v>
+        <v>929</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>853</v>
+        <v>930</v>
       </c>
       <c r="V72" s="26"/>
       <c r="W72" s="21" t="s">
-        <v>854</v>
+        <v>931</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>855</v>
+        <v>932</v>
       </c>
     </row>
     <row r="73" ht="20" spans="1:24">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="15"/>
       <c r="H73" s="7" t="s">
-        <v>856</v>
+        <v>933</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>857</v>
+        <v>934</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="21" t="s">
-        <v>858</v>
+        <v>935</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>859</v>
+        <v>936</v>
       </c>
       <c r="M73" s="22"/>
       <c r="N73" s="22" t="s">
-        <v>860</v>
+        <v>937</v>
       </c>
       <c r="O73" s="22" t="s">
-        <v>861</v>
+        <v>938</v>
       </c>
       <c r="W73" s="22" t="s">
-        <v>862</v>
+        <v>939</v>
       </c>
       <c r="X73" s="22" t="s">
-        <v>863</v>
+        <v>940</v>
       </c>
     </row>
     <row r="74" ht="20" spans="1:24">
-      <c r="A74" s="33"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="17"/>
       <c r="H74" s="5" t="s">
-        <v>864</v>
+        <v>941</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>865</v>
+        <v>942</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>866</v>
+        <v>943</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>867</v>
+        <v>944</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="21" t="s">
-        <v>868</v>
+        <v>945</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>869</v>
+        <v>946</v>
       </c>
       <c r="W74" s="22" t="s">
-        <v>870</v>
+        <v>947</v>
       </c>
       <c r="X74" s="22" t="s">
-        <v>871</v>
+        <v>948</v>
       </c>
     </row>
     <row r="75" ht="20" spans="1:24">
-      <c r="A75" s="33"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="15"/>
       <c r="H75" s="7" t="s">
-        <v>872</v>
+        <v>949</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>873</v>
+        <v>950</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="21" t="s">
-        <v>874</v>
+        <v>951</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>875</v>
+        <v>952</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="21" t="s">
-        <v>876</v>
+        <v>953</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>877</v>
+        <v>954</v>
       </c>
       <c r="V75" s="26"/>
       <c r="W75" s="21" t="s">
-        <v>878</v>
+        <v>955</v>
       </c>
       <c r="X75" s="21" t="s">
-        <v>879</v>
+        <v>956</v>
       </c>
     </row>
     <row r="76" ht="20" spans="1:24">
-      <c r="A76" s="33"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="17"/>
       <c r="H76" s="5" t="s">
-        <v>880</v>
+        <v>957</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>881</v>
+        <v>958</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="21" t="s">
-        <v>882</v>
+        <v>959</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>883</v>
+        <v>960</v>
       </c>
       <c r="M76" s="22"/>
       <c r="N76" s="22" t="s">
-        <v>884</v>
+        <v>961</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>885</v>
+        <v>962</v>
       </c>
       <c r="W76" s="22" t="s">
-        <v>886</v>
+        <v>963</v>
       </c>
       <c r="X76" s="22" t="s">
-        <v>793</v>
+        <v>870</v>
       </c>
     </row>
     <row r="77" ht="20" spans="1:24">
-      <c r="A77" s="33"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="17"/>
       <c r="H77" s="5" t="s">
-        <v>887</v>
+        <v>964</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>888</v>
+        <v>965</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>889</v>
+        <v>966</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>890</v>
+        <v>967</v>
       </c>
       <c r="W77" s="22" t="s">
-        <v>891</v>
+        <v>968</v>
       </c>
       <c r="X77" s="22" t="s">
-        <v>793</v>
+        <v>870</v>
       </c>
     </row>
     <row r="78" ht="20" spans="1:24">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="17"/>
       <c r="H78" s="5" t="s">
-        <v>892</v>
+        <v>969</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>893</v>
+        <v>970</v>
       </c>
       <c r="J78" s="20"/>
       <c r="K78" s="21" t="s">
-        <v>894</v>
+        <v>971</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>895</v>
+        <v>972</v>
       </c>
       <c r="V78" s="26"/>
       <c r="W78" s="21" t="s">
-        <v>896</v>
+        <v>973</v>
       </c>
       <c r="X78" s="21" t="s">
-        <v>897</v>
+        <v>974</v>
       </c>
     </row>
     <row r="79" spans="1:24">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="15"/>
       <c r="H79" s="7" t="s">
-        <v>898</v>
+        <v>975</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>899</v>
+        <v>976</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>900</v>
+        <v>977</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>901</v>
+        <v>978</v>
       </c>
       <c r="W79" s="22" t="s">
-        <v>902</v>
+        <v>979</v>
       </c>
       <c r="X79" s="22" t="s">
-        <v>903</v>
+        <v>980</v>
       </c>
     </row>
     <row r="80" ht="20" spans="1:24">
@@ -7811,24 +8338,24 @@
       <c r="F80" s="6"/>
       <c r="G80" s="17"/>
       <c r="H80" s="5" t="s">
-        <v>904</v>
+        <v>981</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>905</v>
+        <v>982</v>
       </c>
       <c r="J80" s="20"/>
       <c r="K80" s="21" t="s">
-        <v>906</v>
+        <v>983</v>
       </c>
       <c r="L80" s="21" t="s">
-        <v>895</v>
+        <v>972</v>
       </c>
       <c r="V80" s="26"/>
       <c r="W80" s="21" t="s">
-        <v>907</v>
+        <v>984</v>
       </c>
       <c r="X80" s="21" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -7840,22 +8367,22 @@
       <c r="F81" s="6"/>
       <c r="G81" s="15"/>
       <c r="H81" s="7" t="s">
-        <v>908</v>
+        <v>985</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>909</v>
+        <v>986</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>910</v>
+        <v>987</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="W81" s="22" t="s">
-        <v>912</v>
+        <v>989</v>
       </c>
       <c r="X81" s="22" t="s">
-        <v>913</v>
+        <v>990</v>
       </c>
     </row>
     <row r="82" ht="20" spans="1:24">
@@ -7867,24 +8394,24 @@
       <c r="F82" s="6"/>
       <c r="G82" s="17"/>
       <c r="H82" s="5" t="s">
-        <v>914</v>
+        <v>991</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>915</v>
+        <v>992</v>
       </c>
       <c r="J82" s="20"/>
       <c r="K82" s="21" t="s">
-        <v>916</v>
+        <v>993</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>917</v>
+        <v>994</v>
       </c>
       <c r="V82" s="26"/>
       <c r="W82" s="21" t="s">
-        <v>918</v>
+        <v>995</v>
       </c>
       <c r="X82" s="21" t="s">
-        <v>919</v>
+        <v>996</v>
       </c>
     </row>
     <row r="83" ht="20" spans="1:24">
@@ -7896,23 +8423,23 @@
       <c r="F83" s="6"/>
       <c r="G83" s="17"/>
       <c r="H83" s="5" t="s">
-        <v>920</v>
+        <v>997</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>921</v>
+        <v>998</v>
       </c>
       <c r="J83" s="20"/>
       <c r="K83" s="21" t="s">
-        <v>922</v>
+        <v>999</v>
       </c>
       <c r="L83" s="21" t="s">
-        <v>923</v>
+        <v>1000</v>
       </c>
       <c r="W83" s="22" t="s">
-        <v>924</v>
+        <v>368</v>
       </c>
       <c r="X83" s="22" t="s">
-        <v>925</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="84" ht="20" spans="1:24">
@@ -7924,23 +8451,23 @@
       <c r="F84" s="6"/>
       <c r="G84" s="15"/>
       <c r="H84" s="7" t="s">
-        <v>926</v>
+        <v>1002</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>927</v>
+        <v>1003</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>928</v>
+        <v>1004</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>929</v>
+        <v>1005</v>
       </c>
       <c r="V84" s="26"/>
       <c r="W84" s="21" t="s">
-        <v>930</v>
+        <v>1006</v>
       </c>
       <c r="X84" s="21" t="s">
-        <v>931</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="85" ht="20" spans="1:24">
@@ -7952,23 +8479,23 @@
       <c r="F85" s="6"/>
       <c r="G85" s="15"/>
       <c r="H85" s="7" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
       <c r="J85" s="20"/>
       <c r="K85" s="21" t="s">
-        <v>932</v>
+        <v>1008</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>933</v>
+        <v>1009</v>
       </c>
       <c r="W85" s="22" t="s">
-        <v>934</v>
+        <v>1010</v>
       </c>
       <c r="X85" s="22" t="s">
-        <v>935</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="86" ht="20" spans="1:24">
@@ -7980,22 +8507,22 @@
       <c r="F86" s="6"/>
       <c r="G86" s="17"/>
       <c r="H86" s="5" t="s">
-        <v>936</v>
+        <v>1012</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>937</v>
+        <v>1013</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>938</v>
+        <v>1014</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>939</v>
+        <v>1015</v>
       </c>
       <c r="W86" s="22" t="s">
-        <v>940</v>
+        <v>1016</v>
       </c>
       <c r="X86" s="22" t="s">
-        <v>941</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="87" ht="20" spans="1:24">
@@ -8007,24 +8534,24 @@
       <c r="F87" s="6"/>
       <c r="G87" s="17"/>
       <c r="H87" s="5" t="s">
-        <v>942</v>
+        <v>1018</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>943</v>
+        <v>1019</v>
       </c>
       <c r="J87" s="20"/>
       <c r="K87" s="21" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>944</v>
+        <v>1020</v>
       </c>
       <c r="V87" s="26"/>
       <c r="W87" s="21" t="s">
-        <v>945</v>
+        <v>1021</v>
       </c>
       <c r="X87" s="21" t="s">
-        <v>946</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="88" ht="20" spans="1:24">
@@ -8036,23 +8563,23 @@
       <c r="F88" s="6"/>
       <c r="G88" s="15"/>
       <c r="H88" s="7" t="s">
-        <v>947</v>
+        <v>1023</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>948</v>
+        <v>1024</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>949</v>
+        <v>1025</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>950</v>
+        <v>1026</v>
       </c>
       <c r="V88" s="26"/>
       <c r="W88" s="21" t="s">
-        <v>951</v>
+        <v>1027</v>
       </c>
       <c r="X88" s="21" t="s">
-        <v>952</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="89" ht="20" spans="1:24">
@@ -8064,23 +8591,23 @@
       <c r="F89" s="6"/>
       <c r="G89" s="17"/>
       <c r="H89" s="5" t="s">
-        <v>953</v>
+        <v>1029</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>954</v>
+        <v>1030</v>
       </c>
       <c r="J89" s="20"/>
       <c r="K89" s="21" t="s">
-        <v>955</v>
+        <v>1031</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>956</v>
+        <v>1032</v>
       </c>
       <c r="W89" s="22" t="s">
-        <v>957</v>
+        <v>1033</v>
       </c>
       <c r="X89" s="22" t="s">
-        <v>958</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="90" ht="20" spans="1:24">
@@ -8092,23 +8619,23 @@
       <c r="F90" s="6"/>
       <c r="G90" s="15"/>
       <c r="H90" s="7" t="s">
-        <v>959</v>
+        <v>1035</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>960</v>
+        <v>1036</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>961</v>
+        <v>1037</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>962</v>
+        <v>1038</v>
       </c>
       <c r="V90" s="26"/>
       <c r="W90" s="21" t="s">
-        <v>963</v>
+        <v>1039</v>
       </c>
       <c r="X90" s="21" t="s">
-        <v>964</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="91" ht="20" spans="1:24">
@@ -8120,23 +8647,23 @@
       <c r="F91" s="6"/>
       <c r="G91" s="15"/>
       <c r="H91" s="7" t="s">
-        <v>965</v>
+        <v>1041</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>966</v>
+        <v>1042</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>967</v>
+        <v>1043</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>968</v>
+        <v>1044</v>
       </c>
       <c r="V91" s="26"/>
       <c r="W91" s="21" t="s">
-        <v>969</v>
+        <v>1045</v>
       </c>
       <c r="X91" s="21" t="s">
-        <v>970</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="92" ht="20" spans="1:12">
@@ -8148,17 +8675,17 @@
       <c r="F92" s="6"/>
       <c r="G92" s="17"/>
       <c r="H92" s="5" t="s">
-        <v>971</v>
+        <v>1047</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>972</v>
+        <v>1048</v>
       </c>
       <c r="J92" s="20"/>
       <c r="K92" s="21" t="s">
-        <v>973</v>
+        <v>1049</v>
       </c>
       <c r="L92" s="21" t="s">
-        <v>974</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -8170,16 +8697,16 @@
       <c r="F93" s="6"/>
       <c r="G93" s="15"/>
       <c r="H93" s="10" t="s">
-        <v>975</v>
+        <v>1051</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>976</v>
+        <v>1052</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>977</v>
+        <v>1053</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>978</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="94" ht="20" spans="1:12">
@@ -8191,17 +8718,17 @@
       <c r="F94" s="6"/>
       <c r="G94" s="15"/>
       <c r="H94" s="7" t="s">
-        <v>979</v>
+        <v>1055</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>980</v>
+        <v>1056</v>
       </c>
       <c r="J94" s="20"/>
       <c r="K94" s="21" t="s">
-        <v>981</v>
+        <v>1057</v>
       </c>
       <c r="L94" s="21" t="s">
-        <v>982</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -8213,16 +8740,16 @@
       <c r="F95" s="6"/>
       <c r="G95" s="15"/>
       <c r="H95" s="7" t="s">
-        <v>983</v>
+        <v>1059</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>984</v>
+        <v>1060</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>985</v>
+        <v>1061</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>986</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="96" ht="20" spans="1:12">
@@ -8234,17 +8761,17 @@
       <c r="F96" s="6"/>
       <c r="G96" s="17"/>
       <c r="H96" s="5" t="s">
-        <v>987</v>
+        <v>1063</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>988</v>
+        <v>1064</v>
       </c>
       <c r="J96" s="20"/>
       <c r="K96" s="21" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="L96" s="21" t="s">
-        <v>989</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="97" ht="20" spans="1:9">
@@ -8256,10 +8783,10 @@
       <c r="F97" s="6"/>
       <c r="G97" s="17"/>
       <c r="H97" s="5" t="s">
-        <v>990</v>
+        <v>1066</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>991</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -8271,10 +8798,10 @@
       <c r="F98" s="6"/>
       <c r="G98" s="15"/>
       <c r="H98" s="7" t="s">
-        <v>992</v>
+        <v>1068</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>993</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="99" ht="20" spans="1:9">
@@ -8286,10 +8813,10 @@
       <c r="F99" s="6"/>
       <c r="G99" s="15"/>
       <c r="H99" s="5" t="s">
-        <v>994</v>
+        <v>1070</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>995</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="100" ht="20" spans="1:9">
@@ -8301,10 +8828,10 @@
       <c r="F100" s="6"/>
       <c r="G100" s="17"/>
       <c r="H100" s="5" t="s">
-        <v>996</v>
+        <v>1072</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>997</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -8316,10 +8843,10 @@
       <c r="F101" s="6"/>
       <c r="G101" s="15"/>
       <c r="H101" s="7" t="s">
-        <v>998</v>
+        <v>1074</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>999</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -8331,10 +8858,10 @@
       <c r="F102" s="6"/>
       <c r="G102" s="15"/>
       <c r="H102" s="7" t="s">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>1001</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="103" ht="20" spans="1:9">
@@ -8346,10 +8873,10 @@
       <c r="F103" s="6"/>
       <c r="G103" s="17"/>
       <c r="H103" s="5" t="s">
-        <v>1002</v>
+        <v>1078</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>1003</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -8361,10 +8888,10 @@
       <c r="F104" s="6"/>
       <c r="G104" s="15"/>
       <c r="H104" s="7" t="s">
-        <v>1004</v>
+        <v>1080</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>1003</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="105" ht="20" spans="1:9">
@@ -8376,10 +8903,10 @@
       <c r="F105" s="6"/>
       <c r="G105" s="17"/>
       <c r="H105" s="5" t="s">
-        <v>1005</v>
+        <v>1081</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>1006</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -8391,10 +8918,10 @@
       <c r="F106" s="6"/>
       <c r="G106" s="15"/>
       <c r="H106" s="7" t="s">
-        <v>1007</v>
+        <v>1083</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>1008</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -8406,10 +8933,10 @@
       <c r="F107" s="6"/>
       <c r="G107" s="15"/>
       <c r="H107" s="7" t="s">
-        <v>1009</v>
+        <v>1085</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>1010</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="108" ht="20" spans="1:9">
@@ -8421,10 +8948,10 @@
       <c r="F108" s="6"/>
       <c r="G108" s="17"/>
       <c r="H108" s="5" t="s">
-        <v>1011</v>
+        <v>1087</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>1012</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="109" ht="20" spans="1:9">
@@ -8436,10 +8963,10 @@
       <c r="F109" s="6"/>
       <c r="G109" s="17"/>
       <c r="H109" s="5" t="s">
-        <v>1013</v>
+        <v>1089</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>1014</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -8451,10 +8978,10 @@
       <c r="F110" s="6"/>
       <c r="G110" s="15"/>
       <c r="H110" s="7" t="s">
-        <v>1015</v>
+        <v>1091</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>1016</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="111" ht="20" spans="1:9">
@@ -8466,10 +8993,10 @@
       <c r="F111" s="6"/>
       <c r="G111" s="17"/>
       <c r="H111" s="5" t="s">
-        <v>1017</v>
+        <v>1093</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>1018</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="112" ht="20" spans="1:9">
@@ -8481,10 +9008,10 @@
       <c r="F112" s="6"/>
       <c r="G112" s="17"/>
       <c r="H112" s="5" t="s">
-        <v>1019</v>
+        <v>1095</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>1020</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -8496,14 +9023,14 @@
       <c r="F113" s="6"/>
       <c r="G113" s="15"/>
       <c r="H113" s="7" t="s">
-        <v>1021</v>
+        <v>1097</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>1022</v>
+        <v>1098</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -8513,6 +9040,7 @@
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="A68:D71"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140">
   <si>
     <t>Geography -地理</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Military - 军事</t>
   </si>
   <si>
+    <t>Archeology - 考古学</t>
+  </si>
+  <si>
     <t>insular</t>
   </si>
   <si>
@@ -106,6 +109,12 @@
     <t>保密的</t>
   </si>
   <si>
+    <t>Archeology</t>
+  </si>
+  <si>
+    <t>考古学</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -166,6 +175,12 @@
     <t>暗中、秘密的</t>
   </si>
   <si>
+    <t>invaluable</t>
+  </si>
+  <si>
+    <t>无价的</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -226,6 +241,12 @@
     <t>密码</t>
   </si>
   <si>
+    <t>unearth</t>
+  </si>
+  <si>
+    <t>出土</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -280,6 +301,12 @@
     <t>隐藏</t>
   </si>
   <si>
+    <t>scoop</t>
+  </si>
+  <si>
+    <t>用铲子铲、用勺子挖</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -337,6 +364,12 @@
     <t>解除武装</t>
   </si>
   <si>
+    <t>exhume</t>
+  </si>
+  <si>
+    <t>挖掘、挖出</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -397,6 +430,12 @@
     <t>消除敌意的</t>
   </si>
   <si>
+    <t>excavate</t>
+  </si>
+  <si>
+    <t>挖掘、开凿</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
@@ -454,6 +493,9 @@
     <t>侦察机</t>
   </si>
   <si>
+    <t>excavation</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -514,6 +556,12 @@
     <t>城堡</t>
   </si>
   <si>
+    <t>Neolithic</t>
+  </si>
+  <si>
+    <t>新石器时代</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -568,6 +616,12 @@
     <t>要塞、堡垒</t>
   </si>
   <si>
+    <t>Mesolithic</t>
+  </si>
+  <si>
+    <t>中石器时代</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -626,6 +680,12 @@
   </si>
   <si>
     <t>短柄小斧</t>
+  </si>
+  <si>
+    <t>Paleolithic</t>
+  </si>
+  <si>
+    <t>旧石器时代</t>
   </si>
   <si>
     <t>ebb</t>
@@ -703,6 +763,12 @@
     <t>匕首</t>
   </si>
   <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>原始</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -760,6 +826,12 @@
     <t>铠甲</t>
   </si>
   <si>
+    <t>chronological</t>
+  </si>
+  <si>
+    <t>按时间的前后顺序排列</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -814,6 +886,12 @@
     <t>军团</t>
   </si>
   <si>
+    <t>archaic</t>
+  </si>
+  <si>
+    <t>古老的、古代的</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
@@ -868,6 +946,12 @@
     <t>武器、军备</t>
   </si>
   <si>
+    <t>ascend</t>
+  </si>
+  <si>
+    <t>上升</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -913,6 +997,12 @@
     <t>从军、入伍</t>
   </si>
   <si>
+    <t>originate</t>
+  </si>
+  <si>
+    <t>起始于、来自、产生</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
@@ -961,6 +1051,12 @@
     <t>招兵买马</t>
   </si>
   <si>
+    <t>primitive</t>
+  </si>
+  <si>
+    <t>原始的</t>
+  </si>
+  <si>
     <t>cosmopolitan</t>
   </si>
   <si>
@@ -1006,6 +1102,12 @@
     <t>列阵</t>
   </si>
   <si>
+    <t>remnant</t>
+  </si>
+  <si>
+    <t>剩余的</t>
+  </si>
+  <si>
     <t>subterrane</t>
   </si>
   <si>
@@ -1054,6 +1156,12 @@
     <t>小队</t>
   </si>
   <si>
+    <t>procelain</t>
+  </si>
+  <si>
+    <t>陶瓷、瓷器</t>
+  </si>
+  <si>
     <t>subterranean</t>
   </si>
   <si>
@@ -1102,6 +1210,9 @@
     <t>袭击、突袭</t>
   </si>
   <si>
+    <t>antique</t>
+  </si>
+  <si>
     <t>cavern</t>
   </si>
   <si>
@@ -1147,6 +1258,12 @@
     <t>命令</t>
   </si>
   <si>
+    <t>antiquity</t>
+  </si>
+  <si>
+    <t>古老、古迹</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
@@ -1195,6 +1312,12 @@
     <t>侵蚀、侵占</t>
   </si>
   <si>
+    <t>skull</t>
+  </si>
+  <si>
+    <t>头盖骨</t>
+  </si>
+  <si>
     <t>cleft</t>
   </si>
   <si>
@@ -1243,6 +1366,12 @@
     <t>掠夺、剥夺</t>
   </si>
   <si>
+    <t>artifact</t>
+  </si>
+  <si>
+    <t>手工制品、人工制品</t>
+  </si>
+  <si>
     <t>crevice</t>
   </si>
   <si>
@@ -2092,9 +2221,6 @@
     <t>surplus</t>
   </si>
   <si>
-    <t>剩余的</t>
-  </si>
-  <si>
     <t>valley</t>
   </si>
   <si>
@@ -2717,11 +2843,6 @@
   </si>
   <si>
     <t>产出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usage: 1. UnKnown words would be with Green Block. 
-             2. Words with Yellow background would be the words not Familiar.
-</t>
   </si>
   <si>
     <t>dinosaur</t>
@@ -3341,10 +3462,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -3413,11 +3534,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3429,7 +3596,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3443,71 +3618,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3516,28 +3628,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3557,6 +3647,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="16"/>
@@ -3565,7 +3686,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3592,55 +3713,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3658,7 +3743,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3670,7 +3773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3688,31 +3797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3724,13 +3809,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3748,13 +3839,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3766,19 +3875,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3789,6 +3904,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3811,6 +3941,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3821,47 +3966,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3889,157 +3993,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4121,9 +4236,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4133,23 +4245,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4473,10 +4579,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AD113"/>
+  <dimension ref="A1:AG113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20:AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
@@ -4511,9 +4617,12 @@
     <col min="28" max="28" width="4.9453125" customWidth="1"/>
     <col min="29" max="29" width="20.3125" customWidth="1"/>
     <col min="30" max="30" width="26.8203125" customWidth="1"/>
+    <col min="31" max="31" width="4.9375" customWidth="1"/>
+    <col min="32" max="32" width="23.5703125" customWidth="1"/>
+    <col min="33" max="33" width="31.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:30">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:33">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4559,3132 +4668,3278 @@
       </c>
       <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:30">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:33">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V2" s="20"/>
       <c r="W2" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="28"/>
+        <v>26</v>
+      </c>
+      <c r="Y2" s="27"/>
       <c r="Z2" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:30">
+      <c r="AD2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:33">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AA3" s="22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:30">
+      <c r="AC3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:33">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="V4" s="20"/>
       <c r="W4" s="21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="28"/>
+        <v>70</v>
+      </c>
+      <c r="Y4" s="27"/>
       <c r="Z4" s="21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD4" s="33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" ht="20" spans="1:30">
+        <v>72</v>
+      </c>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="20" spans="1:33">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="22" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y5" s="29"/>
+        <v>90</v>
+      </c>
+      <c r="Y5" s="28"/>
       <c r="Z5" s="21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD5" s="33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" ht="20" spans="1:30">
+        <v>92</v>
+      </c>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG5" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" ht="20" spans="1:33">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="21" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="21" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y6" s="30"/>
+        <v>111</v>
+      </c>
+      <c r="Y6" s="29"/>
       <c r="Z6" s="22" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD6" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" ht="20" spans="1:30">
+        <v>113</v>
+      </c>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD6" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG6" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" ht="20" spans="1:33">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="22" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="W7" s="22" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="X7" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y7" s="30"/>
+        <v>133</v>
+      </c>
+      <c r="Y7" s="29"/>
       <c r="Z7" s="22" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AA7" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD7" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" ht="20" spans="1:30">
+        <v>135</v>
+      </c>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF7" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG7" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" ht="20" spans="1:33">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="21" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="21" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="21" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="U8" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="W8" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="X8" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA8" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD8" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF8" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG8" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="W8" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="X8" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA8" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD8" s="34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" ht="20" spans="1:30">
+    </row>
+    <row r="9" ht="20" spans="1:33">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="21" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="S9" s="25"/>
       <c r="T9" s="21" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="X9" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y9" s="29"/>
+        <v>175</v>
+      </c>
+      <c r="Y9" s="28"/>
       <c r="Z9" s="21" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD9" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" ht="20" spans="1:30">
+        <v>177</v>
+      </c>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD9" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG9" s="32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" ht="20" spans="1:33">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="5" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="21" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="22" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V10" s="26"/>
       <c r="W10" s="21" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y10" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="Y10" s="28"/>
       <c r="Z10" s="21" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD10" s="33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" ht="20" spans="1:30">
+        <v>197</v>
+      </c>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD10" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG10" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" ht="20" spans="1:33">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="21" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="W11" s="22" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="X11" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y11" s="29"/>
+        <v>217</v>
+      </c>
+      <c r="Y11" s="28"/>
       <c r="Z11" s="21" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD11" s="33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="1:30">
+        <v>219</v>
+      </c>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD11" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG11" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:33">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="5" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="S12" s="25"/>
       <c r="T12" s="21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="W12" s="22" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X12" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y12" s="29"/>
+        <v>237</v>
+      </c>
+      <c r="Y12" s="28"/>
       <c r="Z12" s="21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD12" s="33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" ht="20" spans="1:30">
+        <v>239</v>
+      </c>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD12" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF12" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG12" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="1:33">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="21" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="S13" s="25"/>
       <c r="T13" s="21" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="V13" s="26"/>
       <c r="W13" s="21" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="X13" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y13" s="30"/>
+        <v>258</v>
+      </c>
+      <c r="Y13" s="29"/>
       <c r="Z13" s="22" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD13" s="33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" ht="20" spans="1:30">
+        <v>260</v>
+      </c>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD13" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG13" s="32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" ht="20" spans="1:33">
       <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="5" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="7" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="21" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="21" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="22" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="X14" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y14" s="30"/>
+        <v>278</v>
+      </c>
+      <c r="Y14" s="29"/>
       <c r="Z14" s="22" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="AA14" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD14" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" ht="20" spans="1:30">
+        <v>280</v>
+      </c>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD14" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF14" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG14" s="31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" ht="20" spans="1:33">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="21" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="21" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="V15" s="26"/>
       <c r="W15" s="21" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="X15" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y15" s="30"/>
+        <v>298</v>
+      </c>
+      <c r="Y15" s="29"/>
       <c r="Z15" s="22" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="AA15" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD15" s="33" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" ht="20" spans="1:30">
+        <v>300</v>
+      </c>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD15" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF15" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG15" s="31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" ht="20" spans="1:33">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="V16" s="26"/>
       <c r="W16" s="21" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="X16" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y16" s="30"/>
+        <v>315</v>
+      </c>
+      <c r="Y16" s="29"/>
       <c r="Z16" s="22" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="AA16" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD16" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" ht="20" spans="1:30">
+        <v>317</v>
+      </c>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD16" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF16" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG16" s="31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" ht="20" spans="1:33">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="21" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="21" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="W17" s="22" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="X17" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y17" s="30"/>
+        <v>333</v>
+      </c>
+      <c r="Y17" s="29"/>
       <c r="Z17" s="22" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="AA17" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD17" s="34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" ht="20" spans="1:30">
+        <v>335</v>
+      </c>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD17" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF17" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG17" s="31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" ht="20" spans="1:33">
       <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="7" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="21" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="X18" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y18" s="29"/>
+        <v>350</v>
+      </c>
+      <c r="Y18" s="28"/>
       <c r="Z18" s="21" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="AA18" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="AD18" s="33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" ht="20" spans="1:30">
+        <v>352</v>
+      </c>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD18" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG18" s="32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" ht="20" spans="1:33">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="W19" s="22" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="X19" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y19" s="30"/>
+        <v>368</v>
+      </c>
+      <c r="Y19" s="29"/>
       <c r="Z19" s="22" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="AA19" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="AD19" s="33" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="20" ht="20" spans="1:30">
+        <v>370</v>
+      </c>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD19" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF19" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG19" s="31" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" ht="20" spans="1:33">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="5" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="5" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="21" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="21" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="X20" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y20" s="30"/>
+        <v>386</v>
+      </c>
+      <c r="Y20" s="29"/>
       <c r="Z20" s="22" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="AA20" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="AD20" s="33" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="21" ht="20" spans="1:30">
+        <v>388</v>
+      </c>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD20" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG20" s="32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" ht="20" spans="1:33">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="M21" s="24"/>
       <c r="N21" s="21" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="W21" s="22" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="X21" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y21" s="30"/>
+        <v>402</v>
+      </c>
+      <c r="Y21" s="29"/>
       <c r="Z21" s="22" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="AA21" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD21" s="34" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" ht="20" spans="1:30">
+        <v>404</v>
+      </c>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD21" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG21" s="32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" ht="20" spans="1:33">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="21" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="21" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="21" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="X22" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y22" s="30"/>
+        <v>420</v>
+      </c>
+      <c r="Y22" s="29"/>
       <c r="Z22" s="22" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="AA22" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="AD22" s="33" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" ht="20" spans="1:30">
+        <v>422</v>
+      </c>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD22" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF22" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="AG22" s="31" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" ht="20" spans="1:33">
       <c r="A23" s="11"/>
       <c r="B23" s="5" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="21" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="M23" s="24"/>
       <c r="N23" s="21" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="21" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y23" s="29"/>
+        <v>438</v>
+      </c>
+      <c r="Y23" s="28"/>
       <c r="Z23" s="21" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="AA23" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD23" s="33" t="s">
-        <v>401</v>
+        <v>440</v>
+      </c>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD23" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="AF23" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="AG23" s="31" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="24" ht="20" spans="1:30">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="21" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="21" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y24" s="30"/>
+        <v>454</v>
+      </c>
+      <c r="Y24" s="29"/>
       <c r="Z24" s="22" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="AA24" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD24" s="34" t="s">
-        <v>415</v>
+        <v>456</v>
+      </c>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="AD24" s="22" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="25" ht="20" spans="1:30">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="21" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="21" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y25" s="30"/>
+        <v>470</v>
+      </c>
+      <c r="Y25" s="29"/>
       <c r="Z25" s="22" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="AA25" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="AD25" s="33" t="s">
-        <v>431</v>
+        <v>472</v>
+      </c>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD25" s="21" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="26" ht="20" spans="1:30">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="5" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="21" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="22" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="W26" s="22" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="X26" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="Y26" s="30"/>
+        <v>485</v>
+      </c>
+      <c r="Y26" s="29"/>
       <c r="Z26" s="22" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="AA26" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="AD26" s="34" t="s">
-        <v>446</v>
+        <v>487</v>
+      </c>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD26" s="22" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="27" ht="20" spans="1:30">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="21" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="21" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="W27" s="22" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="X27" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="AD27" s="34" t="s">
-        <v>460</v>
+        <v>501</v>
+      </c>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD27" s="22" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="28" ht="20" spans="1:30">
       <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="7" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="21" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="W28" s="22" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="X28" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="AD28" s="34" t="s">
-        <v>474</v>
+        <v>515</v>
+      </c>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="AD28" s="22" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="29" ht="20" spans="1:30">
       <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="5" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="21" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="W29" s="22" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="X29" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="AD29" s="34" t="s">
-        <v>488</v>
+        <v>529</v>
+      </c>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD29" s="22" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="30" ht="20" spans="1:30">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="7" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="M30" s="24"/>
       <c r="N30" s="21" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="W30" s="22" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="X30" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="AD30" s="33" t="s">
-        <v>502</v>
+        <v>543</v>
+      </c>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD30" s="21" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="31" ht="20" spans="1:30">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="5" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="M31" s="24"/>
       <c r="N31" s="21" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="V31" s="26"/>
       <c r="W31" s="21" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="X31" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="34" t="s">
-        <v>514</v>
-      </c>
-      <c r="AD31" s="34" t="s">
-        <v>515</v>
+        <v>556</v>
+      </c>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="AD31" s="22" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="32" ht="20" spans="1:30">
       <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="5" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="7" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="23" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="21" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
       <c r="V32" s="26"/>
       <c r="W32" s="21" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="X32" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="34" t="s">
-        <v>528</v>
-      </c>
-      <c r="AD32" s="34" t="s">
-        <v>529</v>
+        <v>570</v>
+      </c>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="AD32" s="22" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="33" ht="20" spans="1:30">
       <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
-        <v>530</v>
+        <v>573</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>531</v>
+        <v>574</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="5" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="7" t="s">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>535</v>
+        <v>578</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="21" t="s">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="W33" s="22" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="X33" s="22" t="s">
-        <v>541</v>
-      </c>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="AD33" s="33" t="s">
-        <v>529</v>
+        <v>584</v>
+      </c>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="AD33" s="21" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="34" ht="20" spans="1:30">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
-        <v>543</v>
+        <v>586</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>546</v>
+        <v>589</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="7" t="s">
-        <v>547</v>
+        <v>590</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>549</v>
+        <v>592</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>552</v>
+        <v>595</v>
       </c>
       <c r="W34" s="22" t="s">
-        <v>553</v>
+        <v>596</v>
       </c>
       <c r="X34" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="34" t="s">
-        <v>555</v>
-      </c>
-      <c r="AD34" s="34" t="s">
-        <v>556</v>
+        <v>597</v>
+      </c>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD34" s="22" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="35" ht="20" spans="1:30">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
-        <v>559</v>
+        <v>602</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>560</v>
+        <v>603</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="5" t="s">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="21" t="s">
-        <v>563</v>
+        <v>606</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="V35" s="26"/>
       <c r="W35" s="21" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="X35" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="AD35" s="34" t="s">
-        <v>570</v>
+        <v>611</v>
+      </c>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="AD35" s="22" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="36" ht="20" spans="1:30">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="5" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>576</v>
+        <v>619</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>577</v>
+        <v>620</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="21" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="W36" s="22" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="X36" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="34" t="s">
-        <v>583</v>
-      </c>
-      <c r="AD36" s="34" t="s">
-        <v>584</v>
+        <v>625</v>
+      </c>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="AD36" s="22" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
-        <v>585</v>
+        <v>628</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="7" t="s">
-        <v>587</v>
+        <v>630</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>588</v>
+        <v>631</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="7" t="s">
-        <v>589</v>
+        <v>632</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>590</v>
+        <v>633</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>591</v>
+        <v>634</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22" t="s">
-        <v>592</v>
+        <v>635</v>
       </c>
       <c r="O37" s="22" t="s">
-        <v>593</v>
+        <v>636</v>
       </c>
       <c r="W37" s="22" t="s">
-        <v>594</v>
+        <v>637</v>
       </c>
       <c r="X37" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="34" t="s">
-        <v>596</v>
-      </c>
-      <c r="AD37" s="34" t="s">
-        <v>369</v>
+        <v>638</v>
+      </c>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="AD37" s="22" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="38" ht="20" spans="1:30">
       <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
-        <v>597</v>
+        <v>640</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>598</v>
+        <v>641</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="7" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>602</v>
+        <v>645</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>603</v>
+        <v>646</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>604</v>
+        <v>647</v>
       </c>
       <c r="M38" s="24"/>
       <c r="N38" s="21" t="s">
-        <v>605</v>
+        <v>648</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="V38" s="26"/>
       <c r="W38" s="21" t="s">
-        <v>607</v>
+        <v>650</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="AD38" s="33" t="s">
-        <v>610</v>
+        <v>651</v>
+      </c>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD38" s="21" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="39" ht="20" spans="1:30">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>612</v>
+        <v>655</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>613</v>
+        <v>656</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>614</v>
+        <v>657</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="5" t="s">
-        <v>615</v>
+        <v>658</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>617</v>
+        <v>660</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>618</v>
+        <v>661</v>
       </c>
       <c r="M39" s="24"/>
       <c r="N39" s="21" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="W39" s="22" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="X39" s="22" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="34" t="s">
-        <v>623</v>
-      </c>
-      <c r="AD39" s="34" t="s">
-        <v>624</v>
+        <v>665</v>
+      </c>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="AD39" s="22" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="40" ht="20" spans="1:30">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>626</v>
+        <v>669</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="7" t="s">
-        <v>627</v>
+        <v>670</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="5" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>631</v>
+        <v>674</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>632</v>
+        <v>675</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22" t="s">
-        <v>633</v>
+        <v>676</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>634</v>
+        <v>677</v>
       </c>
       <c r="V40" s="26"/>
       <c r="W40" s="21" t="s">
-        <v>635</v>
+        <v>678</v>
       </c>
       <c r="X40" s="21" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="35" t="s">
-        <v>637</v>
-      </c>
-      <c r="AD40" s="35" t="s">
-        <v>638</v>
+        <v>679</v>
+      </c>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD40" s="23" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="41" ht="20" spans="1:24">
       <c r="A41" s="11"/>
       <c r="B41" s="5" t="s">
-        <v>639</v>
+        <v>682</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>640</v>
+        <v>683</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="7" t="s">
-        <v>641</v>
+        <v>684</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="7" t="s">
-        <v>643</v>
+        <v>686</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>644</v>
+        <v>687</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="21" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>646</v>
+        <v>689</v>
       </c>
       <c r="M41" s="24"/>
       <c r="N41" s="21" t="s">
-        <v>647</v>
+        <v>690</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>648</v>
+        <v>691</v>
       </c>
       <c r="W41" s="22" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="X41" s="22" t="s">
-        <v>650</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42" ht="20" spans="1:24">
       <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>653</v>
+        <v>696</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>654</v>
+        <v>697</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="7" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>656</v>
+        <v>699</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>657</v>
+        <v>700</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>660</v>
+        <v>703</v>
       </c>
       <c r="V42" s="26"/>
       <c r="W42" s="21" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="X42" s="21" t="s">
-        <v>662</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43" ht="20" spans="1:24">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
-        <v>663</v>
+        <v>706</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>664</v>
+        <v>707</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="5" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>666</v>
+        <v>709</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="7" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>672</v>
+        <v>715</v>
       </c>
       <c r="V43" s="26"/>
       <c r="W43" s="21" t="s">
-        <v>673</v>
+        <v>716</v>
       </c>
       <c r="X43" s="21" t="s">
-        <v>674</v>
+        <v>717</v>
       </c>
     </row>
     <row r="44" ht="20" spans="1:24">
       <c r="A44" s="9"/>
       <c r="B44" s="7" t="s">
-        <v>675</v>
+        <v>718</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>664</v>
+        <v>707</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>676</v>
+        <v>719</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>677</v>
+        <v>720</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="7" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="21" t="s">
-        <v>680</v>
+        <v>723</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>681</v>
+        <v>724</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22" t="s">
-        <v>682</v>
+        <v>725</v>
       </c>
       <c r="O44" s="22" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
       <c r="V44" s="26"/>
       <c r="W44" s="21" t="s">
-        <v>684</v>
+        <v>727</v>
       </c>
       <c r="X44" s="21" t="s">
-        <v>685</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" ht="20" spans="1:24">
       <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
-        <v>686</v>
+        <v>728</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>687</v>
+        <v>729</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="7" t="s">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>691</v>
+        <v>733</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="21" t="s">
-        <v>692</v>
+        <v>734</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>693</v>
+        <v>735</v>
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="21" t="s">
-        <v>694</v>
+        <v>736</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="V45" s="26"/>
       <c r="W45" s="21" t="s">
-        <v>696</v>
+        <v>738</v>
       </c>
       <c r="X45" s="21" t="s">
-        <v>697</v>
+        <v>739</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
-        <v>698</v>
+        <v>740</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>699</v>
+        <v>741</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="7" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="7" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="22" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="O46" s="22" t="s">
-        <v>705</v>
+        <v>747</v>
       </c>
       <c r="W46" s="22" t="s">
-        <v>706</v>
+        <v>748</v>
       </c>
       <c r="X46" s="22" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
     </row>
     <row r="47" ht="20" spans="1:24">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
-        <v>708</v>
+        <v>750</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="7" t="s">
-        <v>709</v>
+        <v>751</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="5" t="s">
-        <v>711</v>
+        <v>753</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>712</v>
+        <v>754</v>
       </c>
       <c r="J47" s="20"/>
       <c r="K47" s="21" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22" t="s">
-        <v>715</v>
+        <v>757</v>
       </c>
       <c r="O47" s="22" t="s">
-        <v>716</v>
+        <v>758</v>
       </c>
       <c r="W47" s="22" t="s">
-        <v>717</v>
+        <v>759</v>
       </c>
       <c r="X47" s="22" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
     </row>
     <row r="48" ht="20" spans="1:24">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="7" t="s">
-        <v>721</v>
+        <v>763</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="5" t="s">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>724</v>
+        <v>766</v>
       </c>
       <c r="J48" s="20"/>
       <c r="K48" s="21" t="s">
-        <v>725</v>
+        <v>767</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="O48" s="22" t="s">
-        <v>716</v>
+        <v>758</v>
       </c>
       <c r="W48" s="22" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="X48" s="22" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" ht="20" spans="1:24">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>731</v>
+        <v>773</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="15"/>
       <c r="H49" s="7" t="s">
-        <v>732</v>
+        <v>774</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>733</v>
+        <v>775</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>734</v>
+        <v>776</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22" t="s">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="O49" s="22" t="s">
-        <v>736</v>
+        <v>778</v>
       </c>
       <c r="V49" s="26"/>
       <c r="W49" s="21" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
       <c r="X49" s="21" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
     </row>
     <row r="50" ht="20" spans="1:24">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>739</v>
+        <v>781</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="15"/>
       <c r="H50" s="7" t="s">
-        <v>741</v>
+        <v>783</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="21" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>743</v>
+        <v>785</v>
       </c>
       <c r="M50" s="22"/>
       <c r="N50" s="22" t="s">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
       <c r="W50" s="22" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="X50" s="22" t="s">
-        <v>747</v>
+        <v>789</v>
       </c>
     </row>
     <row r="51" ht="20" spans="1:24">
       <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
-        <v>748</v>
+        <v>790</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="17"/>
       <c r="H51" s="5" t="s">
-        <v>750</v>
+        <v>792</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>751</v>
+        <v>793</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>752</v>
+        <v>794</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>753</v>
+        <v>795</v>
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="21" t="s">
-        <v>754</v>
+        <v>796</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>755</v>
+        <v>797</v>
       </c>
       <c r="V51" s="26"/>
       <c r="W51" s="21" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
       <c r="X51" s="21" t="s">
-        <v>757</v>
+        <v>799</v>
       </c>
     </row>
     <row r="52" ht="20" spans="1:24">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>759</v>
+        <v>801</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="17"/>
       <c r="H52" s="5" t="s">
-        <v>760</v>
+        <v>802</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>761</v>
+        <v>803</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>762</v>
+        <v>804</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22" t="s">
-        <v>764</v>
+        <v>806</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
       <c r="W52" s="22" t="s">
-        <v>765</v>
+        <v>807</v>
       </c>
       <c r="X52" s="22" t="s">
-        <v>766</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" ht="20" spans="1:24">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="15"/>
       <c r="H53" s="7" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>769</v>
+        <v>811</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="M53" s="22"/>
       <c r="N53" s="22" t="s">
-        <v>772</v>
+        <v>814</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="V53" s="26"/>
       <c r="W53" s="21" t="s">
-        <v>774</v>
+        <v>816</v>
       </c>
       <c r="X53" s="21" t="s">
-        <v>775</v>
+        <v>817</v>
       </c>
     </row>
     <row r="54" ht="20" spans="1:24">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>777</v>
+        <v>819</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="17"/>
       <c r="H54" s="5" t="s">
-        <v>778</v>
+        <v>820</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>779</v>
+        <v>821</v>
       </c>
       <c r="J54" s="20"/>
       <c r="K54" s="21" t="s">
-        <v>780</v>
+        <v>822</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>781</v>
+        <v>823</v>
       </c>
       <c r="M54" s="22"/>
       <c r="N54" s="22" t="s">
-        <v>782</v>
+        <v>824</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>660</v>
+        <v>703</v>
       </c>
       <c r="W54" s="22" t="s">
-        <v>783</v>
+        <v>825</v>
       </c>
       <c r="X54" s="22" t="s">
-        <v>660</v>
+        <v>703</v>
       </c>
     </row>
     <row r="55" ht="20" spans="1:24">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>785</v>
+        <v>827</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="17"/>
       <c r="H55" s="5" t="s">
-        <v>786</v>
+        <v>828</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>788</v>
+        <v>830</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="22" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="O55" s="22" t="s">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="V55" s="26"/>
       <c r="W55" s="21" t="s">
-        <v>791</v>
+        <v>833</v>
       </c>
       <c r="X55" s="21" t="s">
-        <v>792</v>
+        <v>834</v>
       </c>
     </row>
     <row r="56" ht="20" spans="1:24">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
-        <v>793</v>
+        <v>835</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>794</v>
+        <v>836</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="17"/>
       <c r="H56" s="5" t="s">
-        <v>795</v>
+        <v>837</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>796</v>
+        <v>838</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>797</v>
+        <v>839</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="M56" s="24"/>
       <c r="N56" s="21" t="s">
-        <v>799</v>
+        <v>841</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>800</v>
+        <v>842</v>
       </c>
       <c r="V56" s="26"/>
       <c r="W56" s="21" t="s">
-        <v>801</v>
+        <v>843</v>
       </c>
       <c r="X56" s="21" t="s">
-        <v>802</v>
+        <v>844</v>
       </c>
     </row>
     <row r="57" ht="20" spans="1:24">
       <c r="A57" s="9"/>
       <c r="B57" s="5" t="s">
-        <v>803</v>
+        <v>845</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>794</v>
+        <v>836</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="17"/>
       <c r="H57" s="5" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>807</v>
+        <v>849</v>
       </c>
       <c r="M57" s="22"/>
       <c r="N57" s="22" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="W57" s="22" t="s">
-        <v>810</v>
+        <v>852</v>
       </c>
       <c r="X57" s="22" t="s">
-        <v>811</v>
+        <v>853</v>
       </c>
     </row>
     <row r="58" ht="20" spans="1:24">
       <c r="A58" s="9"/>
       <c r="B58" s="5" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="15"/>
       <c r="H58" s="7" t="s">
-        <v>814</v>
+        <v>856</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="M58" s="24"/>
       <c r="N58" s="21" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="W58" s="22" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="X58" s="22" t="s">
-        <v>821</v>
+        <v>863</v>
       </c>
     </row>
     <row r="59" ht="20" spans="1:24">
       <c r="A59" s="9"/>
       <c r="B59" s="5" t="s">
-        <v>822</v>
+        <v>864</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>823</v>
+        <v>865</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="17"/>
       <c r="H59" s="5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>824</v>
+        <v>866</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="21" t="s">
-        <v>825</v>
+        <v>867</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22" t="s">
-        <v>827</v>
+        <v>869</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="V59" s="26"/>
       <c r="W59" s="21" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="X59" s="21" t="s">
-        <v>830</v>
+        <v>872</v>
       </c>
     </row>
     <row r="60" ht="20" spans="1:24">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
-        <v>831</v>
+        <v>873</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="17"/>
       <c r="H60" s="5" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>836</v>
+        <v>878</v>
       </c>
       <c r="M60" s="22"/>
       <c r="N60" s="22" t="s">
-        <v>837</v>
+        <v>879</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="V60" s="26"/>
       <c r="W60" s="21" t="s">
-        <v>839</v>
+        <v>881</v>
       </c>
       <c r="X60" s="21" t="s">
-        <v>840</v>
+        <v>882</v>
       </c>
     </row>
     <row r="61" ht="20" spans="1:24">
@@ -7696,29 +7951,29 @@
       <c r="F61" s="6"/>
       <c r="G61" s="17"/>
       <c r="H61" s="5" t="s">
-        <v>841</v>
+        <v>883</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>842</v>
+        <v>884</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>844</v>
+        <v>886</v>
       </c>
       <c r="M61" s="24"/>
       <c r="N61" s="21" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>845</v>
+        <v>887</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>846</v>
+        <v>888</v>
       </c>
       <c r="X61" s="22" t="s">
-        <v>847</v>
+        <v>889</v>
       </c>
     </row>
     <row r="62" ht="20" spans="1:24">
@@ -7730,30 +7985,30 @@
       <c r="F62" s="6"/>
       <c r="G62" s="17"/>
       <c r="H62" s="5" t="s">
-        <v>848</v>
+        <v>890</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>849</v>
+        <v>891</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="21" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
       <c r="M62" s="22"/>
       <c r="N62" s="22" t="s">
-        <v>852</v>
+        <v>894</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>853</v>
+        <v>895</v>
       </c>
       <c r="W62" s="22" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="X62" s="22" t="s">
-        <v>855</v>
+        <v>897</v>
       </c>
     </row>
     <row r="63" ht="20" spans="1:24">
@@ -7765,30 +8020,30 @@
       <c r="F63" s="6"/>
       <c r="G63" s="15"/>
       <c r="H63" s="7" t="s">
-        <v>856</v>
+        <v>898</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>842</v>
+        <v>884</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="21" t="s">
-        <v>857</v>
+        <v>899</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>858</v>
+        <v>900</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="21" t="s">
-        <v>859</v>
+        <v>901</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>860</v>
+        <v>902</v>
       </c>
       <c r="W63" s="22" t="s">
-        <v>861</v>
+        <v>903</v>
       </c>
       <c r="X63" s="22" t="s">
-        <v>862</v>
+        <v>904</v>
       </c>
     </row>
     <row r="64" ht="20" spans="1:24">
@@ -7800,30 +8055,30 @@
       <c r="F64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="5" t="s">
-        <v>863</v>
+        <v>905</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>864</v>
+        <v>906</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="21" t="s">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>866</v>
+        <v>908</v>
       </c>
       <c r="M64" s="22"/>
       <c r="N64" s="22" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="O64" s="22" t="s">
-        <v>868</v>
+        <v>910</v>
       </c>
       <c r="W64" s="22" t="s">
-        <v>869</v>
+        <v>911</v>
       </c>
       <c r="X64" s="22" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
     </row>
     <row r="65" ht="20" spans="1:24">
@@ -7835,29 +8090,29 @@
       <c r="F65" s="6"/>
       <c r="G65" s="15"/>
       <c r="H65" s="7" t="s">
-        <v>871</v>
+        <v>913</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>872</v>
+        <v>914</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>873</v>
+        <v>915</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>874</v>
+        <v>916</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="21" t="s">
-        <v>875</v>
+        <v>917</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>876</v>
+        <v>918</v>
       </c>
       <c r="W65" s="22" t="s">
-        <v>877</v>
+        <v>919</v>
       </c>
       <c r="X65" s="22" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
     </row>
     <row r="66" ht="20" spans="1:24">
@@ -7869,30 +8124,30 @@
       <c r="F66" s="6"/>
       <c r="G66" s="17"/>
       <c r="H66" s="5" t="s">
-        <v>878</v>
+        <v>920</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>879</v>
+        <v>921</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="21" t="s">
-        <v>880</v>
+        <v>922</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>881</v>
+        <v>923</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="21" t="s">
-        <v>882</v>
+        <v>924</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>883</v>
+        <v>925</v>
       </c>
       <c r="W66" s="22" t="s">
-        <v>884</v>
+        <v>926</v>
       </c>
       <c r="X66" s="22" t="s">
-        <v>885</v>
+        <v>927</v>
       </c>
     </row>
     <row r="67" ht="20" spans="1:24">
@@ -7904,429 +8159,427 @@
       <c r="F67" s="6"/>
       <c r="G67" s="17"/>
       <c r="H67" s="5" t="s">
-        <v>886</v>
+        <v>928</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>887</v>
+        <v>929</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>888</v>
+        <v>930</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>889</v>
+        <v>931</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="21" t="s">
-        <v>890</v>
+        <v>932</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>891</v>
+        <v>933</v>
       </c>
       <c r="W67" s="22" t="s">
-        <v>892</v>
+        <v>934</v>
       </c>
       <c r="X67" s="22" t="s">
-        <v>893</v>
+        <v>935</v>
       </c>
     </row>
     <row r="68" ht="20" spans="1:24">
-      <c r="A68" s="36" t="s">
-        <v>894</v>
-      </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="15"/>
       <c r="H68" s="7" t="s">
-        <v>895</v>
+        <v>936</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>896</v>
+        <v>937</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="21" t="s">
-        <v>897</v>
+        <v>938</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>898</v>
+        <v>939</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="21" t="s">
-        <v>899</v>
+        <v>940</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>900</v>
+        <v>941</v>
       </c>
       <c r="W68" s="22" t="s">
-        <v>901</v>
+        <v>942</v>
       </c>
       <c r="X68" s="22" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" ht="20" spans="1:24">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="17"/>
       <c r="H69" s="5" t="s">
-        <v>902</v>
+        <v>943</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>903</v>
+        <v>944</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>904</v>
+        <v>945</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>905</v>
+        <v>946</v>
       </c>
       <c r="M69" s="22"/>
       <c r="N69" s="22" t="s">
-        <v>906</v>
+        <v>947</v>
       </c>
       <c r="O69" s="22" t="s">
-        <v>907</v>
+        <v>948</v>
       </c>
       <c r="W69" s="22" t="s">
-        <v>908</v>
+        <v>949</v>
       </c>
       <c r="X69" s="22" t="s">
-        <v>909</v>
+        <v>950</v>
       </c>
     </row>
     <row r="70" ht="20" spans="1:24">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="17"/>
       <c r="H70" s="5" t="s">
-        <v>910</v>
+        <v>951</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>911</v>
+        <v>952</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="21" t="s">
-        <v>912</v>
+        <v>953</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>913</v>
+        <v>954</v>
       </c>
       <c r="M70" s="22"/>
       <c r="N70" s="22" t="s">
-        <v>914</v>
+        <v>955</v>
       </c>
       <c r="O70" s="22" t="s">
-        <v>915</v>
+        <v>956</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>916</v>
+        <v>957</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>909</v>
+        <v>950</v>
       </c>
     </row>
     <row r="71" ht="20" spans="1:24">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="15"/>
       <c r="H71" s="7" t="s">
-        <v>917</v>
+        <v>958</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>918</v>
+        <v>959</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="21" t="s">
-        <v>919</v>
+        <v>960</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>920</v>
+        <v>961</v>
       </c>
       <c r="M71" s="22"/>
       <c r="N71" s="22" t="s">
-        <v>921</v>
+        <v>962</v>
       </c>
       <c r="O71" s="22" t="s">
-        <v>922</v>
+        <v>963</v>
       </c>
       <c r="V71" s="26"/>
       <c r="W71" s="21" t="s">
-        <v>923</v>
+        <v>964</v>
       </c>
       <c r="X71" s="21" t="s">
-        <v>924</v>
+        <v>965</v>
       </c>
     </row>
     <row r="72" ht="20" spans="1:24">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="15"/>
       <c r="H72" s="7" t="s">
-        <v>925</v>
+        <v>966</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>926</v>
+        <v>967</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>927</v>
+        <v>968</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>928</v>
+        <v>969</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="21" t="s">
-        <v>929</v>
+        <v>970</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>930</v>
+        <v>971</v>
       </c>
       <c r="V72" s="26"/>
       <c r="W72" s="21" t="s">
-        <v>931</v>
+        <v>972</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>932</v>
+        <v>973</v>
       </c>
     </row>
     <row r="73" ht="20" spans="1:24">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="15"/>
       <c r="H73" s="7" t="s">
-        <v>933</v>
+        <v>974</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>934</v>
+        <v>975</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="21" t="s">
-        <v>935</v>
+        <v>976</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>936</v>
+        <v>977</v>
       </c>
       <c r="M73" s="22"/>
       <c r="N73" s="22" t="s">
-        <v>937</v>
+        <v>978</v>
       </c>
       <c r="O73" s="22" t="s">
-        <v>938</v>
+        <v>979</v>
       </c>
       <c r="W73" s="22" t="s">
-        <v>939</v>
+        <v>980</v>
       </c>
       <c r="X73" s="22" t="s">
-        <v>940</v>
+        <v>981</v>
       </c>
     </row>
     <row r="74" ht="20" spans="1:24">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="17"/>
       <c r="H74" s="5" t="s">
-        <v>941</v>
+        <v>982</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>942</v>
+        <v>983</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>943</v>
+        <v>984</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>944</v>
+        <v>985</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="21" t="s">
-        <v>945</v>
+        <v>986</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>946</v>
+        <v>987</v>
       </c>
       <c r="W74" s="22" t="s">
-        <v>947</v>
+        <v>988</v>
       </c>
       <c r="X74" s="22" t="s">
-        <v>948</v>
+        <v>989</v>
       </c>
     </row>
     <row r="75" ht="20" spans="1:24">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="15"/>
       <c r="H75" s="7" t="s">
-        <v>949</v>
+        <v>990</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>950</v>
+        <v>991</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="21" t="s">
-        <v>951</v>
+        <v>992</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>952</v>
+        <v>993</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="21" t="s">
-        <v>953</v>
+        <v>994</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>954</v>
+        <v>995</v>
       </c>
       <c r="V75" s="26"/>
       <c r="W75" s="21" t="s">
-        <v>955</v>
+        <v>996</v>
       </c>
       <c r="X75" s="21" t="s">
-        <v>956</v>
+        <v>997</v>
       </c>
     </row>
     <row r="76" ht="20" spans="1:24">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="17"/>
       <c r="H76" s="5" t="s">
-        <v>957</v>
+        <v>998</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>958</v>
+        <v>999</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="21" t="s">
-        <v>959</v>
+        <v>1000</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>960</v>
+        <v>1001</v>
       </c>
       <c r="M76" s="22"/>
       <c r="N76" s="22" t="s">
-        <v>961</v>
+        <v>1002</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>962</v>
+        <v>1003</v>
       </c>
       <c r="W76" s="22" t="s">
-        <v>963</v>
+        <v>1004</v>
       </c>
       <c r="X76" s="22" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
     </row>
     <row r="77" ht="20" spans="1:24">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="17"/>
       <c r="H77" s="5" t="s">
-        <v>964</v>
+        <v>1005</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>965</v>
+        <v>1006</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>966</v>
+        <v>1007</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>967</v>
+        <v>1008</v>
       </c>
       <c r="W77" s="22" t="s">
-        <v>968</v>
+        <v>1009</v>
       </c>
       <c r="X77" s="22" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
     </row>
     <row r="78" ht="20" spans="1:24">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="17"/>
       <c r="H78" s="5" t="s">
-        <v>969</v>
+        <v>1010</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>970</v>
+        <v>1011</v>
       </c>
       <c r="J78" s="20"/>
       <c r="K78" s="21" t="s">
-        <v>971</v>
+        <v>1012</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>972</v>
+        <v>1013</v>
       </c>
       <c r="V78" s="26"/>
       <c r="W78" s="21" t="s">
-        <v>973</v>
+        <v>1014</v>
       </c>
       <c r="X78" s="21" t="s">
-        <v>974</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="79" spans="1:24">
-      <c r="A79" s="37"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="15"/>
       <c r="H79" s="7" t="s">
-        <v>975</v>
+        <v>1016</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>976</v>
+        <v>1017</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>977</v>
+        <v>1018</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>978</v>
+        <v>1019</v>
       </c>
       <c r="W79" s="22" t="s">
-        <v>979</v>
+        <v>1020</v>
       </c>
       <c r="X79" s="22" t="s">
-        <v>980</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="80" ht="20" spans="1:24">
@@ -8338,24 +8591,24 @@
       <c r="F80" s="6"/>
       <c r="G80" s="17"/>
       <c r="H80" s="5" t="s">
-        <v>981</v>
+        <v>1022</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>982</v>
+        <v>1023</v>
       </c>
       <c r="J80" s="20"/>
       <c r="K80" s="21" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="L80" s="21" t="s">
-        <v>972</v>
+        <v>1013</v>
       </c>
       <c r="V80" s="26"/>
       <c r="W80" s="21" t="s">
-        <v>984</v>
+        <v>1025</v>
       </c>
       <c r="X80" s="21" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -8367,22 +8620,22 @@
       <c r="F81" s="6"/>
       <c r="G81" s="15"/>
       <c r="H81" s="7" t="s">
-        <v>985</v>
+        <v>1026</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>986</v>
+        <v>1027</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>987</v>
+        <v>1028</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>988</v>
+        <v>1029</v>
       </c>
       <c r="W81" s="22" t="s">
-        <v>989</v>
+        <v>1030</v>
       </c>
       <c r="X81" s="22" t="s">
-        <v>990</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="82" ht="20" spans="1:24">
@@ -8394,24 +8647,24 @@
       <c r="F82" s="6"/>
       <c r="G82" s="17"/>
       <c r="H82" s="5" t="s">
-        <v>991</v>
+        <v>1032</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>992</v>
+        <v>1033</v>
       </c>
       <c r="J82" s="20"/>
       <c r="K82" s="21" t="s">
-        <v>993</v>
+        <v>1034</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>994</v>
+        <v>1035</v>
       </c>
       <c r="V82" s="26"/>
       <c r="W82" s="21" t="s">
-        <v>995</v>
+        <v>1036</v>
       </c>
       <c r="X82" s="21" t="s">
-        <v>996</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="83" ht="20" spans="1:24">
@@ -8423,23 +8676,23 @@
       <c r="F83" s="6"/>
       <c r="G83" s="17"/>
       <c r="H83" s="5" t="s">
-        <v>997</v>
+        <v>1038</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>998</v>
+        <v>1039</v>
       </c>
       <c r="J83" s="20"/>
       <c r="K83" s="21" t="s">
-        <v>999</v>
+        <v>1040</v>
       </c>
       <c r="L83" s="21" t="s">
-        <v>1000</v>
+        <v>1041</v>
       </c>
       <c r="W83" s="22" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="X83" s="22" t="s">
-        <v>1001</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="84" ht="20" spans="1:24">
@@ -8451,23 +8704,23 @@
       <c r="F84" s="6"/>
       <c r="G84" s="15"/>
       <c r="H84" s="7" t="s">
-        <v>1002</v>
+        <v>1043</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>1003</v>
+        <v>1044</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>1004</v>
+        <v>1045</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>1005</v>
+        <v>1046</v>
       </c>
       <c r="V84" s="26"/>
       <c r="W84" s="21" t="s">
-        <v>1006</v>
+        <v>1047</v>
       </c>
       <c r="X84" s="21" t="s">
-        <v>1007</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="85" ht="20" spans="1:24">
@@ -8479,23 +8732,23 @@
       <c r="F85" s="6"/>
       <c r="G85" s="15"/>
       <c r="H85" s="7" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>747</v>
+        <v>789</v>
       </c>
       <c r="J85" s="20"/>
       <c r="K85" s="21" t="s">
-        <v>1008</v>
+        <v>1049</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>1009</v>
+        <v>1050</v>
       </c>
       <c r="W85" s="22" t="s">
-        <v>1010</v>
+        <v>1051</v>
       </c>
       <c r="X85" s="22" t="s">
-        <v>1011</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="86" ht="20" spans="1:24">
@@ -8507,22 +8760,22 @@
       <c r="F86" s="6"/>
       <c r="G86" s="17"/>
       <c r="H86" s="5" t="s">
-        <v>1012</v>
+        <v>1053</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>1013</v>
+        <v>1054</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>1014</v>
+        <v>1055</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>1015</v>
+        <v>1056</v>
       </c>
       <c r="W86" s="22" t="s">
-        <v>1016</v>
+        <v>1057</v>
       </c>
       <c r="X86" s="22" t="s">
-        <v>1017</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="87" ht="20" spans="1:24">
@@ -8534,24 +8787,24 @@
       <c r="F87" s="6"/>
       <c r="G87" s="17"/>
       <c r="H87" s="5" t="s">
-        <v>1018</v>
+        <v>1059</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>1019</v>
+        <v>1060</v>
       </c>
       <c r="J87" s="20"/>
       <c r="K87" s="21" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>1020</v>
+        <v>1061</v>
       </c>
       <c r="V87" s="26"/>
       <c r="W87" s="21" t="s">
-        <v>1021</v>
+        <v>1062</v>
       </c>
       <c r="X87" s="21" t="s">
-        <v>1022</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="88" ht="20" spans="1:24">
@@ -8563,23 +8816,23 @@
       <c r="F88" s="6"/>
       <c r="G88" s="15"/>
       <c r="H88" s="7" t="s">
-        <v>1023</v>
+        <v>1064</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>1024</v>
+        <v>1065</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>1025</v>
+        <v>1066</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>1026</v>
+        <v>1067</v>
       </c>
       <c r="V88" s="26"/>
       <c r="W88" s="21" t="s">
-        <v>1027</v>
+        <v>1068</v>
       </c>
       <c r="X88" s="21" t="s">
-        <v>1028</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="89" ht="20" spans="1:24">
@@ -8591,23 +8844,23 @@
       <c r="F89" s="6"/>
       <c r="G89" s="17"/>
       <c r="H89" s="5" t="s">
-        <v>1029</v>
+        <v>1070</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>1030</v>
+        <v>1071</v>
       </c>
       <c r="J89" s="20"/>
       <c r="K89" s="21" t="s">
-        <v>1031</v>
+        <v>1072</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>1032</v>
+        <v>1073</v>
       </c>
       <c r="W89" s="22" t="s">
-        <v>1033</v>
+        <v>1074</v>
       </c>
       <c r="X89" s="22" t="s">
-        <v>1034</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="90" ht="20" spans="1:24">
@@ -8619,23 +8872,23 @@
       <c r="F90" s="6"/>
       <c r="G90" s="15"/>
       <c r="H90" s="7" t="s">
-        <v>1035</v>
+        <v>1076</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>1036</v>
+        <v>1077</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>1037</v>
+        <v>1078</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>1038</v>
+        <v>1079</v>
       </c>
       <c r="V90" s="26"/>
       <c r="W90" s="21" t="s">
-        <v>1039</v>
+        <v>1080</v>
       </c>
       <c r="X90" s="21" t="s">
-        <v>1040</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="91" ht="20" spans="1:24">
@@ -8647,23 +8900,23 @@
       <c r="F91" s="6"/>
       <c r="G91" s="15"/>
       <c r="H91" s="7" t="s">
-        <v>1041</v>
+        <v>1082</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1042</v>
+        <v>1083</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>1043</v>
+        <v>1084</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>1044</v>
+        <v>1085</v>
       </c>
       <c r="V91" s="26"/>
       <c r="W91" s="21" t="s">
-        <v>1045</v>
+        <v>1086</v>
       </c>
       <c r="X91" s="21" t="s">
-        <v>1046</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="92" ht="20" spans="1:12">
@@ -8675,17 +8928,17 @@
       <c r="F92" s="6"/>
       <c r="G92" s="17"/>
       <c r="H92" s="5" t="s">
-        <v>1047</v>
+        <v>1088</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>1048</v>
+        <v>1089</v>
       </c>
       <c r="J92" s="20"/>
       <c r="K92" s="21" t="s">
-        <v>1049</v>
+        <v>1090</v>
       </c>
       <c r="L92" s="21" t="s">
-        <v>1050</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -8697,16 +8950,16 @@
       <c r="F93" s="6"/>
       <c r="G93" s="15"/>
       <c r="H93" s="10" t="s">
-        <v>1051</v>
+        <v>1092</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>1052</v>
+        <v>1093</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>1053</v>
+        <v>1094</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>1054</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="94" ht="20" spans="1:12">
@@ -8718,17 +8971,17 @@
       <c r="F94" s="6"/>
       <c r="G94" s="15"/>
       <c r="H94" s="7" t="s">
-        <v>1055</v>
+        <v>1096</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>1056</v>
+        <v>1097</v>
       </c>
       <c r="J94" s="20"/>
       <c r="K94" s="21" t="s">
-        <v>1057</v>
+        <v>1098</v>
       </c>
       <c r="L94" s="21" t="s">
-        <v>1058</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -8740,16 +8993,16 @@
       <c r="F95" s="6"/>
       <c r="G95" s="15"/>
       <c r="H95" s="7" t="s">
-        <v>1059</v>
+        <v>1100</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>1060</v>
+        <v>1101</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>1061</v>
+        <v>1102</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>1062</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="96" ht="20" spans="1:12">
@@ -8761,17 +9014,17 @@
       <c r="F96" s="6"/>
       <c r="G96" s="17"/>
       <c r="H96" s="5" t="s">
-        <v>1063</v>
+        <v>1104</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>1064</v>
+        <v>1105</v>
       </c>
       <c r="J96" s="20"/>
       <c r="K96" s="21" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="L96" s="21" t="s">
-        <v>1065</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="97" ht="20" spans="1:9">
@@ -8783,10 +9036,10 @@
       <c r="F97" s="6"/>
       <c r="G97" s="17"/>
       <c r="H97" s="5" t="s">
-        <v>1066</v>
+        <v>1107</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>1067</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -8798,10 +9051,10 @@
       <c r="F98" s="6"/>
       <c r="G98" s="15"/>
       <c r="H98" s="7" t="s">
-        <v>1068</v>
+        <v>1109</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1069</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="99" ht="20" spans="1:9">
@@ -8813,10 +9066,10 @@
       <c r="F99" s="6"/>
       <c r="G99" s="15"/>
       <c r="H99" s="5" t="s">
-        <v>1070</v>
+        <v>1111</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>1071</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="100" ht="20" spans="1:9">
@@ -8828,10 +9081,10 @@
       <c r="F100" s="6"/>
       <c r="G100" s="17"/>
       <c r="H100" s="5" t="s">
-        <v>1072</v>
+        <v>1113</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>1073</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -8843,10 +9096,10 @@
       <c r="F101" s="6"/>
       <c r="G101" s="15"/>
       <c r="H101" s="7" t="s">
-        <v>1074</v>
+        <v>1115</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>1075</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -8858,10 +9111,10 @@
       <c r="F102" s="6"/>
       <c r="G102" s="15"/>
       <c r="H102" s="7" t="s">
-        <v>1076</v>
+        <v>1117</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>1077</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="103" ht="20" spans="1:9">
@@ -8873,10 +9126,10 @@
       <c r="F103" s="6"/>
       <c r="G103" s="17"/>
       <c r="H103" s="5" t="s">
-        <v>1078</v>
+        <v>1119</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>1079</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -8888,10 +9141,10 @@
       <c r="F104" s="6"/>
       <c r="G104" s="15"/>
       <c r="H104" s="7" t="s">
-        <v>1080</v>
+        <v>1121</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>1079</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="105" ht="20" spans="1:9">
@@ -8903,10 +9156,10 @@
       <c r="F105" s="6"/>
       <c r="G105" s="17"/>
       <c r="H105" s="5" t="s">
-        <v>1081</v>
+        <v>1122</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>1082</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -8918,10 +9171,10 @@
       <c r="F106" s="6"/>
       <c r="G106" s="15"/>
       <c r="H106" s="7" t="s">
-        <v>1083</v>
+        <v>1124</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>1084</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -8933,10 +9186,10 @@
       <c r="F107" s="6"/>
       <c r="G107" s="15"/>
       <c r="H107" s="7" t="s">
-        <v>1085</v>
+        <v>1126</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>1086</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="108" ht="20" spans="1:9">
@@ -8948,10 +9201,10 @@
       <c r="F108" s="6"/>
       <c r="G108" s="17"/>
       <c r="H108" s="5" t="s">
-        <v>1087</v>
+        <v>1128</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>1088</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="109" ht="20" spans="1:9">
@@ -8963,10 +9216,10 @@
       <c r="F109" s="6"/>
       <c r="G109" s="17"/>
       <c r="H109" s="5" t="s">
-        <v>1089</v>
+        <v>1130</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>1090</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -8978,10 +9231,10 @@
       <c r="F110" s="6"/>
       <c r="G110" s="15"/>
       <c r="H110" s="7" t="s">
-        <v>1091</v>
+        <v>1132</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>1092</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="111" ht="20" spans="1:9">
@@ -8993,10 +9246,10 @@
       <c r="F111" s="6"/>
       <c r="G111" s="17"/>
       <c r="H111" s="5" t="s">
-        <v>1093</v>
+        <v>1134</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>1094</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="112" ht="20" spans="1:9">
@@ -9008,10 +9261,10 @@
       <c r="F112" s="6"/>
       <c r="G112" s="17"/>
       <c r="H112" s="5" t="s">
-        <v>1095</v>
+        <v>1136</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>1096</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -9023,10 +9276,10 @@
       <c r="F113" s="6"/>
       <c r="G113" s="15"/>
       <c r="H113" s="7" t="s">
-        <v>1097</v>
+        <v>1138</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>1098</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
@@ -9041,7 +9294,7 @@
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="A68:D71"/>
+    <mergeCell ref="AE1:AG1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239">
   <si>
     <t>Geography -地理</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Archeology - 考古学</t>
   </si>
   <si>
+    <t>Agriculture - 农业</t>
+  </si>
+  <si>
     <t>insular</t>
   </si>
   <si>
@@ -115,6 +118,12 @@
     <t>考古学</t>
   </si>
   <si>
+    <t>prolific</t>
+  </si>
+  <si>
+    <t>多产的、丰富的</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -181,6 +190,12 @@
     <t>无价的</t>
   </si>
   <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>丰富的</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -247,6 +262,12 @@
     <t>出土</t>
   </si>
   <si>
+    <t>fertile</t>
+  </si>
+  <si>
+    <t>富饶的</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -307,6 +328,12 @@
     <t>用铲子铲、用勺子挖</t>
   </si>
   <si>
+    <t>harvest</t>
+  </si>
+  <si>
+    <t>收获</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -346,9 +373,6 @@
     <t>渗透</t>
   </si>
   <si>
-    <t>rich</t>
-  </si>
-  <si>
     <t>富有的</t>
   </si>
   <si>
@@ -370,6 +394,12 @@
     <t>挖掘、挖出</t>
   </si>
   <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -436,6 +466,12 @@
     <t>挖掘、开凿</t>
   </si>
   <si>
+    <t>agricultural</t>
+  </si>
+  <si>
+    <t>农业的</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
@@ -496,6 +532,12 @@
     <t>excavation</t>
   </si>
   <si>
+    <t>aquaculture</t>
+  </si>
+  <si>
+    <t>水产业</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -562,6 +604,12 @@
     <t>新石器时代</t>
   </si>
   <si>
+    <t>arable</t>
+  </si>
+  <si>
+    <t>适于耕种的</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -622,6 +670,12 @@
     <t>中石器时代</t>
   </si>
   <si>
+    <t>indigenous</t>
+  </si>
+  <si>
+    <t>土生土长的</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -686,6 +740,12 @@
   </si>
   <si>
     <t>旧石器时代</t>
+  </si>
+  <si>
+    <t>fertilizer</t>
+  </si>
+  <si>
+    <t>肥料、施肥</t>
   </si>
   <si>
     <t>ebb</t>
@@ -769,6 +829,9 @@
     <t>原始</t>
   </si>
   <si>
+    <t>husbandry</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -832,6 +895,12 @@
     <t>按时间的前后顺序排列</t>
   </si>
   <si>
+    <t>graze</t>
+  </si>
+  <si>
+    <t>放牧</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -892,6 +961,12 @@
     <t>古老的、古代的</t>
   </si>
   <si>
+    <t>cultivate</t>
+  </si>
+  <si>
+    <t>培育</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
@@ -952,6 +1027,12 @@
     <t>上升</t>
   </si>
   <si>
+    <t>cultivation</t>
+  </si>
+  <si>
+    <t>耕作、耕种</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -1003,6 +1084,12 @@
     <t>起始于、来自、产生</t>
   </si>
   <si>
+    <t>manure</t>
+  </si>
+  <si>
+    <t>施肥、耕种</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
@@ -1057,6 +1144,12 @@
     <t>原始的</t>
   </si>
   <si>
+    <t>horticulture</t>
+  </si>
+  <si>
+    <t>园艺学</t>
+  </si>
+  <si>
     <t>cosmopolitan</t>
   </si>
   <si>
@@ -1108,6 +1201,12 @@
     <t>剩余的</t>
   </si>
   <si>
+    <t>hydroponics</t>
+  </si>
+  <si>
+    <t>水栽培</t>
+  </si>
+  <si>
     <t>subterrane</t>
   </si>
   <si>
@@ -1162,6 +1261,12 @@
     <t>陶瓷、瓷器</t>
   </si>
   <si>
+    <t>insecticide</t>
+  </si>
+  <si>
+    <t>杀虫剂</t>
+  </si>
+  <si>
     <t>subterranean</t>
   </si>
   <si>
@@ -1213,6 +1318,12 @@
     <t>antique</t>
   </si>
   <si>
+    <t>irrigate</t>
+  </si>
+  <si>
+    <t>浇灌</t>
+  </si>
+  <si>
     <t>cavern</t>
   </si>
   <si>
@@ -1264,6 +1375,9 @@
     <t>古老、古迹</t>
   </si>
   <si>
+    <t>pesticide</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
@@ -1318,6 +1432,12 @@
     <t>头盖骨</t>
   </si>
   <si>
+    <t>ridge</t>
+  </si>
+  <si>
+    <t>山脉</t>
+  </si>
+  <si>
     <t>cleft</t>
   </si>
   <si>
@@ -1372,6 +1492,12 @@
     <t>手工制品、人工制品</t>
   </si>
   <si>
+    <t>silt</t>
+  </si>
+  <si>
+    <t>泥</t>
+  </si>
+  <si>
     <t>crevice</t>
   </si>
   <si>
@@ -1414,6 +1540,12 @@
     <t>侵略、入侵</t>
   </si>
   <si>
+    <t>tractor</t>
+  </si>
+  <si>
+    <t>拖拉机</t>
+  </si>
+  <si>
     <t>gap</t>
   </si>
   <si>
@@ -1462,6 +1594,12 @@
     <t>攻击、袭击</t>
   </si>
   <si>
+    <t>squash</t>
+  </si>
+  <si>
+    <t>压扁、挤压</t>
+  </si>
+  <si>
     <t>zone</t>
   </si>
   <si>
@@ -1507,6 +1645,12 @@
     <t>消灭、灭绝</t>
   </si>
   <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>棉花、棉布</t>
+  </si>
+  <si>
     <t>equator</t>
   </si>
   <si>
@@ -1549,6 +1693,12 @@
     <t>扑灭、熄灭</t>
   </si>
   <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>大蒜</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
@@ -1591,6 +1741,12 @@
     <t>吸收</t>
   </si>
   <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>茄子</t>
+  </si>
+  <si>
     <t>altitude</t>
   </si>
   <si>
@@ -1633,6 +1789,12 @@
     <t>开始、袭击</t>
   </si>
   <si>
+    <t>fodder</t>
+  </si>
+  <si>
+    <t>草料、饲料</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -1675,6 +1837,12 @@
     <t>击退、击败</t>
   </si>
   <si>
+    <t>hay</t>
+  </si>
+  <si>
+    <t>干草</t>
+  </si>
+  <si>
     <t>meridian</t>
   </si>
   <si>
@@ -1714,6 +1882,12 @@
     <t>远征、探险</t>
   </si>
   <si>
+    <t>haystack</t>
+  </si>
+  <si>
+    <t>干草堆</t>
+  </si>
+  <si>
     <t>subsidiary</t>
   </si>
   <si>
@@ -1756,6 +1930,12 @@
     <t>包围</t>
   </si>
   <si>
+    <t>vegetable</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
     <t>Antarctic</t>
   </si>
   <si>
@@ -1795,6 +1975,12 @@
     <t>envelop</t>
   </si>
   <si>
+    <t>weed</t>
+  </si>
+  <si>
+    <t>野草、除草</t>
+  </si>
+  <si>
     <t>Antarctica</t>
   </si>
   <si>
@@ -1837,6 +2023,12 @@
     <t>困扰、围攻</t>
   </si>
   <si>
+    <t>sorghum</t>
+  </si>
+  <si>
+    <t>高粱</t>
+  </si>
+  <si>
     <t>Arctic</t>
   </si>
   <si>
@@ -1879,6 +2071,12 @@
     <t>包围、围攻</t>
   </si>
   <si>
+    <t>livestock</t>
+  </si>
+  <si>
+    <t>家畜</t>
+  </si>
+  <si>
     <t>coastland</t>
   </si>
   <si>
@@ -1921,6 +2119,12 @@
     <t>斗志、士气</t>
   </si>
   <si>
+    <t>poultry</t>
+  </si>
+  <si>
+    <t>家禽</t>
+  </si>
+  <si>
     <t>hemisphere</t>
   </si>
   <si>
@@ -1957,6 +2161,12 @@
     <t>mandate</t>
   </si>
   <si>
+    <t>buffalo</t>
+  </si>
+  <si>
+    <t>水牛、野牛</t>
+  </si>
+  <si>
     <t>contour</t>
   </si>
   <si>
@@ -1969,9 +2179,6 @@
     <t>岩成的</t>
   </si>
   <si>
-    <t>graze</t>
-  </si>
-  <si>
     <t>吃草</t>
   </si>
   <si>
@@ -1999,6 +2206,12 @@
     <t>战术、战略、手段</t>
   </si>
   <si>
+    <t>cattle</t>
+  </si>
+  <si>
+    <t>牛</t>
+  </si>
+  <si>
     <t>geography</t>
   </si>
   <si>
@@ -2041,6 +2254,9 @@
     <t>海军</t>
   </si>
   <si>
+    <t>鸟、家禽</t>
+  </si>
+  <si>
     <t>horizon</t>
   </si>
   <si>
@@ -2083,6 +2299,12 @@
     <t>军事的、军人</t>
   </si>
   <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>播种</t>
+  </si>
+  <si>
     <t>lowland</t>
   </si>
   <si>
@@ -2119,6 +2341,12 @@
     <t>打折扣、减价出售</t>
   </si>
   <si>
+    <t>conservatory</t>
+  </si>
+  <si>
+    <t>温室、暖房</t>
+  </si>
+  <si>
     <t>plain</t>
   </si>
   <si>
@@ -2155,6 +2383,12 @@
     <t>查账</t>
   </si>
   <si>
+    <t>barn</t>
+  </si>
+  <si>
+    <t>谷仓</t>
+  </si>
+  <si>
     <t>strait</t>
   </si>
   <si>
@@ -2191,6 +2425,12 @@
     <t>一批货物</t>
   </si>
   <si>
+    <t>cowshed</t>
+  </si>
+  <si>
+    <t>牛棚</t>
+  </si>
+  <si>
     <t>channel</t>
   </si>
   <si>
@@ -2221,6 +2461,9 @@
     <t>surplus</t>
   </si>
   <si>
+    <t>granary</t>
+  </si>
+  <si>
     <t>valley</t>
   </si>
   <si>
@@ -2257,6 +2500,12 @@
     <t>剩余、残渣</t>
   </si>
   <si>
+    <t>greenhouse</t>
+  </si>
+  <si>
+    <t>温室效应</t>
+  </si>
+  <si>
     <t>volcano</t>
   </si>
   <si>
@@ -2287,6 +2536,12 @@
     <t>账户</t>
   </si>
   <si>
+    <t>seedbed</t>
+  </si>
+  <si>
+    <t>温床、发源地</t>
+  </si>
+  <si>
     <t>plateau</t>
   </si>
   <si>
@@ -2320,6 +2575,12 @@
     <t>倒闭、破产</t>
   </si>
   <si>
+    <t>sheepfold</t>
+  </si>
+  <si>
+    <t>羊圈</t>
+  </si>
+  <si>
     <t>basin</t>
   </si>
   <si>
@@ -2353,6 +2614,12 @@
     <t>存款</t>
   </si>
   <si>
+    <t>orchard</t>
+  </si>
+  <si>
+    <t>果园</t>
+  </si>
+  <si>
     <t>navigation</t>
   </si>
   <si>
@@ -2380,12 +2647,15 @@
     <t>附属担保品</t>
   </si>
   <si>
+    <t>pasture</t>
+  </si>
+  <si>
+    <t>草地、牧地</t>
+  </si>
+  <si>
     <t>ranges</t>
   </si>
   <si>
-    <t>山脉</t>
-  </si>
-  <si>
     <t>reproduce</t>
   </si>
   <si>
@@ -2407,6 +2677,12 @@
     <t>账单</t>
   </si>
   <si>
+    <t>pigpen</t>
+  </si>
+  <si>
+    <t>猪舍</t>
+  </si>
+  <si>
     <t>salinity</t>
   </si>
   <si>
@@ -2437,6 +2713,12 @@
     <t>支票、账单</t>
   </si>
   <si>
+    <t>pigsty</t>
+  </si>
+  <si>
+    <t>猪圈</t>
+  </si>
+  <si>
     <t>sediment</t>
   </si>
   <si>
@@ -2464,6 +2746,12 @@
     <t>硬币</t>
   </si>
   <si>
+    <t>plantation</t>
+  </si>
+  <si>
+    <t>大农场</t>
+  </si>
+  <si>
     <t>elevation</t>
   </si>
   <si>
@@ -2491,6 +2779,9 @@
     <t>贬值</t>
   </si>
   <si>
+    <t>ranch</t>
+  </si>
+  <si>
     <t>formation</t>
   </si>
   <si>
@@ -2513,6 +2804,12 @@
   </si>
   <si>
     <t>merge</t>
+  </si>
+  <si>
+    <t>trough</t>
+  </si>
+  <si>
+    <t>（喂动物的）食槽</t>
   </si>
   <si>
     <t>geothermy</t>
@@ -4579,10 +4876,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AG113"/>
+  <dimension ref="A1:AJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20:AG23"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AJ55" sqref="AJ55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
@@ -4618,11 +4915,14 @@
     <col min="29" max="29" width="20.3125" customWidth="1"/>
     <col min="30" max="30" width="26.8203125" customWidth="1"/>
     <col min="31" max="31" width="4.9375" customWidth="1"/>
-    <col min="32" max="32" width="23.5703125" customWidth="1"/>
-    <col min="33" max="33" width="31.8984375" customWidth="1"/>
+    <col min="32" max="32" width="24.9921875" customWidth="1"/>
+    <col min="33" max="33" width="32.9375" customWidth="1"/>
+    <col min="34" max="34" width="5.3359375" customWidth="1"/>
+    <col min="35" max="35" width="18.1015625" customWidth="1"/>
+    <col min="36" max="36" width="27.078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:33">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:36">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4678,3268 +4978,3622 @@
       </c>
       <c r="AF1" s="21"/>
       <c r="AG1" s="21"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:33">
+      <c r="AH1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:36">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V2" s="20"/>
       <c r="W2" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y2" s="27"/>
       <c r="Z2" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="27"/>
       <c r="AC2" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:33">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:36">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AA3" s="22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AD3" s="22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AG3" s="31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:33">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:36">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="V4" s="20"/>
       <c r="W4" s="21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Y4" s="27"/>
       <c r="Z4" s="21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AB4" s="27"/>
       <c r="AC4" s="21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AD4" s="21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AF4" s="31" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG4" s="31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" ht="20" spans="1:33">
+        <v>81</v>
+      </c>
+      <c r="AI4" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ4" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" ht="20" spans="1:36">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="22" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y5" s="28"/>
       <c r="Z5" s="21" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AB5" s="27"/>
       <c r="AC5" s="21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" s="32" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AG5" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" ht="20" spans="1:33">
+        <v>103</v>
+      </c>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ5" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" ht="20" spans="1:36">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="21" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="21" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y6" s="29"/>
       <c r="Z6" s="22" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AB6" s="27"/>
       <c r="AC6" s="21" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AE6" s="26"/>
       <c r="AF6" s="32" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AG6" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" ht="20" spans="1:33">
+        <v>125</v>
+      </c>
+      <c r="AI6" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ6" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" ht="20" spans="1:36">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="21" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="22" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="W7" s="22" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X7" s="22" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y7" s="29"/>
       <c r="Z7" s="22" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AA7" s="22" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AB7" s="27"/>
       <c r="AC7" s="21" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AD7" s="21" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AF7" s="31" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" ht="20" spans="1:33">
+        <v>149</v>
+      </c>
+      <c r="AI7" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ7" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" ht="20" spans="1:36">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="21" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="21" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="21" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="W8" s="22" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="X8" s="22" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Y8" s="29"/>
       <c r="Z8" s="22" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="AA8" s="22" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="AB8" s="29"/>
       <c r="AC8" s="22" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AD8" s="22" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AF8" s="31" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AG8" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" ht="20" spans="1:33">
+        <v>149</v>
+      </c>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ8" s="32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" ht="20" spans="1:36">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="21" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="S9" s="25"/>
       <c r="T9" s="21" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="X9" s="22" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Y9" s="28"/>
       <c r="Z9" s="21" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="AB9" s="29"/>
       <c r="AC9" s="22" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="AD9" s="22" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AE9" s="26"/>
       <c r="AF9" s="32" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="AG9" s="32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" ht="20" spans="1:33">
+        <v>195</v>
+      </c>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ9" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" ht="20" spans="1:36">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="21" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="22" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="V10" s="26"/>
       <c r="W10" s="21" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="Y10" s="28"/>
       <c r="Z10" s="21" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="AB10" s="27"/>
       <c r="AC10" s="21" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="AD10" s="21" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="32" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="AG10" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" ht="20" spans="1:33">
+        <v>217</v>
+      </c>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ10" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" ht="20" spans="1:36">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="21" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="W11" s="22" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="X11" s="22" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="Y11" s="28"/>
       <c r="Z11" s="21" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="AB11" s="27"/>
       <c r="AC11" s="21" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="AD11" s="21" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="32" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="AG11" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="1:33">
+        <v>241</v>
+      </c>
+      <c r="AI11" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ11" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:36">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="5" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="21" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="21" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="S12" s="25"/>
       <c r="T12" s="21" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="W12" s="22" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="X12" s="22" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="Y12" s="28"/>
       <c r="Z12" s="21" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AB12" s="27"/>
       <c r="AC12" s="21" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AD12" s="21" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AF12" s="31" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AG12" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" ht="20" spans="1:33">
+        <v>263</v>
+      </c>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ12" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="1:36">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="21" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="S13" s="25"/>
       <c r="T13" s="21" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="V13" s="26"/>
       <c r="W13" s="21" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="X13" s="21" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="Y13" s="29"/>
       <c r="Z13" s="22" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="AB13" s="27"/>
       <c r="AC13" s="21" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="AD13" s="21" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="AE13" s="26"/>
       <c r="AF13" s="32" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="AG13" s="32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" ht="20" spans="1:33">
+        <v>285</v>
+      </c>
+      <c r="AI13" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ13" s="31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" ht="20" spans="1:36">
       <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="5" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="21" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="21" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="22" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="X14" s="22" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="Y14" s="29"/>
       <c r="Z14" s="22" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="AA14" s="22" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="AB14" s="27"/>
       <c r="AC14" s="21" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="AD14" s="21" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="AF14" s="31" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="AG14" s="31" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" ht="20" spans="1:33">
+        <v>307</v>
+      </c>
+      <c r="AI14" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="AJ14" s="31" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" ht="20" spans="1:36">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="21" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="21" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="V15" s="26"/>
       <c r="W15" s="21" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="X15" s="21" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="Y15" s="29"/>
       <c r="Z15" s="22" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="AA15" s="22" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="AB15" s="27"/>
       <c r="AC15" s="21" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="AD15" s="21" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="AF15" s="31" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" ht="20" spans="1:33">
+        <v>329</v>
+      </c>
+      <c r="AI15" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ15" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" ht="20" spans="1:36">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="V16" s="26"/>
       <c r="W16" s="21" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="X16" s="21" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="Y16" s="29"/>
       <c r="Z16" s="22" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="AA16" s="22" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="AB16" s="27"/>
       <c r="AC16" s="21" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="AD16" s="21" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="AF16" s="31" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="AG16" s="31" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="17" ht="20" spans="1:33">
+        <v>348</v>
+      </c>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="AJ16" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" ht="20" spans="1:36">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="21" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="21" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="W17" s="22" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="X17" s="22" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="Y17" s="29"/>
       <c r="Z17" s="22" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="AA17" s="22" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="AB17" s="29"/>
       <c r="AC17" s="22" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="AD17" s="22" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="AF17" s="31" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" ht="20" spans="1:33">
+        <v>368</v>
+      </c>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="AJ17" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" ht="20" spans="1:36">
       <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="21" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="X18" s="22" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="Y18" s="28"/>
       <c r="Z18" s="21" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="AA18" s="21" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="AB18" s="27"/>
       <c r="AC18" s="21" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="AD18" s="21" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="AE18" s="26"/>
       <c r="AF18" s="32" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="AG18" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="19" ht="20" spans="1:33">
+        <v>387</v>
+      </c>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="AJ18" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" ht="20" spans="1:36">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="W19" s="22" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="X19" s="22" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="Y19" s="29"/>
       <c r="Z19" s="22" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="AA19" s="22" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="AB19" s="27"/>
       <c r="AC19" s="21" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="AD19" s="21" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="AF19" s="31" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" ht="20" spans="1:33">
+        <v>407</v>
+      </c>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="AJ19" s="32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" ht="20" spans="1:36">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="5" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="5" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="21" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="21" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="X20" s="21" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="Y20" s="29"/>
       <c r="Z20" s="22" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="AA20" s="22" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="AB20" s="27"/>
       <c r="AC20" s="21" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="AD20" s="21" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="AE20" s="26"/>
       <c r="AF20" s="32" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="AG20" s="32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" ht="20" spans="1:33">
+        <v>307</v>
+      </c>
+      <c r="AI20" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="AJ20" s="31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" ht="20" spans="1:36">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="M21" s="24"/>
       <c r="N21" s="21" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="W21" s="22" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="X21" s="22" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="Y21" s="29"/>
       <c r="Z21" s="22" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="AA21" s="22" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="AB21" s="29"/>
       <c r="AC21" s="22" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="AD21" s="22" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="AE21" s="26"/>
       <c r="AF21" s="32" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="AG21" s="32" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="22" ht="20" spans="1:33">
+        <v>445</v>
+      </c>
+      <c r="AI21" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ21" s="31" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="22" ht="20" spans="1:36">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="21" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="21" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="21" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
       <c r="X22" s="21" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="Y22" s="29"/>
       <c r="Z22" s="22" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="AA22" s="22" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="AB22" s="27"/>
       <c r="AC22" s="21" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="AD22" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="AF22" s="31" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG22" s="31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="23" ht="20" spans="1:33">
+        <v>462</v>
+      </c>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="AG22" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI22" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="AJ22" s="31" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" ht="20" spans="1:36">
       <c r="A23" s="11"/>
       <c r="B23" s="5" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="21" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="M23" s="24"/>
       <c r="N23" s="21" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="21" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="Y23" s="28"/>
       <c r="Z23" s="21" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="AA23" s="21" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="AB23" s="27"/>
       <c r="AC23" s="21" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="AD23" s="21" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="AF23" s="31" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" ht="20" spans="1:30">
+        <v>484</v>
+      </c>
+      <c r="AI23" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="AJ23" s="31" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" ht="20" spans="1:36">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="21" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="21" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="Y24" s="29"/>
       <c r="Z24" s="22" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="AA24" s="22" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="AB24" s="29"/>
       <c r="AC24" s="22" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="AD24" s="22" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="25" ht="20" spans="1:30">
+        <v>500</v>
+      </c>
+      <c r="AI24" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ24" s="31" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" ht="20" spans="1:36">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="21" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="21" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="Y25" s="29"/>
       <c r="Z25" s="22" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="AA25" s="22" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="AB25" s="27"/>
       <c r="AC25" s="21" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" ht="20" spans="1:30">
+        <v>518</v>
+      </c>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ25" s="32" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" ht="20" spans="1:36">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="5" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="21" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="22" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="W26" s="22" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="X26" s="22" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="Y26" s="29"/>
       <c r="Z26" s="22" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="AA26" s="22" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="AB26" s="29"/>
       <c r="AC26" s="22" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="AD26" s="22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="27" ht="20" spans="1:30">
+        <v>535</v>
+      </c>
+      <c r="AI26" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="AJ26" s="31" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="27" ht="20" spans="1:36">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="21" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="21" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
       <c r="W27" s="22" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="X27" s="22" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="AB27" s="29"/>
       <c r="AC27" s="22" t="s">
-        <v>502</v>
+        <v>550</v>
       </c>
       <c r="AD27" s="22" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="28" ht="20" spans="1:30">
+        <v>551</v>
+      </c>
+      <c r="AI27" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="AJ27" s="31" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" ht="20" spans="1:36">
       <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="7" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="21" t="s">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="W28" s="22" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
       <c r="X28" s="22" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
       <c r="AB28" s="29"/>
       <c r="AC28" s="22" t="s">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="AD28" s="22" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="29" ht="20" spans="1:30">
+        <v>567</v>
+      </c>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="AJ28" s="32" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="29" ht="20" spans="1:36">
       <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="5" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>521</v>
+        <v>573</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5" t="s">
-        <v>522</v>
+        <v>574</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>523</v>
+        <v>575</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="21" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22" t="s">
-        <v>526</v>
+        <v>578</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>527</v>
+        <v>579</v>
       </c>
       <c r="W29" s="22" t="s">
-        <v>528</v>
+        <v>580</v>
       </c>
       <c r="X29" s="22" t="s">
-        <v>529</v>
+        <v>581</v>
       </c>
       <c r="AB29" s="29"/>
       <c r="AC29" s="22" t="s">
-        <v>530</v>
+        <v>582</v>
       </c>
       <c r="AD29" s="22" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="30" ht="20" spans="1:30">
+        <v>583</v>
+      </c>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ29" s="32" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" ht="20" spans="1:36">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>532</v>
+        <v>586</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>533</v>
+        <v>587</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>534</v>
+        <v>588</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="7" t="s">
-        <v>536</v>
+        <v>590</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>537</v>
+        <v>591</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>538</v>
+        <v>592</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>539</v>
+        <v>593</v>
       </c>
       <c r="M30" s="24"/>
       <c r="N30" s="21" t="s">
-        <v>540</v>
+        <v>594</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>541</v>
+        <v>595</v>
       </c>
       <c r="W30" s="22" t="s">
-        <v>542</v>
+        <v>596</v>
       </c>
       <c r="X30" s="22" t="s">
-        <v>543</v>
+        <v>597</v>
       </c>
       <c r="AB30" s="27"/>
       <c r="AC30" s="21" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
       <c r="AD30" s="21" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="31" ht="20" spans="1:30">
+        <v>599</v>
+      </c>
+      <c r="AI30" s="31" t="s">
+        <v>600</v>
+      </c>
+      <c r="AJ30" s="31" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="31" ht="20" spans="1:36">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>546</v>
+        <v>602</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>547</v>
+        <v>603</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="5" t="s">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>535</v>
+        <v>589</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5" t="s">
-        <v>549</v>
+        <v>605</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>550</v>
+        <v>606</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>551</v>
+        <v>607</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>552</v>
+        <v>608</v>
       </c>
       <c r="M31" s="24"/>
       <c r="N31" s="21" t="s">
-        <v>553</v>
+        <v>609</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>554</v>
+        <v>610</v>
       </c>
       <c r="V31" s="26"/>
       <c r="W31" s="21" t="s">
-        <v>555</v>
+        <v>611</v>
       </c>
       <c r="X31" s="21" t="s">
-        <v>556</v>
+        <v>612</v>
       </c>
       <c r="AB31" s="29"/>
       <c r="AC31" s="22" t="s">
-        <v>557</v>
+        <v>613</v>
       </c>
       <c r="AD31" s="22" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="32" ht="20" spans="1:30">
+        <v>614</v>
+      </c>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="AJ31" s="32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="32" ht="20" spans="1:36">
       <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="5" t="s">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="7" t="s">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="23" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="21" t="s">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="V32" s="26"/>
       <c r="W32" s="21" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="X32" s="21" t="s">
-        <v>570</v>
+        <v>628</v>
       </c>
       <c r="AB32" s="29"/>
       <c r="AC32" s="22" t="s">
-        <v>571</v>
+        <v>629</v>
       </c>
       <c r="AD32" s="22" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="33" ht="20" spans="1:30">
+        <v>630</v>
+      </c>
+      <c r="AI32" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="AJ32" s="31" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="33" ht="20" spans="1:36">
       <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
-        <v>573</v>
+        <v>633</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>574</v>
+        <v>634</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="5" t="s">
-        <v>575</v>
+        <v>635</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>576</v>
+        <v>636</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="7" t="s">
-        <v>577</v>
+        <v>637</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="21" t="s">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22" t="s">
-        <v>581</v>
+        <v>641</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>582</v>
+        <v>642</v>
       </c>
       <c r="W33" s="22" t="s">
-        <v>583</v>
+        <v>643</v>
       </c>
       <c r="X33" s="22" t="s">
-        <v>584</v>
+        <v>644</v>
       </c>
       <c r="AB33" s="27"/>
       <c r="AC33" s="21" t="s">
-        <v>585</v>
+        <v>645</v>
       </c>
       <c r="AD33" s="21" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="34" ht="20" spans="1:30">
+        <v>630</v>
+      </c>
+      <c r="AI33" s="31" t="s">
+        <v>646</v>
+      </c>
+      <c r="AJ33" s="31" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="34" ht="20" spans="1:36">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>587</v>
+        <v>649</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>589</v>
+        <v>651</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="7" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>592</v>
+        <v>654</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>593</v>
+        <v>655</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22" t="s">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="W34" s="22" t="s">
-        <v>596</v>
+        <v>658</v>
       </c>
       <c r="X34" s="22" t="s">
-        <v>597</v>
+        <v>659</v>
       </c>
       <c r="AB34" s="29"/>
       <c r="AC34" s="22" t="s">
-        <v>598</v>
+        <v>660</v>
       </c>
       <c r="AD34" s="22" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="35" ht="20" spans="1:30">
+        <v>661</v>
+      </c>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="AJ34" s="32" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="35" ht="20" spans="1:36">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>600</v>
+        <v>664</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>601</v>
+        <v>665</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
-        <v>602</v>
+        <v>666</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="5" t="s">
-        <v>604</v>
+        <v>668</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="21" t="s">
-        <v>606</v>
+        <v>670</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22" t="s">
-        <v>608</v>
+        <v>672</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>609</v>
+        <v>673</v>
       </c>
       <c r="V35" s="26"/>
       <c r="W35" s="21" t="s">
-        <v>610</v>
+        <v>674</v>
       </c>
       <c r="X35" s="21" t="s">
-        <v>611</v>
+        <v>675</v>
       </c>
       <c r="AB35" s="29"/>
       <c r="AC35" s="22" t="s">
-        <v>612</v>
+        <v>676</v>
       </c>
       <c r="AD35" s="22" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="36" ht="20" spans="1:30">
+        <v>677</v>
+      </c>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="AJ35" s="32" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="36" ht="20" spans="1:36">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
-        <v>614</v>
+        <v>680</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>615</v>
+        <v>681</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>616</v>
+        <v>682</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>617</v>
+        <v>683</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="5" t="s">
-        <v>618</v>
+        <v>684</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>619</v>
+        <v>685</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>620</v>
+        <v>686</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>621</v>
+        <v>687</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="21" t="s">
-        <v>622</v>
+        <v>688</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>623</v>
+        <v>689</v>
       </c>
       <c r="W36" s="22" t="s">
-        <v>624</v>
+        <v>690</v>
       </c>
       <c r="X36" s="22" t="s">
-        <v>625</v>
+        <v>691</v>
       </c>
       <c r="AB36" s="29"/>
       <c r="AC36" s="22" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
       <c r="AD36" s="22" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30">
+        <v>693</v>
+      </c>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="AJ36" s="32" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="37" ht="20" spans="1:36">
       <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
-        <v>628</v>
+        <v>696</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>629</v>
+        <v>697</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="7" t="s">
-        <v>630</v>
+        <v>698</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>631</v>
+        <v>699</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="7" t="s">
-        <v>632</v>
+        <v>700</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>633</v>
+        <v>701</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>621</v>
+        <v>687</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22" t="s">
-        <v>635</v>
+        <v>703</v>
       </c>
       <c r="O37" s="22" t="s">
-        <v>636</v>
+        <v>704</v>
       </c>
       <c r="W37" s="22" t="s">
-        <v>637</v>
+        <v>705</v>
       </c>
       <c r="X37" s="22" t="s">
-        <v>638</v>
+        <v>706</v>
       </c>
       <c r="AB37" s="29"/>
       <c r="AC37" s="22" t="s">
-        <v>639</v>
+        <v>707</v>
       </c>
       <c r="AD37" s="22" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="38" ht="20" spans="1:30">
+        <v>443</v>
+      </c>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="32" t="s">
+        <v>708</v>
+      </c>
+      <c r="AJ37" s="32" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="38" ht="20" spans="1:36">
       <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
-        <v>640</v>
+        <v>710</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="7" t="s">
-        <v>644</v>
+        <v>286</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>645</v>
+        <v>714</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>646</v>
+        <v>715</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>647</v>
+        <v>716</v>
       </c>
       <c r="M38" s="24"/>
       <c r="N38" s="21" t="s">
-        <v>648</v>
+        <v>717</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>649</v>
+        <v>718</v>
       </c>
       <c r="V38" s="26"/>
       <c r="W38" s="21" t="s">
-        <v>650</v>
+        <v>719</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>651</v>
+        <v>720</v>
       </c>
       <c r="AB38" s="27"/>
       <c r="AC38" s="21" t="s">
-        <v>652</v>
+        <v>721</v>
       </c>
       <c r="AD38" s="21" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="39" ht="20" spans="1:30">
+        <v>722</v>
+      </c>
+      <c r="AI38" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="AJ38" s="31" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="39" ht="20" spans="1:36">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>654</v>
+        <v>725</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>655</v>
+        <v>726</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>656</v>
+        <v>727</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>657</v>
+        <v>728</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="5" t="s">
-        <v>658</v>
+        <v>729</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>659</v>
+        <v>730</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>660</v>
+        <v>731</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>661</v>
+        <v>732</v>
       </c>
       <c r="M39" s="24"/>
       <c r="N39" s="21" t="s">
-        <v>662</v>
+        <v>733</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>663</v>
+        <v>734</v>
       </c>
       <c r="W39" s="22" t="s">
-        <v>664</v>
+        <v>735</v>
       </c>
       <c r="X39" s="22" t="s">
-        <v>665</v>
+        <v>736</v>
       </c>
       <c r="AB39" s="29"/>
       <c r="AC39" s="22" t="s">
-        <v>666</v>
+        <v>737</v>
       </c>
       <c r="AD39" s="22" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="40" ht="20" spans="1:30">
+        <v>738</v>
+      </c>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="AJ39" s="32" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="40" ht="20" spans="1:36">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
-        <v>668</v>
+        <v>740</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>669</v>
+        <v>741</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="7" t="s">
-        <v>670</v>
+        <v>742</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>671</v>
+        <v>743</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="5" t="s">
-        <v>672</v>
+        <v>744</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>673</v>
+        <v>745</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>674</v>
+        <v>746</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>675</v>
+        <v>747</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22" t="s">
-        <v>676</v>
+        <v>748</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>677</v>
+        <v>749</v>
       </c>
       <c r="V40" s="26"/>
       <c r="W40" s="21" t="s">
-        <v>678</v>
+        <v>750</v>
       </c>
       <c r="X40" s="21" t="s">
-        <v>679</v>
+        <v>751</v>
       </c>
       <c r="AB40" s="30"/>
       <c r="AC40" s="23" t="s">
-        <v>680</v>
+        <v>752</v>
       </c>
       <c r="AD40" s="23" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="41" ht="20" spans="1:24">
+        <v>753</v>
+      </c>
+      <c r="AI40" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="AJ40" s="31" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="41" ht="20" spans="1:36">
       <c r="A41" s="11"/>
       <c r="B41" s="5" t="s">
-        <v>682</v>
+        <v>756</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>683</v>
+        <v>757</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="7" t="s">
-        <v>684</v>
+        <v>758</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="7" t="s">
-        <v>686</v>
+        <v>760</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>687</v>
+        <v>761</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="21" t="s">
-        <v>688</v>
+        <v>762</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>689</v>
+        <v>763</v>
       </c>
       <c r="M41" s="24"/>
       <c r="N41" s="21" t="s">
-        <v>690</v>
+        <v>764</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>691</v>
+        <v>765</v>
       </c>
       <c r="W41" s="22" t="s">
-        <v>692</v>
+        <v>766</v>
       </c>
       <c r="X41" s="22" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="42" ht="20" spans="1:24">
+        <v>767</v>
+      </c>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="32" t="s">
+        <v>768</v>
+      </c>
+      <c r="AJ41" s="32" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="42" ht="20" spans="1:36">
       <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
-        <v>694</v>
+        <v>770</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>695</v>
+        <v>771</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>696</v>
+        <v>772</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>697</v>
+        <v>773</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="7" t="s">
-        <v>698</v>
+        <v>774</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>699</v>
+        <v>775</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>700</v>
+        <v>776</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>701</v>
+        <v>777</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22" t="s">
-        <v>702</v>
+        <v>778</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="V42" s="26"/>
       <c r="W42" s="21" t="s">
-        <v>704</v>
+        <v>780</v>
       </c>
       <c r="X42" s="21" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="43" ht="20" spans="1:24">
+        <v>781</v>
+      </c>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="AJ42" s="32" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="43" ht="20" spans="1:36">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
-        <v>706</v>
+        <v>784</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="5" t="s">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>709</v>
+        <v>787</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="7" t="s">
-        <v>710</v>
+        <v>788</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>712</v>
+        <v>790</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>713</v>
+        <v>791</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22" t="s">
-        <v>714</v>
+        <v>792</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>715</v>
+        <v>793</v>
       </c>
       <c r="V43" s="26"/>
       <c r="W43" s="21" t="s">
-        <v>716</v>
+        <v>794</v>
       </c>
       <c r="X43" s="21" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="44" ht="20" spans="1:24">
+        <v>795</v>
+      </c>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="32" t="s">
+        <v>796</v>
+      </c>
+      <c r="AJ43" s="32" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="44" ht="20" spans="1:36">
       <c r="A44" s="9"/>
       <c r="B44" s="7" t="s">
-        <v>718</v>
+        <v>798</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>719</v>
+        <v>799</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="7" t="s">
-        <v>721</v>
+        <v>801</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>722</v>
+        <v>802</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="21" t="s">
-        <v>723</v>
+        <v>803</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>724</v>
+        <v>804</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22" t="s">
-        <v>725</v>
+        <v>805</v>
       </c>
       <c r="O44" s="22" t="s">
-        <v>726</v>
+        <v>806</v>
       </c>
       <c r="V44" s="26"/>
       <c r="W44" s="21" t="s">
-        <v>727</v>
+        <v>807</v>
       </c>
       <c r="X44" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" ht="20" spans="1:24">
+        <v>387</v>
+      </c>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="AJ44" s="32" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="45" ht="20" spans="1:36">
       <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>729</v>
+        <v>810</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>730</v>
+        <v>811</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>731</v>
+        <v>812</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="7" t="s">
-        <v>732</v>
+        <v>813</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>733</v>
+        <v>814</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="21" t="s">
-        <v>734</v>
+        <v>815</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>735</v>
+        <v>816</v>
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="21" t="s">
-        <v>736</v>
+        <v>817</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>737</v>
+        <v>818</v>
       </c>
       <c r="V45" s="26"/>
       <c r="W45" s="21" t="s">
-        <v>738</v>
+        <v>819</v>
       </c>
       <c r="X45" s="21" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+        <v>820</v>
+      </c>
+      <c r="AI45" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="AJ45" s="31" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="46" ht="20" spans="1:36">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
-        <v>740</v>
+        <v>823</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>741</v>
+        <v>824</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="7" t="s">
-        <v>742</v>
+        <v>825</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>731</v>
+        <v>812</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="7" t="s">
-        <v>743</v>
+        <v>826</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>744</v>
+        <v>827</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>745</v>
+        <v>828</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="22" t="s">
-        <v>746</v>
+        <v>829</v>
       </c>
       <c r="O46" s="22" t="s">
-        <v>747</v>
+        <v>830</v>
       </c>
       <c r="W46" s="22" t="s">
-        <v>748</v>
+        <v>831</v>
       </c>
       <c r="X46" s="22" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="47" ht="20" spans="1:24">
+        <v>832</v>
+      </c>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="32" t="s">
+        <v>833</v>
+      </c>
+      <c r="AJ46" s="32" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="47" ht="20" spans="1:36">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
-        <v>750</v>
+        <v>835</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>695</v>
+        <v>771</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="7" t="s">
-        <v>751</v>
+        <v>836</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>752</v>
+        <v>837</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="5" t="s">
-        <v>753</v>
+        <v>838</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>754</v>
+        <v>839</v>
       </c>
       <c r="J47" s="20"/>
       <c r="K47" s="21" t="s">
-        <v>755</v>
+        <v>840</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>756</v>
+        <v>841</v>
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22" t="s">
-        <v>757</v>
+        <v>842</v>
       </c>
       <c r="O47" s="22" t="s">
-        <v>758</v>
+        <v>843</v>
       </c>
       <c r="W47" s="22" t="s">
-        <v>759</v>
+        <v>844</v>
       </c>
       <c r="X47" s="22" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="48" ht="20" spans="1:24">
+        <v>845</v>
+      </c>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="AJ47" s="32" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="48" ht="20" spans="1:36">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>761</v>
+        <v>848</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>762</v>
+        <v>849</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="7" t="s">
-        <v>763</v>
+        <v>850</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>764</v>
+        <v>851</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="5" t="s">
-        <v>765</v>
+        <v>852</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>766</v>
+        <v>853</v>
       </c>
       <c r="J48" s="20"/>
       <c r="K48" s="21" t="s">
-        <v>767</v>
+        <v>854</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>768</v>
+        <v>855</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22" t="s">
-        <v>769</v>
+        <v>856</v>
       </c>
       <c r="O48" s="22" t="s">
-        <v>758</v>
+        <v>843</v>
       </c>
       <c r="W48" s="22" t="s">
-        <v>770</v>
+        <v>857</v>
       </c>
       <c r="X48" s="22" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="49" ht="20" spans="1:24">
+        <v>858</v>
+      </c>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="32" t="s">
+        <v>859</v>
+      </c>
+      <c r="AJ48" s="32" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="49" ht="20" spans="1:36">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
-        <v>772</v>
+        <v>861</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>773</v>
+        <v>862</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="15"/>
       <c r="H49" s="7" t="s">
-        <v>774</v>
+        <v>863</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>775</v>
+        <v>864</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>776</v>
+        <v>865</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22" t="s">
-        <v>777</v>
+        <v>866</v>
       </c>
       <c r="O49" s="22" t="s">
-        <v>778</v>
+        <v>867</v>
       </c>
       <c r="V49" s="26"/>
       <c r="W49" s="21" t="s">
-        <v>779</v>
+        <v>868</v>
       </c>
       <c r="X49" s="21" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="50" ht="20" spans="1:24">
+        <v>869</v>
+      </c>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="AJ49" s="32" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="50" ht="20" spans="1:36">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>782</v>
+        <v>466</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="15"/>
       <c r="H50" s="7" t="s">
-        <v>783</v>
+        <v>873</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>744</v>
+        <v>827</v>
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="21" t="s">
-        <v>784</v>
+        <v>874</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>785</v>
+        <v>875</v>
       </c>
       <c r="M50" s="22"/>
       <c r="N50" s="22" t="s">
-        <v>786</v>
+        <v>876</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>787</v>
+        <v>877</v>
       </c>
       <c r="W50" s="22" t="s">
-        <v>788</v>
+        <v>878</v>
       </c>
       <c r="X50" s="22" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="51" ht="20" spans="1:24">
+        <v>879</v>
+      </c>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="32" t="s">
+        <v>880</v>
+      </c>
+      <c r="AJ50" s="32" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="51" ht="20" spans="1:36">
       <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
-        <v>790</v>
+        <v>882</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>791</v>
+        <v>883</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="17"/>
       <c r="H51" s="5" t="s">
-        <v>792</v>
+        <v>884</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>793</v>
+        <v>885</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>794</v>
+        <v>886</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>795</v>
+        <v>887</v>
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="21" t="s">
-        <v>796</v>
+        <v>888</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>797</v>
+        <v>889</v>
       </c>
       <c r="V51" s="26"/>
       <c r="W51" s="21" t="s">
-        <v>798</v>
+        <v>890</v>
       </c>
       <c r="X51" s="21" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="52" ht="20" spans="1:24">
+        <v>891</v>
+      </c>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="32" t="s">
+        <v>892</v>
+      </c>
+      <c r="AJ51" s="32" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="52" ht="20" spans="1:36">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>800</v>
+        <v>894</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>801</v>
+        <v>895</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="17"/>
       <c r="H52" s="5" t="s">
-        <v>802</v>
+        <v>896</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>803</v>
+        <v>897</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>804</v>
+        <v>898</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>805</v>
+        <v>899</v>
       </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22" t="s">
-        <v>806</v>
+        <v>900</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>787</v>
+        <v>877</v>
       </c>
       <c r="W52" s="22" t="s">
-        <v>807</v>
+        <v>901</v>
       </c>
       <c r="X52" s="22" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="53" ht="20" spans="1:24">
+        <v>902</v>
+      </c>
+      <c r="AI52" s="31" t="s">
+        <v>903</v>
+      </c>
+      <c r="AJ52" s="31" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="53" ht="20" spans="1:36">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>809</v>
+        <v>905</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>519</v>
+        <v>571</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="15"/>
       <c r="H53" s="7" t="s">
-        <v>810</v>
+        <v>906</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>811</v>
+        <v>907</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>812</v>
+        <v>908</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>813</v>
+        <v>909</v>
       </c>
       <c r="M53" s="22"/>
       <c r="N53" s="22" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="V53" s="26"/>
       <c r="W53" s="21" t="s">
-        <v>816</v>
+        <v>912</v>
       </c>
       <c r="X53" s="21" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="54" ht="20" spans="1:24">
+        <v>913</v>
+      </c>
+      <c r="AH53" s="26"/>
+      <c r="AI53" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="AJ53" s="32" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="54" ht="20" spans="1:36">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
-        <v>818</v>
+        <v>915</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>819</v>
+        <v>916</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="17"/>
       <c r="H54" s="5" t="s">
-        <v>820</v>
+        <v>917</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>821</v>
+        <v>918</v>
       </c>
       <c r="J54" s="20"/>
       <c r="K54" s="21" t="s">
-        <v>822</v>
+        <v>919</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>823</v>
+        <v>920</v>
       </c>
       <c r="M54" s="22"/>
       <c r="N54" s="22" t="s">
-        <v>824</v>
+        <v>921</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>703</v>
+        <v>779</v>
       </c>
       <c r="W54" s="22" t="s">
-        <v>825</v>
+        <v>922</v>
       </c>
       <c r="X54" s="22" t="s">
-        <v>703</v>
+        <v>779</v>
+      </c>
+      <c r="AH54" s="26"/>
+      <c r="AI54" s="32" t="s">
+        <v>923</v>
+      </c>
+      <c r="AJ54" s="32" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="55" ht="20" spans="1:24">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
-        <v>826</v>
+        <v>925</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>827</v>
+        <v>926</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="17"/>
       <c r="H55" s="5" t="s">
-        <v>828</v>
+        <v>927</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>829</v>
+        <v>928</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>830</v>
+        <v>929</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>805</v>
+        <v>899</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="22" t="s">
-        <v>831</v>
+        <v>930</v>
       </c>
       <c r="O55" s="22" t="s">
-        <v>832</v>
+        <v>931</v>
       </c>
       <c r="V55" s="26"/>
       <c r="W55" s="21" t="s">
-        <v>833</v>
+        <v>932</v>
       </c>
       <c r="X55" s="21" t="s">
-        <v>834</v>
+        <v>933</v>
       </c>
     </row>
     <row r="56" ht="20" spans="1:24">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
-        <v>835</v>
+        <v>934</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>836</v>
+        <v>935</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="17"/>
       <c r="H56" s="5" t="s">
-        <v>837</v>
+        <v>936</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>838</v>
+        <v>937</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>839</v>
+        <v>938</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>840</v>
+        <v>939</v>
       </c>
       <c r="M56" s="24"/>
       <c r="N56" s="21" t="s">
-        <v>841</v>
+        <v>940</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>842</v>
+        <v>941</v>
       </c>
       <c r="V56" s="26"/>
       <c r="W56" s="21" t="s">
-        <v>843</v>
+        <v>942</v>
       </c>
       <c r="X56" s="21" t="s">
-        <v>844</v>
+        <v>943</v>
       </c>
     </row>
     <row r="57" ht="20" spans="1:24">
       <c r="A57" s="9"/>
       <c r="B57" s="5" t="s">
-        <v>845</v>
+        <v>944</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>836</v>
+        <v>935</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="17"/>
       <c r="H57" s="5" t="s">
-        <v>846</v>
+        <v>945</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>847</v>
+        <v>946</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>848</v>
+        <v>947</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>849</v>
+        <v>948</v>
       </c>
       <c r="M57" s="22"/>
       <c r="N57" s="22" t="s">
-        <v>850</v>
+        <v>949</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>851</v>
+        <v>950</v>
       </c>
       <c r="W57" s="22" t="s">
-        <v>852</v>
+        <v>951</v>
       </c>
       <c r="X57" s="22" t="s">
-        <v>853</v>
+        <v>952</v>
       </c>
     </row>
     <row r="58" ht="20" spans="1:24">
       <c r="A58" s="9"/>
       <c r="B58" s="5" t="s">
-        <v>854</v>
+        <v>953</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>855</v>
+        <v>954</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="15"/>
       <c r="H58" s="7" t="s">
-        <v>856</v>
+        <v>955</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>857</v>
+        <v>956</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>858</v>
+        <v>957</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>859</v>
+        <v>958</v>
       </c>
       <c r="M58" s="24"/>
       <c r="N58" s="21" t="s">
-        <v>860</v>
+        <v>959</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>861</v>
+        <v>960</v>
       </c>
       <c r="W58" s="22" t="s">
-        <v>862</v>
+        <v>961</v>
       </c>
       <c r="X58" s="22" t="s">
-        <v>863</v>
+        <v>962</v>
       </c>
     </row>
     <row r="59" ht="20" spans="1:24">
       <c r="A59" s="9"/>
       <c r="B59" s="5" t="s">
-        <v>864</v>
+        <v>963</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>865</v>
+        <v>964</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="17"/>
       <c r="H59" s="5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>866</v>
+        <v>965</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="21" t="s">
-        <v>867</v>
+        <v>966</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>868</v>
+        <v>967</v>
       </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22" t="s">
-        <v>869</v>
+        <v>968</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>870</v>
+        <v>969</v>
       </c>
       <c r="V59" s="26"/>
       <c r="W59" s="21" t="s">
-        <v>871</v>
+        <v>970</v>
       </c>
       <c r="X59" s="21" t="s">
-        <v>872</v>
+        <v>971</v>
       </c>
     </row>
     <row r="60" ht="20" spans="1:24">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
-        <v>873</v>
+        <v>972</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>874</v>
+        <v>973</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="17"/>
       <c r="H60" s="5" t="s">
-        <v>875</v>
+        <v>974</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>876</v>
+        <v>975</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>877</v>
+        <v>976</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>878</v>
+        <v>977</v>
       </c>
       <c r="M60" s="22"/>
       <c r="N60" s="22" t="s">
-        <v>879</v>
+        <v>978</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>880</v>
+        <v>979</v>
       </c>
       <c r="V60" s="26"/>
       <c r="W60" s="21" t="s">
-        <v>881</v>
+        <v>980</v>
       </c>
       <c r="X60" s="21" t="s">
-        <v>882</v>
+        <v>981</v>
       </c>
     </row>
     <row r="61" ht="20" spans="1:24">
@@ -7951,29 +8605,29 @@
       <c r="F61" s="6"/>
       <c r="G61" s="17"/>
       <c r="H61" s="5" t="s">
-        <v>883</v>
+        <v>982</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>884</v>
+        <v>983</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>885</v>
+        <v>984</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>886</v>
+        <v>985</v>
       </c>
       <c r="M61" s="24"/>
       <c r="N61" s="21" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>887</v>
+        <v>986</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>888</v>
+        <v>987</v>
       </c>
       <c r="X61" s="22" t="s">
-        <v>889</v>
+        <v>988</v>
       </c>
     </row>
     <row r="62" ht="20" spans="1:24">
@@ -7985,30 +8639,30 @@
       <c r="F62" s="6"/>
       <c r="G62" s="17"/>
       <c r="H62" s="5" t="s">
-        <v>890</v>
+        <v>989</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>891</v>
+        <v>990</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="21" t="s">
-        <v>892</v>
+        <v>991</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>893</v>
+        <v>992</v>
       </c>
       <c r="M62" s="22"/>
       <c r="N62" s="22" t="s">
-        <v>894</v>
+        <v>993</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>895</v>
+        <v>994</v>
       </c>
       <c r="W62" s="22" t="s">
-        <v>896</v>
+        <v>995</v>
       </c>
       <c r="X62" s="22" t="s">
-        <v>897</v>
+        <v>996</v>
       </c>
     </row>
     <row r="63" ht="20" spans="1:24">
@@ -8020,30 +8674,30 @@
       <c r="F63" s="6"/>
       <c r="G63" s="15"/>
       <c r="H63" s="7" t="s">
-        <v>898</v>
+        <v>997</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>884</v>
+        <v>983</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="21" t="s">
-        <v>899</v>
+        <v>998</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="21" t="s">
-        <v>901</v>
+        <v>1000</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>902</v>
+        <v>1001</v>
       </c>
       <c r="W63" s="22" t="s">
-        <v>903</v>
+        <v>1002</v>
       </c>
       <c r="X63" s="22" t="s">
-        <v>904</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="64" ht="20" spans="1:24">
@@ -8055,30 +8709,30 @@
       <c r="F64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="5" t="s">
-        <v>905</v>
+        <v>1004</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>906</v>
+        <v>1005</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="21" t="s">
-        <v>907</v>
+        <v>1006</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>908</v>
+        <v>1007</v>
       </c>
       <c r="M64" s="22"/>
       <c r="N64" s="22" t="s">
-        <v>909</v>
+        <v>1008</v>
       </c>
       <c r="O64" s="22" t="s">
-        <v>910</v>
+        <v>1009</v>
       </c>
       <c r="W64" s="22" t="s">
-        <v>911</v>
+        <v>1010</v>
       </c>
       <c r="X64" s="22" t="s">
-        <v>912</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="65" ht="20" spans="1:24">
@@ -8090,29 +8744,29 @@
       <c r="F65" s="6"/>
       <c r="G65" s="15"/>
       <c r="H65" s="7" t="s">
-        <v>913</v>
+        <v>1012</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>914</v>
+        <v>1013</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>915</v>
+        <v>1014</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>916</v>
+        <v>1015</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="21" t="s">
-        <v>917</v>
+        <v>1016</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>918</v>
+        <v>1017</v>
       </c>
       <c r="W65" s="22" t="s">
-        <v>919</v>
+        <v>1018</v>
       </c>
       <c r="X65" s="22" t="s">
-        <v>912</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="66" ht="20" spans="1:24">
@@ -8124,30 +8778,30 @@
       <c r="F66" s="6"/>
       <c r="G66" s="17"/>
       <c r="H66" s="5" t="s">
-        <v>920</v>
+        <v>1019</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>921</v>
+        <v>1020</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="21" t="s">
-        <v>922</v>
+        <v>1021</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>923</v>
+        <v>1022</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="21" t="s">
-        <v>924</v>
+        <v>1023</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>925</v>
+        <v>1024</v>
       </c>
       <c r="W66" s="22" t="s">
-        <v>926</v>
+        <v>1025</v>
       </c>
       <c r="X66" s="22" t="s">
-        <v>927</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="67" ht="20" spans="1:24">
@@ -8159,29 +8813,29 @@
       <c r="F67" s="6"/>
       <c r="G67" s="17"/>
       <c r="H67" s="5" t="s">
-        <v>928</v>
+        <v>1027</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>929</v>
+        <v>1028</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>930</v>
+        <v>1029</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>931</v>
+        <v>1030</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="21" t="s">
-        <v>932</v>
+        <v>1031</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>933</v>
+        <v>1032</v>
       </c>
       <c r="W67" s="22" t="s">
-        <v>934</v>
+        <v>1033</v>
       </c>
       <c r="X67" s="22" t="s">
-        <v>935</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="68" ht="20" spans="1:24">
@@ -8193,30 +8847,30 @@
       <c r="F68" s="6"/>
       <c r="G68" s="15"/>
       <c r="H68" s="7" t="s">
-        <v>936</v>
+        <v>1035</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>937</v>
+        <v>1036</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="21" t="s">
-        <v>938</v>
+        <v>1037</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>939</v>
+        <v>1038</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="21" t="s">
-        <v>940</v>
+        <v>1039</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>941</v>
+        <v>1040</v>
       </c>
       <c r="W68" s="22" t="s">
-        <v>942</v>
+        <v>1041</v>
       </c>
       <c r="X68" s="22" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" ht="20" spans="1:24">
@@ -8228,29 +8882,29 @@
       <c r="F69" s="6"/>
       <c r="G69" s="17"/>
       <c r="H69" s="5" t="s">
-        <v>943</v>
+        <v>1042</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>944</v>
+        <v>1043</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>945</v>
+        <v>1044</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>946</v>
+        <v>1045</v>
       </c>
       <c r="M69" s="22"/>
       <c r="N69" s="22" t="s">
-        <v>947</v>
+        <v>1046</v>
       </c>
       <c r="O69" s="22" t="s">
-        <v>948</v>
+        <v>1047</v>
       </c>
       <c r="W69" s="22" t="s">
-        <v>949</v>
+        <v>1048</v>
       </c>
       <c r="X69" s="22" t="s">
-        <v>950</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="70" ht="20" spans="1:24">
@@ -8262,30 +8916,30 @@
       <c r="F70" s="6"/>
       <c r="G70" s="17"/>
       <c r="H70" s="5" t="s">
-        <v>951</v>
+        <v>1050</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>952</v>
+        <v>1051</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="21" t="s">
-        <v>953</v>
+        <v>1052</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>954</v>
+        <v>1053</v>
       </c>
       <c r="M70" s="22"/>
       <c r="N70" s="22" t="s">
-        <v>955</v>
+        <v>1054</v>
       </c>
       <c r="O70" s="22" t="s">
-        <v>956</v>
+        <v>1055</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>957</v>
+        <v>1056</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>950</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="71" ht="20" spans="1:24">
@@ -8297,31 +8951,31 @@
       <c r="F71" s="6"/>
       <c r="G71" s="15"/>
       <c r="H71" s="7" t="s">
-        <v>958</v>
+        <v>1057</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>959</v>
+        <v>1058</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="21" t="s">
-        <v>960</v>
+        <v>1059</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>961</v>
+        <v>1060</v>
       </c>
       <c r="M71" s="22"/>
       <c r="N71" s="22" t="s">
-        <v>962</v>
+        <v>1061</v>
       </c>
       <c r="O71" s="22" t="s">
-        <v>963</v>
+        <v>1062</v>
       </c>
       <c r="V71" s="26"/>
       <c r="W71" s="21" t="s">
-        <v>964</v>
+        <v>1063</v>
       </c>
       <c r="X71" s="21" t="s">
-        <v>965</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="72" ht="20" spans="1:24">
@@ -8333,30 +8987,30 @@
       <c r="F72" s="6"/>
       <c r="G72" s="15"/>
       <c r="H72" s="7" t="s">
-        <v>966</v>
+        <v>1065</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>967</v>
+        <v>1066</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>968</v>
+        <v>1067</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>969</v>
+        <v>1068</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="21" t="s">
-        <v>970</v>
+        <v>1069</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>971</v>
+        <v>1070</v>
       </c>
       <c r="V72" s="26"/>
       <c r="W72" s="21" t="s">
-        <v>972</v>
+        <v>1071</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>973</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="73" ht="20" spans="1:24">
@@ -8368,30 +9022,30 @@
       <c r="F73" s="6"/>
       <c r="G73" s="15"/>
       <c r="H73" s="7" t="s">
-        <v>974</v>
+        <v>1073</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>975</v>
+        <v>1074</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="21" t="s">
-        <v>976</v>
+        <v>1075</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>977</v>
+        <v>1076</v>
       </c>
       <c r="M73" s="22"/>
       <c r="N73" s="22" t="s">
-        <v>978</v>
+        <v>1077</v>
       </c>
       <c r="O73" s="22" t="s">
-        <v>979</v>
+        <v>1078</v>
       </c>
       <c r="W73" s="22" t="s">
-        <v>980</v>
+        <v>1079</v>
       </c>
       <c r="X73" s="22" t="s">
-        <v>981</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="74" ht="20" spans="1:24">
@@ -8403,29 +9057,29 @@
       <c r="F74" s="6"/>
       <c r="G74" s="17"/>
       <c r="H74" s="5" t="s">
-        <v>982</v>
+        <v>1081</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>983</v>
+        <v>1082</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>984</v>
+        <v>1083</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>985</v>
+        <v>1084</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="21" t="s">
-        <v>986</v>
+        <v>1085</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>987</v>
+        <v>1086</v>
       </c>
       <c r="W74" s="22" t="s">
-        <v>988</v>
+        <v>1087</v>
       </c>
       <c r="X74" s="22" t="s">
-        <v>989</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="75" ht="20" spans="1:24">
@@ -8437,31 +9091,31 @@
       <c r="F75" s="6"/>
       <c r="G75" s="15"/>
       <c r="H75" s="7" t="s">
-        <v>990</v>
+        <v>1089</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>991</v>
+        <v>1090</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="21" t="s">
-        <v>992</v>
+        <v>1091</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>993</v>
+        <v>1092</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="21" t="s">
-        <v>994</v>
+        <v>1093</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>995</v>
+        <v>1094</v>
       </c>
       <c r="V75" s="26"/>
       <c r="W75" s="21" t="s">
-        <v>996</v>
+        <v>1095</v>
       </c>
       <c r="X75" s="21" t="s">
-        <v>997</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="76" ht="20" spans="1:24">
@@ -8473,30 +9127,30 @@
       <c r="F76" s="6"/>
       <c r="G76" s="17"/>
       <c r="H76" s="5" t="s">
-        <v>998</v>
+        <v>1097</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>999</v>
+        <v>1098</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="21" t="s">
-        <v>1000</v>
+        <v>1099</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>1001</v>
+        <v>1100</v>
       </c>
       <c r="M76" s="22"/>
       <c r="N76" s="22" t="s">
-        <v>1002</v>
+        <v>1101</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>1003</v>
+        <v>1102</v>
       </c>
       <c r="W76" s="22" t="s">
-        <v>1004</v>
+        <v>1103</v>
       </c>
       <c r="X76" s="22" t="s">
-        <v>912</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="77" ht="20" spans="1:24">
@@ -8508,22 +9162,22 @@
       <c r="F77" s="6"/>
       <c r="G77" s="17"/>
       <c r="H77" s="5" t="s">
-        <v>1005</v>
+        <v>1104</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>1006</v>
+        <v>1105</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>1007</v>
+        <v>1106</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>1008</v>
+        <v>1107</v>
       </c>
       <c r="W77" s="22" t="s">
-        <v>1009</v>
+        <v>1108</v>
       </c>
       <c r="X77" s="22" t="s">
-        <v>912</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="78" ht="20" spans="1:24">
@@ -8535,24 +9189,24 @@
       <c r="F78" s="6"/>
       <c r="G78" s="17"/>
       <c r="H78" s="5" t="s">
-        <v>1010</v>
+        <v>1109</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>1011</v>
+        <v>1110</v>
       </c>
       <c r="J78" s="20"/>
       <c r="K78" s="21" t="s">
-        <v>1012</v>
+        <v>1111</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>1013</v>
+        <v>1112</v>
       </c>
       <c r="V78" s="26"/>
       <c r="W78" s="21" t="s">
-        <v>1014</v>
+        <v>1113</v>
       </c>
       <c r="X78" s="21" t="s">
-        <v>1015</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -8564,22 +9218,22 @@
       <c r="F79" s="6"/>
       <c r="G79" s="15"/>
       <c r="H79" s="7" t="s">
-        <v>1016</v>
+        <v>1115</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>1017</v>
+        <v>1116</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>1018</v>
+        <v>1117</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>1019</v>
+        <v>1118</v>
       </c>
       <c r="W79" s="22" t="s">
-        <v>1020</v>
+        <v>1119</v>
       </c>
       <c r="X79" s="22" t="s">
-        <v>1021</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="80" ht="20" spans="1:24">
@@ -8591,24 +9245,24 @@
       <c r="F80" s="6"/>
       <c r="G80" s="17"/>
       <c r="H80" s="5" t="s">
-        <v>1022</v>
+        <v>1121</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>1023</v>
+        <v>1122</v>
       </c>
       <c r="J80" s="20"/>
       <c r="K80" s="21" t="s">
-        <v>1024</v>
+        <v>1123</v>
       </c>
       <c r="L80" s="21" t="s">
-        <v>1013</v>
+        <v>1112</v>
       </c>
       <c r="V80" s="26"/>
       <c r="W80" s="21" t="s">
-        <v>1025</v>
+        <v>1124</v>
       </c>
       <c r="X80" s="21" t="s">
-        <v>771</v>
+        <v>858</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -8620,22 +9274,22 @@
       <c r="F81" s="6"/>
       <c r="G81" s="15"/>
       <c r="H81" s="7" t="s">
-        <v>1026</v>
+        <v>1125</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>1027</v>
+        <v>1126</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>1028</v>
+        <v>1127</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>1029</v>
+        <v>1128</v>
       </c>
       <c r="W81" s="22" t="s">
-        <v>1030</v>
+        <v>1129</v>
       </c>
       <c r="X81" s="22" t="s">
-        <v>1031</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="82" ht="20" spans="1:24">
@@ -8647,24 +9301,24 @@
       <c r="F82" s="6"/>
       <c r="G82" s="17"/>
       <c r="H82" s="5" t="s">
-        <v>1032</v>
+        <v>1131</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>1033</v>
+        <v>1132</v>
       </c>
       <c r="J82" s="20"/>
       <c r="K82" s="21" t="s">
-        <v>1034</v>
+        <v>1133</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>1035</v>
+        <v>1134</v>
       </c>
       <c r="V82" s="26"/>
       <c r="W82" s="21" t="s">
-        <v>1036</v>
+        <v>1135</v>
       </c>
       <c r="X82" s="21" t="s">
-        <v>1037</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="83" ht="20" spans="1:24">
@@ -8676,23 +9330,23 @@
       <c r="F83" s="6"/>
       <c r="G83" s="17"/>
       <c r="H83" s="5" t="s">
-        <v>1038</v>
+        <v>1137</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>1039</v>
+        <v>1138</v>
       </c>
       <c r="J83" s="20"/>
       <c r="K83" s="21" t="s">
-        <v>1040</v>
+        <v>1139</v>
       </c>
       <c r="L83" s="21" t="s">
-        <v>1041</v>
+        <v>1140</v>
       </c>
       <c r="W83" s="22" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="X83" s="22" t="s">
-        <v>1042</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="84" ht="20" spans="1:24">
@@ -8704,23 +9358,23 @@
       <c r="F84" s="6"/>
       <c r="G84" s="15"/>
       <c r="H84" s="7" t="s">
-        <v>1043</v>
+        <v>1142</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>1044</v>
+        <v>1143</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>1045</v>
+        <v>1144</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>1046</v>
+        <v>1145</v>
       </c>
       <c r="V84" s="26"/>
       <c r="W84" s="21" t="s">
-        <v>1047</v>
+        <v>1146</v>
       </c>
       <c r="X84" s="21" t="s">
-        <v>1048</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="85" ht="20" spans="1:24">
@@ -8732,23 +9386,23 @@
       <c r="F85" s="6"/>
       <c r="G85" s="15"/>
       <c r="H85" s="7" t="s">
-        <v>788</v>
+        <v>878</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>789</v>
+        <v>879</v>
       </c>
       <c r="J85" s="20"/>
       <c r="K85" s="21" t="s">
-        <v>1049</v>
+        <v>1148</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>1050</v>
+        <v>1149</v>
       </c>
       <c r="W85" s="22" t="s">
-        <v>1051</v>
+        <v>1150</v>
       </c>
       <c r="X85" s="22" t="s">
-        <v>1052</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="86" ht="20" spans="1:24">
@@ -8760,22 +9414,22 @@
       <c r="F86" s="6"/>
       <c r="G86" s="17"/>
       <c r="H86" s="5" t="s">
-        <v>1053</v>
+        <v>1152</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>1054</v>
+        <v>1153</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>1055</v>
+        <v>1154</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>1056</v>
+        <v>1155</v>
       </c>
       <c r="W86" s="22" t="s">
-        <v>1057</v>
+        <v>1156</v>
       </c>
       <c r="X86" s="22" t="s">
-        <v>1058</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="87" ht="20" spans="1:24">
@@ -8787,24 +9441,24 @@
       <c r="F87" s="6"/>
       <c r="G87" s="17"/>
       <c r="H87" s="5" t="s">
-        <v>1059</v>
+        <v>1158</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>1060</v>
+        <v>1159</v>
       </c>
       <c r="J87" s="20"/>
       <c r="K87" s="21" t="s">
-        <v>788</v>
+        <v>878</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>1061</v>
+        <v>1160</v>
       </c>
       <c r="V87" s="26"/>
       <c r="W87" s="21" t="s">
-        <v>1062</v>
+        <v>1161</v>
       </c>
       <c r="X87" s="21" t="s">
-        <v>1063</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="88" ht="20" spans="1:24">
@@ -8816,23 +9470,23 @@
       <c r="F88" s="6"/>
       <c r="G88" s="15"/>
       <c r="H88" s="7" t="s">
-        <v>1064</v>
+        <v>1163</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>1065</v>
+        <v>1164</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>1066</v>
+        <v>1165</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>1067</v>
+        <v>1166</v>
       </c>
       <c r="V88" s="26"/>
       <c r="W88" s="21" t="s">
-        <v>1068</v>
+        <v>1167</v>
       </c>
       <c r="X88" s="21" t="s">
-        <v>1069</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="89" ht="20" spans="1:24">
@@ -8844,23 +9498,23 @@
       <c r="F89" s="6"/>
       <c r="G89" s="17"/>
       <c r="H89" s="5" t="s">
-        <v>1070</v>
+        <v>1169</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>1071</v>
+        <v>1170</v>
       </c>
       <c r="J89" s="20"/>
       <c r="K89" s="21" t="s">
-        <v>1072</v>
+        <v>1171</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>1073</v>
+        <v>1172</v>
       </c>
       <c r="W89" s="22" t="s">
-        <v>1074</v>
+        <v>1173</v>
       </c>
       <c r="X89" s="22" t="s">
-        <v>1075</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="90" ht="20" spans="1:24">
@@ -8872,23 +9526,23 @@
       <c r="F90" s="6"/>
       <c r="G90" s="15"/>
       <c r="H90" s="7" t="s">
-        <v>1076</v>
+        <v>1175</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>1077</v>
+        <v>1176</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>1078</v>
+        <v>1177</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>1079</v>
+        <v>1178</v>
       </c>
       <c r="V90" s="26"/>
       <c r="W90" s="21" t="s">
-        <v>1080</v>
+        <v>1179</v>
       </c>
       <c r="X90" s="21" t="s">
-        <v>1081</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="91" ht="20" spans="1:24">
@@ -8900,23 +9554,23 @@
       <c r="F91" s="6"/>
       <c r="G91" s="15"/>
       <c r="H91" s="7" t="s">
-        <v>1082</v>
+        <v>1181</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1083</v>
+        <v>1182</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>1084</v>
+        <v>1183</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>1085</v>
+        <v>1184</v>
       </c>
       <c r="V91" s="26"/>
       <c r="W91" s="21" t="s">
-        <v>1086</v>
+        <v>1185</v>
       </c>
       <c r="X91" s="21" t="s">
-        <v>1087</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="92" ht="20" spans="1:12">
@@ -8928,17 +9582,17 @@
       <c r="F92" s="6"/>
       <c r="G92" s="17"/>
       <c r="H92" s="5" t="s">
-        <v>1088</v>
+        <v>1187</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>1089</v>
+        <v>1188</v>
       </c>
       <c r="J92" s="20"/>
       <c r="K92" s="21" t="s">
-        <v>1090</v>
+        <v>1189</v>
       </c>
       <c r="L92" s="21" t="s">
-        <v>1091</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -8950,16 +9604,16 @@
       <c r="F93" s="6"/>
       <c r="G93" s="15"/>
       <c r="H93" s="10" t="s">
-        <v>1092</v>
+        <v>1191</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>1093</v>
+        <v>1192</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>1094</v>
+        <v>1193</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>1095</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="94" ht="20" spans="1:12">
@@ -8971,17 +9625,17 @@
       <c r="F94" s="6"/>
       <c r="G94" s="15"/>
       <c r="H94" s="7" t="s">
-        <v>1096</v>
+        <v>1195</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>1097</v>
+        <v>1196</v>
       </c>
       <c r="J94" s="20"/>
       <c r="K94" s="21" t="s">
-        <v>1098</v>
+        <v>1197</v>
       </c>
       <c r="L94" s="21" t="s">
-        <v>1099</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -8993,16 +9647,16 @@
       <c r="F95" s="6"/>
       <c r="G95" s="15"/>
       <c r="H95" s="7" t="s">
-        <v>1100</v>
+        <v>1199</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>1101</v>
+        <v>1200</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>1102</v>
+        <v>1201</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>1103</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="96" ht="20" spans="1:12">
@@ -9014,17 +9668,17 @@
       <c r="F96" s="6"/>
       <c r="G96" s="17"/>
       <c r="H96" s="5" t="s">
-        <v>1104</v>
+        <v>1203</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>1105</v>
+        <v>1204</v>
       </c>
       <c r="J96" s="20"/>
       <c r="K96" s="21" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="L96" s="21" t="s">
-        <v>1106</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="97" ht="20" spans="1:9">
@@ -9036,10 +9690,10 @@
       <c r="F97" s="6"/>
       <c r="G97" s="17"/>
       <c r="H97" s="5" t="s">
-        <v>1107</v>
+        <v>1206</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>1108</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -9051,10 +9705,10 @@
       <c r="F98" s="6"/>
       <c r="G98" s="15"/>
       <c r="H98" s="7" t="s">
-        <v>1109</v>
+        <v>1208</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1110</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="99" ht="20" spans="1:9">
@@ -9066,10 +9720,10 @@
       <c r="F99" s="6"/>
       <c r="G99" s="15"/>
       <c r="H99" s="5" t="s">
-        <v>1111</v>
+        <v>1210</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>1112</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="100" ht="20" spans="1:9">
@@ -9081,10 +9735,10 @@
       <c r="F100" s="6"/>
       <c r="G100" s="17"/>
       <c r="H100" s="5" t="s">
-        <v>1113</v>
+        <v>1212</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>1114</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -9096,10 +9750,10 @@
       <c r="F101" s="6"/>
       <c r="G101" s="15"/>
       <c r="H101" s="7" t="s">
-        <v>1115</v>
+        <v>1214</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>1116</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -9111,10 +9765,10 @@
       <c r="F102" s="6"/>
       <c r="G102" s="15"/>
       <c r="H102" s="7" t="s">
-        <v>1117</v>
+        <v>1216</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>1118</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="103" ht="20" spans="1:9">
@@ -9126,10 +9780,10 @@
       <c r="F103" s="6"/>
       <c r="G103" s="17"/>
       <c r="H103" s="5" t="s">
-        <v>1119</v>
+        <v>1218</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>1120</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -9141,10 +9795,10 @@
       <c r="F104" s="6"/>
       <c r="G104" s="15"/>
       <c r="H104" s="7" t="s">
-        <v>1121</v>
+        <v>1220</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>1120</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="105" ht="20" spans="1:9">
@@ -9156,10 +9810,10 @@
       <c r="F105" s="6"/>
       <c r="G105" s="17"/>
       <c r="H105" s="5" t="s">
-        <v>1122</v>
+        <v>1221</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>1123</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -9171,10 +9825,10 @@
       <c r="F106" s="6"/>
       <c r="G106" s="15"/>
       <c r="H106" s="7" t="s">
-        <v>1124</v>
+        <v>1223</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>1125</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -9186,10 +9840,10 @@
       <c r="F107" s="6"/>
       <c r="G107" s="15"/>
       <c r="H107" s="7" t="s">
-        <v>1126</v>
+        <v>1225</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>1127</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="108" ht="20" spans="1:9">
@@ -9201,10 +9855,10 @@
       <c r="F108" s="6"/>
       <c r="G108" s="17"/>
       <c r="H108" s="5" t="s">
-        <v>1128</v>
+        <v>1227</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>1129</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="109" ht="20" spans="1:9">
@@ -9216,10 +9870,10 @@
       <c r="F109" s="6"/>
       <c r="G109" s="17"/>
       <c r="H109" s="5" t="s">
-        <v>1130</v>
+        <v>1229</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>1131</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -9231,10 +9885,10 @@
       <c r="F110" s="6"/>
       <c r="G110" s="15"/>
       <c r="H110" s="7" t="s">
-        <v>1132</v>
+        <v>1231</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>1133</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="111" ht="20" spans="1:9">
@@ -9246,10 +9900,10 @@
       <c r="F111" s="6"/>
       <c r="G111" s="17"/>
       <c r="H111" s="5" t="s">
-        <v>1134</v>
+        <v>1233</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>1135</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="112" ht="20" spans="1:9">
@@ -9261,10 +9915,10 @@
       <c r="F112" s="6"/>
       <c r="G112" s="17"/>
       <c r="H112" s="5" t="s">
-        <v>1136</v>
+        <v>1235</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>1137</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -9276,14 +9930,14 @@
       <c r="F113" s="6"/>
       <c r="G113" s="15"/>
       <c r="H113" s="7" t="s">
-        <v>1138</v>
+        <v>1237</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>1139</v>
+        <v>1238</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -9295,6 +9949,7 @@
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273">
   <si>
     <t>Geography -地理</t>
   </si>
@@ -52,6 +52,12 @@
     <t>Agriculture - 农业</t>
   </si>
   <si>
+    <t>Anthropology - 人类学</t>
+  </si>
+  <si>
+    <t>气象</t>
+  </si>
+  <si>
     <t>insular</t>
   </si>
   <si>
@@ -124,6 +130,12 @@
     <t>多产的、丰富的</t>
   </si>
   <si>
+    <t>juvenile</t>
+  </si>
+  <si>
+    <t>青少年</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -196,6 +208,12 @@
     <t>丰富的</t>
   </si>
   <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>成年人</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -268,6 +286,12 @@
     <t>富饶的</t>
   </si>
   <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -334,6 +358,12 @@
     <t>收获</t>
   </si>
   <si>
+    <t>anthropology</t>
+  </si>
+  <si>
+    <t>人类学</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -400,6 +430,12 @@
     <t>农业</t>
   </si>
   <si>
+    <t>tribe</t>
+  </si>
+  <si>
+    <t>部落</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -472,6 +508,12 @@
     <t>农业的</t>
   </si>
   <si>
+    <t>ethnic</t>
+  </si>
+  <si>
+    <t>种族的</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
@@ -538,6 +580,12 @@
     <t>水产业</t>
   </si>
   <si>
+    <t>ethology</t>
+  </si>
+  <si>
+    <t>人种学、民族学</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -610,6 +658,12 @@
     <t>适于耕种的</t>
   </si>
   <si>
+    <t>minority</t>
+  </si>
+  <si>
+    <t>少数名族</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -676,6 +730,12 @@
     <t>土生土长的</t>
   </si>
   <si>
+    <t>descent</t>
+  </si>
+  <si>
+    <t>血统</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -746,6 +806,12 @@
   </si>
   <si>
     <t>肥料、施肥</t>
+  </si>
+  <si>
+    <t>hybird</t>
+  </si>
+  <si>
+    <t>混血儿</t>
   </si>
   <si>
     <t>ebb</t>
@@ -832,6 +898,12 @@
     <t>husbandry</t>
   </si>
   <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>智力、智慧</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -901,6 +973,12 @@
     <t>放牧</t>
   </si>
   <si>
+    <t>aboriginal</t>
+  </si>
+  <si>
+    <t>土著名族的</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -967,6 +1045,12 @@
     <t>培育</t>
   </si>
   <si>
+    <t>ancestor</t>
+  </si>
+  <si>
+    <t>祖先、祖宗</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
@@ -1033,6 +1117,12 @@
     <t>耕作、耕种</t>
   </si>
   <si>
+    <t>forerunner</t>
+  </si>
+  <si>
+    <t>先行者</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -1090,6 +1180,12 @@
     <t>施肥、耕种</t>
   </si>
   <si>
+    <t>hominid</t>
+  </si>
+  <si>
+    <t>原始人类、人类祖先</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
@@ -1148,6 +1244,12 @@
   </si>
   <si>
     <t>园艺学</t>
+  </si>
+  <si>
+    <t>cranial</t>
+  </si>
+  <si>
+    <t>头盖的、头盖形的</t>
   </si>
   <si>
     <t>cosmopolitan</t>
@@ -4876,10 +4978,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AJ113"/>
+  <dimension ref="A1:AP113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AJ55" sqref="AJ55"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
@@ -4917,12 +5019,18 @@
     <col min="31" max="31" width="4.9375" customWidth="1"/>
     <col min="32" max="32" width="24.9921875" customWidth="1"/>
     <col min="33" max="33" width="32.9375" customWidth="1"/>
-    <col min="34" max="34" width="5.3359375" customWidth="1"/>
+    <col min="34" max="34" width="4.421875" customWidth="1"/>
     <col min="35" max="35" width="18.1015625" customWidth="1"/>
     <col min="36" max="36" width="27.078125" customWidth="1"/>
+    <col min="37" max="37" width="4.5546875" customWidth="1"/>
+    <col min="38" max="38" width="17.96875" customWidth="1"/>
+    <col min="39" max="39" width="28.5078125" customWidth="1"/>
+    <col min="40" max="40" width="4.1640625" customWidth="1"/>
+    <col min="41" max="41" width="18.1015625" customWidth="1"/>
+    <col min="42" max="42" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:36">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:42">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4983,3617 +5091,3732 @@
       </c>
       <c r="AI1" s="21"/>
       <c r="AJ1" s="21"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:36">
+      <c r="AK1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:39">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V2" s="20"/>
       <c r="W2" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="27"/>
       <c r="Z2" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AB2" s="27"/>
       <c r="AC2" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AF2" s="31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG2" s="31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AI2" s="31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ2" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:36">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:39">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AA3" s="22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AD3" s="22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF3" s="31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AG3" s="31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AI3" s="31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AJ3" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:36">
+        <v>63</v>
+      </c>
+      <c r="AL3" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM3" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:39">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="21" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="21" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="V4" s="20"/>
       <c r="W4" s="21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Y4" s="27"/>
       <c r="Z4" s="21" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AB4" s="27"/>
       <c r="AC4" s="21" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AD4" s="21" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AF4" s="31" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AG4" s="31" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AI4" s="31" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AJ4" s="31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" ht="20" spans="1:36">
+        <v>89</v>
+      </c>
+      <c r="AL4" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM4" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="20" spans="1:39">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="22" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Y5" s="28"/>
       <c r="Z5" s="21" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AB5" s="27"/>
       <c r="AC5" s="21" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" s="32" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="AG5" s="32" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AH5" s="26"/>
       <c r="AI5" s="32" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AJ5" s="32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" ht="20" spans="1:36">
+        <v>113</v>
+      </c>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM5" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" ht="20" spans="1:39">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="21" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="21" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Y6" s="29"/>
       <c r="Z6" s="22" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="AB6" s="27"/>
       <c r="AC6" s="21" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="AE6" s="26"/>
       <c r="AF6" s="32" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="AG6" s="32" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="AI6" s="31" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="AJ6" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" ht="20" spans="1:36">
+        <v>137</v>
+      </c>
+      <c r="AL6" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM6" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" ht="20" spans="1:39">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="21" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="22" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="W7" s="22" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="X7" s="22" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y7" s="29"/>
       <c r="Z7" s="22" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="AA7" s="22" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="AB7" s="27"/>
       <c r="AC7" s="21" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="AD7" s="21" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AF7" s="31" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="AG7" s="31" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AI7" s="31" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AJ7" s="31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" ht="20" spans="1:36">
+        <v>163</v>
+      </c>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM7" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" ht="20" spans="1:39">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="21" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="21" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="21" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="W8" s="22" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X8" s="22" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y8" s="29"/>
       <c r="Z8" s="22" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="AA8" s="22" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="AB8" s="29"/>
       <c r="AC8" s="22" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="AD8" s="22" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="AF8" s="31" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AG8" s="31" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="AH8" s="26"/>
       <c r="AI8" s="32" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="AJ8" s="32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" ht="20" spans="1:36">
+        <v>187</v>
+      </c>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM8" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" ht="20" spans="1:39">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="21" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="S9" s="25"/>
       <c r="T9" s="21" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="X9" s="22" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="Y9" s="28"/>
       <c r="Z9" s="21" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="AB9" s="29"/>
       <c r="AC9" s="22" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="AD9" s="22" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="AE9" s="26"/>
       <c r="AF9" s="32" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="AG9" s="32" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="AH9" s="26"/>
       <c r="AI9" s="32" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="AJ9" s="32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" ht="20" spans="1:36">
+        <v>213</v>
+      </c>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM9" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" ht="20" spans="1:39">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="5" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="21" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="22" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="V10" s="26"/>
       <c r="W10" s="21" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="Y10" s="28"/>
       <c r="Z10" s="21" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="AB10" s="27"/>
       <c r="AC10" s="21" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="AD10" s="21" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="32" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="AG10" s="32" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="AH10" s="26"/>
       <c r="AI10" s="32" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="AJ10" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" ht="20" spans="1:36">
+        <v>237</v>
+      </c>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM10" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" ht="20" spans="1:39">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="21" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="W11" s="22" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="X11" s="22" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="Y11" s="28"/>
       <c r="Z11" s="21" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AB11" s="27"/>
       <c r="AC11" s="21" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="AD11" s="21" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="32" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AG11" s="32" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="AI11" s="31" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AJ11" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="1:36">
+        <v>263</v>
+      </c>
+      <c r="AL11" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="AM11" s="31" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:39">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="5" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="21" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="21" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="S12" s="25"/>
       <c r="T12" s="21" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="W12" s="22" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="X12" s="22" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="Y12" s="28"/>
       <c r="Z12" s="21" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="AB12" s="27"/>
       <c r="AC12" s="21" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="AD12" s="21" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="AF12" s="31" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="AG12" s="31" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="AH12" s="26"/>
       <c r="AI12" s="32" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="AJ12" s="32" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" ht="20" spans="1:36">
+        <v>137</v>
+      </c>
+      <c r="AL12" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM12" s="31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="1:39">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="21" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="S13" s="25"/>
       <c r="T13" s="21" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="V13" s="26"/>
       <c r="W13" s="21" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="X13" s="21" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="Y13" s="29"/>
       <c r="Z13" s="22" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="AB13" s="27"/>
       <c r="AC13" s="21" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="AD13" s="21" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="AE13" s="26"/>
       <c r="AF13" s="32" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="AG13" s="32" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="AI13" s="31" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="AJ13" s="31" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" ht="20" spans="1:36">
+        <v>311</v>
+      </c>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM13" s="32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" ht="20" spans="1:39">
       <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="5" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="21" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="21" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="22" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="X14" s="22" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="Y14" s="29"/>
       <c r="Z14" s="22" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="AA14" s="22" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="AB14" s="27"/>
       <c r="AC14" s="21" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="AD14" s="21" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="AF14" s="31" t="s">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="AG14" s="31" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="AI14" s="31" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="AJ14" s="31" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" ht="20" spans="1:36">
+        <v>335</v>
+      </c>
+      <c r="AL14" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM14" s="31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" ht="20" spans="1:39">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="21" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="21" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="V15" s="26"/>
       <c r="W15" s="21" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="X15" s="21" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="Y15" s="29"/>
       <c r="Z15" s="22" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="AA15" s="22" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="AB15" s="27"/>
       <c r="AC15" s="21" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="AD15" s="21" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="AF15" s="31" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="AG15" s="31" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="AI15" s="31" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="AJ15" s="31" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" ht="20" spans="1:36">
+        <v>359</v>
+      </c>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM15" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" ht="20" spans="1:39">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="V16" s="26"/>
       <c r="W16" s="21" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="X16" s="21" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="Y16" s="29"/>
       <c r="Z16" s="22" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="AA16" s="22" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="AB16" s="27"/>
       <c r="AC16" s="21" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="AD16" s="21" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="AF16" s="31" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="AG16" s="31" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="AH16" s="26"/>
       <c r="AI16" s="32" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="AJ16" s="32" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" ht="20" spans="1:36">
+        <v>380</v>
+      </c>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM16" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" ht="20" spans="1:39">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="21" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="21" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="W17" s="22" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="X17" s="22" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="Y17" s="29"/>
       <c r="Z17" s="22" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="AA17" s="22" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="AB17" s="29"/>
       <c r="AC17" s="22" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="AD17" s="22" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="AF17" s="31" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="AH17" s="26"/>
       <c r="AI17" s="32" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="AJ17" s="32" t="s">
-        <v>370</v>
+        <v>402</v>
+      </c>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="AM17" s="32" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="18" ht="20" spans="1:36">
       <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="21" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="X18" s="22" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="Y18" s="28"/>
       <c r="Z18" s="21" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="AA18" s="21" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="AB18" s="27"/>
       <c r="AC18" s="21" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="AD18" s="21" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="AE18" s="26"/>
       <c r="AF18" s="32" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="AG18" s="32" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="AH18" s="26"/>
       <c r="AI18" s="32" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="AJ18" s="32" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" ht="20" spans="1:36">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="W19" s="22" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="X19" s="22" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="Y19" s="29"/>
       <c r="Z19" s="22" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="AA19" s="22" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="AB19" s="27"/>
       <c r="AC19" s="21" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="AD19" s="21" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="AF19" s="31" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="AG19" s="31" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="AH19" s="26"/>
       <c r="AI19" s="32" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="AJ19" s="32" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" ht="20" spans="1:36">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="5" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="5" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="21" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="21" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="X20" s="21" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="Y20" s="29"/>
       <c r="Z20" s="22" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="AA20" s="22" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="AB20" s="27"/>
       <c r="AC20" s="21" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="AD20" s="21" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="AE20" s="26"/>
       <c r="AF20" s="32" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="AG20" s="32" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="AI20" s="31" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="AJ20" s="31" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" ht="20" spans="1:36">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="M21" s="24"/>
       <c r="N21" s="21" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="W21" s="22" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="X21" s="22" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="Y21" s="29"/>
       <c r="Z21" s="22" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="AA21" s="22" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="AB21" s="29"/>
       <c r="AC21" s="22" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="AD21" s="22" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="AE21" s="26"/>
       <c r="AF21" s="32" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="AG21" s="32" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="AI21" s="31" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="AJ21" s="31" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" ht="20" spans="1:36">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="21" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="21" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="21" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="X22" s="21" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="Y22" s="29"/>
       <c r="Z22" s="22" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="AA22" s="22" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="AB22" s="27"/>
       <c r="AC22" s="21" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="AD22" s="21" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="AE22" s="26"/>
       <c r="AF22" s="32" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="AG22" s="32" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="AI22" s="31" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="AJ22" s="31" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" ht="20" spans="1:36">
       <c r="A23" s="11"/>
       <c r="B23" s="5" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="21" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="M23" s="24"/>
       <c r="N23" s="21" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="21" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="Y23" s="28"/>
       <c r="Z23" s="21" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="AA23" s="21" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="AB23" s="27"/>
       <c r="AC23" s="21" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="AD23" s="21" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="AF23" s="31" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="AG23" s="31" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="AI23" s="31" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="AJ23" s="31" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" ht="20" spans="1:36">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="21" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="21" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="Y24" s="29"/>
       <c r="Z24" s="22" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="AA24" s="22" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="AB24" s="29"/>
       <c r="AC24" s="22" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="AD24" s="22" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="AI24" s="31" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="AJ24" s="31" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" ht="20" spans="1:36">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="21" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="21" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="Y25" s="29"/>
       <c r="Z25" s="22" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="AA25" s="22" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="AB25" s="27"/>
       <c r="AC25" s="21" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="AH25" s="26"/>
       <c r="AI25" s="32" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="AJ25" s="32" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" ht="20" spans="1:36">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="5" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="21" t="s">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="22" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="W26" s="22" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="X26" s="22" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="Y26" s="29"/>
       <c r="Z26" s="22" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="AA26" s="22" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="AB26" s="29"/>
       <c r="AC26" s="22" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AD26" s="22" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="AI26" s="31" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AJ26" s="31" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" ht="20" spans="1:36">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="21" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="21" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="W27" s="22" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="X27" s="22" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="AB27" s="29"/>
       <c r="AC27" s="22" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="AD27" s="22" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="AI27" s="31" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="AJ27" s="31" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
     </row>
     <row r="28" ht="20" spans="1:36">
       <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="7" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="21" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="W28" s="22" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X28" s="22" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="AB28" s="29"/>
       <c r="AC28" s="22" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="AD28" s="22" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="AH28" s="26"/>
       <c r="AI28" s="32" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="AJ28" s="32" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" ht="20" spans="1:36">
       <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="5" t="s">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>573</v>
+        <v>607</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5" t="s">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="21" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c r="W29" s="22" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="X29" s="22" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="AB29" s="29"/>
       <c r="AC29" s="22" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="AD29" s="22" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="AH29" s="26"/>
       <c r="AI29" s="32" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="AJ29" s="32" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" ht="20" spans="1:36">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="7" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="M30" s="24"/>
       <c r="N30" s="21" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="W30" s="22" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="X30" s="22" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="AB30" s="27"/>
       <c r="AC30" s="21" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="AD30" s="21" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
       <c r="AI30" s="31" t="s">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c r="AJ30" s="31" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" ht="20" spans="1:36">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="5" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5" t="s">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>606</v>
+        <v>640</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="M31" s="24"/>
       <c r="N31" s="21" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="V31" s="26"/>
       <c r="W31" s="21" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="X31" s="21" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c r="AB31" s="29"/>
       <c r="AC31" s="22" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="AD31" s="22" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="AH31" s="26"/>
       <c r="AI31" s="32" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="AJ31" s="32" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
     </row>
     <row r="32" ht="20" spans="1:36">
       <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="5" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="7" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="23" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="21" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="V32" s="26"/>
       <c r="W32" s="21" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="X32" s="21" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="AB32" s="29"/>
       <c r="AC32" s="22" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="AD32" s="22" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="AI32" s="31" t="s">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="AJ32" s="31" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" ht="20" spans="1:36">
       <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="5" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="7" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="21" t="s">
-        <v>639</v>
+        <v>673</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="W33" s="22" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="X33" s="22" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="AB33" s="27"/>
       <c r="AC33" s="21" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="AD33" s="21" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="AI33" s="31" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="AJ33" s="31" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" ht="20" spans="1:36">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="7" t="s">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>654</v>
+        <v>688</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22" t="s">
-        <v>656</v>
+        <v>690</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c r="W34" s="22" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="X34" s="22" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="AB34" s="29"/>
       <c r="AC34" s="22" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="AD34" s="22" t="s">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="AH34" s="26"/>
       <c r="AI34" s="32" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="AJ34" s="32" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
     </row>
     <row r="35" ht="20" spans="1:36">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="5" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="21" t="s">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="V35" s="26"/>
       <c r="W35" s="21" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="X35" s="21" t="s">
-        <v>675</v>
+        <v>709</v>
       </c>
       <c r="AB35" s="29"/>
       <c r="AC35" s="22" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="AD35" s="22" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="AH35" s="26"/>
       <c r="AI35" s="32" t="s">
-        <v>678</v>
+        <v>712</v>
       </c>
       <c r="AJ35" s="32" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
     </row>
     <row r="36" ht="20" spans="1:36">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>682</v>
+        <v>716</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="5" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>686</v>
+        <v>720</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="21" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c r="W36" s="22" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="X36" s="22" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="AB36" s="29"/>
       <c r="AC36" s="22" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="AD36" s="22" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c r="AH36" s="26"/>
       <c r="AI36" s="32" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="AJ36" s="32" t="s">
-        <v>695</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" ht="20" spans="1:36">
       <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
-        <v>696</v>
+        <v>730</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>697</v>
+        <v>731</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="7" t="s">
-        <v>698</v>
+        <v>732</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="7" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>701</v>
+        <v>735</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>702</v>
+        <v>736</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22" t="s">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="O37" s="22" t="s">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="W37" s="22" t="s">
-        <v>705</v>
+        <v>739</v>
       </c>
       <c r="X37" s="22" t="s">
-        <v>706</v>
+        <v>740</v>
       </c>
       <c r="AB37" s="29"/>
       <c r="AC37" s="22" t="s">
-        <v>707</v>
+        <v>741</v>
       </c>
       <c r="AD37" s="22" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="AH37" s="26"/>
       <c r="AI37" s="32" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="AJ37" s="32" t="s">
-        <v>709</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" ht="20" spans="1:36">
       <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
-        <v>710</v>
+        <v>744</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>714</v>
+        <v>748</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>715</v>
+        <v>749</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="M38" s="24"/>
       <c r="N38" s="21" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="V38" s="26"/>
       <c r="W38" s="21" t="s">
-        <v>719</v>
+        <v>753</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>720</v>
+        <v>754</v>
       </c>
       <c r="AB38" s="27"/>
       <c r="AC38" s="21" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="AD38" s="21" t="s">
-        <v>722</v>
+        <v>756</v>
       </c>
       <c r="AI38" s="31" t="s">
-        <v>723</v>
+        <v>757</v>
       </c>
       <c r="AJ38" s="31" t="s">
-        <v>724</v>
+        <v>758</v>
       </c>
     </row>
     <row r="39" ht="20" spans="1:36">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>725</v>
+        <v>759</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>726</v>
+        <v>760</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>727</v>
+        <v>761</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="5" t="s">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>730</v>
+        <v>764</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>731</v>
+        <v>765</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>732</v>
+        <v>766</v>
       </c>
       <c r="M39" s="24"/>
       <c r="N39" s="21" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>734</v>
+        <v>768</v>
       </c>
       <c r="W39" s="22" t="s">
-        <v>735</v>
+        <v>769</v>
       </c>
       <c r="X39" s="22" t="s">
-        <v>736</v>
+        <v>770</v>
       </c>
       <c r="AB39" s="29"/>
       <c r="AC39" s="22" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="AD39" s="22" t="s">
-        <v>738</v>
+        <v>772</v>
       </c>
       <c r="AH39" s="26"/>
       <c r="AI39" s="32" t="s">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c r="AJ39" s="32" t="s">
-        <v>739</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" ht="20" spans="1:36">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
-        <v>740</v>
+        <v>774</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>741</v>
+        <v>775</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="7" t="s">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>743</v>
+        <v>777</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="5" t="s">
-        <v>744</v>
+        <v>778</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>745</v>
+        <v>779</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>746</v>
+        <v>780</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>747</v>
+        <v>781</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22" t="s">
-        <v>748</v>
+        <v>782</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="V40" s="26"/>
       <c r="W40" s="21" t="s">
-        <v>750</v>
+        <v>784</v>
       </c>
       <c r="X40" s="21" t="s">
-        <v>751</v>
+        <v>785</v>
       </c>
       <c r="AB40" s="30"/>
       <c r="AC40" s="23" t="s">
-        <v>752</v>
+        <v>786</v>
       </c>
       <c r="AD40" s="23" t="s">
-        <v>753</v>
+        <v>787</v>
       </c>
       <c r="AI40" s="31" t="s">
-        <v>754</v>
+        <v>788</v>
       </c>
       <c r="AJ40" s="31" t="s">
-        <v>755</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41" ht="20" spans="1:36">
       <c r="A41" s="11"/>
       <c r="B41" s="5" t="s">
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>757</v>
+        <v>791</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="7" t="s">
-        <v>758</v>
+        <v>792</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>759</v>
+        <v>793</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="7" t="s">
-        <v>760</v>
+        <v>794</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>761</v>
+        <v>795</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="21" t="s">
-        <v>762</v>
+        <v>796</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>763</v>
+        <v>797</v>
       </c>
       <c r="M41" s="24"/>
       <c r="N41" s="21" t="s">
-        <v>764</v>
+        <v>798</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>765</v>
+        <v>799</v>
       </c>
       <c r="W41" s="22" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
       <c r="X41" s="22" t="s">
-        <v>767</v>
+        <v>801</v>
       </c>
       <c r="AH41" s="26"/>
       <c r="AI41" s="32" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="AJ41" s="32" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
     </row>
     <row r="42" ht="20" spans="1:36">
       <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
-        <v>770</v>
+        <v>804</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>771</v>
+        <v>805</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>773</v>
+        <v>807</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="7" t="s">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>775</v>
+        <v>809</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>776</v>
+        <v>810</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>777</v>
+        <v>811</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22" t="s">
-        <v>778</v>
+        <v>812</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>779</v>
+        <v>813</v>
       </c>
       <c r="V42" s="26"/>
       <c r="W42" s="21" t="s">
-        <v>780</v>
+        <v>814</v>
       </c>
       <c r="X42" s="21" t="s">
-        <v>781</v>
+        <v>815</v>
       </c>
       <c r="AH42" s="26"/>
       <c r="AI42" s="32" t="s">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="AJ42" s="32" t="s">
-        <v>783</v>
+        <v>817</v>
       </c>
     </row>
     <row r="43" ht="20" spans="1:36">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>785</v>
+        <v>819</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="5" t="s">
-        <v>786</v>
+        <v>820</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>787</v>
+        <v>821</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="7" t="s">
-        <v>788</v>
+        <v>822</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>789</v>
+        <v>823</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>790</v>
+        <v>824</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>791</v>
+        <v>825</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22" t="s">
-        <v>792</v>
+        <v>826</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>793</v>
+        <v>827</v>
       </c>
       <c r="V43" s="26"/>
       <c r="W43" s="21" t="s">
-        <v>794</v>
+        <v>828</v>
       </c>
       <c r="X43" s="21" t="s">
-        <v>795</v>
+        <v>829</v>
       </c>
       <c r="AH43" s="26"/>
       <c r="AI43" s="32" t="s">
-        <v>796</v>
+        <v>830</v>
       </c>
       <c r="AJ43" s="32" t="s">
-        <v>797</v>
+        <v>831</v>
       </c>
     </row>
     <row r="44" ht="20" spans="1:36">
       <c r="A44" s="9"/>
       <c r="B44" s="7" t="s">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>785</v>
+        <v>819</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>799</v>
+        <v>833</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>800</v>
+        <v>834</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="7" t="s">
-        <v>801</v>
+        <v>835</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>802</v>
+        <v>836</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="21" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>804</v>
+        <v>838</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22" t="s">
-        <v>805</v>
+        <v>839</v>
       </c>
       <c r="O44" s="22" t="s">
-        <v>806</v>
+        <v>840</v>
       </c>
       <c r="V44" s="26"/>
       <c r="W44" s="21" t="s">
-        <v>807</v>
+        <v>841</v>
       </c>
       <c r="X44" s="21" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="AH44" s="26"/>
       <c r="AI44" s="32" t="s">
-        <v>808</v>
+        <v>842</v>
       </c>
       <c r="AJ44" s="32" t="s">
-        <v>783</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45" ht="20" spans="1:36">
       <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>810</v>
+        <v>844</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>811</v>
+        <v>845</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>812</v>
+        <v>846</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="7" t="s">
-        <v>813</v>
+        <v>847</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>814</v>
+        <v>848</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="21" t="s">
-        <v>815</v>
+        <v>849</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>816</v>
+        <v>850</v>
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="21" t="s">
-        <v>817</v>
+        <v>851</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>818</v>
+        <v>852</v>
       </c>
       <c r="V45" s="26"/>
       <c r="W45" s="21" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
       <c r="X45" s="21" t="s">
-        <v>820</v>
+        <v>854</v>
       </c>
       <c r="AI45" s="31" t="s">
-        <v>821</v>
+        <v>855</v>
       </c>
       <c r="AJ45" s="31" t="s">
-        <v>822</v>
+        <v>856</v>
       </c>
     </row>
     <row r="46" ht="20" spans="1:36">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
-        <v>823</v>
+        <v>857</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>824</v>
+        <v>858</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="7" t="s">
-        <v>825</v>
+        <v>859</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>812</v>
+        <v>846</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="7" t="s">
-        <v>826</v>
+        <v>860</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>827</v>
+        <v>861</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>828</v>
+        <v>862</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="22" t="s">
-        <v>829</v>
+        <v>863</v>
       </c>
       <c r="O46" s="22" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="W46" s="22" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="X46" s="22" t="s">
-        <v>832</v>
+        <v>866</v>
       </c>
       <c r="AH46" s="26"/>
       <c r="AI46" s="32" t="s">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="AJ46" s="32" t="s">
-        <v>834</v>
+        <v>868</v>
       </c>
     </row>
     <row r="47" ht="20" spans="1:36">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
-        <v>835</v>
+        <v>869</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>771</v>
+        <v>805</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="7" t="s">
-        <v>836</v>
+        <v>870</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>837</v>
+        <v>871</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="5" t="s">
-        <v>838</v>
+        <v>872</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>839</v>
+        <v>873</v>
       </c>
       <c r="J47" s="20"/>
       <c r="K47" s="21" t="s">
-        <v>840</v>
+        <v>874</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>841</v>
+        <v>875</v>
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22" t="s">
-        <v>842</v>
+        <v>876</v>
       </c>
       <c r="O47" s="22" t="s">
-        <v>843</v>
+        <v>877</v>
       </c>
       <c r="W47" s="22" t="s">
-        <v>844</v>
+        <v>878</v>
       </c>
       <c r="X47" s="22" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="AH47" s="26"/>
       <c r="AI47" s="32" t="s">
-        <v>846</v>
+        <v>880</v>
       </c>
       <c r="AJ47" s="32" t="s">
-        <v>847</v>
+        <v>881</v>
       </c>
     </row>
     <row r="48" ht="20" spans="1:36">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>848</v>
+        <v>882</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>849</v>
+        <v>883</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="7" t="s">
-        <v>850</v>
+        <v>884</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>851</v>
+        <v>885</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="5" t="s">
-        <v>852</v>
+        <v>886</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>853</v>
+        <v>887</v>
       </c>
       <c r="J48" s="20"/>
       <c r="K48" s="21" t="s">
-        <v>854</v>
+        <v>888</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>855</v>
+        <v>889</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22" t="s">
-        <v>856</v>
+        <v>890</v>
       </c>
       <c r="O48" s="22" t="s">
-        <v>843</v>
+        <v>877</v>
       </c>
       <c r="W48" s="22" t="s">
-        <v>857</v>
+        <v>891</v>
       </c>
       <c r="X48" s="22" t="s">
-        <v>858</v>
+        <v>892</v>
       </c>
       <c r="AH48" s="26"/>
       <c r="AI48" s="32" t="s">
-        <v>859</v>
+        <v>893</v>
       </c>
       <c r="AJ48" s="32" t="s">
-        <v>860</v>
+        <v>894</v>
       </c>
     </row>
     <row r="49" ht="20" spans="1:36">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
-        <v>861</v>
+        <v>895</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>862</v>
+        <v>896</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="15"/>
       <c r="H49" s="7" t="s">
-        <v>863</v>
+        <v>897</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>864</v>
+        <v>898</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>865</v>
+        <v>899</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22" t="s">
-        <v>866</v>
+        <v>900</v>
       </c>
       <c r="O49" s="22" t="s">
-        <v>867</v>
+        <v>901</v>
       </c>
       <c r="V49" s="26"/>
       <c r="W49" s="21" t="s">
-        <v>868</v>
+        <v>902</v>
       </c>
       <c r="X49" s="21" t="s">
-        <v>869</v>
+        <v>903</v>
       </c>
       <c r="AH49" s="26"/>
       <c r="AI49" s="32" t="s">
-        <v>870</v>
+        <v>904</v>
       </c>
       <c r="AJ49" s="32" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
     </row>
     <row r="50" ht="20" spans="1:36">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>872</v>
+        <v>906</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="15"/>
       <c r="H50" s="7" t="s">
-        <v>873</v>
+        <v>907</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>827</v>
+        <v>861</v>
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="21" t="s">
-        <v>874</v>
+        <v>908</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>875</v>
+        <v>909</v>
       </c>
       <c r="M50" s="22"/>
       <c r="N50" s="22" t="s">
-        <v>876</v>
+        <v>910</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>877</v>
+        <v>911</v>
       </c>
       <c r="W50" s="22" t="s">
-        <v>878</v>
+        <v>912</v>
       </c>
       <c r="X50" s="22" t="s">
-        <v>879</v>
+        <v>913</v>
       </c>
       <c r="AH50" s="26"/>
       <c r="AI50" s="32" t="s">
-        <v>880</v>
+        <v>914</v>
       </c>
       <c r="AJ50" s="32" t="s">
-        <v>881</v>
+        <v>915</v>
       </c>
     </row>
     <row r="51" ht="20" spans="1:36">
       <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
-        <v>882</v>
+        <v>916</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>883</v>
+        <v>917</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="17"/>
       <c r="H51" s="5" t="s">
-        <v>884</v>
+        <v>918</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>887</v>
+        <v>921</v>
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="21" t="s">
-        <v>888</v>
+        <v>922</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>889</v>
+        <v>923</v>
       </c>
       <c r="V51" s="26"/>
       <c r="W51" s="21" t="s">
-        <v>890</v>
+        <v>924</v>
       </c>
       <c r="X51" s="21" t="s">
-        <v>891</v>
+        <v>925</v>
       </c>
       <c r="AH51" s="26"/>
       <c r="AI51" s="32" t="s">
-        <v>892</v>
+        <v>926</v>
       </c>
       <c r="AJ51" s="32" t="s">
-        <v>893</v>
+        <v>927</v>
       </c>
     </row>
     <row r="52" ht="20" spans="1:36">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>894</v>
+        <v>928</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>895</v>
+        <v>929</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="17"/>
       <c r="H52" s="5" t="s">
-        <v>896</v>
+        <v>930</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>897</v>
+        <v>931</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>898</v>
+        <v>932</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>899</v>
+        <v>933</v>
       </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22" t="s">
-        <v>900</v>
+        <v>934</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>877</v>
+        <v>911</v>
       </c>
       <c r="W52" s="22" t="s">
-        <v>901</v>
+        <v>935</v>
       </c>
       <c r="X52" s="22" t="s">
-        <v>902</v>
+        <v>936</v>
       </c>
       <c r="AI52" s="31" t="s">
-        <v>903</v>
+        <v>937</v>
       </c>
       <c r="AJ52" s="31" t="s">
-        <v>904</v>
+        <v>938</v>
       </c>
     </row>
     <row r="53" ht="20" spans="1:36">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>905</v>
+        <v>939</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="15"/>
       <c r="H53" s="7" t="s">
-        <v>906</v>
+        <v>940</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>907</v>
+        <v>941</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>908</v>
+        <v>942</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>909</v>
+        <v>943</v>
       </c>
       <c r="M53" s="22"/>
       <c r="N53" s="22" t="s">
-        <v>910</v>
+        <v>944</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>911</v>
+        <v>945</v>
       </c>
       <c r="V53" s="26"/>
       <c r="W53" s="21" t="s">
-        <v>912</v>
+        <v>946</v>
       </c>
       <c r="X53" s="21" t="s">
-        <v>913</v>
+        <v>947</v>
       </c>
       <c r="AH53" s="26"/>
       <c r="AI53" s="32" t="s">
-        <v>914</v>
+        <v>948</v>
       </c>
       <c r="AJ53" s="32" t="s">
-        <v>904</v>
+        <v>938</v>
       </c>
     </row>
     <row r="54" ht="20" spans="1:36">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
-        <v>915</v>
+        <v>949</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>916</v>
+        <v>950</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="17"/>
       <c r="H54" s="5" t="s">
-        <v>917</v>
+        <v>951</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>918</v>
+        <v>952</v>
       </c>
       <c r="J54" s="20"/>
       <c r="K54" s="21" t="s">
-        <v>919</v>
+        <v>953</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>920</v>
+        <v>954</v>
       </c>
       <c r="M54" s="22"/>
       <c r="N54" s="22" t="s">
-        <v>921</v>
+        <v>955</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>779</v>
+        <v>813</v>
       </c>
       <c r="W54" s="22" t="s">
-        <v>922</v>
+        <v>956</v>
       </c>
       <c r="X54" s="22" t="s">
-        <v>779</v>
+        <v>813</v>
       </c>
       <c r="AH54" s="26"/>
       <c r="AI54" s="32" t="s">
-        <v>923</v>
+        <v>957</v>
       </c>
       <c r="AJ54" s="32" t="s">
-        <v>924</v>
+        <v>958</v>
       </c>
     </row>
     <row r="55" ht="20" spans="1:24">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
-        <v>925</v>
+        <v>959</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>926</v>
+        <v>960</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="17"/>
       <c r="H55" s="5" t="s">
-        <v>927</v>
+        <v>961</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>928</v>
+        <v>962</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>929</v>
+        <v>963</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>899</v>
+        <v>933</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="22" t="s">
-        <v>930</v>
+        <v>964</v>
       </c>
       <c r="O55" s="22" t="s">
-        <v>931</v>
+        <v>965</v>
       </c>
       <c r="V55" s="26"/>
       <c r="W55" s="21" t="s">
-        <v>932</v>
+        <v>966</v>
       </c>
       <c r="X55" s="21" t="s">
-        <v>933</v>
+        <v>967</v>
       </c>
     </row>
     <row r="56" ht="20" spans="1:24">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
-        <v>934</v>
+        <v>968</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>935</v>
+        <v>969</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="17"/>
       <c r="H56" s="5" t="s">
-        <v>936</v>
+        <v>970</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>937</v>
+        <v>971</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>938</v>
+        <v>972</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>939</v>
+        <v>973</v>
       </c>
       <c r="M56" s="24"/>
       <c r="N56" s="21" t="s">
-        <v>940</v>
+        <v>974</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>941</v>
+        <v>975</v>
       </c>
       <c r="V56" s="26"/>
       <c r="W56" s="21" t="s">
-        <v>942</v>
+        <v>976</v>
       </c>
       <c r="X56" s="21" t="s">
-        <v>943</v>
+        <v>977</v>
       </c>
     </row>
     <row r="57" ht="20" spans="1:24">
       <c r="A57" s="9"/>
       <c r="B57" s="5" t="s">
-        <v>944</v>
+        <v>978</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>935</v>
+        <v>969</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="17"/>
       <c r="H57" s="5" t="s">
-        <v>945</v>
+        <v>979</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>946</v>
+        <v>980</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>947</v>
+        <v>981</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>948</v>
+        <v>982</v>
       </c>
       <c r="M57" s="22"/>
       <c r="N57" s="22" t="s">
-        <v>949</v>
+        <v>983</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>950</v>
+        <v>984</v>
       </c>
       <c r="W57" s="22" t="s">
-        <v>951</v>
+        <v>985</v>
       </c>
       <c r="X57" s="22" t="s">
-        <v>952</v>
+        <v>986</v>
       </c>
     </row>
     <row r="58" ht="20" spans="1:24">
       <c r="A58" s="9"/>
       <c r="B58" s="5" t="s">
-        <v>953</v>
+        <v>987</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>954</v>
+        <v>988</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="15"/>
       <c r="H58" s="7" t="s">
-        <v>955</v>
+        <v>989</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>956</v>
+        <v>990</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>957</v>
+        <v>991</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>958</v>
+        <v>992</v>
       </c>
       <c r="M58" s="24"/>
       <c r="N58" s="21" t="s">
-        <v>959</v>
+        <v>993</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>960</v>
+        <v>994</v>
       </c>
       <c r="W58" s="22" t="s">
-        <v>961</v>
+        <v>995</v>
       </c>
       <c r="X58" s="22" t="s">
-        <v>962</v>
+        <v>996</v>
       </c>
     </row>
     <row r="59" ht="20" spans="1:24">
       <c r="A59" s="9"/>
       <c r="B59" s="5" t="s">
-        <v>963</v>
+        <v>997</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>964</v>
+        <v>998</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="17"/>
       <c r="H59" s="5" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="21" t="s">
-        <v>966</v>
+        <v>1000</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>967</v>
+        <v>1001</v>
       </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22" t="s">
-        <v>968</v>
+        <v>1002</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>969</v>
+        <v>1003</v>
       </c>
       <c r="V59" s="26"/>
       <c r="W59" s="21" t="s">
-        <v>970</v>
+        <v>1004</v>
       </c>
       <c r="X59" s="21" t="s">
-        <v>971</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="60" ht="20" spans="1:24">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
-        <v>972</v>
+        <v>1006</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>973</v>
+        <v>1007</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="17"/>
       <c r="H60" s="5" t="s">
-        <v>974</v>
+        <v>1008</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>976</v>
+        <v>1010</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>977</v>
+        <v>1011</v>
       </c>
       <c r="M60" s="22"/>
       <c r="N60" s="22" t="s">
-        <v>978</v>
+        <v>1012</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>979</v>
+        <v>1013</v>
       </c>
       <c r="V60" s="26"/>
       <c r="W60" s="21" t="s">
-        <v>980</v>
+        <v>1014</v>
       </c>
       <c r="X60" s="21" t="s">
-        <v>981</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="61" ht="20" spans="1:24">
@@ -8605,29 +8828,29 @@
       <c r="F61" s="6"/>
       <c r="G61" s="17"/>
       <c r="H61" s="5" t="s">
-        <v>982</v>
+        <v>1016</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>983</v>
+        <v>1017</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>984</v>
+        <v>1018</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>985</v>
+        <v>1019</v>
       </c>
       <c r="M61" s="24"/>
       <c r="N61" s="21" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>986</v>
+        <v>1020</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>987</v>
+        <v>1021</v>
       </c>
       <c r="X61" s="22" t="s">
-        <v>988</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="62" ht="20" spans="1:24">
@@ -8639,30 +8862,30 @@
       <c r="F62" s="6"/>
       <c r="G62" s="17"/>
       <c r="H62" s="5" t="s">
-        <v>989</v>
+        <v>1023</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>990</v>
+        <v>1024</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="21" t="s">
-        <v>991</v>
+        <v>1025</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>992</v>
+        <v>1026</v>
       </c>
       <c r="M62" s="22"/>
       <c r="N62" s="22" t="s">
-        <v>993</v>
+        <v>1027</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>994</v>
+        <v>1028</v>
       </c>
       <c r="W62" s="22" t="s">
-        <v>995</v>
+        <v>1029</v>
       </c>
       <c r="X62" s="22" t="s">
-        <v>996</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="63" ht="20" spans="1:24">
@@ -8674,30 +8897,30 @@
       <c r="F63" s="6"/>
       <c r="G63" s="15"/>
       <c r="H63" s="7" t="s">
-        <v>997</v>
+        <v>1031</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>983</v>
+        <v>1017</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="21" t="s">
-        <v>998</v>
+        <v>1032</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>999</v>
+        <v>1033</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="21" t="s">
-        <v>1000</v>
+        <v>1034</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>1001</v>
+        <v>1035</v>
       </c>
       <c r="W63" s="22" t="s">
-        <v>1002</v>
+        <v>1036</v>
       </c>
       <c r="X63" s="22" t="s">
-        <v>1003</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="64" ht="20" spans="1:24">
@@ -8709,30 +8932,30 @@
       <c r="F64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="5" t="s">
-        <v>1004</v>
+        <v>1038</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>1005</v>
+        <v>1039</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="21" t="s">
-        <v>1006</v>
+        <v>1040</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>1007</v>
+        <v>1041</v>
       </c>
       <c r="M64" s="22"/>
       <c r="N64" s="22" t="s">
-        <v>1008</v>
+        <v>1042</v>
       </c>
       <c r="O64" s="22" t="s">
-        <v>1009</v>
+        <v>1043</v>
       </c>
       <c r="W64" s="22" t="s">
-        <v>1010</v>
+        <v>1044</v>
       </c>
       <c r="X64" s="22" t="s">
-        <v>1011</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="65" ht="20" spans="1:24">
@@ -8744,29 +8967,29 @@
       <c r="F65" s="6"/>
       <c r="G65" s="15"/>
       <c r="H65" s="7" t="s">
-        <v>1012</v>
+        <v>1046</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>1013</v>
+        <v>1047</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>1014</v>
+        <v>1048</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>1015</v>
+        <v>1049</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="21" t="s">
-        <v>1016</v>
+        <v>1050</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>1017</v>
+        <v>1051</v>
       </c>
       <c r="W65" s="22" t="s">
-        <v>1018</v>
+        <v>1052</v>
       </c>
       <c r="X65" s="22" t="s">
-        <v>1011</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="66" ht="20" spans="1:24">
@@ -8778,30 +9001,30 @@
       <c r="F66" s="6"/>
       <c r="G66" s="17"/>
       <c r="H66" s="5" t="s">
-        <v>1019</v>
+        <v>1053</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>1020</v>
+        <v>1054</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="21" t="s">
-        <v>1021</v>
+        <v>1055</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>1022</v>
+        <v>1056</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="21" t="s">
-        <v>1023</v>
+        <v>1057</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>1024</v>
+        <v>1058</v>
       </c>
       <c r="W66" s="22" t="s">
-        <v>1025</v>
+        <v>1059</v>
       </c>
       <c r="X66" s="22" t="s">
-        <v>1026</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="67" ht="20" spans="1:24">
@@ -8813,29 +9036,29 @@
       <c r="F67" s="6"/>
       <c r="G67" s="17"/>
       <c r="H67" s="5" t="s">
-        <v>1027</v>
+        <v>1061</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>1028</v>
+        <v>1062</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>1029</v>
+        <v>1063</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>1030</v>
+        <v>1064</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="21" t="s">
-        <v>1031</v>
+        <v>1065</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>1032</v>
+        <v>1066</v>
       </c>
       <c r="W67" s="22" t="s">
-        <v>1033</v>
+        <v>1067</v>
       </c>
       <c r="X67" s="22" t="s">
-        <v>1034</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="68" ht="20" spans="1:24">
@@ -8847,30 +9070,30 @@
       <c r="F68" s="6"/>
       <c r="G68" s="15"/>
       <c r="H68" s="7" t="s">
-        <v>1035</v>
+        <v>1069</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>1036</v>
+        <v>1070</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="21" t="s">
-        <v>1037</v>
+        <v>1071</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>1038</v>
+        <v>1072</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="21" t="s">
-        <v>1039</v>
+        <v>1073</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>1040</v>
+        <v>1074</v>
       </c>
       <c r="W68" s="22" t="s">
-        <v>1041</v>
+        <v>1075</v>
       </c>
       <c r="X68" s="22" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
     </row>
     <row r="69" ht="20" spans="1:24">
@@ -8882,29 +9105,29 @@
       <c r="F69" s="6"/>
       <c r="G69" s="17"/>
       <c r="H69" s="5" t="s">
-        <v>1042</v>
+        <v>1076</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>1043</v>
+        <v>1077</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>1044</v>
+        <v>1078</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>1045</v>
+        <v>1079</v>
       </c>
       <c r="M69" s="22"/>
       <c r="N69" s="22" t="s">
-        <v>1046</v>
+        <v>1080</v>
       </c>
       <c r="O69" s="22" t="s">
-        <v>1047</v>
+        <v>1081</v>
       </c>
       <c r="W69" s="22" t="s">
-        <v>1048</v>
+        <v>1082</v>
       </c>
       <c r="X69" s="22" t="s">
-        <v>1049</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="70" ht="20" spans="1:24">
@@ -8916,30 +9139,30 @@
       <c r="F70" s="6"/>
       <c r="G70" s="17"/>
       <c r="H70" s="5" t="s">
-        <v>1050</v>
+        <v>1084</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>1051</v>
+        <v>1085</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="21" t="s">
-        <v>1052</v>
+        <v>1086</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>1053</v>
+        <v>1087</v>
       </c>
       <c r="M70" s="22"/>
       <c r="N70" s="22" t="s">
-        <v>1054</v>
+        <v>1088</v>
       </c>
       <c r="O70" s="22" t="s">
-        <v>1055</v>
+        <v>1089</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>1056</v>
+        <v>1090</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>1049</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="71" ht="20" spans="1:24">
@@ -8951,31 +9174,31 @@
       <c r="F71" s="6"/>
       <c r="G71" s="15"/>
       <c r="H71" s="7" t="s">
-        <v>1057</v>
+        <v>1091</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>1058</v>
+        <v>1092</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="21" t="s">
-        <v>1059</v>
+        <v>1093</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>1060</v>
+        <v>1094</v>
       </c>
       <c r="M71" s="22"/>
       <c r="N71" s="22" t="s">
-        <v>1061</v>
+        <v>1095</v>
       </c>
       <c r="O71" s="22" t="s">
-        <v>1062</v>
+        <v>1096</v>
       </c>
       <c r="V71" s="26"/>
       <c r="W71" s="21" t="s">
-        <v>1063</v>
+        <v>1097</v>
       </c>
       <c r="X71" s="21" t="s">
-        <v>1064</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="72" ht="20" spans="1:24">
@@ -8987,30 +9210,30 @@
       <c r="F72" s="6"/>
       <c r="G72" s="15"/>
       <c r="H72" s="7" t="s">
-        <v>1065</v>
+        <v>1099</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>1066</v>
+        <v>1100</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>1067</v>
+        <v>1101</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>1068</v>
+        <v>1102</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="21" t="s">
-        <v>1069</v>
+        <v>1103</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>1070</v>
+        <v>1104</v>
       </c>
       <c r="V72" s="26"/>
       <c r="W72" s="21" t="s">
-        <v>1071</v>
+        <v>1105</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>1072</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="73" ht="20" spans="1:24">
@@ -9022,30 +9245,30 @@
       <c r="F73" s="6"/>
       <c r="G73" s="15"/>
       <c r="H73" s="7" t="s">
-        <v>1073</v>
+        <v>1107</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>1074</v>
+        <v>1108</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="21" t="s">
-        <v>1075</v>
+        <v>1109</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>1076</v>
+        <v>1110</v>
       </c>
       <c r="M73" s="22"/>
       <c r="N73" s="22" t="s">
-        <v>1077</v>
+        <v>1111</v>
       </c>
       <c r="O73" s="22" t="s">
-        <v>1078</v>
+        <v>1112</v>
       </c>
       <c r="W73" s="22" t="s">
-        <v>1079</v>
+        <v>1113</v>
       </c>
       <c r="X73" s="22" t="s">
-        <v>1080</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="74" ht="20" spans="1:24">
@@ -9057,29 +9280,29 @@
       <c r="F74" s="6"/>
       <c r="G74" s="17"/>
       <c r="H74" s="5" t="s">
-        <v>1081</v>
+        <v>1115</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>1082</v>
+        <v>1116</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>1083</v>
+        <v>1117</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>1084</v>
+        <v>1118</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="21" t="s">
-        <v>1085</v>
+        <v>1119</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>1086</v>
+        <v>1120</v>
       </c>
       <c r="W74" s="22" t="s">
-        <v>1087</v>
+        <v>1121</v>
       </c>
       <c r="X74" s="22" t="s">
-        <v>1088</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="75" ht="20" spans="1:24">
@@ -9091,31 +9314,31 @@
       <c r="F75" s="6"/>
       <c r="G75" s="15"/>
       <c r="H75" s="7" t="s">
-        <v>1089</v>
+        <v>1123</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>1090</v>
+        <v>1124</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="21" t="s">
-        <v>1091</v>
+        <v>1125</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>1092</v>
+        <v>1126</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="21" t="s">
-        <v>1093</v>
+        <v>1127</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>1094</v>
+        <v>1128</v>
       </c>
       <c r="V75" s="26"/>
       <c r="W75" s="21" t="s">
-        <v>1095</v>
+        <v>1129</v>
       </c>
       <c r="X75" s="21" t="s">
-        <v>1096</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="76" ht="20" spans="1:24">
@@ -9127,30 +9350,30 @@
       <c r="F76" s="6"/>
       <c r="G76" s="17"/>
       <c r="H76" s="5" t="s">
-        <v>1097</v>
+        <v>1131</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>1098</v>
+        <v>1132</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="21" t="s">
-        <v>1099</v>
+        <v>1133</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>1100</v>
+        <v>1134</v>
       </c>
       <c r="M76" s="22"/>
       <c r="N76" s="22" t="s">
-        <v>1101</v>
+        <v>1135</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>1102</v>
+        <v>1136</v>
       </c>
       <c r="W76" s="22" t="s">
-        <v>1103</v>
+        <v>1137</v>
       </c>
       <c r="X76" s="22" t="s">
-        <v>1011</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="77" ht="20" spans="1:24">
@@ -9162,22 +9385,22 @@
       <c r="F77" s="6"/>
       <c r="G77" s="17"/>
       <c r="H77" s="5" t="s">
-        <v>1104</v>
+        <v>1138</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>1105</v>
+        <v>1139</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>1106</v>
+        <v>1140</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>1107</v>
+        <v>1141</v>
       </c>
       <c r="W77" s="22" t="s">
-        <v>1108</v>
+        <v>1142</v>
       </c>
       <c r="X77" s="22" t="s">
-        <v>1011</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="78" ht="20" spans="1:24">
@@ -9189,24 +9412,24 @@
       <c r="F78" s="6"/>
       <c r="G78" s="17"/>
       <c r="H78" s="5" t="s">
-        <v>1109</v>
+        <v>1143</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>1110</v>
+        <v>1144</v>
       </c>
       <c r="J78" s="20"/>
       <c r="K78" s="21" t="s">
-        <v>1111</v>
+        <v>1145</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>1112</v>
+        <v>1146</v>
       </c>
       <c r="V78" s="26"/>
       <c r="W78" s="21" t="s">
-        <v>1113</v>
+        <v>1147</v>
       </c>
       <c r="X78" s="21" t="s">
-        <v>1114</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -9218,22 +9441,22 @@
       <c r="F79" s="6"/>
       <c r="G79" s="15"/>
       <c r="H79" s="7" t="s">
-        <v>1115</v>
+        <v>1149</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>1116</v>
+        <v>1150</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>1117</v>
+        <v>1151</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>1118</v>
+        <v>1152</v>
       </c>
       <c r="W79" s="22" t="s">
-        <v>1119</v>
+        <v>1153</v>
       </c>
       <c r="X79" s="22" t="s">
-        <v>1120</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="80" ht="20" spans="1:24">
@@ -9245,24 +9468,24 @@
       <c r="F80" s="6"/>
       <c r="G80" s="17"/>
       <c r="H80" s="5" t="s">
-        <v>1121</v>
+        <v>1155</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>1122</v>
+        <v>1156</v>
       </c>
       <c r="J80" s="20"/>
       <c r="K80" s="21" t="s">
-        <v>1123</v>
+        <v>1157</v>
       </c>
       <c r="L80" s="21" t="s">
-        <v>1112</v>
+        <v>1146</v>
       </c>
       <c r="V80" s="26"/>
       <c r="W80" s="21" t="s">
-        <v>1124</v>
+        <v>1158</v>
       </c>
       <c r="X80" s="21" t="s">
-        <v>858</v>
+        <v>892</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -9274,22 +9497,22 @@
       <c r="F81" s="6"/>
       <c r="G81" s="15"/>
       <c r="H81" s="7" t="s">
-        <v>1125</v>
+        <v>1159</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>1126</v>
+        <v>1160</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>1127</v>
+        <v>1161</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>1128</v>
+        <v>1162</v>
       </c>
       <c r="W81" s="22" t="s">
-        <v>1129</v>
+        <v>1163</v>
       </c>
       <c r="X81" s="22" t="s">
-        <v>1130</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="82" ht="20" spans="1:24">
@@ -9301,24 +9524,24 @@
       <c r="F82" s="6"/>
       <c r="G82" s="17"/>
       <c r="H82" s="5" t="s">
-        <v>1131</v>
+        <v>1165</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>1132</v>
+        <v>1166</v>
       </c>
       <c r="J82" s="20"/>
       <c r="K82" s="21" t="s">
-        <v>1133</v>
+        <v>1167</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>1134</v>
+        <v>1168</v>
       </c>
       <c r="V82" s="26"/>
       <c r="W82" s="21" t="s">
-        <v>1135</v>
+        <v>1169</v>
       </c>
       <c r="X82" s="21" t="s">
-        <v>1136</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="83" ht="20" spans="1:24">
@@ -9330,23 +9553,23 @@
       <c r="F83" s="6"/>
       <c r="G83" s="17"/>
       <c r="H83" s="5" t="s">
-        <v>1137</v>
+        <v>1171</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>1138</v>
+        <v>1172</v>
       </c>
       <c r="J83" s="20"/>
       <c r="K83" s="21" t="s">
-        <v>1139</v>
+        <v>1173</v>
       </c>
       <c r="L83" s="21" t="s">
-        <v>1140</v>
+        <v>1174</v>
       </c>
       <c r="W83" s="22" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="X83" s="22" t="s">
-        <v>1141</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="84" ht="20" spans="1:24">
@@ -9358,23 +9581,23 @@
       <c r="F84" s="6"/>
       <c r="G84" s="15"/>
       <c r="H84" s="7" t="s">
-        <v>1142</v>
+        <v>1176</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>1143</v>
+        <v>1177</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>1144</v>
+        <v>1178</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>1145</v>
+        <v>1179</v>
       </c>
       <c r="V84" s="26"/>
       <c r="W84" s="21" t="s">
-        <v>1146</v>
+        <v>1180</v>
       </c>
       <c r="X84" s="21" t="s">
-        <v>1147</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="85" ht="20" spans="1:24">
@@ -9386,23 +9609,23 @@
       <c r="F85" s="6"/>
       <c r="G85" s="15"/>
       <c r="H85" s="7" t="s">
-        <v>878</v>
+        <v>912</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>879</v>
+        <v>913</v>
       </c>
       <c r="J85" s="20"/>
       <c r="K85" s="21" t="s">
-        <v>1148</v>
+        <v>1182</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>1149</v>
+        <v>1183</v>
       </c>
       <c r="W85" s="22" t="s">
-        <v>1150</v>
+        <v>1184</v>
       </c>
       <c r="X85" s="22" t="s">
-        <v>1151</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="86" ht="20" spans="1:24">
@@ -9414,22 +9637,22 @@
       <c r="F86" s="6"/>
       <c r="G86" s="17"/>
       <c r="H86" s="5" t="s">
-        <v>1152</v>
+        <v>1186</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>1153</v>
+        <v>1187</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>1154</v>
+        <v>1188</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>1155</v>
+        <v>1189</v>
       </c>
       <c r="W86" s="22" t="s">
-        <v>1156</v>
+        <v>1190</v>
       </c>
       <c r="X86" s="22" t="s">
-        <v>1157</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="87" ht="20" spans="1:24">
@@ -9441,24 +9664,24 @@
       <c r="F87" s="6"/>
       <c r="G87" s="17"/>
       <c r="H87" s="5" t="s">
-        <v>1158</v>
+        <v>1192</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>1159</v>
+        <v>1193</v>
       </c>
       <c r="J87" s="20"/>
       <c r="K87" s="21" t="s">
-        <v>878</v>
+        <v>912</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>1160</v>
+        <v>1194</v>
       </c>
       <c r="V87" s="26"/>
       <c r="W87" s="21" t="s">
-        <v>1161</v>
+        <v>1195</v>
       </c>
       <c r="X87" s="21" t="s">
-        <v>1162</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="88" ht="20" spans="1:24">
@@ -9470,23 +9693,23 @@
       <c r="F88" s="6"/>
       <c r="G88" s="15"/>
       <c r="H88" s="7" t="s">
-        <v>1163</v>
+        <v>1197</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>1164</v>
+        <v>1198</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>1165</v>
+        <v>1199</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>1166</v>
+        <v>1200</v>
       </c>
       <c r="V88" s="26"/>
       <c r="W88" s="21" t="s">
-        <v>1167</v>
+        <v>1201</v>
       </c>
       <c r="X88" s="21" t="s">
-        <v>1168</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="89" ht="20" spans="1:24">
@@ -9498,23 +9721,23 @@
       <c r="F89" s="6"/>
       <c r="G89" s="17"/>
       <c r="H89" s="5" t="s">
-        <v>1169</v>
+        <v>1203</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>1170</v>
+        <v>1204</v>
       </c>
       <c r="J89" s="20"/>
       <c r="K89" s="21" t="s">
-        <v>1171</v>
+        <v>1205</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>1172</v>
+        <v>1206</v>
       </c>
       <c r="W89" s="22" t="s">
-        <v>1173</v>
+        <v>1207</v>
       </c>
       <c r="X89" s="22" t="s">
-        <v>1174</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="90" ht="20" spans="1:24">
@@ -9526,23 +9749,23 @@
       <c r="F90" s="6"/>
       <c r="G90" s="15"/>
       <c r="H90" s="7" t="s">
-        <v>1175</v>
+        <v>1209</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>1176</v>
+        <v>1210</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>1177</v>
+        <v>1211</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>1178</v>
+        <v>1212</v>
       </c>
       <c r="V90" s="26"/>
       <c r="W90" s="21" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="X90" s="21" t="s">
-        <v>1180</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="91" ht="20" spans="1:24">
@@ -9554,23 +9777,23 @@
       <c r="F91" s="6"/>
       <c r="G91" s="15"/>
       <c r="H91" s="7" t="s">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1182</v>
+        <v>1216</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>1183</v>
+        <v>1217</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>1184</v>
+        <v>1218</v>
       </c>
       <c r="V91" s="26"/>
       <c r="W91" s="21" t="s">
-        <v>1185</v>
+        <v>1219</v>
       </c>
       <c r="X91" s="21" t="s">
-        <v>1186</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="92" ht="20" spans="1:12">
@@ -9582,17 +9805,17 @@
       <c r="F92" s="6"/>
       <c r="G92" s="17"/>
       <c r="H92" s="5" t="s">
-        <v>1187</v>
+        <v>1221</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>1188</v>
+        <v>1222</v>
       </c>
       <c r="J92" s="20"/>
       <c r="K92" s="21" t="s">
-        <v>1189</v>
+        <v>1223</v>
       </c>
       <c r="L92" s="21" t="s">
-        <v>1190</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -9604,16 +9827,16 @@
       <c r="F93" s="6"/>
       <c r="G93" s="15"/>
       <c r="H93" s="10" t="s">
-        <v>1191</v>
+        <v>1225</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>1192</v>
+        <v>1226</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>1193</v>
+        <v>1227</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>1194</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="94" ht="20" spans="1:12">
@@ -9625,17 +9848,17 @@
       <c r="F94" s="6"/>
       <c r="G94" s="15"/>
       <c r="H94" s="7" t="s">
-        <v>1195</v>
+        <v>1229</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>1196</v>
+        <v>1230</v>
       </c>
       <c r="J94" s="20"/>
       <c r="K94" s="21" t="s">
-        <v>1197</v>
+        <v>1231</v>
       </c>
       <c r="L94" s="21" t="s">
-        <v>1198</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -9647,16 +9870,16 @@
       <c r="F95" s="6"/>
       <c r="G95" s="15"/>
       <c r="H95" s="7" t="s">
-        <v>1199</v>
+        <v>1233</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>1200</v>
+        <v>1234</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>1201</v>
+        <v>1235</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>1202</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="96" ht="20" spans="1:12">
@@ -9668,17 +9891,17 @@
       <c r="F96" s="6"/>
       <c r="G96" s="17"/>
       <c r="H96" s="5" t="s">
-        <v>1203</v>
+        <v>1237</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>1204</v>
+        <v>1238</v>
       </c>
       <c r="J96" s="20"/>
       <c r="K96" s="21" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="L96" s="21" t="s">
-        <v>1205</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="97" ht="20" spans="1:9">
@@ -9690,10 +9913,10 @@
       <c r="F97" s="6"/>
       <c r="G97" s="17"/>
       <c r="H97" s="5" t="s">
-        <v>1206</v>
+        <v>1240</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>1207</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -9705,10 +9928,10 @@
       <c r="F98" s="6"/>
       <c r="G98" s="15"/>
       <c r="H98" s="7" t="s">
-        <v>1208</v>
+        <v>1242</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1209</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="99" ht="20" spans="1:9">
@@ -9720,10 +9943,10 @@
       <c r="F99" s="6"/>
       <c r="G99" s="15"/>
       <c r="H99" s="5" t="s">
-        <v>1210</v>
+        <v>1244</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>1211</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="100" ht="20" spans="1:9">
@@ -9735,10 +9958,10 @@
       <c r="F100" s="6"/>
       <c r="G100" s="17"/>
       <c r="H100" s="5" t="s">
-        <v>1212</v>
+        <v>1246</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>1213</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -9750,10 +9973,10 @@
       <c r="F101" s="6"/>
       <c r="G101" s="15"/>
       <c r="H101" s="7" t="s">
-        <v>1214</v>
+        <v>1248</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>1215</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -9765,10 +9988,10 @@
       <c r="F102" s="6"/>
       <c r="G102" s="15"/>
       <c r="H102" s="7" t="s">
-        <v>1216</v>
+        <v>1250</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>1217</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="103" ht="20" spans="1:9">
@@ -9780,10 +10003,10 @@
       <c r="F103" s="6"/>
       <c r="G103" s="17"/>
       <c r="H103" s="5" t="s">
-        <v>1218</v>
+        <v>1252</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>1219</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -9795,10 +10018,10 @@
       <c r="F104" s="6"/>
       <c r="G104" s="15"/>
       <c r="H104" s="7" t="s">
-        <v>1220</v>
+        <v>1254</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>1219</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="105" ht="20" spans="1:9">
@@ -9810,10 +10033,10 @@
       <c r="F105" s="6"/>
       <c r="G105" s="17"/>
       <c r="H105" s="5" t="s">
-        <v>1221</v>
+        <v>1255</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>1222</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -9825,10 +10048,10 @@
       <c r="F106" s="6"/>
       <c r="G106" s="15"/>
       <c r="H106" s="7" t="s">
-        <v>1223</v>
+        <v>1257</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>1224</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -9840,10 +10063,10 @@
       <c r="F107" s="6"/>
       <c r="G107" s="15"/>
       <c r="H107" s="7" t="s">
-        <v>1225</v>
+        <v>1259</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>1226</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="108" ht="20" spans="1:9">
@@ -9855,10 +10078,10 @@
       <c r="F108" s="6"/>
       <c r="G108" s="17"/>
       <c r="H108" s="5" t="s">
-        <v>1227</v>
+        <v>1261</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>1228</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="109" ht="20" spans="1:9">
@@ -9870,10 +10093,10 @@
       <c r="F109" s="6"/>
       <c r="G109" s="17"/>
       <c r="H109" s="5" t="s">
-        <v>1229</v>
+        <v>1263</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>1230</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -9885,10 +10108,10 @@
       <c r="F110" s="6"/>
       <c r="G110" s="15"/>
       <c r="H110" s="7" t="s">
-        <v>1231</v>
+        <v>1265</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>1232</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="111" ht="20" spans="1:9">
@@ -9900,10 +10123,10 @@
       <c r="F111" s="6"/>
       <c r="G111" s="17"/>
       <c r="H111" s="5" t="s">
-        <v>1233</v>
+        <v>1267</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>1234</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="112" ht="20" spans="1:9">
@@ -9915,10 +10138,10 @@
       <c r="F112" s="6"/>
       <c r="G112" s="17"/>
       <c r="H112" s="5" t="s">
-        <v>1235</v>
+        <v>1269</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>1236</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -9930,14 +10153,14 @@
       <c r="F113" s="6"/>
       <c r="G113" s="15"/>
       <c r="H113" s="7" t="s">
-        <v>1237</v>
+        <v>1271</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>1238</v>
+        <v>1272</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -9950,6 +10173,8 @@
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352">
   <si>
     <t>Geography -地理</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Anthropology - 人类学</t>
   </si>
   <si>
-    <t>气象</t>
+    <t>Weather - 气象</t>
   </si>
   <si>
     <t>insular</t>
@@ -136,6 +136,12 @@
     <t>青少年</t>
   </si>
   <si>
+    <t>balmy</t>
+  </si>
+  <si>
+    <t>温暖的</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -214,6 +220,12 @@
     <t>成年人</t>
   </si>
   <si>
+    <t>humid</t>
+  </si>
+  <si>
+    <t>潮湿的</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -292,6 +304,12 @@
     <t>人类</t>
   </si>
   <si>
+    <t>humidity</t>
+  </si>
+  <si>
+    <t>湿度、湿气</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -364,6 +382,12 @@
     <t>人类学</t>
   </si>
   <si>
+    <t>damp</t>
+  </si>
+  <si>
+    <t>潮湿</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -436,6 +460,9 @@
     <t>部落</t>
   </si>
   <si>
+    <t>dank</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -514,12 +541,12 @@
     <t>种族的</t>
   </si>
   <si>
+    <t>moisture</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
-    <t>潮湿的</t>
-  </si>
-  <si>
     <t>fieldstone</t>
   </si>
   <si>
@@ -586,6 +613,12 @@
     <t>人种学、民族学</t>
   </si>
   <si>
+    <t>saturate</t>
+  </si>
+  <si>
+    <t>使...充满水分</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -664,6 +697,12 @@
     <t>少数名族</t>
   </si>
   <si>
+    <t>drought</t>
+  </si>
+  <si>
+    <t>干旱</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -736,6 +775,9 @@
     <t>血统</t>
   </si>
   <si>
+    <t>arid</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -812,6 +854,12 @@
   </si>
   <si>
     <t>混血儿</t>
+  </si>
+  <si>
+    <t>chilly</t>
+  </si>
+  <si>
+    <t>寒冷的</t>
   </si>
   <si>
     <t>ebb</t>
@@ -904,6 +952,12 @@
     <t>智力、智慧</t>
   </si>
   <si>
+    <t>chill</t>
+  </si>
+  <si>
+    <t>寒冷</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -979,6 +1033,9 @@
     <t>土著名族的</t>
   </si>
   <si>
+    <t>frigid</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -1051,6 +1108,12 @@
     <t>祖先、祖宗</t>
   </si>
   <si>
+    <t>serene</t>
+  </si>
+  <si>
+    <t>平静的</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
@@ -1123,6 +1186,12 @@
     <t>先行者</t>
   </si>
   <si>
+    <t>tepid</t>
+  </si>
+  <si>
+    <t>温热的</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -1186,6 +1255,12 @@
     <t>原始人类、人类祖先</t>
   </si>
   <si>
+    <t>gale</t>
+  </si>
+  <si>
+    <t>大风</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
@@ -1252,6 +1327,12 @@
     <t>头盖的、头盖形的</t>
   </si>
   <si>
+    <t>hurricane</t>
+  </si>
+  <si>
+    <t>飓风、旋风</t>
+  </si>
+  <si>
     <t>cosmopolitan</t>
   </si>
   <si>
@@ -1309,6 +1390,12 @@
     <t>水栽培</t>
   </si>
   <si>
+    <t>atomsphere</t>
+  </si>
+  <si>
+    <t>大气层</t>
+  </si>
+  <si>
     <t>subterrane</t>
   </si>
   <si>
@@ -1369,6 +1456,12 @@
     <t>杀虫剂</t>
   </si>
   <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>气候</t>
+  </si>
+  <si>
     <t>subterranean</t>
   </si>
   <si>
@@ -1426,6 +1519,12 @@
     <t>浇灌</t>
   </si>
   <si>
+    <t>barometer</t>
+  </si>
+  <si>
+    <t>晴雨表、气压计</t>
+  </si>
+  <si>
     <t>cavern</t>
   </si>
   <si>
@@ -1480,6 +1579,12 @@
     <t>pesticide</t>
   </si>
   <si>
+    <t>breeze</t>
+  </si>
+  <si>
+    <t>微风</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
@@ -1540,6 +1645,12 @@
     <t>山脉</t>
   </si>
   <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>冲击波</t>
+  </si>
+  <si>
     <t>cleft</t>
   </si>
   <si>
@@ -1600,6 +1711,12 @@
     <t>泥</t>
   </si>
   <si>
+    <t>whirlwind</t>
+  </si>
+  <si>
+    <t>旋风</t>
+  </si>
+  <si>
     <t>crevice</t>
   </si>
   <si>
@@ -1648,6 +1765,12 @@
     <t>拖拉机</t>
   </si>
   <si>
+    <t>typhoon</t>
+  </si>
+  <si>
+    <t>台风</t>
+  </si>
+  <si>
     <t>gap</t>
   </si>
   <si>
@@ -1702,6 +1825,12 @@
     <t>压扁、挤压</t>
   </si>
   <si>
+    <t>tornado</t>
+  </si>
+  <si>
+    <t>旋风、龙卷风</t>
+  </si>
+  <si>
     <t>zone</t>
   </si>
   <si>
@@ -1753,6 +1882,12 @@
     <t>棉花、棉布</t>
   </si>
   <si>
+    <t>meteorology</t>
+  </si>
+  <si>
+    <t>气象学</t>
+  </si>
+  <si>
     <t>equator</t>
   </si>
   <si>
@@ -1801,6 +1936,12 @@
     <t>大蒜</t>
   </si>
   <si>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>对流层</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
@@ -1849,6 +1990,12 @@
     <t>茄子</t>
   </si>
   <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>水流、气流</t>
+  </si>
+  <si>
     <t>altitude</t>
   </si>
   <si>
@@ -1897,6 +2044,12 @@
     <t>草料、饲料</t>
   </si>
   <si>
+    <t>funnel</t>
+  </si>
+  <si>
+    <t>漏斗、烟囱</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -1945,6 +2098,12 @@
     <t>干草</t>
   </si>
   <si>
+    <t>smog</t>
+  </si>
+  <si>
+    <t>烟雾</t>
+  </si>
+  <si>
     <t>meridian</t>
   </si>
   <si>
@@ -1990,6 +2149,12 @@
     <t>干草堆</t>
   </si>
   <si>
+    <t>fog</t>
+  </si>
+  <si>
+    <t>浓雾</t>
+  </si>
+  <si>
     <t>subsidiary</t>
   </si>
   <si>
@@ -2038,6 +2203,12 @@
     <t>蔬菜</t>
   </si>
   <si>
+    <t>precipitate</t>
+  </si>
+  <si>
+    <t>凝结成为雪或者雨</t>
+  </si>
+  <si>
     <t>Antarctic</t>
   </si>
   <si>
@@ -2083,6 +2254,12 @@
     <t>野草、除草</t>
   </si>
   <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>降雨</t>
+  </si>
+  <si>
     <t>Antarctica</t>
   </si>
   <si>
@@ -2131,6 +2308,12 @@
     <t>高粱</t>
   </si>
   <si>
+    <t>drizzle</t>
+  </si>
+  <si>
+    <t>下小雨</t>
+  </si>
+  <si>
     <t>Arctic</t>
   </si>
   <si>
@@ -2179,6 +2362,12 @@
     <t>家畜</t>
   </si>
   <si>
+    <t>blizzard</t>
+  </si>
+  <si>
+    <t>暴风雨</t>
+  </si>
+  <si>
     <t>coastland</t>
   </si>
   <si>
@@ -2227,6 +2416,12 @@
     <t>家禽</t>
   </si>
   <si>
+    <t>dew</t>
+  </si>
+  <si>
+    <t>露水</t>
+  </si>
+  <si>
     <t>hemisphere</t>
   </si>
   <si>
@@ -2269,6 +2464,12 @@
     <t>水牛、野牛</t>
   </si>
   <si>
+    <t>downpour</t>
+  </si>
+  <si>
+    <t>倾盆大雨</t>
+  </si>
+  <si>
     <t>contour</t>
   </si>
   <si>
@@ -2314,6 +2515,12 @@
     <t>牛</t>
   </si>
   <si>
+    <t>droplet</t>
+  </si>
+  <si>
+    <t>小滴水</t>
+  </si>
+  <si>
     <t>geography</t>
   </si>
   <si>
@@ -2359,6 +2566,12 @@
     <t>鸟、家禽</t>
   </si>
   <si>
+    <t>frost</t>
+  </si>
+  <si>
+    <t>霜</t>
+  </si>
+  <si>
     <t>horizon</t>
   </si>
   <si>
@@ -2407,6 +2620,12 @@
     <t>播种</t>
   </si>
   <si>
+    <t>vapor</t>
+  </si>
+  <si>
+    <t>蒸汽</t>
+  </si>
+  <si>
     <t>lowland</t>
   </si>
   <si>
@@ -2449,6 +2668,9 @@
     <t>温室、暖房</t>
   </si>
   <si>
+    <t>tempest</t>
+  </si>
+  <si>
     <t>plain</t>
   </si>
   <si>
@@ -2491,6 +2713,12 @@
     <t>谷仓</t>
   </si>
   <si>
+    <t>shower</t>
+  </si>
+  <si>
+    <t>阵雨</t>
+  </si>
+  <si>
     <t>strait</t>
   </si>
   <si>
@@ -2533,6 +2761,12 @@
     <t>牛棚</t>
   </si>
   <si>
+    <t>hail</t>
+  </si>
+  <si>
+    <t>冰雹</t>
+  </si>
+  <si>
     <t>channel</t>
   </si>
   <si>
@@ -2566,6 +2800,12 @@
     <t>granary</t>
   </si>
   <si>
+    <t>condense</t>
+  </si>
+  <si>
+    <t>浓缩</t>
+  </si>
+  <si>
     <t>valley</t>
   </si>
   <si>
@@ -2663,9 +2903,6 @@
   </si>
   <si>
     <t>节制、禁欲</t>
-  </si>
-  <si>
-    <t>blast</t>
   </si>
   <si>
     <t>爆炸</t>
@@ -3861,10 +4098,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -3933,17 +4170,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3957,21 +4200,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -3979,16 +4207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4003,7 +4231,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4025,55 +4307,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4112,19 +4349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4148,7 +4385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4166,7 +4409,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4178,7 +4457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4190,7 +4475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4202,13 +4493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4220,13 +4505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4238,61 +4517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4303,6 +4540,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4325,7 +4627,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4334,71 +4636,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4408,152 +4645,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4647,10 +4884,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4980,8 +5220,8 @@
   <sheetPr/>
   <dimension ref="A1:AP113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AO45" sqref="AO45:AP45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
@@ -5027,7 +5267,7 @@
     <col min="39" max="39" width="28.5078125" customWidth="1"/>
     <col min="40" max="40" width="4.1640625" customWidth="1"/>
     <col min="41" max="41" width="18.1015625" customWidth="1"/>
-    <col min="42" max="42" width="21.75" customWidth="1"/>
+    <col min="42" max="42" width="23.6953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" spans="1:42">
@@ -5102,7 +5342,7 @@
       <c r="AO1" s="21"/>
       <c r="AP1" s="21"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:39">
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:42">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>14</v>
@@ -5173,3650 +5413,3940 @@
       <c r="AD2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AF2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AG2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="31" t="s">
+      <c r="AI2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="31" t="s">
+      <c r="AJ2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="31" t="s">
+      <c r="AL2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="31" t="s">
+      <c r="AM2" s="22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:39">
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:42">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AD3" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF3" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG3" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="AI3" s="31" t="s">
+      <c r="AF3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AJ3" s="31" t="s">
+      <c r="AG3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AL3" s="31" t="s">
+      <c r="AI3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AM3" s="31" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:39">
+      <c r="AL3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP3" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:42">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="V4" s="20"/>
       <c r="W4" s="21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y4" s="27"/>
       <c r="Z4" s="21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AB4" s="27"/>
       <c r="AC4" s="21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AD4" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF4" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG4" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI4" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ4" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="AL4" s="31" t="s">
+      <c r="AF4" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="AM4" s="31" t="s">
+      <c r="AG4" s="22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" ht="20" spans="1:39">
+      <c r="AI4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO4" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP4" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" ht="20" spans="1:42">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="22" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Y5" s="28"/>
       <c r="Z5" s="21" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AB5" s="27"/>
       <c r="AC5" s="21" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AE5" s="26"/>
-      <c r="AF5" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG5" s="32" t="s">
-        <v>111</v>
+      <c r="AF5" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG5" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="AH5" s="26"/>
-      <c r="AI5" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ5" s="32" t="s">
-        <v>113</v>
+      <c r="AI5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ5" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="AK5" s="26"/>
-      <c r="AL5" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM5" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" ht="20" spans="1:39">
+      <c r="AL5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM5" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP5" s="32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" ht="20" spans="1:42">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="21" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="21" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Y6" s="29"/>
       <c r="Z6" s="22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="AB6" s="27"/>
       <c r="AC6" s="21" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="AE6" s="26"/>
-      <c r="AF6" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG6" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI6" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ6" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL6" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM6" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" ht="20" spans="1:39">
+      <c r="AF6" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG6" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ6" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL6" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP6" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" ht="20" spans="1:42">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="21" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="22" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="W7" s="22" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="X7" s="22" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Y7" s="29"/>
       <c r="Z7" s="22" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AA7" s="22" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="AB7" s="27"/>
       <c r="AC7" s="21" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AD7" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF7" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG7" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI7" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ7" s="31" t="s">
-        <v>163</v>
+        <v>168</v>
+      </c>
+      <c r="AF7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG7" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI7" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ7" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="AK7" s="26"/>
-      <c r="AL7" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM7" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" ht="20" spans="1:39">
+      <c r="AL7" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM7" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO7" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP7" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" ht="20" spans="1:42">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="21" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="21" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="21" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="W8" s="22" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="X8" s="22" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Y8" s="29"/>
       <c r="Z8" s="22" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AA8" s="22" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="AB8" s="29"/>
       <c r="AC8" s="22" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AD8" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF8" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG8" s="31" t="s">
-        <v>161</v>
+        <v>193</v>
+      </c>
+      <c r="AF8" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG8" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="AH8" s="26"/>
-      <c r="AI8" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="AJ8" s="32" t="s">
-        <v>187</v>
+      <c r="AI8" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ8" s="21" t="s">
+        <v>196</v>
       </c>
       <c r="AK8" s="26"/>
-      <c r="AL8" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM8" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" ht="20" spans="1:39">
+      <c r="AL8" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM8" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP8" s="32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" ht="20" spans="1:42">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="21" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="S9" s="25"/>
       <c r="T9" s="21" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="X9" s="22" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Y9" s="28"/>
       <c r="Z9" s="21" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="AB9" s="29"/>
       <c r="AC9" s="22" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="AD9" s="22" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="AE9" s="26"/>
-      <c r="AF9" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="AG9" s="32" t="s">
-        <v>211</v>
+      <c r="AF9" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG9" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="AH9" s="26"/>
-      <c r="AI9" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ9" s="32" t="s">
-        <v>213</v>
+      <c r="AI9" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="AJ9" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="AK9" s="26"/>
-      <c r="AL9" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM9" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" ht="20" spans="1:39">
+      <c r="AL9" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM9" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO9" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP9" s="33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" ht="20" spans="1:42">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="5" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="21" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="22" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V10" s="26"/>
       <c r="W10" s="21" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Y10" s="28"/>
       <c r="Z10" s="21" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AB10" s="27"/>
       <c r="AC10" s="21" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="AD10" s="21" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="AE10" s="26"/>
-      <c r="AF10" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG10" s="32" t="s">
-        <v>235</v>
+      <c r="AF10" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG10" s="21" t="s">
+        <v>248</v>
       </c>
       <c r="AH10" s="26"/>
-      <c r="AI10" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="AJ10" s="32" t="s">
-        <v>237</v>
+      <c r="AI10" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ10" s="21" t="s">
+        <v>250</v>
       </c>
       <c r="AK10" s="26"/>
-      <c r="AL10" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="AM10" s="32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" ht="20" spans="1:39">
+      <c r="AL10" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM10" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO10" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP10" s="33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" ht="20" spans="1:42">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="21" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="W11" s="22" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="X11" s="22" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="Y11" s="28"/>
       <c r="Z11" s="21" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="AB11" s="27"/>
       <c r="AC11" s="21" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AD11" s="21" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="AE11" s="26"/>
-      <c r="AF11" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG11" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI11" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ11" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="AL11" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="AM11" s="31" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="1:39">
+      <c r="AF11" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG11" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="AI11" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ11" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL11" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM11" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="AO11" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="AP11" s="33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:42">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="5" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="21" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="21" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="S12" s="25"/>
       <c r="T12" s="21" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="W12" s="22" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="X12" s="22" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="Y12" s="28"/>
       <c r="Z12" s="21" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="AB12" s="27"/>
       <c r="AC12" s="21" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="AD12" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="AF12" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="AG12" s="31" t="s">
-        <v>285</v>
+        <v>299</v>
+      </c>
+      <c r="AF12" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG12" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="AH12" s="26"/>
-      <c r="AI12" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ12" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL12" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="AM12" s="31" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" ht="20" spans="1:39">
+      <c r="AI12" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ12" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL12" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM12" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO12" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="AP12" s="33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="1:42">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="21" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="S13" s="25"/>
       <c r="T13" s="21" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="V13" s="26"/>
       <c r="W13" s="21" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="X13" s="21" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="Y13" s="29"/>
       <c r="Z13" s="22" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="AB13" s="27"/>
       <c r="AC13" s="21" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="AD13" s="21" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="AE13" s="26"/>
-      <c r="AF13" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG13" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI13" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="AJ13" s="31" t="s">
-        <v>311</v>
+      <c r="AF13" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG13" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AI13" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ13" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="AK13" s="26"/>
-      <c r="AL13" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="AM13" s="32" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" ht="20" spans="1:39">
+      <c r="AL13" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="AM13" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO13" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP13" s="33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" ht="20" spans="1:42">
       <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="5" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="21" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="21" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="22" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="X14" s="22" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="Y14" s="29"/>
       <c r="Z14" s="22" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="AA14" s="22" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="AB14" s="27"/>
       <c r="AC14" s="21" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="AD14" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF14" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="AG14" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="AI14" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="AJ14" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="AL14" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="AM14" s="31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" ht="20" spans="1:39">
+        <v>350</v>
+      </c>
+      <c r="AF14" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG14" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="AI14" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="AJ14" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL14" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="AM14" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="AP14" s="32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" ht="20" spans="1:42">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="21" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="21" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="V15" s="26"/>
       <c r="W15" s="21" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="X15" s="21" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="Y15" s="29"/>
       <c r="Z15" s="22" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="AA15" s="22" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="AB15" s="27"/>
       <c r="AC15" s="21" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="AD15" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="AF15" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="AG15" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="AI15" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="AJ15" s="31" t="s">
-        <v>359</v>
+        <v>376</v>
+      </c>
+      <c r="AF15" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG15" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI15" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ15" s="22" t="s">
+        <v>380</v>
       </c>
       <c r="AK15" s="26"/>
-      <c r="AL15" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="AM15" s="32" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="16" ht="20" spans="1:39">
+      <c r="AL15" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM15" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="AP15" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" ht="20" spans="1:42">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="V16" s="26"/>
       <c r="W16" s="21" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="X16" s="21" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="Y16" s="29"/>
       <c r="Z16" s="22" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="AA16" s="22" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="AB16" s="27"/>
       <c r="AC16" s="21" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="AD16" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="AF16" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="AG16" s="31" t="s">
-        <v>378</v>
+        <v>399</v>
+      </c>
+      <c r="AF16" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG16" s="22" t="s">
+        <v>401</v>
       </c>
       <c r="AH16" s="26"/>
-      <c r="AI16" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="AJ16" s="32" t="s">
-        <v>380</v>
+      <c r="AI16" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ16" s="21" t="s">
+        <v>403</v>
       </c>
       <c r="AK16" s="26"/>
-      <c r="AL16" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM16" s="32" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="17" ht="20" spans="1:39">
+      <c r="AL16" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="AM16" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP16" s="32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" ht="20" spans="1:42">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="21" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="21" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="W17" s="22" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="X17" s="22" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="Y17" s="29"/>
       <c r="Z17" s="22" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="AA17" s="22" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="AB17" s="29"/>
       <c r="AC17" s="22" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="AD17" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="AF17" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="AG17" s="31" t="s">
-        <v>400</v>
+        <v>423</v>
+      </c>
+      <c r="AF17" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="AG17" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="AH17" s="26"/>
-      <c r="AI17" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="AJ17" s="32" t="s">
-        <v>402</v>
+      <c r="AI17" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="AJ17" s="21" t="s">
+        <v>427</v>
       </c>
       <c r="AK17" s="26"/>
-      <c r="AL17" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="AM17" s="32" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="18" ht="20" spans="1:36">
+      <c r="AL17" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="AM17" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="AO17" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="AP17" s="33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" ht="20" spans="1:42">
       <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="7" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="21" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="X18" s="22" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="Y18" s="28"/>
       <c r="Z18" s="21" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="AA18" s="21" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="AB18" s="27"/>
       <c r="AC18" s="21" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="AD18" s="21" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="AE18" s="26"/>
-      <c r="AF18" s="32" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG18" s="32" t="s">
-        <v>421</v>
+      <c r="AF18" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG18" s="21" t="s">
+        <v>448</v>
       </c>
       <c r="AH18" s="26"/>
-      <c r="AI18" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="AJ18" s="32" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" ht="20" spans="1:36">
+      <c r="AI18" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="AJ18" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="AO18" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="AP18" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" ht="20" spans="1:42">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="W19" s="22" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="X19" s="22" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="Y19" s="29"/>
       <c r="Z19" s="22" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="AA19" s="22" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="AB19" s="27"/>
       <c r="AC19" s="21" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="AD19" s="21" t="s">
-        <v>439</v>
-      </c>
-      <c r="AF19" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="AG19" s="31" t="s">
-        <v>441</v>
+        <v>468</v>
+      </c>
+      <c r="AF19" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG19" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="AH19" s="26"/>
-      <c r="AI19" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="AJ19" s="32" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="20" ht="20" spans="1:36">
+      <c r="AI19" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="AJ19" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO19" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="AP19" s="33" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="20" ht="20" spans="1:42">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="5" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="5" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="21" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="21" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="X20" s="21" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="Y20" s="29"/>
       <c r="Z20" s="22" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="AA20" s="22" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="AB20" s="27"/>
       <c r="AC20" s="21" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="AD20" s="21" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="AE20" s="26"/>
-      <c r="AF20" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="AG20" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="AI20" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="AJ20" s="31" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="21" ht="20" spans="1:36">
+      <c r="AF20" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="AG20" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="AI20" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="AJ20" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="AP20" s="32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" ht="20" spans="1:42">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="M21" s="24"/>
       <c r="N21" s="21" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="W21" s="22" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="X21" s="22" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="Y21" s="29"/>
       <c r="Z21" s="22" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="AA21" s="22" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="AB21" s="29"/>
       <c r="AC21" s="22" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="AD21" s="22" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="AE21" s="26"/>
-      <c r="AF21" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="AG21" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="AI21" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="AJ21" s="31" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="22" ht="20" spans="1:36">
+      <c r="AF21" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="AG21" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="AI21" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="AJ21" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO21" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="AP21" s="33" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" ht="20" spans="1:42">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="21" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="21" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="21" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="X22" s="21" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="Y22" s="29"/>
       <c r="Z22" s="22" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="AA22" s="22" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="AB22" s="27"/>
       <c r="AC22" s="21" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="AD22" s="21" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="AE22" s="26"/>
-      <c r="AF22" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="AG22" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="AI22" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="AJ22" s="31" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" ht="20" spans="1:36">
+      <c r="AF22" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="AG22" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="AI22" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ22" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="AP22" s="32" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" ht="20" spans="1:42">
       <c r="A23" s="11"/>
       <c r="B23" s="5" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="21" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
       <c r="M23" s="24"/>
       <c r="N23" s="21" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="21" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="Y23" s="28"/>
       <c r="Z23" s="21" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="AA23" s="21" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="AB23" s="27"/>
       <c r="AC23" s="21" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
       <c r="AD23" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="AF23" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="AG23" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="AI23" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="AJ23" s="31" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="24" ht="20" spans="1:36">
+        <v>553</v>
+      </c>
+      <c r="AF23" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG23" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="AI23" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ23" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="AN23" s="31"/>
+      <c r="AO23" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="AP23" s="32" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="24" ht="20" spans="1:42">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5" t="s">
-        <v>524</v>
+        <v>563</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>525</v>
+        <v>564</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="21" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22" t="s">
-        <v>527</v>
+        <v>566</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="21" t="s">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="Y24" s="29"/>
       <c r="Z24" s="22" t="s">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="AA24" s="22" t="s">
-        <v>532</v>
+        <v>571</v>
       </c>
       <c r="AB24" s="29"/>
       <c r="AC24" s="22" t="s">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="AD24" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="AI24" s="31" t="s">
-        <v>535</v>
-      </c>
-      <c r="AJ24" s="31" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="25" ht="20" spans="1:36">
+        <v>573</v>
+      </c>
+      <c r="AI24" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="AJ24" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="AO24" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="AP24" s="33" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="25" ht="20" spans="1:42">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>538</v>
+        <v>579</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5" t="s">
-        <v>541</v>
+        <v>582</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>543</v>
+        <v>584</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>544</v>
+        <v>585</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="21" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>546</v>
+        <v>587</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="21" t="s">
-        <v>547</v>
+        <v>588</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="Y25" s="29"/>
       <c r="Z25" s="22" t="s">
-        <v>549</v>
+        <v>590</v>
       </c>
       <c r="AA25" s="22" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="AB25" s="27"/>
       <c r="AC25" s="21" t="s">
-        <v>551</v>
+        <v>592</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>552</v>
+        <v>593</v>
       </c>
       <c r="AH25" s="26"/>
-      <c r="AI25" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="AJ25" s="32" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="26" ht="20" spans="1:36">
+      <c r="AI25" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="AJ25" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="AP25" s="32" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="26" ht="20" spans="1:42">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>555</v>
+        <v>598</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>556</v>
+        <v>599</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="5" t="s">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>559</v>
+        <v>602</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="21" t="s">
-        <v>560</v>
+        <v>603</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="22" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>563</v>
+        <v>606</v>
       </c>
       <c r="W26" s="22" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
       <c r="X26" s="22" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="Y26" s="29"/>
       <c r="Z26" s="22" t="s">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="AA26" s="22" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="AB26" s="29"/>
       <c r="AC26" s="22" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="AD26" s="22" t="s">
-        <v>569</v>
-      </c>
-      <c r="AI26" s="31" t="s">
-        <v>570</v>
-      </c>
-      <c r="AJ26" s="31" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="27" ht="20" spans="1:36">
+        <v>612</v>
+      </c>
+      <c r="AI26" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="AJ26" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="AP26" s="32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" ht="20" spans="1:42">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>572</v>
+        <v>617</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>573</v>
+        <v>618</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
-        <v>574</v>
+        <v>619</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>575</v>
+        <v>620</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5" t="s">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="21" t="s">
-        <v>578</v>
+        <v>623</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>579</v>
+        <v>624</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="21" t="s">
-        <v>580</v>
+        <v>625</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="W27" s="22" t="s">
-        <v>582</v>
+        <v>627</v>
       </c>
       <c r="X27" s="22" t="s">
-        <v>583</v>
+        <v>628</v>
       </c>
       <c r="AB27" s="29"/>
       <c r="AC27" s="22" t="s">
-        <v>584</v>
+        <v>629</v>
       </c>
       <c r="AD27" s="22" t="s">
-        <v>585</v>
-      </c>
-      <c r="AI27" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="AJ27" s="31" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="28" ht="20" spans="1:36">
+        <v>630</v>
+      </c>
+      <c r="AI27" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="AJ27" s="22" t="s">
+        <v>632</v>
+      </c>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="32" t="s">
+        <v>633</v>
+      </c>
+      <c r="AP27" s="32" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" ht="20" spans="1:42">
       <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>588</v>
+        <v>635</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>589</v>
+        <v>636</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>590</v>
+        <v>637</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>591</v>
+        <v>638</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="7" t="s">
-        <v>592</v>
+        <v>639</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="21" t="s">
-        <v>594</v>
+        <v>641</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>595</v>
+        <v>642</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22" t="s">
-        <v>596</v>
+        <v>643</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>597</v>
+        <v>644</v>
       </c>
       <c r="W28" s="22" t="s">
-        <v>598</v>
+        <v>645</v>
       </c>
       <c r="X28" s="22" t="s">
-        <v>599</v>
+        <v>646</v>
       </c>
       <c r="AB28" s="29"/>
       <c r="AC28" s="22" t="s">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="AD28" s="22" t="s">
-        <v>601</v>
+        <v>648</v>
       </c>
       <c r="AH28" s="26"/>
-      <c r="AI28" s="32" t="s">
-        <v>602</v>
-      </c>
-      <c r="AJ28" s="32" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="29" ht="20" spans="1:36">
+      <c r="AI28" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="AJ28" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="AO28" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="AP28" s="33" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" ht="20" spans="1:42">
       <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
-        <v>604</v>
+        <v>653</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="5" t="s">
-        <v>606</v>
+        <v>655</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>607</v>
+        <v>656</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5" t="s">
-        <v>608</v>
+        <v>657</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="21" t="s">
-        <v>610</v>
+        <v>659</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>611</v>
+        <v>660</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22" t="s">
-        <v>612</v>
+        <v>661</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>613</v>
+        <v>662</v>
       </c>
       <c r="W29" s="22" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="X29" s="22" t="s">
-        <v>615</v>
+        <v>664</v>
       </c>
       <c r="AB29" s="29"/>
       <c r="AC29" s="22" t="s">
-        <v>616</v>
+        <v>665</v>
       </c>
       <c r="AD29" s="22" t="s">
-        <v>617</v>
+        <v>666</v>
       </c>
       <c r="AH29" s="26"/>
-      <c r="AI29" s="32" t="s">
-        <v>618</v>
-      </c>
-      <c r="AJ29" s="32" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="30" ht="20" spans="1:36">
+      <c r="AI29" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="AJ29" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="32" t="s">
+        <v>669</v>
+      </c>
+      <c r="AP29" s="32" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="30" ht="20" spans="1:42">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>622</v>
+        <v>673</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="7" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>625</v>
+        <v>676</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>626</v>
+        <v>677</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>627</v>
+        <v>678</v>
       </c>
       <c r="M30" s="24"/>
       <c r="N30" s="21" t="s">
-        <v>628</v>
+        <v>679</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="W30" s="22" t="s">
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="X30" s="22" t="s">
-        <v>631</v>
+        <v>682</v>
       </c>
       <c r="AB30" s="27"/>
       <c r="AC30" s="21" t="s">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="AD30" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="AI30" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="AJ30" s="31" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="31" ht="20" spans="1:36">
+        <v>684</v>
+      </c>
+      <c r="AI30" s="22" t="s">
+        <v>685</v>
+      </c>
+      <c r="AJ30" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="AO30" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="AP30" s="33" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="31" ht="20" spans="1:42">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>636</v>
+        <v>689</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>637</v>
+        <v>690</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="5" t="s">
-        <v>638</v>
+        <v>691</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5" t="s">
-        <v>639</v>
+        <v>692</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>640</v>
+        <v>693</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>641</v>
+        <v>694</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>642</v>
+        <v>695</v>
       </c>
       <c r="M31" s="24"/>
       <c r="N31" s="21" t="s">
-        <v>643</v>
+        <v>696</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>644</v>
+        <v>697</v>
       </c>
       <c r="V31" s="26"/>
       <c r="W31" s="21" t="s">
-        <v>645</v>
+        <v>698</v>
       </c>
       <c r="X31" s="21" t="s">
-        <v>646</v>
+        <v>699</v>
       </c>
       <c r="AB31" s="29"/>
       <c r="AC31" s="22" t="s">
-        <v>647</v>
+        <v>700</v>
       </c>
       <c r="AD31" s="22" t="s">
-        <v>648</v>
+        <v>701</v>
       </c>
       <c r="AH31" s="26"/>
-      <c r="AI31" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="AJ31" s="32" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="32" ht="20" spans="1:36">
+      <c r="AI31" s="21" t="s">
+        <v>702</v>
+      </c>
+      <c r="AJ31" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="32" t="s">
+        <v>704</v>
+      </c>
+      <c r="AP31" s="32" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="32" ht="20" spans="1:42">
       <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
-        <v>651</v>
+        <v>706</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>652</v>
+        <v>707</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="5" t="s">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="7" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>656</v>
+        <v>711</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="23" t="s">
-        <v>657</v>
+        <v>712</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>658</v>
+        <v>713</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="21" t="s">
-        <v>659</v>
+        <v>714</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>660</v>
+        <v>715</v>
       </c>
       <c r="V32" s="26"/>
       <c r="W32" s="21" t="s">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="X32" s="21" t="s">
-        <v>662</v>
+        <v>717</v>
       </c>
       <c r="AB32" s="29"/>
       <c r="AC32" s="22" t="s">
-        <v>663</v>
+        <v>718</v>
       </c>
       <c r="AD32" s="22" t="s">
-        <v>664</v>
-      </c>
-      <c r="AI32" s="31" t="s">
-        <v>665</v>
-      </c>
-      <c r="AJ32" s="31" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="33" ht="20" spans="1:36">
+        <v>719</v>
+      </c>
+      <c r="AI32" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="AJ32" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="AN32" s="26"/>
+      <c r="AO32" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="AP32" s="32" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="33" ht="20" spans="1:42">
       <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
-        <v>667</v>
+        <v>724</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>668</v>
+        <v>725</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="5" t="s">
-        <v>669</v>
+        <v>726</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>670</v>
+        <v>727</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="7" t="s">
-        <v>671</v>
+        <v>728</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>672</v>
+        <v>729</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="21" t="s">
-        <v>673</v>
+        <v>730</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>674</v>
+        <v>731</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22" t="s">
-        <v>675</v>
+        <v>732</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>676</v>
+        <v>733</v>
       </c>
       <c r="W33" s="22" t="s">
-        <v>677</v>
+        <v>734</v>
       </c>
       <c r="X33" s="22" t="s">
-        <v>678</v>
+        <v>735</v>
       </c>
       <c r="AB33" s="27"/>
       <c r="AC33" s="21" t="s">
-        <v>679</v>
+        <v>736</v>
       </c>
       <c r="AD33" s="21" t="s">
-        <v>664</v>
-      </c>
-      <c r="AI33" s="31" t="s">
-        <v>680</v>
-      </c>
-      <c r="AJ33" s="31" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="34" ht="20" spans="1:36">
+        <v>719</v>
+      </c>
+      <c r="AI33" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="AJ33" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="AP33" s="32" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="34" ht="20" spans="1:42">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
-        <v>682</v>
+        <v>741</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>683</v>
+        <v>742</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>684</v>
+        <v>743</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>685</v>
+        <v>744</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="7" t="s">
-        <v>686</v>
+        <v>745</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>687</v>
+        <v>746</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>688</v>
+        <v>747</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>689</v>
+        <v>748</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22" t="s">
-        <v>690</v>
+        <v>749</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>691</v>
+        <v>750</v>
       </c>
       <c r="W34" s="22" t="s">
-        <v>692</v>
+        <v>751</v>
       </c>
       <c r="X34" s="22" t="s">
-        <v>693</v>
+        <v>752</v>
       </c>
       <c r="AB34" s="29"/>
       <c r="AC34" s="22" t="s">
-        <v>694</v>
+        <v>753</v>
       </c>
       <c r="AD34" s="22" t="s">
-        <v>695</v>
+        <v>754</v>
       </c>
       <c r="AH34" s="26"/>
-      <c r="AI34" s="32" t="s">
-        <v>696</v>
-      </c>
-      <c r="AJ34" s="32" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="35" ht="20" spans="1:36">
+      <c r="AI34" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="AJ34" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="32" t="s">
+        <v>757</v>
+      </c>
+      <c r="AP34" s="32" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="35" ht="20" spans="1:42">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>698</v>
+        <v>759</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>699</v>
+        <v>760</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
-        <v>700</v>
+        <v>761</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>701</v>
+        <v>762</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="5" t="s">
-        <v>702</v>
+        <v>763</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>703</v>
+        <v>764</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="21" t="s">
-        <v>704</v>
+        <v>765</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>705</v>
+        <v>766</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22" t="s">
-        <v>706</v>
+        <v>767</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>707</v>
+        <v>768</v>
       </c>
       <c r="V35" s="26"/>
       <c r="W35" s="21" t="s">
-        <v>708</v>
+        <v>769</v>
       </c>
       <c r="X35" s="21" t="s">
-        <v>709</v>
+        <v>770</v>
       </c>
       <c r="AB35" s="29"/>
       <c r="AC35" s="22" t="s">
-        <v>710</v>
+        <v>771</v>
       </c>
       <c r="AD35" s="22" t="s">
-        <v>711</v>
+        <v>772</v>
       </c>
       <c r="AH35" s="26"/>
-      <c r="AI35" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="AJ35" s="32" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="36" ht="20" spans="1:36">
+      <c r="AI35" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="AJ35" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="AP35" s="32" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="36" ht="20" spans="1:42">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
-        <v>714</v>
+        <v>777</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>715</v>
+        <v>778</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>716</v>
+        <v>779</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>717</v>
+        <v>780</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="5" t="s">
-        <v>718</v>
+        <v>781</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>719</v>
+        <v>782</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>720</v>
+        <v>783</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>721</v>
+        <v>784</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="21" t="s">
-        <v>722</v>
+        <v>785</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>723</v>
+        <v>786</v>
       </c>
       <c r="W36" s="22" t="s">
-        <v>724</v>
+        <v>787</v>
       </c>
       <c r="X36" s="22" t="s">
-        <v>725</v>
+        <v>788</v>
       </c>
       <c r="AB36" s="29"/>
       <c r="AC36" s="22" t="s">
-        <v>726</v>
+        <v>789</v>
       </c>
       <c r="AD36" s="22" t="s">
-        <v>727</v>
+        <v>790</v>
       </c>
       <c r="AH36" s="26"/>
-      <c r="AI36" s="32" t="s">
-        <v>728</v>
-      </c>
-      <c r="AJ36" s="32" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="37" ht="20" spans="1:36">
+      <c r="AI36" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="AJ36" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="AO36" s="33" t="s">
+        <v>793</v>
+      </c>
+      <c r="AP36" s="33" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="37" ht="20" spans="1:42">
       <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
-        <v>730</v>
+        <v>795</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>731</v>
+        <v>796</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="7" t="s">
-        <v>732</v>
+        <v>797</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>733</v>
+        <v>798</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="7" t="s">
-        <v>734</v>
+        <v>799</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>735</v>
+        <v>800</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>736</v>
+        <v>801</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>721</v>
+        <v>784</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22" t="s">
-        <v>737</v>
+        <v>802</v>
       </c>
       <c r="O37" s="22" t="s">
-        <v>738</v>
+        <v>803</v>
       </c>
       <c r="W37" s="22" t="s">
-        <v>739</v>
+        <v>804</v>
       </c>
       <c r="X37" s="22" t="s">
-        <v>740</v>
+        <v>805</v>
       </c>
       <c r="AB37" s="29"/>
       <c r="AC37" s="22" t="s">
-        <v>741</v>
+        <v>806</v>
       </c>
       <c r="AD37" s="22" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="AH37" s="26"/>
-      <c r="AI37" s="32" t="s">
-        <v>742</v>
-      </c>
-      <c r="AJ37" s="32" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="38" ht="20" spans="1:36">
+      <c r="AI37" s="21" t="s">
+        <v>807</v>
+      </c>
+      <c r="AJ37" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="AN37" s="26"/>
+      <c r="AO37" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="AP37" s="32" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="38" ht="20" spans="1:42">
       <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
-        <v>744</v>
+        <v>811</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>745</v>
+        <v>812</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>746</v>
+        <v>813</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>747</v>
+        <v>814</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>748</v>
+        <v>815</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>749</v>
+        <v>816</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>750</v>
+        <v>817</v>
       </c>
       <c r="M38" s="24"/>
       <c r="N38" s="21" t="s">
-        <v>751</v>
+        <v>818</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>752</v>
+        <v>819</v>
       </c>
       <c r="V38" s="26"/>
       <c r="W38" s="21" t="s">
-        <v>753</v>
+        <v>820</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>754</v>
+        <v>821</v>
       </c>
       <c r="AB38" s="27"/>
       <c r="AC38" s="21" t="s">
-        <v>755</v>
+        <v>822</v>
       </c>
       <c r="AD38" s="21" t="s">
-        <v>756</v>
-      </c>
-      <c r="AI38" s="31" t="s">
-        <v>757</v>
-      </c>
-      <c r="AJ38" s="31" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="39" ht="20" spans="1:36">
+        <v>823</v>
+      </c>
+      <c r="AI38" s="22" t="s">
+        <v>824</v>
+      </c>
+      <c r="AJ38" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="32" t="s">
+        <v>826</v>
+      </c>
+      <c r="AP38" s="32" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="39" ht="20" spans="1:42">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>759</v>
+        <v>828</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>760</v>
+        <v>829</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>762</v>
+        <v>831</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="5" t="s">
-        <v>763</v>
+        <v>832</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>764</v>
+        <v>833</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>765</v>
+        <v>834</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>766</v>
+        <v>835</v>
       </c>
       <c r="M39" s="24"/>
       <c r="N39" s="21" t="s">
-        <v>767</v>
+        <v>836</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>768</v>
+        <v>837</v>
       </c>
       <c r="W39" s="22" t="s">
-        <v>769</v>
+        <v>838</v>
       </c>
       <c r="X39" s="22" t="s">
-        <v>770</v>
+        <v>839</v>
       </c>
       <c r="AB39" s="29"/>
       <c r="AC39" s="22" t="s">
-        <v>771</v>
+        <v>840</v>
       </c>
       <c r="AD39" s="22" t="s">
-        <v>772</v>
+        <v>841</v>
       </c>
       <c r="AH39" s="26"/>
-      <c r="AI39" s="32" t="s">
-        <v>608</v>
-      </c>
-      <c r="AJ39" s="32" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="40" ht="20" spans="1:36">
+      <c r="AI39" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="AJ39" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="32" t="s">
+        <v>843</v>
+      </c>
+      <c r="AP39" s="32" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="40" ht="20" spans="1:42">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
-        <v>774</v>
+        <v>845</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>775</v>
+        <v>846</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="7" t="s">
-        <v>776</v>
+        <v>847</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>777</v>
+        <v>848</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="5" t="s">
-        <v>778</v>
+        <v>849</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>779</v>
+        <v>850</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>780</v>
+        <v>851</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>781</v>
+        <v>852</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22" t="s">
-        <v>782</v>
+        <v>853</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>783</v>
+        <v>854</v>
       </c>
       <c r="V40" s="26"/>
       <c r="W40" s="21" t="s">
-        <v>784</v>
+        <v>855</v>
       </c>
       <c r="X40" s="21" t="s">
-        <v>785</v>
+        <v>856</v>
       </c>
       <c r="AB40" s="30"/>
       <c r="AC40" s="23" t="s">
-        <v>786</v>
+        <v>857</v>
       </c>
       <c r="AD40" s="23" t="s">
-        <v>787</v>
-      </c>
-      <c r="AI40" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="AJ40" s="31" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="41" ht="20" spans="1:36">
+        <v>858</v>
+      </c>
+      <c r="AI40" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="AJ40" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="32" t="s">
+        <v>861</v>
+      </c>
+      <c r="AP40" s="32" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="41" ht="20" spans="1:42">
       <c r="A41" s="11"/>
       <c r="B41" s="5" t="s">
-        <v>790</v>
+        <v>863</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>791</v>
+        <v>864</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="7" t="s">
-        <v>792</v>
+        <v>865</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>793</v>
+        <v>866</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="7" t="s">
-        <v>794</v>
+        <v>867</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>795</v>
+        <v>868</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="21" t="s">
-        <v>796</v>
+        <v>869</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>797</v>
+        <v>870</v>
       </c>
       <c r="M41" s="24"/>
       <c r="N41" s="21" t="s">
-        <v>798</v>
+        <v>871</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>799</v>
+        <v>872</v>
       </c>
       <c r="W41" s="22" t="s">
-        <v>800</v>
+        <v>873</v>
       </c>
       <c r="X41" s="22" t="s">
-        <v>801</v>
+        <v>874</v>
       </c>
       <c r="AH41" s="26"/>
-      <c r="AI41" s="32" t="s">
-        <v>802</v>
-      </c>
-      <c r="AJ41" s="32" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="42" ht="20" spans="1:36">
+      <c r="AI41" s="21" t="s">
+        <v>875</v>
+      </c>
+      <c r="AJ41" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="AN41" s="26"/>
+      <c r="AO41" s="32" t="s">
+        <v>877</v>
+      </c>
+      <c r="AP41" s="32" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="42" ht="20" spans="1:42">
       <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
-        <v>804</v>
+        <v>878</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>805</v>
+        <v>879</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>806</v>
+        <v>880</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>807</v>
+        <v>881</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="7" t="s">
-        <v>808</v>
+        <v>882</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>809</v>
+        <v>883</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>810</v>
+        <v>884</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>811</v>
+        <v>885</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22" t="s">
-        <v>812</v>
+        <v>886</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>813</v>
+        <v>887</v>
       </c>
       <c r="V42" s="26"/>
       <c r="W42" s="21" t="s">
-        <v>814</v>
+        <v>888</v>
       </c>
       <c r="X42" s="21" t="s">
-        <v>815</v>
+        <v>889</v>
       </c>
       <c r="AH42" s="26"/>
-      <c r="AI42" s="32" t="s">
-        <v>816</v>
-      </c>
-      <c r="AJ42" s="32" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="43" ht="20" spans="1:36">
+      <c r="AI42" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="AJ42" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="AN42" s="26"/>
+      <c r="AO42" s="32" t="s">
+        <v>892</v>
+      </c>
+      <c r="AP42" s="32" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="43" ht="20" spans="1:42">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
-        <v>818</v>
+        <v>894</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>819</v>
+        <v>895</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="5" t="s">
-        <v>820</v>
+        <v>896</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>821</v>
+        <v>897</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="7" t="s">
-        <v>822</v>
+        <v>898</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>823</v>
+        <v>899</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>824</v>
+        <v>900</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>825</v>
+        <v>901</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22" t="s">
-        <v>826</v>
+        <v>902</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>827</v>
+        <v>903</v>
       </c>
       <c r="V43" s="26"/>
       <c r="W43" s="21" t="s">
-        <v>828</v>
+        <v>904</v>
       </c>
       <c r="X43" s="21" t="s">
-        <v>829</v>
+        <v>905</v>
       </c>
       <c r="AH43" s="26"/>
-      <c r="AI43" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="AJ43" s="32" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="44" ht="20" spans="1:36">
+      <c r="AI43" s="21" t="s">
+        <v>906</v>
+      </c>
+      <c r="AJ43" s="21" t="s">
+        <v>907</v>
+      </c>
+      <c r="AO43" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="AP43" s="33" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="44" ht="20" spans="1:42">
       <c r="A44" s="9"/>
       <c r="B44" s="7" t="s">
-        <v>832</v>
+        <v>910</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>819</v>
+        <v>895</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>833</v>
+        <v>911</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>834</v>
+        <v>912</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="7" t="s">
-        <v>835</v>
+        <v>913</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>836</v>
+        <v>914</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="21" t="s">
-        <v>837</v>
+        <v>915</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>838</v>
+        <v>916</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22" t="s">
-        <v>839</v>
+        <v>917</v>
       </c>
       <c r="O44" s="22" t="s">
-        <v>840</v>
+        <v>918</v>
       </c>
       <c r="V44" s="26"/>
       <c r="W44" s="21" t="s">
-        <v>841</v>
+        <v>919</v>
       </c>
       <c r="X44" s="21" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="AH44" s="26"/>
-      <c r="AI44" s="32" t="s">
-        <v>842</v>
-      </c>
-      <c r="AJ44" s="32" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="45" ht="20" spans="1:36">
+      <c r="AI44" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="AJ44" s="21" t="s">
+        <v>891</v>
+      </c>
+      <c r="AN44" s="26"/>
+      <c r="AO44" s="32" t="s">
+        <v>921</v>
+      </c>
+      <c r="AP44" s="32" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="45" ht="20" spans="1:42">
       <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
-        <v>843</v>
+        <v>923</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>844</v>
+        <v>924</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>845</v>
+        <v>925</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>846</v>
+        <v>926</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="7" t="s">
-        <v>847</v>
+        <v>927</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>848</v>
+        <v>928</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="21" t="s">
-        <v>849</v>
+        <v>929</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>850</v>
+        <v>930</v>
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="21" t="s">
-        <v>851</v>
+        <v>931</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>852</v>
+        <v>932</v>
       </c>
       <c r="V45" s="26"/>
       <c r="W45" s="21" t="s">
-        <v>853</v>
+        <v>933</v>
       </c>
       <c r="X45" s="21" t="s">
-        <v>854</v>
-      </c>
-      <c r="AI45" s="31" t="s">
-        <v>855</v>
-      </c>
-      <c r="AJ45" s="31" t="s">
-        <v>856</v>
+        <v>934</v>
+      </c>
+      <c r="AI45" s="22" t="s">
+        <v>935</v>
+      </c>
+      <c r="AJ45" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="AO45" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="AP45" s="33" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="46" ht="20" spans="1:36">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
-        <v>857</v>
+        <v>937</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>858</v>
+        <v>938</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="7" t="s">
-        <v>859</v>
+        <v>939</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>846</v>
+        <v>926</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="7" t="s">
-        <v>860</v>
+        <v>940</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>861</v>
+        <v>941</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>862</v>
+        <v>942</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>705</v>
+        <v>766</v>
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="22" t="s">
-        <v>863</v>
+        <v>943</v>
       </c>
       <c r="O46" s="22" t="s">
-        <v>864</v>
+        <v>944</v>
       </c>
       <c r="W46" s="22" t="s">
-        <v>865</v>
+        <v>945</v>
       </c>
       <c r="X46" s="22" t="s">
-        <v>866</v>
+        <v>946</v>
       </c>
       <c r="AH46" s="26"/>
-      <c r="AI46" s="32" t="s">
-        <v>867</v>
-      </c>
-      <c r="AJ46" s="32" t="s">
-        <v>868</v>
+      <c r="AI46" s="21" t="s">
+        <v>947</v>
+      </c>
+      <c r="AJ46" s="21" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="47" ht="20" spans="1:36">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
-        <v>869</v>
+        <v>949</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>805</v>
+        <v>879</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="7" t="s">
-        <v>870</v>
+        <v>950</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>871</v>
+        <v>951</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="5" t="s">
-        <v>872</v>
+        <v>952</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>873</v>
+        <v>953</v>
       </c>
       <c r="J47" s="20"/>
       <c r="K47" s="21" t="s">
-        <v>874</v>
+        <v>954</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>875</v>
+        <v>955</v>
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22" t="s">
-        <v>876</v>
+        <v>536</v>
       </c>
       <c r="O47" s="22" t="s">
-        <v>877</v>
+        <v>956</v>
       </c>
       <c r="W47" s="22" t="s">
-        <v>878</v>
+        <v>957</v>
       </c>
       <c r="X47" s="22" t="s">
-        <v>879</v>
+        <v>958</v>
       </c>
       <c r="AH47" s="26"/>
-      <c r="AI47" s="32" t="s">
-        <v>880</v>
-      </c>
-      <c r="AJ47" s="32" t="s">
-        <v>881</v>
+      <c r="AI47" s="21" t="s">
+        <v>959</v>
+      </c>
+      <c r="AJ47" s="21" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="48" ht="20" spans="1:36">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>882</v>
+        <v>961</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>883</v>
+        <v>962</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="7" t="s">
-        <v>884</v>
+        <v>963</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>885</v>
+        <v>964</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="5" t="s">
-        <v>886</v>
+        <v>965</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>887</v>
+        <v>966</v>
       </c>
       <c r="J48" s="20"/>
       <c r="K48" s="21" t="s">
-        <v>888</v>
+        <v>967</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>889</v>
+        <v>968</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22" t="s">
-        <v>890</v>
+        <v>969</v>
       </c>
       <c r="O48" s="22" t="s">
-        <v>877</v>
+        <v>956</v>
       </c>
       <c r="W48" s="22" t="s">
-        <v>891</v>
+        <v>970</v>
       </c>
       <c r="X48" s="22" t="s">
-        <v>892</v>
+        <v>971</v>
       </c>
       <c r="AH48" s="26"/>
-      <c r="AI48" s="32" t="s">
-        <v>893</v>
-      </c>
-      <c r="AJ48" s="32" t="s">
-        <v>894</v>
+      <c r="AI48" s="21" t="s">
+        <v>972</v>
+      </c>
+      <c r="AJ48" s="21" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="49" ht="20" spans="1:36">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
-        <v>895</v>
+        <v>974</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>896</v>
+        <v>975</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="15"/>
       <c r="H49" s="7" t="s">
-        <v>897</v>
+        <v>976</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>898</v>
+        <v>977</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>899</v>
+        <v>978</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>705</v>
+        <v>766</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22" t="s">
-        <v>900</v>
+        <v>979</v>
       </c>
       <c r="O49" s="22" t="s">
-        <v>901</v>
+        <v>980</v>
       </c>
       <c r="V49" s="26"/>
       <c r="W49" s="21" t="s">
-        <v>902</v>
+        <v>981</v>
       </c>
       <c r="X49" s="21" t="s">
-        <v>903</v>
+        <v>982</v>
       </c>
       <c r="AH49" s="26"/>
-      <c r="AI49" s="32" t="s">
-        <v>904</v>
-      </c>
-      <c r="AJ49" s="32" t="s">
-        <v>905</v>
+      <c r="AI49" s="21" t="s">
+        <v>983</v>
+      </c>
+      <c r="AJ49" s="21" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="50" ht="20" spans="1:36">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>906</v>
+        <v>985</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="15"/>
       <c r="H50" s="7" t="s">
-        <v>907</v>
+        <v>986</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>861</v>
+        <v>941</v>
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="21" t="s">
-        <v>908</v>
+        <v>987</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>909</v>
+        <v>988</v>
       </c>
       <c r="M50" s="22"/>
       <c r="N50" s="22" t="s">
-        <v>910</v>
+        <v>989</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>911</v>
+        <v>990</v>
       </c>
       <c r="W50" s="22" t="s">
-        <v>912</v>
+        <v>991</v>
       </c>
       <c r="X50" s="22" t="s">
-        <v>913</v>
+        <v>992</v>
       </c>
       <c r="AH50" s="26"/>
-      <c r="AI50" s="32" t="s">
-        <v>914</v>
-      </c>
-      <c r="AJ50" s="32" t="s">
-        <v>915</v>
+      <c r="AI50" s="21" t="s">
+        <v>993</v>
+      </c>
+      <c r="AJ50" s="21" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="51" ht="20" spans="1:36">
       <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
-        <v>916</v>
+        <v>995</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>917</v>
+        <v>996</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="17"/>
       <c r="H51" s="5" t="s">
-        <v>918</v>
+        <v>997</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>919</v>
+        <v>998</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>920</v>
+        <v>999</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>921</v>
+        <v>1000</v>
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="21" t="s">
-        <v>922</v>
+        <v>1001</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>923</v>
+        <v>1002</v>
       </c>
       <c r="V51" s="26"/>
       <c r="W51" s="21" t="s">
-        <v>924</v>
+        <v>1003</v>
       </c>
       <c r="X51" s="21" t="s">
-        <v>925</v>
+        <v>1004</v>
       </c>
       <c r="AH51" s="26"/>
-      <c r="AI51" s="32" t="s">
-        <v>926</v>
-      </c>
-      <c r="AJ51" s="32" t="s">
-        <v>927</v>
+      <c r="AI51" s="21" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AJ51" s="21" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="52" ht="20" spans="1:36">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>928</v>
+        <v>1007</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>929</v>
+        <v>1008</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="17"/>
       <c r="H52" s="5" t="s">
-        <v>930</v>
+        <v>1009</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>931</v>
+        <v>1010</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>932</v>
+        <v>1011</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>933</v>
+        <v>1012</v>
       </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22" t="s">
-        <v>934</v>
+        <v>1013</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>911</v>
+        <v>990</v>
       </c>
       <c r="W52" s="22" t="s">
-        <v>935</v>
+        <v>1014</v>
       </c>
       <c r="X52" s="22" t="s">
-        <v>936</v>
-      </c>
-      <c r="AI52" s="31" t="s">
-        <v>937</v>
-      </c>
-      <c r="AJ52" s="31" t="s">
-        <v>938</v>
+        <v>1015</v>
+      </c>
+      <c r="AI52" s="22" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AJ52" s="22" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="53" ht="20" spans="1:36">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>939</v>
+        <v>1018</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="15"/>
       <c r="H53" s="7" t="s">
-        <v>940</v>
+        <v>1019</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>941</v>
+        <v>1020</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>942</v>
+        <v>1021</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>943</v>
+        <v>1022</v>
       </c>
       <c r="M53" s="22"/>
       <c r="N53" s="22" t="s">
-        <v>944</v>
+        <v>1023</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>945</v>
+        <v>1024</v>
       </c>
       <c r="V53" s="26"/>
       <c r="W53" s="21" t="s">
-        <v>946</v>
+        <v>1025</v>
       </c>
       <c r="X53" s="21" t="s">
-        <v>947</v>
+        <v>1026</v>
       </c>
       <c r="AH53" s="26"/>
-      <c r="AI53" s="32" t="s">
-        <v>948</v>
-      </c>
-      <c r="AJ53" s="32" t="s">
-        <v>938</v>
+      <c r="AI53" s="21" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AJ53" s="21" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="54" ht="20" spans="1:36">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
-        <v>949</v>
+        <v>1028</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>950</v>
+        <v>1029</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="17"/>
       <c r="H54" s="5" t="s">
-        <v>951</v>
+        <v>1030</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>952</v>
+        <v>1031</v>
       </c>
       <c r="J54" s="20"/>
       <c r="K54" s="21" t="s">
-        <v>953</v>
+        <v>1032</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>954</v>
+        <v>1033</v>
       </c>
       <c r="M54" s="22"/>
       <c r="N54" s="22" t="s">
-        <v>955</v>
+        <v>1034</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>813</v>
+        <v>887</v>
       </c>
       <c r="W54" s="22" t="s">
-        <v>956</v>
+        <v>1035</v>
       </c>
       <c r="X54" s="22" t="s">
-        <v>813</v>
+        <v>887</v>
       </c>
       <c r="AH54" s="26"/>
-      <c r="AI54" s="32" t="s">
-        <v>957</v>
-      </c>
-      <c r="AJ54" s="32" t="s">
-        <v>958</v>
+      <c r="AI54" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AJ54" s="21" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="55" ht="20" spans="1:24">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
-        <v>959</v>
+        <v>1038</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>960</v>
+        <v>1039</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="17"/>
       <c r="H55" s="5" t="s">
-        <v>961</v>
+        <v>1040</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>962</v>
+        <v>1041</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>963</v>
+        <v>1042</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>933</v>
+        <v>1012</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="22" t="s">
-        <v>964</v>
+        <v>1043</v>
       </c>
       <c r="O55" s="22" t="s">
-        <v>965</v>
+        <v>1044</v>
       </c>
       <c r="V55" s="26"/>
       <c r="W55" s="21" t="s">
-        <v>966</v>
+        <v>1045</v>
       </c>
       <c r="X55" s="21" t="s">
-        <v>967</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="56" ht="20" spans="1:24">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
-        <v>968</v>
+        <v>1047</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>969</v>
+        <v>1048</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="17"/>
       <c r="H56" s="5" t="s">
-        <v>970</v>
+        <v>1049</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>971</v>
+        <v>1050</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>972</v>
+        <v>1051</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>973</v>
+        <v>1052</v>
       </c>
       <c r="M56" s="24"/>
       <c r="N56" s="21" t="s">
-        <v>974</v>
+        <v>1053</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>975</v>
+        <v>1054</v>
       </c>
       <c r="V56" s="26"/>
       <c r="W56" s="21" t="s">
-        <v>976</v>
+        <v>1055</v>
       </c>
       <c r="X56" s="21" t="s">
-        <v>977</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="57" ht="20" spans="1:24">
       <c r="A57" s="9"/>
       <c r="B57" s="5" t="s">
-        <v>978</v>
+        <v>1057</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>969</v>
+        <v>1048</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="17"/>
       <c r="H57" s="5" t="s">
-        <v>979</v>
+        <v>1058</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>980</v>
+        <v>1059</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>981</v>
+        <v>1060</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>982</v>
+        <v>1061</v>
       </c>
       <c r="M57" s="22"/>
       <c r="N57" s="22" t="s">
-        <v>983</v>
+        <v>1062</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>984</v>
+        <v>1063</v>
       </c>
       <c r="W57" s="22" t="s">
-        <v>985</v>
+        <v>1064</v>
       </c>
       <c r="X57" s="22" t="s">
-        <v>986</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="58" ht="20" spans="1:24">
       <c r="A58" s="9"/>
       <c r="B58" s="5" t="s">
-        <v>987</v>
+        <v>1066</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>988</v>
+        <v>1067</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="15"/>
       <c r="H58" s="7" t="s">
-        <v>989</v>
+        <v>1068</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>990</v>
+        <v>1069</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>991</v>
+        <v>1070</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>992</v>
+        <v>1071</v>
       </c>
       <c r="M58" s="24"/>
       <c r="N58" s="21" t="s">
-        <v>993</v>
+        <v>1072</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>994</v>
+        <v>1073</v>
       </c>
       <c r="W58" s="22" t="s">
-        <v>995</v>
+        <v>1074</v>
       </c>
       <c r="X58" s="22" t="s">
-        <v>996</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="59" ht="20" spans="1:24">
       <c r="A59" s="9"/>
       <c r="B59" s="5" t="s">
-        <v>997</v>
+        <v>1076</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>998</v>
+        <v>1077</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="17"/>
       <c r="H59" s="5" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>999</v>
+        <v>1078</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="21" t="s">
-        <v>1000</v>
+        <v>1079</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>1001</v>
+        <v>1080</v>
       </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22" t="s">
-        <v>1002</v>
+        <v>1081</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>1003</v>
+        <v>1082</v>
       </c>
       <c r="V59" s="26"/>
       <c r="W59" s="21" t="s">
-        <v>1004</v>
+        <v>1083</v>
       </c>
       <c r="X59" s="21" t="s">
-        <v>1005</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="60" ht="20" spans="1:24">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
-        <v>1006</v>
+        <v>1085</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>1007</v>
+        <v>1086</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="17"/>
       <c r="H60" s="5" t="s">
-        <v>1008</v>
+        <v>1087</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>1009</v>
+        <v>1088</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>1010</v>
+        <v>1089</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>1011</v>
+        <v>1090</v>
       </c>
       <c r="M60" s="22"/>
       <c r="N60" s="22" t="s">
-        <v>1012</v>
+        <v>1091</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>1013</v>
+        <v>1092</v>
       </c>
       <c r="V60" s="26"/>
       <c r="W60" s="21" t="s">
-        <v>1014</v>
+        <v>1093</v>
       </c>
       <c r="X60" s="21" t="s">
-        <v>1015</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="61" ht="20" spans="1:24">
@@ -8828,29 +9358,29 @@
       <c r="F61" s="6"/>
       <c r="G61" s="17"/>
       <c r="H61" s="5" t="s">
-        <v>1016</v>
+        <v>1095</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>1017</v>
+        <v>1096</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>1018</v>
+        <v>1097</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>1019</v>
+        <v>1098</v>
       </c>
       <c r="M61" s="24"/>
       <c r="N61" s="21" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>1020</v>
+        <v>1099</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>1021</v>
+        <v>1100</v>
       </c>
       <c r="X61" s="22" t="s">
-        <v>1022</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="62" ht="20" spans="1:24">
@@ -8862,30 +9392,30 @@
       <c r="F62" s="6"/>
       <c r="G62" s="17"/>
       <c r="H62" s="5" t="s">
-        <v>1023</v>
+        <v>1102</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>1024</v>
+        <v>1103</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="21" t="s">
-        <v>1025</v>
+        <v>1104</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>1026</v>
+        <v>1105</v>
       </c>
       <c r="M62" s="22"/>
       <c r="N62" s="22" t="s">
-        <v>1027</v>
+        <v>1106</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>1028</v>
+        <v>1107</v>
       </c>
       <c r="W62" s="22" t="s">
-        <v>1029</v>
+        <v>1108</v>
       </c>
       <c r="X62" s="22" t="s">
-        <v>1030</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="63" ht="20" spans="1:24">
@@ -8897,30 +9427,30 @@
       <c r="F63" s="6"/>
       <c r="G63" s="15"/>
       <c r="H63" s="7" t="s">
-        <v>1031</v>
+        <v>1110</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>1017</v>
+        <v>1096</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="21" t="s">
-        <v>1032</v>
+        <v>1111</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>1033</v>
+        <v>1112</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="21" t="s">
-        <v>1034</v>
+        <v>1113</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>1035</v>
+        <v>1114</v>
       </c>
       <c r="W63" s="22" t="s">
-        <v>1036</v>
+        <v>1115</v>
       </c>
       <c r="X63" s="22" t="s">
-        <v>1037</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="64" ht="20" spans="1:24">
@@ -8932,30 +9462,30 @@
       <c r="F64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="5" t="s">
-        <v>1038</v>
+        <v>1117</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>1039</v>
+        <v>1118</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="21" t="s">
-        <v>1040</v>
+        <v>1119</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>1041</v>
+        <v>1120</v>
       </c>
       <c r="M64" s="22"/>
       <c r="N64" s="22" t="s">
-        <v>1042</v>
+        <v>1121</v>
       </c>
       <c r="O64" s="22" t="s">
-        <v>1043</v>
+        <v>1122</v>
       </c>
       <c r="W64" s="22" t="s">
-        <v>1044</v>
+        <v>1123</v>
       </c>
       <c r="X64" s="22" t="s">
-        <v>1045</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="65" ht="20" spans="1:24">
@@ -8967,29 +9497,29 @@
       <c r="F65" s="6"/>
       <c r="G65" s="15"/>
       <c r="H65" s="7" t="s">
-        <v>1046</v>
+        <v>1125</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>1047</v>
+        <v>1126</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>1048</v>
+        <v>1127</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>1049</v>
+        <v>1128</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="21" t="s">
-        <v>1050</v>
+        <v>1129</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>1051</v>
+        <v>1130</v>
       </c>
       <c r="W65" s="22" t="s">
-        <v>1052</v>
+        <v>1131</v>
       </c>
       <c r="X65" s="22" t="s">
-        <v>1045</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="66" ht="20" spans="1:24">
@@ -9001,30 +9531,30 @@
       <c r="F66" s="6"/>
       <c r="G66" s="17"/>
       <c r="H66" s="5" t="s">
-        <v>1053</v>
+        <v>1132</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>1054</v>
+        <v>1133</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="21" t="s">
-        <v>1055</v>
+        <v>1134</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>1056</v>
+        <v>1135</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="21" t="s">
-        <v>1057</v>
+        <v>1136</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>1058</v>
+        <v>1137</v>
       </c>
       <c r="W66" s="22" t="s">
-        <v>1059</v>
+        <v>1138</v>
       </c>
       <c r="X66" s="22" t="s">
-        <v>1060</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="67" ht="20" spans="1:24">
@@ -9036,427 +9566,427 @@
       <c r="F67" s="6"/>
       <c r="G67" s="17"/>
       <c r="H67" s="5" t="s">
-        <v>1061</v>
+        <v>1140</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>1062</v>
+        <v>1141</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>1063</v>
+        <v>1142</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>1064</v>
+        <v>1143</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="21" t="s">
-        <v>1065</v>
+        <v>1144</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>1066</v>
+        <v>1145</v>
       </c>
       <c r="W67" s="22" t="s">
-        <v>1067</v>
+        <v>1146</v>
       </c>
       <c r="X67" s="22" t="s">
-        <v>1068</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="68" ht="20" spans="1:24">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="15"/>
       <c r="H68" s="7" t="s">
-        <v>1069</v>
+        <v>1148</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>1070</v>
+        <v>1149</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="21" t="s">
-        <v>1071</v>
+        <v>1150</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>1072</v>
+        <v>1151</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="21" t="s">
-        <v>1073</v>
+        <v>1152</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>1074</v>
+        <v>1153</v>
       </c>
       <c r="W68" s="22" t="s">
-        <v>1075</v>
+        <v>1154</v>
       </c>
       <c r="X68" s="22" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69" ht="20" spans="1:24">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="17"/>
       <c r="H69" s="5" t="s">
-        <v>1076</v>
+        <v>1155</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>1077</v>
+        <v>1156</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>1078</v>
+        <v>1157</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>1079</v>
+        <v>1158</v>
       </c>
       <c r="M69" s="22"/>
       <c r="N69" s="22" t="s">
-        <v>1080</v>
+        <v>1159</v>
       </c>
       <c r="O69" s="22" t="s">
-        <v>1081</v>
+        <v>1160</v>
       </c>
       <c r="W69" s="22" t="s">
-        <v>1082</v>
+        <v>1161</v>
       </c>
       <c r="X69" s="22" t="s">
-        <v>1083</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="70" ht="20" spans="1:24">
-      <c r="A70" s="33"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="17"/>
       <c r="H70" s="5" t="s">
-        <v>1084</v>
+        <v>1163</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>1085</v>
+        <v>1164</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="21" t="s">
-        <v>1086</v>
+        <v>1165</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>1087</v>
+        <v>1166</v>
       </c>
       <c r="M70" s="22"/>
       <c r="N70" s="22" t="s">
-        <v>1088</v>
+        <v>1167</v>
       </c>
       <c r="O70" s="22" t="s">
-        <v>1089</v>
+        <v>1168</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>1090</v>
+        <v>1169</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>1083</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="71" ht="20" spans="1:24">
-      <c r="A71" s="33"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="15"/>
       <c r="H71" s="7" t="s">
-        <v>1091</v>
+        <v>1170</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>1092</v>
+        <v>1171</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="21" t="s">
-        <v>1093</v>
+        <v>1172</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>1094</v>
+        <v>1173</v>
       </c>
       <c r="M71" s="22"/>
       <c r="N71" s="22" t="s">
-        <v>1095</v>
+        <v>1174</v>
       </c>
       <c r="O71" s="22" t="s">
-        <v>1096</v>
+        <v>1175</v>
       </c>
       <c r="V71" s="26"/>
       <c r="W71" s="21" t="s">
-        <v>1097</v>
+        <v>1176</v>
       </c>
       <c r="X71" s="21" t="s">
-        <v>1098</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="72" ht="20" spans="1:24">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="15"/>
       <c r="H72" s="7" t="s">
-        <v>1099</v>
+        <v>1178</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>1100</v>
+        <v>1179</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>1101</v>
+        <v>1180</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>1102</v>
+        <v>1181</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="21" t="s">
-        <v>1103</v>
+        <v>1182</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>1104</v>
+        <v>1183</v>
       </c>
       <c r="V72" s="26"/>
       <c r="W72" s="21" t="s">
-        <v>1105</v>
+        <v>1184</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>1106</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="73" ht="20" spans="1:24">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="15"/>
       <c r="H73" s="7" t="s">
-        <v>1107</v>
+        <v>1186</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>1108</v>
+        <v>1187</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="21" t="s">
-        <v>1109</v>
+        <v>1188</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>1110</v>
+        <v>1189</v>
       </c>
       <c r="M73" s="22"/>
       <c r="N73" s="22" t="s">
-        <v>1111</v>
+        <v>1190</v>
       </c>
       <c r="O73" s="22" t="s">
-        <v>1112</v>
+        <v>1191</v>
       </c>
       <c r="W73" s="22" t="s">
-        <v>1113</v>
+        <v>1192</v>
       </c>
       <c r="X73" s="22" t="s">
-        <v>1114</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="74" ht="20" spans="1:24">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="17"/>
       <c r="H74" s="5" t="s">
-        <v>1115</v>
+        <v>1194</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>1116</v>
+        <v>1195</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>1117</v>
+        <v>1196</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>1118</v>
+        <v>1197</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="21" t="s">
-        <v>1119</v>
+        <v>1198</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>1120</v>
+        <v>1199</v>
       </c>
       <c r="W74" s="22" t="s">
-        <v>1121</v>
+        <v>1200</v>
       </c>
       <c r="X74" s="22" t="s">
-        <v>1122</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="75" ht="20" spans="1:24">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="15"/>
       <c r="H75" s="7" t="s">
-        <v>1123</v>
+        <v>1202</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>1124</v>
+        <v>1203</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="21" t="s">
-        <v>1125</v>
+        <v>1204</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>1126</v>
+        <v>1205</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="21" t="s">
-        <v>1127</v>
+        <v>1206</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>1128</v>
+        <v>1207</v>
       </c>
       <c r="V75" s="26"/>
       <c r="W75" s="21" t="s">
-        <v>1129</v>
+        <v>1208</v>
       </c>
       <c r="X75" s="21" t="s">
-        <v>1130</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="76" ht="20" spans="1:24">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="17"/>
       <c r="H76" s="5" t="s">
-        <v>1131</v>
+        <v>1210</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>1132</v>
+        <v>1211</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="21" t="s">
-        <v>1133</v>
+        <v>1212</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>1134</v>
+        <v>1213</v>
       </c>
       <c r="M76" s="22"/>
       <c r="N76" s="22" t="s">
-        <v>1135</v>
+        <v>1214</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>1136</v>
+        <v>1215</v>
       </c>
       <c r="W76" s="22" t="s">
-        <v>1137</v>
+        <v>1216</v>
       </c>
       <c r="X76" s="22" t="s">
-        <v>1045</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="77" ht="20" spans="1:24">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="17"/>
       <c r="H77" s="5" t="s">
-        <v>1138</v>
+        <v>1217</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>1139</v>
+        <v>1218</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>1140</v>
+        <v>1219</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>1141</v>
+        <v>1220</v>
       </c>
       <c r="W77" s="22" t="s">
-        <v>1142</v>
+        <v>1221</v>
       </c>
       <c r="X77" s="22" t="s">
-        <v>1045</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="78" ht="20" spans="1:24">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="17"/>
       <c r="H78" s="5" t="s">
-        <v>1143</v>
+        <v>1222</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>1144</v>
+        <v>1223</v>
       </c>
       <c r="J78" s="20"/>
       <c r="K78" s="21" t="s">
-        <v>1145</v>
+        <v>1224</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>1146</v>
+        <v>1225</v>
       </c>
       <c r="V78" s="26"/>
       <c r="W78" s="21" t="s">
-        <v>1147</v>
+        <v>1226</v>
       </c>
       <c r="X78" s="21" t="s">
-        <v>1148</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="79" spans="1:24">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="15"/>
       <c r="H79" s="7" t="s">
-        <v>1149</v>
+        <v>1228</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>1150</v>
+        <v>1229</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>1151</v>
+        <v>1230</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>1152</v>
+        <v>1231</v>
       </c>
       <c r="W79" s="22" t="s">
-        <v>1153</v>
+        <v>1232</v>
       </c>
       <c r="X79" s="22" t="s">
-        <v>1154</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="80" ht="20" spans="1:24">
@@ -9468,24 +9998,24 @@
       <c r="F80" s="6"/>
       <c r="G80" s="17"/>
       <c r="H80" s="5" t="s">
-        <v>1155</v>
+        <v>1234</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>1156</v>
+        <v>1235</v>
       </c>
       <c r="J80" s="20"/>
       <c r="K80" s="21" t="s">
-        <v>1157</v>
+        <v>1236</v>
       </c>
       <c r="L80" s="21" t="s">
-        <v>1146</v>
+        <v>1225</v>
       </c>
       <c r="V80" s="26"/>
       <c r="W80" s="21" t="s">
-        <v>1158</v>
+        <v>1237</v>
       </c>
       <c r="X80" s="21" t="s">
-        <v>892</v>
+        <v>971</v>
       </c>
     </row>
     <row r="81" spans="1:24">
@@ -9497,22 +10027,22 @@
       <c r="F81" s="6"/>
       <c r="G81" s="15"/>
       <c r="H81" s="7" t="s">
-        <v>1159</v>
+        <v>1238</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>1160</v>
+        <v>1239</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>1161</v>
+        <v>1240</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>1162</v>
+        <v>1241</v>
       </c>
       <c r="W81" s="22" t="s">
-        <v>1163</v>
+        <v>1242</v>
       </c>
       <c r="X81" s="22" t="s">
-        <v>1164</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="82" ht="20" spans="1:24">
@@ -9524,24 +10054,24 @@
       <c r="F82" s="6"/>
       <c r="G82" s="17"/>
       <c r="H82" s="5" t="s">
-        <v>1165</v>
+        <v>1244</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>1166</v>
+        <v>1245</v>
       </c>
       <c r="J82" s="20"/>
       <c r="K82" s="21" t="s">
-        <v>1167</v>
+        <v>1246</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>1168</v>
+        <v>1247</v>
       </c>
       <c r="V82" s="26"/>
       <c r="W82" s="21" t="s">
-        <v>1169</v>
+        <v>1248</v>
       </c>
       <c r="X82" s="21" t="s">
-        <v>1170</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="83" ht="20" spans="1:24">
@@ -9553,23 +10083,23 @@
       <c r="F83" s="6"/>
       <c r="G83" s="17"/>
       <c r="H83" s="5" t="s">
-        <v>1171</v>
+        <v>1250</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>1172</v>
+        <v>1251</v>
       </c>
       <c r="J83" s="20"/>
       <c r="K83" s="21" t="s">
-        <v>1173</v>
+        <v>1252</v>
       </c>
       <c r="L83" s="21" t="s">
-        <v>1174</v>
+        <v>1253</v>
       </c>
       <c r="W83" s="22" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="X83" s="22" t="s">
-        <v>1175</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="84" ht="20" spans="1:24">
@@ -9581,23 +10111,23 @@
       <c r="F84" s="6"/>
       <c r="G84" s="15"/>
       <c r="H84" s="7" t="s">
-        <v>1176</v>
+        <v>1255</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>1177</v>
+        <v>1256</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>1178</v>
+        <v>1257</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>1179</v>
+        <v>1258</v>
       </c>
       <c r="V84" s="26"/>
       <c r="W84" s="21" t="s">
-        <v>1180</v>
+        <v>1259</v>
       </c>
       <c r="X84" s="21" t="s">
-        <v>1181</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="85" ht="20" spans="1:24">
@@ -9609,23 +10139,23 @@
       <c r="F85" s="6"/>
       <c r="G85" s="15"/>
       <c r="H85" s="7" t="s">
-        <v>912</v>
+        <v>991</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>913</v>
+        <v>992</v>
       </c>
       <c r="J85" s="20"/>
       <c r="K85" s="21" t="s">
-        <v>1182</v>
+        <v>1261</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>1183</v>
+        <v>1262</v>
       </c>
       <c r="W85" s="22" t="s">
-        <v>1184</v>
+        <v>1263</v>
       </c>
       <c r="X85" s="22" t="s">
-        <v>1185</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="86" ht="20" spans="1:24">
@@ -9637,22 +10167,22 @@
       <c r="F86" s="6"/>
       <c r="G86" s="17"/>
       <c r="H86" s="5" t="s">
-        <v>1186</v>
+        <v>1265</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>1187</v>
+        <v>1266</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>1188</v>
+        <v>1267</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>1189</v>
+        <v>1268</v>
       </c>
       <c r="W86" s="22" t="s">
-        <v>1190</v>
+        <v>1269</v>
       </c>
       <c r="X86" s="22" t="s">
-        <v>1191</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="87" ht="20" spans="1:24">
@@ -9664,24 +10194,24 @@
       <c r="F87" s="6"/>
       <c r="G87" s="17"/>
       <c r="H87" s="5" t="s">
-        <v>1192</v>
+        <v>1271</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>1193</v>
+        <v>1272</v>
       </c>
       <c r="J87" s="20"/>
       <c r="K87" s="21" t="s">
-        <v>912</v>
+        <v>991</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>1194</v>
+        <v>1273</v>
       </c>
       <c r="V87" s="26"/>
       <c r="W87" s="21" t="s">
-        <v>1195</v>
+        <v>1274</v>
       </c>
       <c r="X87" s="21" t="s">
-        <v>1196</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="88" ht="20" spans="1:24">
@@ -9693,23 +10223,23 @@
       <c r="F88" s="6"/>
       <c r="G88" s="15"/>
       <c r="H88" s="7" t="s">
-        <v>1197</v>
+        <v>1276</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>1198</v>
+        <v>1277</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>1199</v>
+        <v>1278</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>1200</v>
+        <v>1279</v>
       </c>
       <c r="V88" s="26"/>
       <c r="W88" s="21" t="s">
-        <v>1201</v>
+        <v>1280</v>
       </c>
       <c r="X88" s="21" t="s">
-        <v>1202</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="89" ht="20" spans="1:24">
@@ -9721,23 +10251,23 @@
       <c r="F89" s="6"/>
       <c r="G89" s="17"/>
       <c r="H89" s="5" t="s">
-        <v>1203</v>
+        <v>1282</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>1204</v>
+        <v>1283</v>
       </c>
       <c r="J89" s="20"/>
       <c r="K89" s="21" t="s">
-        <v>1205</v>
+        <v>1284</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>1206</v>
+        <v>1285</v>
       </c>
       <c r="W89" s="22" t="s">
-        <v>1207</v>
+        <v>1286</v>
       </c>
       <c r="X89" s="22" t="s">
-        <v>1208</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="90" ht="20" spans="1:24">
@@ -9749,23 +10279,23 @@
       <c r="F90" s="6"/>
       <c r="G90" s="15"/>
       <c r="H90" s="7" t="s">
-        <v>1209</v>
+        <v>1288</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>1210</v>
+        <v>1289</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>1211</v>
+        <v>1290</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>1212</v>
+        <v>1291</v>
       </c>
       <c r="V90" s="26"/>
       <c r="W90" s="21" t="s">
-        <v>1213</v>
+        <v>1292</v>
       </c>
       <c r="X90" s="21" t="s">
-        <v>1214</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="91" ht="20" spans="1:24">
@@ -9777,23 +10307,23 @@
       <c r="F91" s="6"/>
       <c r="G91" s="15"/>
       <c r="H91" s="7" t="s">
-        <v>1215</v>
+        <v>1294</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1216</v>
+        <v>1295</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>1217</v>
+        <v>1296</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>1218</v>
+        <v>1297</v>
       </c>
       <c r="V91" s="26"/>
       <c r="W91" s="21" t="s">
-        <v>1219</v>
+        <v>1298</v>
       </c>
       <c r="X91" s="21" t="s">
-        <v>1220</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="92" ht="20" spans="1:12">
@@ -9805,17 +10335,17 @@
       <c r="F92" s="6"/>
       <c r="G92" s="17"/>
       <c r="H92" s="5" t="s">
-        <v>1221</v>
+        <v>1300</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>1222</v>
+        <v>1301</v>
       </c>
       <c r="J92" s="20"/>
       <c r="K92" s="21" t="s">
-        <v>1223</v>
+        <v>1302</v>
       </c>
       <c r="L92" s="21" t="s">
-        <v>1224</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -9827,16 +10357,16 @@
       <c r="F93" s="6"/>
       <c r="G93" s="15"/>
       <c r="H93" s="10" t="s">
-        <v>1225</v>
+        <v>1304</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>1226</v>
+        <v>1305</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>1227</v>
+        <v>1306</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>1228</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="94" ht="20" spans="1:12">
@@ -9848,17 +10378,17 @@
       <c r="F94" s="6"/>
       <c r="G94" s="15"/>
       <c r="H94" s="7" t="s">
-        <v>1229</v>
+        <v>1308</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>1230</v>
+        <v>1309</v>
       </c>
       <c r="J94" s="20"/>
       <c r="K94" s="21" t="s">
-        <v>1231</v>
+        <v>1310</v>
       </c>
       <c r="L94" s="21" t="s">
-        <v>1232</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -9870,16 +10400,16 @@
       <c r="F95" s="6"/>
       <c r="G95" s="15"/>
       <c r="H95" s="7" t="s">
-        <v>1233</v>
+        <v>1312</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>1234</v>
+        <v>1313</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>1235</v>
+        <v>1314</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>1236</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="96" ht="20" spans="1:12">
@@ -9891,17 +10421,17 @@
       <c r="F96" s="6"/>
       <c r="G96" s="17"/>
       <c r="H96" s="5" t="s">
-        <v>1237</v>
+        <v>1316</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>1238</v>
+        <v>1317</v>
       </c>
       <c r="J96" s="20"/>
       <c r="K96" s="21" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="L96" s="21" t="s">
-        <v>1239</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="97" ht="20" spans="1:9">
@@ -9913,10 +10443,10 @@
       <c r="F97" s="6"/>
       <c r="G97" s="17"/>
       <c r="H97" s="5" t="s">
-        <v>1240</v>
+        <v>1319</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>1241</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -9928,10 +10458,10 @@
       <c r="F98" s="6"/>
       <c r="G98" s="15"/>
       <c r="H98" s="7" t="s">
-        <v>1242</v>
+        <v>1321</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1243</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="99" ht="20" spans="1:9">
@@ -9943,10 +10473,10 @@
       <c r="F99" s="6"/>
       <c r="G99" s="15"/>
       <c r="H99" s="5" t="s">
-        <v>1244</v>
+        <v>1323</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>1245</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="100" ht="20" spans="1:9">
@@ -9958,10 +10488,10 @@
       <c r="F100" s="6"/>
       <c r="G100" s="17"/>
       <c r="H100" s="5" t="s">
-        <v>1246</v>
+        <v>1325</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>1247</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -9973,10 +10503,10 @@
       <c r="F101" s="6"/>
       <c r="G101" s="15"/>
       <c r="H101" s="7" t="s">
-        <v>1248</v>
+        <v>1327</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>1249</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -9988,10 +10518,10 @@
       <c r="F102" s="6"/>
       <c r="G102" s="15"/>
       <c r="H102" s="7" t="s">
-        <v>1250</v>
+        <v>1329</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>1251</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="103" ht="20" spans="1:9">
@@ -10003,10 +10533,10 @@
       <c r="F103" s="6"/>
       <c r="G103" s="17"/>
       <c r="H103" s="5" t="s">
-        <v>1252</v>
+        <v>1331</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>1253</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -10018,10 +10548,10 @@
       <c r="F104" s="6"/>
       <c r="G104" s="15"/>
       <c r="H104" s="7" t="s">
-        <v>1254</v>
+        <v>1333</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>1253</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="105" ht="20" spans="1:9">
@@ -10033,10 +10563,10 @@
       <c r="F105" s="6"/>
       <c r="G105" s="17"/>
       <c r="H105" s="5" t="s">
-        <v>1255</v>
+        <v>1334</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>1256</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -10048,10 +10578,10 @@
       <c r="F106" s="6"/>
       <c r="G106" s="15"/>
       <c r="H106" s="7" t="s">
-        <v>1257</v>
+        <v>1336</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>1258</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -10063,10 +10593,10 @@
       <c r="F107" s="6"/>
       <c r="G107" s="15"/>
       <c r="H107" s="7" t="s">
-        <v>1259</v>
+        <v>1338</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>1260</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="108" ht="20" spans="1:9">
@@ -10078,10 +10608,10 @@
       <c r="F108" s="6"/>
       <c r="G108" s="17"/>
       <c r="H108" s="5" t="s">
-        <v>1261</v>
+        <v>1340</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>1262</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="109" ht="20" spans="1:9">
@@ -10093,10 +10623,10 @@
       <c r="F109" s="6"/>
       <c r="G109" s="17"/>
       <c r="H109" s="5" t="s">
-        <v>1263</v>
+        <v>1342</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>1264</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -10108,10 +10638,10 @@
       <c r="F110" s="6"/>
       <c r="G110" s="15"/>
       <c r="H110" s="7" t="s">
-        <v>1265</v>
+        <v>1344</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>1266</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="111" ht="20" spans="1:9">
@@ -10123,10 +10653,10 @@
       <c r="F111" s="6"/>
       <c r="G111" s="17"/>
       <c r="H111" s="5" t="s">
-        <v>1267</v>
+        <v>1346</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>1268</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="112" ht="20" spans="1:9">
@@ -10138,10 +10668,10 @@
       <c r="F112" s="6"/>
       <c r="G112" s="17"/>
       <c r="H112" s="5" t="s">
-        <v>1269</v>
+        <v>1348</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>1270</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -10153,10 +10683,10 @@
       <c r="F113" s="6"/>
       <c r="G113" s="15"/>
       <c r="H113" s="7" t="s">
-        <v>1271</v>
+        <v>1350</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>1272</v>
+        <v>1351</v>
       </c>
     </row>
   </sheetData>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635">
   <si>
     <t>Geography -地理</t>
   </si>
@@ -58,6 +58,12 @@
     <t>Weather - 气象</t>
   </si>
   <si>
+    <t xml:space="preserve"> Character - 人物</t>
+  </si>
+  <si>
+    <t>Sociology - 社会学</t>
+  </si>
+  <si>
     <t>insular</t>
   </si>
   <si>
@@ -142,6 +148,18 @@
     <t>温暖的</t>
   </si>
   <si>
+    <t>counsel</t>
+  </si>
+  <si>
+    <t>法律顾问</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>城市的</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -226,6 +244,18 @@
     <t>潮湿的</t>
   </si>
   <si>
+    <t>crew</t>
+  </si>
+  <si>
+    <t>船员</t>
+  </si>
+  <si>
+    <t>rustic</t>
+  </si>
+  <si>
+    <t>乡村的</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -310,6 +340,18 @@
     <t>湿度、湿气</t>
   </si>
   <si>
+    <t>aviator</t>
+  </si>
+  <si>
+    <t>飞行员</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>社区</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -388,6 +430,18 @@
     <t>潮湿</t>
   </si>
   <si>
+    <t>playwrite</t>
+  </si>
+  <si>
+    <t>编剧</t>
+  </si>
+  <si>
+    <t>metropolitan</t>
+  </si>
+  <si>
+    <t>大城市的</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -463,6 +517,18 @@
     <t>dank</t>
   </si>
   <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>经营者</t>
+  </si>
+  <si>
+    <t>exotic</t>
+  </si>
+  <si>
+    <t>外来的</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -544,6 +610,18 @@
     <t>moisture</t>
   </si>
   <si>
+    <t>clergy</t>
+  </si>
+  <si>
+    <t>牧师、神职人员</t>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t>传统的</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
@@ -619,6 +697,18 @@
     <t>使...充满水分</t>
   </si>
   <si>
+    <t>auditor</t>
+  </si>
+  <si>
+    <t>审计员</t>
+  </si>
+  <si>
+    <t>convention</t>
+  </si>
+  <si>
+    <t>传统</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -703,6 +793,18 @@
     <t>干旱</t>
   </si>
   <si>
+    <t>athlete</t>
+  </si>
+  <si>
+    <t>运动员</t>
+  </si>
+  <si>
+    <t>patriarchal</t>
+  </si>
+  <si>
+    <t>族长的</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -778,6 +880,18 @@
     <t>arid</t>
   </si>
   <si>
+    <t>satirist</t>
+  </si>
+  <si>
+    <t>讽刺作家</t>
+  </si>
+  <si>
+    <t>institutionalize</t>
+  </si>
+  <si>
+    <t>使制度化</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -860,6 +974,18 @@
   </si>
   <si>
     <t>寒冷的</t>
+  </si>
+  <si>
+    <t>mathematician</t>
+  </si>
+  <si>
+    <t>数学家</t>
+  </si>
+  <si>
+    <t>clan</t>
+  </si>
+  <si>
+    <t>宗族、部落</t>
   </si>
   <si>
     <t>ebb</t>
@@ -958,6 +1084,18 @@
     <t>寒冷</t>
   </si>
   <si>
+    <t>astronaut</t>
+  </si>
+  <si>
+    <t>宇航员</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>地位</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -1036,6 +1174,15 @@
     <t>frigid</t>
   </si>
   <si>
+    <t>astronomer</t>
+  </si>
+  <si>
+    <t>taboo</t>
+  </si>
+  <si>
+    <t>禁忌</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -1114,6 +1261,18 @@
     <t>平静的</t>
   </si>
   <si>
+    <t>spaceman</t>
+  </si>
+  <si>
+    <t>太空飞船的飞行员</t>
+  </si>
+  <si>
+    <t>ethics</t>
+  </si>
+  <si>
+    <t>伦理学</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
@@ -1192,6 +1351,18 @@
     <t>温热的</t>
   </si>
   <si>
+    <t>botanist</t>
+  </si>
+  <si>
+    <t>植物学家</t>
+  </si>
+  <si>
+    <t>genteel</t>
+  </si>
+  <si>
+    <t>上流社会的</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -1261,6 +1432,18 @@
     <t>大风</t>
   </si>
   <si>
+    <t>choreographer</t>
+  </si>
+  <si>
+    <t>舞蹈指导</t>
+  </si>
+  <si>
+    <t>marital</t>
+  </si>
+  <si>
+    <t>婚姻的</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
@@ -1333,6 +1516,15 @@
     <t>飓风、旋风</t>
   </si>
   <si>
+    <t>侦察员</t>
+  </si>
+  <si>
+    <t>polygamous</t>
+  </si>
+  <si>
+    <t>一夫多妻制</t>
+  </si>
+  <si>
     <t>cosmopolitan</t>
   </si>
   <si>
@@ -1396,6 +1588,18 @@
     <t>大气层</t>
   </si>
   <si>
+    <t>geographer</t>
+  </si>
+  <si>
+    <t>地理学家</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>家庭的</t>
+  </si>
+  <si>
     <t>subterrane</t>
   </si>
   <si>
@@ -1462,6 +1666,12 @@
     <t>气候</t>
   </si>
   <si>
+    <t>geologist</t>
+  </si>
+  <si>
+    <t>地质学家</t>
+  </si>
+  <si>
     <t>subterranean</t>
   </si>
   <si>
@@ -1525,6 +1735,12 @@
     <t>晴雨表、气压计</t>
   </si>
   <si>
+    <t>educator</t>
+  </si>
+  <si>
+    <t>教育者</t>
+  </si>
+  <si>
     <t>cavern</t>
   </si>
   <si>
@@ -1585,6 +1801,12 @@
     <t>微风</t>
   </si>
   <si>
+    <t>faculty</t>
+  </si>
+  <si>
+    <t>从业人员</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
@@ -1651,6 +1873,12 @@
     <t>冲击波</t>
   </si>
   <si>
+    <t>treasurer</t>
+  </si>
+  <si>
+    <t>财务主管</t>
+  </si>
+  <si>
     <t>cleft</t>
   </si>
   <si>
@@ -1717,6 +1945,12 @@
     <t>旋风</t>
   </si>
   <si>
+    <t>archeologist</t>
+  </si>
+  <si>
+    <t>考古学家</t>
+  </si>
+  <si>
     <t>crevice</t>
   </si>
   <si>
@@ -1771,6 +2005,12 @@
     <t>台风</t>
   </si>
   <si>
+    <t>paleoanthropologist</t>
+  </si>
+  <si>
+    <t>古人类学家</t>
+  </si>
+  <si>
     <t>gap</t>
   </si>
   <si>
@@ -1831,6 +2071,9 @@
     <t>旋风、龙卷风</t>
   </si>
   <si>
+    <t>pilot</t>
+  </si>
+  <si>
     <t>zone</t>
   </si>
   <si>
@@ -1888,6 +2131,12 @@
     <t>气象学</t>
   </si>
   <si>
+    <t>meteorologist</t>
+  </si>
+  <si>
+    <t>气象学家</t>
+  </si>
+  <si>
     <t>equator</t>
   </si>
   <si>
@@ -1942,6 +2191,12 @@
     <t>对流层</t>
   </si>
   <si>
+    <t>anthropologist</t>
+  </si>
+  <si>
+    <t>人类学家</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
@@ -1996,6 +2251,12 @@
     <t>水流、气流</t>
   </si>
   <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>艺术家</t>
+  </si>
+  <si>
     <t>altitude</t>
   </si>
   <si>
@@ -2050,6 +2311,12 @@
     <t>漏斗、烟囱</t>
   </si>
   <si>
+    <t>imagist</t>
+  </si>
+  <si>
+    <t>意象派诗人</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -2104,6 +2371,12 @@
     <t>烟雾</t>
   </si>
   <si>
+    <t>inventor</t>
+  </si>
+  <si>
+    <t>发明家</t>
+  </si>
+  <si>
     <t>meridian</t>
   </si>
   <si>
@@ -2155,6 +2428,12 @@
     <t>浓雾</t>
   </si>
   <si>
+    <t>mechanic</t>
+  </si>
+  <si>
+    <t>技工</t>
+  </si>
+  <si>
     <t>subsidiary</t>
   </si>
   <si>
@@ -2209,6 +2488,12 @@
     <t>凝结成为雪或者雨</t>
   </si>
   <si>
+    <t>biographer</t>
+  </si>
+  <si>
+    <t>传记作者</t>
+  </si>
+  <si>
     <t>Antarctic</t>
   </si>
   <si>
@@ -2260,6 +2545,12 @@
     <t>降雨</t>
   </si>
   <si>
+    <t>censor</t>
+  </si>
+  <si>
+    <t>检察员</t>
+  </si>
+  <si>
     <t>Antarctica</t>
   </si>
   <si>
@@ -2314,6 +2605,12 @@
     <t>下小雨</t>
   </si>
   <si>
+    <t>physician</t>
+  </si>
+  <si>
+    <t>医生、内科医生</t>
+  </si>
+  <si>
     <t>Arctic</t>
   </si>
   <si>
@@ -2368,6 +2665,12 @@
     <t>暴风雨</t>
   </si>
   <si>
+    <t>hermit</t>
+  </si>
+  <si>
+    <t>隐士</t>
+  </si>
+  <si>
     <t>coastland</t>
   </si>
   <si>
@@ -2422,6 +2725,9 @@
     <t>露水</t>
   </si>
   <si>
+    <t>recluse</t>
+  </si>
+  <si>
     <t>hemisphere</t>
   </si>
   <si>
@@ -2470,6 +2776,12 @@
     <t>倾盆大雨</t>
   </si>
   <si>
+    <t>ecologist</t>
+  </si>
+  <si>
+    <t>生态学者</t>
+  </si>
+  <si>
     <t>contour</t>
   </si>
   <si>
@@ -2521,6 +2833,12 @@
     <t>小滴水</t>
   </si>
   <si>
+    <t>critic</t>
+  </si>
+  <si>
+    <t>批评家</t>
+  </si>
+  <si>
     <t>geography</t>
   </si>
   <si>
@@ -2572,6 +2890,12 @@
     <t>霜</t>
   </si>
   <si>
+    <t>philanthropist</t>
+  </si>
+  <si>
+    <t>慈善家</t>
+  </si>
+  <si>
     <t>horizon</t>
   </si>
   <si>
@@ -2626,6 +2950,12 @@
     <t>蒸汽</t>
   </si>
   <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>律师</t>
+  </si>
+  <si>
     <t>lowland</t>
   </si>
   <si>
@@ -2671,6 +3001,12 @@
     <t>tempest</t>
   </si>
   <si>
+    <t>congressman</t>
+  </si>
+  <si>
+    <t>国会议员</t>
+  </si>
+  <si>
     <t>plain</t>
   </si>
   <si>
@@ -2719,6 +3055,12 @@
     <t>阵雨</t>
   </si>
   <si>
+    <t>connoisseur</t>
+  </si>
+  <si>
+    <t>行家、鉴赏家</t>
+  </si>
+  <si>
     <t>strait</t>
   </si>
   <si>
@@ -2767,6 +3109,12 @@
     <t>冰雹</t>
   </si>
   <si>
+    <t>entrepreneur</t>
+  </si>
+  <si>
+    <t>企业家</t>
+  </si>
+  <si>
     <t>channel</t>
   </si>
   <si>
@@ -2806,6 +3154,12 @@
     <t>浓缩</t>
   </si>
   <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>委托人</t>
+  </si>
+  <si>
     <t>valley</t>
   </si>
   <si>
@@ -2848,6 +3202,12 @@
     <t>温室效应</t>
   </si>
   <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
     <t>volcano</t>
   </si>
   <si>
@@ -2884,6 +3244,12 @@
     <t>温床、发源地</t>
   </si>
   <si>
+    <t>commander</t>
+  </si>
+  <si>
+    <t>指挥官</t>
+  </si>
+  <si>
     <t>plateau</t>
   </si>
   <si>
@@ -2920,6 +3286,12 @@
     <t>羊圈</t>
   </si>
   <si>
+    <t>commentator</t>
+  </si>
+  <si>
+    <t>评论员</t>
+  </si>
+  <si>
     <t>basin</t>
   </si>
   <si>
@@ -2959,6 +3331,12 @@
     <t>果园</t>
   </si>
   <si>
+    <t>attendant</t>
+  </si>
+  <si>
+    <t>服务人员</t>
+  </si>
+  <si>
     <t>navigation</t>
   </si>
   <si>
@@ -2992,6 +3370,12 @@
     <t>草地、牧地</t>
   </si>
   <si>
+    <t>trapper</t>
+  </si>
+  <si>
+    <t>设陷阱捕猎的人</t>
+  </si>
+  <si>
     <t>ranges</t>
   </si>
   <si>
@@ -3022,6 +3406,12 @@
     <t>猪舍</t>
   </si>
   <si>
+    <t>orator</t>
+  </si>
+  <si>
+    <t>演说家</t>
+  </si>
+  <si>
     <t>salinity</t>
   </si>
   <si>
@@ -3058,6 +3448,12 @@
     <t>猪圈</t>
   </si>
   <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>白痴</t>
+  </si>
+  <si>
     <t>sediment</t>
   </si>
   <si>
@@ -3091,6 +3487,12 @@
     <t>大农场</t>
   </si>
   <si>
+    <t>idiocy</t>
+  </si>
+  <si>
+    <t>白痴的行为</t>
+  </si>
+  <si>
     <t>elevation</t>
   </si>
   <si>
@@ -3121,6 +3523,9 @@
     <t>ranch</t>
   </si>
   <si>
+    <t>moron</t>
+  </si>
+  <si>
     <t>formation</t>
   </si>
   <si>
@@ -3151,6 +3556,12 @@
     <t>（喂动物的）食槽</t>
   </si>
   <si>
+    <t>illiterate</t>
+  </si>
+  <si>
+    <t>文盲</t>
+  </si>
+  <si>
     <t>geothermy</t>
   </si>
   <si>
@@ -3178,6 +3589,12 @@
     <t>偿还、付还</t>
   </si>
   <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>代理</t>
+  </si>
+  <si>
     <t>terrain</t>
   </si>
   <si>
@@ -3208,6 +3625,12 @@
     <t>获得</t>
   </si>
   <si>
+    <t>deputy</t>
+  </si>
+  <si>
+    <t>代理人</t>
+  </si>
+  <si>
     <t>topography</t>
   </si>
   <si>
@@ -3235,6 +3658,12 @@
     <t>低估</t>
   </si>
   <si>
+    <t>proprietor</t>
+  </si>
+  <si>
+    <t>业主</t>
+  </si>
+  <si>
     <t>tropical</t>
   </si>
   <si>
@@ -3265,6 +3694,12 @@
     <t>交换</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>消费者</t>
+  </si>
+  <si>
     <t>tropics</t>
   </si>
   <si>
@@ -3292,6 +3727,12 @@
     <t>评估、征税</t>
   </si>
   <si>
+    <t>employer</t>
+  </si>
+  <si>
+    <t>雇主</t>
+  </si>
+  <si>
     <t>temperate</t>
   </si>
   <si>
@@ -3322,6 +3763,12 @@
     <t>巩固</t>
   </si>
   <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>雇员</t>
+  </si>
+  <si>
     <t>chimpanzee</t>
   </si>
   <si>
@@ -3343,6 +3790,12 @@
     <t>借贷</t>
   </si>
   <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>债务人</t>
+  </si>
+  <si>
     <t>baboon</t>
   </si>
   <si>
@@ -3367,6 +3820,12 @@
     <t>还款</t>
   </si>
   <si>
+    <t>arbitrator</t>
+  </si>
+  <si>
+    <t>仲裁人</t>
+  </si>
+  <si>
     <t>gorilla</t>
   </si>
   <si>
@@ -3388,6 +3847,12 @@
     <t>公用事业、效用</t>
   </si>
   <si>
+    <t>superintendent</t>
+  </si>
+  <si>
+    <t>负责人、主管</t>
+  </si>
+  <si>
     <t>lizard</t>
   </si>
   <si>
@@ -3412,6 +3877,12 @@
     <t>选择</t>
   </si>
   <si>
+    <t>apprentice</t>
+  </si>
+  <si>
+    <t>学徒</t>
+  </si>
+  <si>
     <t>moth</t>
   </si>
   <si>
@@ -3433,6 +3904,12 @@
     <t>option</t>
   </si>
   <si>
+    <t>tenant</t>
+  </si>
+  <si>
+    <t>租户</t>
+  </si>
+  <si>
     <t>canary</t>
   </si>
   <si>
@@ -3457,6 +3934,12 @@
     <t>经济学</t>
   </si>
   <si>
+    <t>miser</t>
+  </si>
+  <si>
+    <t>守财奴</t>
+  </si>
+  <si>
     <t>caterpillar</t>
   </si>
   <si>
@@ -3481,6 +3964,12 @@
     <t>产出</t>
   </si>
   <si>
+    <t>donor</t>
+  </si>
+  <si>
+    <t>捐赠者</t>
+  </si>
+  <si>
     <t>dinosaur</t>
   </si>
   <si>
@@ -3502,6 +3991,12 @@
     <t>goods</t>
   </si>
   <si>
+    <t>personnel</t>
+  </si>
+  <si>
+    <t>人员、员工</t>
+  </si>
+  <si>
     <t>chameleon</t>
   </si>
   <si>
@@ -3526,6 +4021,12 @@
     <t>机会</t>
   </si>
   <si>
+    <t>benefactor</t>
+  </si>
+  <si>
+    <t>捐助者</t>
+  </si>
+  <si>
     <t>larva</t>
   </si>
   <si>
@@ -3547,6 +4048,12 @@
     <t>benefit</t>
   </si>
   <si>
+    <t>mortal</t>
+  </si>
+  <si>
+    <t>不能永生的、终将死亡的</t>
+  </si>
+  <si>
     <t>bat</t>
   </si>
   <si>
@@ -3571,6 +4078,12 @@
     <t>合同</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>陪伴、交往</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -3595,6 +4108,12 @@
     <t>抽奖彩票</t>
   </si>
   <si>
+    <t>audience</t>
+  </si>
+  <si>
+    <t>观众、听众</t>
+  </si>
+  <si>
     <t>class</t>
   </si>
   <si>
@@ -3619,6 +4138,12 @@
     <t>交易、处理</t>
   </si>
   <si>
+    <t>recipient</t>
+  </si>
+  <si>
+    <t>接受者</t>
+  </si>
+  <si>
     <t>suborder</t>
   </si>
   <si>
@@ -3643,6 +4168,9 @@
     <t>预算</t>
   </si>
   <si>
+    <t>说明者</t>
+  </si>
+  <si>
     <t>order</t>
   </si>
   <si>
@@ -3667,6 +4195,12 @@
     <t>赞助、支持</t>
   </si>
   <si>
+    <t>resident</t>
+  </si>
+  <si>
+    <t>居民</t>
+  </si>
+  <si>
     <t>genus</t>
   </si>
   <si>
@@ -3688,6 +4222,9 @@
     <t>choose</t>
   </si>
   <si>
+    <t>inhabitant</t>
+  </si>
+  <si>
     <t>antenna</t>
   </si>
   <si>
@@ -3703,6 +4240,12 @@
     <t>choice</t>
   </si>
   <si>
+    <t>bachelor</t>
+  </si>
+  <si>
+    <t>学士</t>
+  </si>
+  <si>
     <t>tentacle</t>
   </si>
   <si>
@@ -3721,6 +4264,12 @@
     <t>作物物交换</t>
   </si>
   <si>
+    <t>idol</t>
+  </si>
+  <si>
+    <t>偶像</t>
+  </si>
+  <si>
     <t>brain</t>
   </si>
   <si>
@@ -3739,6 +4288,12 @@
     <t>购买</t>
   </si>
   <si>
+    <t>novice</t>
+  </si>
+  <si>
+    <t>新手</t>
+  </si>
+  <si>
     <t>spleen</t>
   </si>
   <si>
@@ -3751,6 +4306,12 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>believer</t>
+  </si>
+  <si>
+    <t>信徒</t>
+  </si>
+  <si>
     <t>hide</t>
   </si>
   <si>
@@ -3769,6 +4330,12 @@
     <t>委托、授权</t>
   </si>
   <si>
+    <t>cult</t>
+  </si>
+  <si>
+    <t>狂热信徒</t>
+  </si>
+  <si>
     <t>spine</t>
   </si>
   <si>
@@ -3787,6 +4354,12 @@
     <t>赎回</t>
   </si>
   <si>
+    <t>fanatic</t>
+  </si>
+  <si>
+    <t>狂热入迷者</t>
+  </si>
+  <si>
     <t>spineless</t>
   </si>
   <si>
@@ -3802,6 +4375,12 @@
     <t>费用</t>
   </si>
   <si>
+    <t>adherent</t>
+  </si>
+  <si>
+    <t>追随者</t>
+  </si>
+  <si>
     <t>toe</t>
   </si>
   <si>
@@ -3820,6 +4399,12 @@
     <t>债券</t>
   </si>
   <si>
+    <t>faithful</t>
+  </si>
+  <si>
+    <t>支持者、追随者</t>
+  </si>
+  <si>
     <t>term</t>
   </si>
   <si>
@@ -3832,6 +4417,12 @@
     <t>风俗、习惯</t>
   </si>
   <si>
+    <t>disciple</t>
+  </si>
+  <si>
+    <t>信徒、门徒</t>
+  </si>
+  <si>
     <t>beak</t>
   </si>
   <si>
@@ -3850,6 +4441,12 @@
     <t>奖金</t>
   </si>
   <si>
+    <t>champion</t>
+  </si>
+  <si>
+    <t>拥护者</t>
+  </si>
+  <si>
     <t>fuzzy</t>
   </si>
   <si>
@@ -3865,6 +4462,12 @@
     <t>利息、利益</t>
   </si>
   <si>
+    <t>assassin</t>
+  </si>
+  <si>
+    <t>暗杀者</t>
+  </si>
+  <si>
     <t>head</t>
   </si>
   <si>
@@ -3883,6 +4486,12 @@
     <t>收入、财富；方法、手段</t>
   </si>
   <si>
+    <t>bandit</t>
+  </si>
+  <si>
+    <t>土匪</t>
+  </si>
+  <si>
     <t>hump</t>
   </si>
   <si>
@@ -3901,6 +4510,12 @@
     <t>债务</t>
   </si>
   <si>
+    <t>burglar</t>
+  </si>
+  <si>
+    <t>夜贼</t>
+  </si>
+  <si>
     <t>scale</t>
   </si>
   <si>
@@ -3919,6 +4534,12 @@
     <t>现款</t>
   </si>
   <si>
+    <t>barbarian</t>
+  </si>
+  <si>
+    <t>野蛮人</t>
+  </si>
+  <si>
     <t>wing</t>
   </si>
   <si>
@@ -3937,6 +4558,12 @@
     <t>收入</t>
   </si>
   <si>
+    <t>exile</t>
+  </si>
+  <si>
+    <t>流放者</t>
+  </si>
+  <si>
     <t>fluffy</t>
   </si>
   <si>
@@ -3949,6 +4576,12 @@
     <t>指示、开药方</t>
   </si>
   <si>
+    <t>rebel</t>
+  </si>
+  <si>
+    <t>反叛者</t>
+  </si>
+  <si>
     <t>carnal</t>
   </si>
   <si>
@@ -3961,6 +4594,12 @@
     <t>集合、一套</t>
   </si>
   <si>
+    <t>addict</t>
+  </si>
+  <si>
+    <t>瘾君子</t>
+  </si>
+  <si>
     <t>nervous</t>
   </si>
   <si>
@@ -3973,6 +4612,12 @@
     <t>证书、凭据</t>
   </si>
   <si>
+    <t>egoist</t>
+  </si>
+  <si>
+    <t>自我主义者</t>
+  </si>
+  <si>
     <t>fat</t>
   </si>
   <si>
@@ -3985,6 +4630,12 @@
     <t>标准</t>
   </si>
   <si>
+    <t>eyewitness</t>
+  </si>
+  <si>
+    <t>目击者</t>
+  </si>
+  <si>
     <t>grease</t>
   </si>
   <si>
@@ -3994,48 +4645,96 @@
     <t>颁布</t>
   </si>
   <si>
+    <t>spectator</t>
+  </si>
+  <si>
+    <t>观众、旁观者</t>
+  </si>
+  <si>
     <t>greasy</t>
   </si>
   <si>
     <t>油腻</t>
   </si>
   <si>
+    <t>spouse</t>
+  </si>
+  <si>
+    <t>配偶</t>
+  </si>
+  <si>
     <t>turtle</t>
   </si>
   <si>
     <t>乌龟</t>
   </si>
   <si>
+    <t>couple</t>
+  </si>
+  <si>
+    <t>夫妻</t>
+  </si>
+  <si>
     <t>beaver</t>
   </si>
   <si>
     <t>海狸</t>
   </si>
   <si>
+    <t>beneficiary</t>
+  </si>
+  <si>
+    <t>受益人</t>
+  </si>
+  <si>
     <t>jellyfish</t>
   </si>
   <si>
     <t>水母、海蜇</t>
   </si>
   <si>
+    <t>inferior</t>
+  </si>
+  <si>
+    <t>下级</t>
+  </si>
+  <si>
     <t>starfish</t>
   </si>
   <si>
     <t>海星</t>
   </si>
   <si>
+    <t>zealot</t>
+  </si>
+  <si>
+    <t>狂热者</t>
+  </si>
+  <si>
     <t>whale</t>
   </si>
   <si>
     <t>鲸</t>
   </si>
   <si>
+    <t>precursor</t>
+  </si>
+  <si>
+    <t>先驱</t>
+  </si>
+  <si>
     <t>porpoise</t>
   </si>
   <si>
     <t>海豚</t>
   </si>
   <si>
+    <t>avant - grade</t>
+  </si>
+  <si>
+    <t>前卫、先锋</t>
+  </si>
+  <si>
     <t>dolphine</t>
   </si>
   <si>
@@ -4057,40 +4756,190 @@
     <t>龙虾</t>
   </si>
   <si>
+    <t>alumni</t>
+  </si>
+  <si>
+    <t>校友</t>
+  </si>
+  <si>
     <t>sponge</t>
   </si>
   <si>
     <t>海绵</t>
   </si>
   <si>
+    <t>skeptic</t>
+  </si>
+  <si>
+    <t>怀疑论者</t>
+  </si>
+  <si>
     <t>plankton</t>
   </si>
   <si>
     <t>浮游生物</t>
   </si>
   <si>
+    <t>malcontent</t>
+  </si>
+  <si>
+    <t>不满者</t>
+  </si>
+  <si>
     <t>oyster</t>
   </si>
   <si>
     <t>牡蛎</t>
   </si>
   <si>
+    <t>foe</t>
+  </si>
+  <si>
+    <t>敌人、反对</t>
+  </si>
+  <si>
     <t>clam</t>
   </si>
   <si>
     <t>蛤</t>
   </si>
   <si>
+    <t>opponent</t>
+  </si>
+  <si>
+    <t>敌手、对手</t>
+  </si>
+  <si>
     <t>coral</t>
   </si>
   <si>
     <t>珊瑚</t>
   </si>
   <si>
+    <t>rival</t>
+  </si>
+  <si>
+    <t>竞争者</t>
+  </si>
+  <si>
     <t>crab</t>
   </si>
   <si>
     <t>螃蟹</t>
+  </si>
+  <si>
+    <t>celebrity</t>
+  </si>
+  <si>
+    <t>名人</t>
+  </si>
+  <si>
+    <t>figurehead</t>
+  </si>
+  <si>
+    <t>挂名的首脑</t>
+  </si>
+  <si>
+    <t>veteran</t>
+  </si>
+  <si>
+    <t>经验丰富的老兵</t>
+  </si>
+  <si>
+    <t>traitor</t>
+  </si>
+  <si>
+    <t>背叛者</t>
+  </si>
+  <si>
+    <t>advocate</t>
+  </si>
+  <si>
+    <t>支持者、提倡者</t>
+  </si>
+  <si>
+    <t>feminist</t>
+  </si>
+  <si>
+    <t>男女平等者</t>
+  </si>
+  <si>
+    <t>humanitarian</t>
+  </si>
+  <si>
+    <t>人道主义</t>
+  </si>
+  <si>
+    <t>throng</t>
+  </si>
+  <si>
+    <t>群众</t>
+  </si>
+  <si>
+    <t>civilian</t>
+  </si>
+  <si>
+    <t>百姓</t>
+  </si>
+  <si>
+    <t>monarch</t>
+  </si>
+  <si>
+    <t>君主、帝王</t>
+  </si>
+  <si>
+    <t>conservative</t>
+  </si>
+  <si>
+    <t>保守的人</t>
+  </si>
+  <si>
+    <t>envoy</t>
+  </si>
+  <si>
+    <t>使者</t>
+  </si>
+  <si>
+    <t>aristocrat</t>
+  </si>
+  <si>
+    <t>贵族</t>
+  </si>
+  <si>
+    <t>gentry</t>
+  </si>
+  <si>
+    <t>绅士</t>
+  </si>
+  <si>
+    <t>autocrat</t>
+  </si>
+  <si>
+    <t>独裁者</t>
+  </si>
+  <si>
+    <t>delegate</t>
+  </si>
+  <si>
+    <t>代表</t>
+  </si>
+  <si>
+    <t>democrat</t>
+  </si>
+  <si>
+    <t>民主党人</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>独立者</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>候选人、申请者</t>
   </si>
 </sst>
 </file>
@@ -5218,10 +6067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AP113"/>
+  <dimension ref="A1:AV131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AO45" sqref="AO45:AP45"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
@@ -5268,9 +6117,15 @@
     <col min="40" max="40" width="4.1640625" customWidth="1"/>
     <col min="41" max="41" width="18.1015625" customWidth="1"/>
     <col min="42" max="42" width="23.6953125" customWidth="1"/>
+    <col min="43" max="43" width="4.5546875" customWidth="1"/>
+    <col min="44" max="44" width="26.171875" customWidth="1"/>
+    <col min="45" max="45" width="29.0390625" customWidth="1"/>
+    <col min="46" max="46" width="4.296875" customWidth="1"/>
+    <col min="47" max="47" width="19.921875" customWidth="1"/>
+    <col min="48" max="48" width="20.046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:42">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:48">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5341,4015 +6196,4522 @@
       </c>
       <c r="AO1" s="21"/>
       <c r="AP1" s="21"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:42">
+      <c r="AQ1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:48">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V2" s="20"/>
       <c r="W2" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y2" s="27"/>
       <c r="Z2" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="27"/>
       <c r="AC2" s="21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AF2" s="22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG2" s="22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI2" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ2" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL2" s="22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM2" s="22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AN2" s="20"/>
       <c r="AO2" s="32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AP2" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:42">
+        <v>43</v>
+      </c>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU2" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:48">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="22" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="22" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AA3" s="22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AD3" s="22" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AG3" s="22" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AI3" s="22" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="22" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AL3" s="22" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AM3" s="22" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AO3" s="33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AP3" s="33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:42">
+        <v>75</v>
+      </c>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS3" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT3" s="20"/>
+      <c r="AU3" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV3" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:48">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="21" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="V4" s="20"/>
       <c r="W4" s="21" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="Y4" s="27"/>
       <c r="Z4" s="21" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AB4" s="27"/>
       <c r="AC4" s="21" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AD4" s="21" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="AF4" s="22" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG4" s="22" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AI4" s="22" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AJ4" s="22" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AL4" s="22" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AM4" s="22" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AO4" s="33" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AP4" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" ht="20" spans="1:42">
+        <v>107</v>
+      </c>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS4" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU4" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV4" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" ht="20" spans="1:48">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="22" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="Y5" s="28"/>
       <c r="Z5" s="21" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="AB5" s="27"/>
       <c r="AC5" s="21" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" s="21" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="AG5" s="21" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="AH5" s="26"/>
       <c r="AI5" s="21" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="AJ5" s="21" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="AK5" s="26"/>
       <c r="AL5" s="21" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="AM5" s="21" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="AN5" s="26"/>
       <c r="AO5" s="32" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="AP5" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" ht="20" spans="1:42">
+        <v>137</v>
+      </c>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS5" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV5" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" ht="20" spans="1:48">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="21" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="21" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="Y6" s="29"/>
       <c r="Z6" s="22" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="AB6" s="27"/>
       <c r="AC6" s="21" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="AE6" s="26"/>
       <c r="AF6" s="21" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="AG6" s="21" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="AI6" s="22" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="AJ6" s="22" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="AL6" s="22" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AM6" s="22" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="AN6" s="26"/>
       <c r="AO6" s="32" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="AP6" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" ht="20" spans="1:42">
+        <v>75</v>
+      </c>
+      <c r="AR6" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS6" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU6" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV6" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" ht="20" spans="1:48">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="21" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="22" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="W7" s="22" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="X7" s="22" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="Y7" s="29"/>
       <c r="Z7" s="22" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="AA7" s="22" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="AB7" s="27"/>
       <c r="AC7" s="21" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="AD7" s="21" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AF7" s="22" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="AG7" s="22" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="AI7" s="22" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="AJ7" s="22" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="AK7" s="26"/>
       <c r="AL7" s="21" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="AM7" s="21" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="AO7" s="33" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="AP7" s="33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" ht="20" spans="1:42">
+        <v>75</v>
+      </c>
+      <c r="AR7" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS7" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU7" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="AV7" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" ht="20" spans="1:48">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="21" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="21" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="21" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="W8" s="22" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="X8" s="22" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="Y8" s="29"/>
       <c r="Z8" s="22" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="AA8" s="22" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="AB8" s="29"/>
       <c r="AC8" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD8" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF8" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG8" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="AD8" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF8" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG8" s="22" t="s">
-        <v>170</v>
       </c>
       <c r="AH8" s="26"/>
       <c r="AI8" s="21" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="AJ8" s="21" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="AK8" s="26"/>
       <c r="AL8" s="21" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="AM8" s="21" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="AN8" s="26"/>
       <c r="AO8" s="32" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="AP8" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" ht="20" spans="1:42">
+        <v>226</v>
+      </c>
+      <c r="AR8" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS8" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU8" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV8" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" ht="20" spans="1:48">
       <c r="A9" s="11"/>
       <c r="B9" s="5" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="7" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="21" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="S9" s="25"/>
       <c r="T9" s="21" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="X9" s="22" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="Y9" s="28"/>
       <c r="Z9" s="21" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="AB9" s="29"/>
       <c r="AC9" s="22" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="AD9" s="22" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AE9" s="26"/>
       <c r="AF9" s="21" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="AG9" s="21" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="AH9" s="26"/>
       <c r="AI9" s="21" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="AJ9" s="21" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="AK9" s="26"/>
       <c r="AL9" s="21" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="AM9" s="21" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="AO9" s="33" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="AP9" s="33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" ht="20" spans="1:42">
+        <v>258</v>
+      </c>
+      <c r="AR9" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS9" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV9" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" ht="20" spans="1:48">
       <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="5" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="21" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="22" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="U10" s="22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="V10" s="26"/>
       <c r="W10" s="21" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="X10" s="21" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="Y10" s="28"/>
       <c r="Z10" s="21" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="AA10" s="21" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="AB10" s="27"/>
       <c r="AC10" s="21" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="AD10" s="21" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="AE10" s="26"/>
       <c r="AF10" s="21" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="AG10" s="21" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="AH10" s="26"/>
       <c r="AI10" s="21" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="AJ10" s="21" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="AK10" s="26"/>
       <c r="AL10" s="21" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="AM10" s="21" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="AO10" s="33" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="AP10" s="33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" ht="20" spans="1:42">
+        <v>258</v>
+      </c>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="AS10" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AV10" s="32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" ht="20" spans="1:48">
       <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="5" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="22" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="21" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="W11" s="22" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="X11" s="22" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="Y11" s="28"/>
       <c r="Z11" s="21" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="AB11" s="27"/>
       <c r="AC11" s="21" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="AD11" s="21" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="AE11" s="26"/>
       <c r="AF11" s="21" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="AG11" s="21" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="AI11" s="22" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="AJ11" s="22" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="AL11" s="22" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="AM11" s="22" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="AO11" s="33" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="AP11" s="33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" ht="24" spans="1:42">
+        <v>319</v>
+      </c>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="AS11" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="AU11" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="AV11" s="33" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:48">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="5" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="7" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="21" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="M12" s="24"/>
       <c r="N12" s="21" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="S12" s="25"/>
       <c r="T12" s="21" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="U12" s="21" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="W12" s="22" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="X12" s="22" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="Y12" s="28"/>
       <c r="Z12" s="21" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="AA12" s="21" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="AB12" s="27"/>
       <c r="AC12" s="21" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="AD12" s="21" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="AF12" s="22" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="AG12" s="22" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="AH12" s="26"/>
       <c r="AI12" s="21" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="AJ12" s="21" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="AL12" s="22" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="AM12" s="22" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="AO12" s="33" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="AP12" s="33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" ht="20" spans="1:42">
+        <v>348</v>
+      </c>
+      <c r="AR12" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="AS12" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="AU12" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV12" s="33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" ht="20" spans="1:48">
       <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="7" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="21" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="R13" s="21" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="S13" s="25"/>
       <c r="T13" s="21" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="V13" s="26"/>
       <c r="W13" s="21" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="X13" s="21" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="Y13" s="29"/>
       <c r="Z13" s="22" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="AA13" s="22" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="AB13" s="27"/>
       <c r="AC13" s="21" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="AD13" s="21" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="AE13" s="26"/>
       <c r="AF13" s="21" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="AG13" s="21" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="AI13" s="22" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="AJ13" s="22" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="AK13" s="26"/>
       <c r="AL13" s="21" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="AM13" s="21" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="AO13" s="33" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="AP13" s="33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" ht="20" spans="1:42">
+        <v>319</v>
+      </c>
+      <c r="AR13" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS13" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="AU13" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="AV13" s="33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" ht="20" spans="1:48">
       <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="5" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="7" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="21" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="P14" s="24"/>
       <c r="Q14" s="21" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="22" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="U14" s="22" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="X14" s="22" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="Y14" s="29"/>
       <c r="Z14" s="22" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="AA14" s="22" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="AB14" s="27"/>
       <c r="AC14" s="21" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="AD14" s="21" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="AF14" s="22" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="AG14" s="22" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="AI14" s="22" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="AJ14" s="22" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="AL14" s="22" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="AM14" s="22" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="AN14" s="26"/>
       <c r="AO14" s="32" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="AP14" s="32" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" ht="20" spans="1:42">
+        <v>407</v>
+      </c>
+      <c r="AR14" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="AS14" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="AV14" s="32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" ht="20" spans="1:48">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>364</v>
+        <v>417</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="21" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="21" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="V15" s="26"/>
       <c r="W15" s="21" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="X15" s="21" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="Y15" s="29"/>
       <c r="Z15" s="22" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="AA15" s="22" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="AB15" s="27"/>
       <c r="AC15" s="21" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="AD15" s="21" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="AF15" s="22" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="AG15" s="22" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="AI15" s="22" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="AJ15" s="22" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="AK15" s="26"/>
       <c r="AL15" s="21" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="AM15" s="21" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="AN15" s="26"/>
       <c r="AO15" s="32" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="AP15" s="32" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" ht="20" spans="1:42">
+        <v>437</v>
+      </c>
+      <c r="AR15" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="AS15" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV15" s="32" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" ht="20" spans="1:48">
       <c r="A16" s="9"/>
       <c r="B16" s="7" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="7" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="V16" s="26"/>
       <c r="W16" s="21" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="X16" s="21" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="Y16" s="29"/>
       <c r="Z16" s="22" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="AA16" s="22" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="AB16" s="27"/>
       <c r="AC16" s="21" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="AD16" s="21" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="AF16" s="22" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="AG16" s="22" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="AH16" s="26"/>
       <c r="AI16" s="21" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="AJ16" s="21" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="AK16" s="26"/>
       <c r="AL16" s="21" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="AM16" s="21" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="AN16" s="26"/>
       <c r="AO16" s="32" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="AP16" s="32" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" ht="20" spans="1:42">
+        <v>464</v>
+      </c>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="AS16" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="AV16" s="32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" ht="20" spans="1:48">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="21" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="21" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="W17" s="22" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="X17" s="22" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="Y17" s="29"/>
       <c r="Z17" s="22" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="AA17" s="22" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="AB17" s="29"/>
       <c r="AC17" s="22" t="s">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="AD17" s="22" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
       <c r="AF17" s="22" t="s">
-        <v>424</v>
+        <v>485</v>
       </c>
       <c r="AG17" s="22" t="s">
-        <v>425</v>
+        <v>486</v>
       </c>
       <c r="AH17" s="26"/>
       <c r="AI17" s="21" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="AJ17" s="21" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="AK17" s="26"/>
       <c r="AL17" s="21" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="AM17" s="21" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="AO17" s="33" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="AP17" s="33" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="18" ht="20" spans="1:42">
+        <v>492</v>
+      </c>
+      <c r="AR17" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS17" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="AV17" s="32" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" ht="20" spans="1:48">
       <c r="A18" s="9"/>
       <c r="B18" s="7" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="7" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="M18" s="24"/>
       <c r="N18" s="21" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="X18" s="22" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="Y18" s="28"/>
       <c r="Z18" s="21" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="AA18" s="21" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="AB18" s="27"/>
       <c r="AC18" s="21" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="AD18" s="21" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="AE18" s="26"/>
       <c r="AF18" s="21" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="AG18" s="21" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="AH18" s="26"/>
       <c r="AI18" s="21" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="AJ18" s="21" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="AO18" s="33" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="AP18" s="33" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="19" ht="20" spans="1:42">
+        <v>516</v>
+      </c>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="AS18" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU18" s="33" t="s">
+        <v>519</v>
+      </c>
+      <c r="AV18" s="33" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" ht="20" spans="1:45">
       <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="7" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="M19" s="22"/>
       <c r="N19" s="22" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="W19" s="22" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="X19" s="22" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="Y19" s="29"/>
       <c r="Z19" s="22" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="AA19" s="22" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="AB19" s="27"/>
       <c r="AC19" s="21" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
       <c r="AD19" s="21" t="s">
-        <v>468</v>
+        <v>536</v>
       </c>
       <c r="AF19" s="22" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
       <c r="AG19" s="22" t="s">
-        <v>470</v>
+        <v>538</v>
       </c>
       <c r="AH19" s="26"/>
       <c r="AI19" s="21" t="s">
-        <v>471</v>
+        <v>539</v>
       </c>
       <c r="AJ19" s="21" t="s">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="AO19" s="33" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="AP19" s="33" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="20" ht="20" spans="1:42">
+        <v>542</v>
+      </c>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="AS19" s="32" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" ht="20" spans="1:45">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="5" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="5" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="21" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="M20" s="22"/>
       <c r="N20" s="22" t="s">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>484</v>
+        <v>554</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="21" t="s">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="X20" s="21" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="Y20" s="29"/>
       <c r="Z20" s="22" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="AA20" s="22" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="AB20" s="27"/>
       <c r="AC20" s="21" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="AD20" s="21" t="s">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="AE20" s="26"/>
       <c r="AF20" s="21" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
       <c r="AG20" s="21" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="AI20" s="22" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="AJ20" s="22" t="s">
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="AN20" s="26"/>
       <c r="AO20" s="32" t="s">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="AP20" s="32" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="21" ht="20" spans="1:42">
+        <v>565</v>
+      </c>
+      <c r="AR20" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="AS20" s="33" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="21" ht="20" spans="1:45">
       <c r="A21" s="9"/>
       <c r="B21" s="7" t="s">
-        <v>496</v>
+        <v>568</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
-        <v>497</v>
+        <v>569</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="7" t="s">
-        <v>499</v>
+        <v>571</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="M21" s="24"/>
       <c r="N21" s="21" t="s">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>504</v>
+        <v>576</v>
       </c>
       <c r="W21" s="22" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="X21" s="22" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="Y21" s="29"/>
       <c r="Z21" s="22" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="AA21" s="22" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="AB21" s="29"/>
       <c r="AC21" s="22" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="AD21" s="22" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="AE21" s="26"/>
       <c r="AF21" s="21" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="AG21" s="21" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="AI21" s="22" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="AJ21" s="22" t="s">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="AO21" s="33" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="AP21" s="33" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="22" ht="20" spans="1:42">
+        <v>587</v>
+      </c>
+      <c r="AR21" s="33" t="s">
+        <v>588</v>
+      </c>
+      <c r="AS21" s="33" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" ht="20" spans="1:45">
       <c r="A22" s="9"/>
       <c r="B22" s="7" t="s">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>519</v>
+        <v>593</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="7" t="s">
-        <v>520</v>
+        <v>594</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="21" t="s">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="M22" s="24"/>
       <c r="N22" s="21" t="s">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="V22" s="26"/>
       <c r="W22" s="21" t="s">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="X22" s="21" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="Y22" s="29"/>
       <c r="Z22" s="22" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="AA22" s="22" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="AB22" s="27"/>
       <c r="AC22" s="21" t="s">
-        <v>530</v>
+        <v>604</v>
       </c>
       <c r="AD22" s="21" t="s">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="AE22" s="26"/>
       <c r="AF22" s="21" t="s">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="AG22" s="21" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
       <c r="AI22" s="22" t="s">
-        <v>534</v>
+        <v>608</v>
       </c>
       <c r="AJ22" s="22" t="s">
-        <v>535</v>
+        <v>609</v>
       </c>
       <c r="AN22" s="26"/>
       <c r="AO22" s="32" t="s">
-        <v>536</v>
+        <v>610</v>
       </c>
       <c r="AP22" s="32" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="23" ht="20" spans="1:42">
+        <v>611</v>
+      </c>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="AS22" s="32" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="23" ht="20" spans="1:45">
       <c r="A23" s="11"/>
       <c r="B23" s="5" t="s">
-        <v>538</v>
+        <v>614</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>539</v>
+        <v>615</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
-        <v>540</v>
+        <v>616</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5" t="s">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>543</v>
+        <v>619</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="21" t="s">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="M23" s="24"/>
       <c r="N23" s="21" t="s">
-        <v>546</v>
+        <v>622</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>547</v>
+        <v>623</v>
       </c>
       <c r="V23" s="26"/>
       <c r="W23" s="21" t="s">
-        <v>548</v>
+        <v>624</v>
       </c>
       <c r="X23" s="21" t="s">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="Y23" s="28"/>
       <c r="Z23" s="21" t="s">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="AA23" s="21" t="s">
-        <v>551</v>
+        <v>627</v>
       </c>
       <c r="AB23" s="27"/>
       <c r="AC23" s="21" t="s">
-        <v>552</v>
+        <v>628</v>
       </c>
       <c r="AD23" s="21" t="s">
-        <v>553</v>
+        <v>629</v>
       </c>
       <c r="AF23" s="22" t="s">
-        <v>554</v>
+        <v>630</v>
       </c>
       <c r="AG23" s="22" t="s">
-        <v>555</v>
+        <v>631</v>
       </c>
       <c r="AI23" s="22" t="s">
-        <v>556</v>
+        <v>632</v>
       </c>
       <c r="AJ23" s="22" t="s">
-        <v>557</v>
+        <v>633</v>
       </c>
       <c r="AN23" s="31"/>
       <c r="AO23" s="32" t="s">
-        <v>558</v>
+        <v>634</v>
       </c>
       <c r="AP23" s="32" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="24" ht="20" spans="1:42">
+        <v>635</v>
+      </c>
+      <c r="AR23" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="AS23" s="33" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="24" ht="20" spans="1:45">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
-        <v>560</v>
+        <v>638</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>539</v>
+        <v>615</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="21" t="s">
-        <v>565</v>
+        <v>643</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="22" t="s">
-        <v>566</v>
+        <v>644</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>567</v>
+        <v>645</v>
       </c>
       <c r="V24" s="26"/>
       <c r="W24" s="21" t="s">
-        <v>568</v>
+        <v>646</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>569</v>
+        <v>647</v>
       </c>
       <c r="Y24" s="29"/>
       <c r="Z24" s="22" t="s">
-        <v>570</v>
+        <v>648</v>
       </c>
       <c r="AA24" s="22" t="s">
-        <v>571</v>
+        <v>649</v>
       </c>
       <c r="AB24" s="29"/>
       <c r="AC24" s="22" t="s">
-        <v>572</v>
+        <v>650</v>
       </c>
       <c r="AD24" s="22" t="s">
-        <v>573</v>
+        <v>651</v>
       </c>
       <c r="AI24" s="22" t="s">
-        <v>574</v>
+        <v>652</v>
       </c>
       <c r="AJ24" s="22" t="s">
-        <v>575</v>
+        <v>653</v>
       </c>
       <c r="AO24" s="33" t="s">
-        <v>576</v>
+        <v>654</v>
       </c>
       <c r="AP24" s="33" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="25" ht="20" spans="1:42">
+        <v>655</v>
+      </c>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="AS24" s="32" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="25" ht="20" spans="1:45">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>578</v>
+        <v>658</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>579</v>
+        <v>659</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>581</v>
+        <v>661</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>583</v>
+        <v>663</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>584</v>
+        <v>664</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>585</v>
+        <v>665</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="21" t="s">
-        <v>586</v>
+        <v>666</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>587</v>
+        <v>667</v>
       </c>
       <c r="V25" s="26"/>
       <c r="W25" s="21" t="s">
-        <v>588</v>
+        <v>668</v>
       </c>
       <c r="X25" s="21" t="s">
-        <v>589</v>
+        <v>669</v>
       </c>
       <c r="Y25" s="29"/>
       <c r="Z25" s="22" t="s">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="AA25" s="22" t="s">
-        <v>591</v>
+        <v>671</v>
       </c>
       <c r="AB25" s="27"/>
       <c r="AC25" s="21" t="s">
-        <v>592</v>
+        <v>672</v>
       </c>
       <c r="AD25" s="21" t="s">
-        <v>593</v>
+        <v>673</v>
       </c>
       <c r="AH25" s="26"/>
       <c r="AI25" s="21" t="s">
-        <v>594</v>
+        <v>674</v>
       </c>
       <c r="AJ25" s="21" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="AN25" s="26"/>
       <c r="AO25" s="32" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="AP25" s="32" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" ht="20" spans="1:42">
+        <v>677</v>
+      </c>
+      <c r="AR25" s="33" t="s">
+        <v>678</v>
+      </c>
+      <c r="AS25" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" ht="20" spans="1:45">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>598</v>
+        <v>679</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7" t="s">
-        <v>599</v>
+        <v>680</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>600</v>
+        <v>681</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="5" t="s">
-        <v>601</v>
+        <v>682</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="J26" s="20"/>
       <c r="K26" s="21" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="22" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="O26" s="22" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="W26" s="22" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="X26" s="22" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="Y26" s="29"/>
       <c r="Z26" s="22" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
       <c r="AA26" s="22" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="AB26" s="29"/>
       <c r="AC26" s="22" t="s">
-        <v>611</v>
+        <v>692</v>
       </c>
       <c r="AD26" s="22" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="AI26" s="22" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
       <c r="AJ26" s="22" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="AN26" s="26"/>
       <c r="AO26" s="32" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="AP26" s="32" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="27" ht="20" spans="1:42">
+        <v>697</v>
+      </c>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="AS26" s="32" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="27" ht="20" spans="1:45">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="7" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5" t="s">
-        <v>621</v>
+        <v>704</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>622</v>
+        <v>705</v>
       </c>
       <c r="J27" s="20"/>
       <c r="K27" s="21" t="s">
-        <v>623</v>
+        <v>706</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>624</v>
+        <v>707</v>
       </c>
       <c r="M27" s="24"/>
       <c r="N27" s="21" t="s">
-        <v>625</v>
+        <v>708</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>626</v>
+        <v>709</v>
       </c>
       <c r="W27" s="22" t="s">
-        <v>627</v>
+        <v>710</v>
       </c>
       <c r="X27" s="22" t="s">
-        <v>628</v>
+        <v>711</v>
       </c>
       <c r="AB27" s="29"/>
       <c r="AC27" s="22" t="s">
-        <v>629</v>
+        <v>712</v>
       </c>
       <c r="AD27" s="22" t="s">
-        <v>630</v>
+        <v>713</v>
       </c>
       <c r="AI27" s="22" t="s">
-        <v>631</v>
+        <v>714</v>
       </c>
       <c r="AJ27" s="22" t="s">
-        <v>632</v>
+        <v>715</v>
       </c>
       <c r="AN27" s="26"/>
       <c r="AO27" s="32" t="s">
-        <v>633</v>
+        <v>716</v>
       </c>
       <c r="AP27" s="32" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="28" ht="20" spans="1:42">
+        <v>717</v>
+      </c>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="AS27" s="32" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="28" ht="20" spans="1:45">
       <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>635</v>
+        <v>720</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>636</v>
+        <v>721</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
-        <v>637</v>
+        <v>722</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>638</v>
+        <v>723</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="7" t="s">
-        <v>639</v>
+        <v>724</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>640</v>
+        <v>725</v>
       </c>
       <c r="J28" s="20"/>
       <c r="K28" s="21" t="s">
-        <v>641</v>
+        <v>726</v>
       </c>
       <c r="L28" s="21" t="s">
-        <v>642</v>
+        <v>727</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="22" t="s">
-        <v>643</v>
+        <v>728</v>
       </c>
       <c r="O28" s="22" t="s">
-        <v>644</v>
+        <v>729</v>
       </c>
       <c r="W28" s="22" t="s">
-        <v>645</v>
+        <v>730</v>
       </c>
       <c r="X28" s="22" t="s">
-        <v>646</v>
+        <v>731</v>
       </c>
       <c r="AB28" s="29"/>
       <c r="AC28" s="22" t="s">
-        <v>647</v>
+        <v>732</v>
       </c>
       <c r="AD28" s="22" t="s">
-        <v>648</v>
+        <v>733</v>
       </c>
       <c r="AH28" s="26"/>
       <c r="AI28" s="21" t="s">
-        <v>649</v>
+        <v>734</v>
       </c>
       <c r="AJ28" s="21" t="s">
-        <v>650</v>
+        <v>735</v>
       </c>
       <c r="AO28" s="33" t="s">
-        <v>651</v>
+        <v>736</v>
       </c>
       <c r="AP28" s="33" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="29" ht="20" spans="1:42">
+        <v>737</v>
+      </c>
+      <c r="AR28" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="AS28" s="33" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="29" ht="20" spans="1:45">
       <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
-        <v>653</v>
+        <v>740</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>654</v>
+        <v>741</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="5" t="s">
-        <v>655</v>
+        <v>742</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>656</v>
+        <v>743</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5" t="s">
-        <v>657</v>
+        <v>744</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>658</v>
+        <v>745</v>
       </c>
       <c r="J29" s="20"/>
       <c r="K29" s="21" t="s">
-        <v>659</v>
+        <v>746</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>660</v>
+        <v>747</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="22" t="s">
-        <v>661</v>
+        <v>748</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>662</v>
+        <v>749</v>
       </c>
       <c r="W29" s="22" t="s">
-        <v>663</v>
+        <v>750</v>
       </c>
       <c r="X29" s="22" t="s">
-        <v>664</v>
+        <v>751</v>
       </c>
       <c r="AB29" s="29"/>
       <c r="AC29" s="22" t="s">
-        <v>665</v>
+        <v>752</v>
       </c>
       <c r="AD29" s="22" t="s">
-        <v>666</v>
+        <v>753</v>
       </c>
       <c r="AH29" s="26"/>
       <c r="AI29" s="21" t="s">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="AJ29" s="21" t="s">
-        <v>668</v>
+        <v>755</v>
       </c>
       <c r="AN29" s="26"/>
       <c r="AO29" s="32" t="s">
-        <v>669</v>
+        <v>756</v>
       </c>
       <c r="AP29" s="32" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="30" ht="20" spans="1:42">
+        <v>757</v>
+      </c>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="32" t="s">
+        <v>758</v>
+      </c>
+      <c r="AS29" s="32" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="30" ht="20" spans="1:45">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>671</v>
+        <v>760</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>672</v>
+        <v>761</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
-        <v>673</v>
+        <v>762</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="7" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>676</v>
+        <v>765</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>678</v>
+        <v>767</v>
       </c>
       <c r="M30" s="24"/>
       <c r="N30" s="21" t="s">
-        <v>679</v>
+        <v>768</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>680</v>
+        <v>769</v>
       </c>
       <c r="W30" s="22" t="s">
-        <v>681</v>
+        <v>770</v>
       </c>
       <c r="X30" s="22" t="s">
-        <v>682</v>
+        <v>771</v>
       </c>
       <c r="AB30" s="27"/>
       <c r="AC30" s="21" t="s">
-        <v>683</v>
+        <v>772</v>
       </c>
       <c r="AD30" s="21" t="s">
-        <v>684</v>
+        <v>773</v>
       </c>
       <c r="AI30" s="22" t="s">
-        <v>685</v>
+        <v>774</v>
       </c>
       <c r="AJ30" s="22" t="s">
-        <v>686</v>
+        <v>775</v>
       </c>
       <c r="AO30" s="33" t="s">
-        <v>687</v>
+        <v>776</v>
       </c>
       <c r="AP30" s="33" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="31" ht="20" spans="1:42">
+        <v>777</v>
+      </c>
+      <c r="AR30" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="AS30" s="33" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="31" ht="20" spans="1:45">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
-        <v>689</v>
+        <v>780</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>690</v>
+        <v>781</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="5" t="s">
-        <v>691</v>
+        <v>782</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5" t="s">
-        <v>692</v>
+        <v>783</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>693</v>
+        <v>784</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>694</v>
+        <v>785</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>695</v>
+        <v>786</v>
       </c>
       <c r="M31" s="24"/>
       <c r="N31" s="21" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>697</v>
+        <v>788</v>
       </c>
       <c r="V31" s="26"/>
       <c r="W31" s="21" t="s">
-        <v>698</v>
+        <v>789</v>
       </c>
       <c r="X31" s="21" t="s">
-        <v>699</v>
+        <v>790</v>
       </c>
       <c r="AB31" s="29"/>
       <c r="AC31" s="22" t="s">
-        <v>700</v>
+        <v>791</v>
       </c>
       <c r="AD31" s="22" t="s">
-        <v>701</v>
+        <v>792</v>
       </c>
       <c r="AH31" s="26"/>
       <c r="AI31" s="21" t="s">
-        <v>702</v>
+        <v>793</v>
       </c>
       <c r="AJ31" s="21" t="s">
-        <v>703</v>
+        <v>794</v>
       </c>
       <c r="AN31" s="26"/>
       <c r="AO31" s="32" t="s">
-        <v>704</v>
+        <v>795</v>
       </c>
       <c r="AP31" s="32" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="32" ht="20" spans="1:42">
+        <v>796</v>
+      </c>
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="32" t="s">
+        <v>797</v>
+      </c>
+      <c r="AS31" s="32" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="32" ht="20" spans="1:45">
       <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
-        <v>706</v>
+        <v>799</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>707</v>
+        <v>800</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="5" t="s">
-        <v>708</v>
+        <v>801</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>709</v>
+        <v>802</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="7" t="s">
-        <v>710</v>
+        <v>803</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>711</v>
+        <v>804</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="23" t="s">
-        <v>712</v>
+        <v>805</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>713</v>
+        <v>806</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="21" t="s">
-        <v>714</v>
+        <v>807</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>715</v>
+        <v>808</v>
       </c>
       <c r="V32" s="26"/>
       <c r="W32" s="21" t="s">
-        <v>716</v>
+        <v>809</v>
       </c>
       <c r="X32" s="21" t="s">
-        <v>717</v>
+        <v>810</v>
       </c>
       <c r="AB32" s="29"/>
       <c r="AC32" s="22" t="s">
-        <v>718</v>
+        <v>811</v>
       </c>
       <c r="AD32" s="22" t="s">
-        <v>719</v>
+        <v>812</v>
       </c>
       <c r="AI32" s="22" t="s">
-        <v>720</v>
+        <v>813</v>
       </c>
       <c r="AJ32" s="22" t="s">
-        <v>721</v>
+        <v>814</v>
       </c>
       <c r="AN32" s="26"/>
       <c r="AO32" s="32" t="s">
-        <v>722</v>
+        <v>815</v>
       </c>
       <c r="AP32" s="32" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="33" ht="20" spans="1:42">
+        <v>816</v>
+      </c>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="AS32" s="32" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="33" ht="20" spans="1:45">
       <c r="A33" s="11"/>
       <c r="B33" s="5" t="s">
-        <v>724</v>
+        <v>819</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>725</v>
+        <v>820</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="5" t="s">
-        <v>726</v>
+        <v>821</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>727</v>
+        <v>822</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="7" t="s">
-        <v>728</v>
+        <v>823</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>729</v>
+        <v>824</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="21" t="s">
-        <v>730</v>
+        <v>825</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>731</v>
+        <v>826</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="22" t="s">
-        <v>732</v>
+        <v>827</v>
       </c>
       <c r="O33" s="22" t="s">
-        <v>733</v>
+        <v>828</v>
       </c>
       <c r="W33" s="22" t="s">
-        <v>734</v>
+        <v>829</v>
       </c>
       <c r="X33" s="22" t="s">
-        <v>735</v>
+        <v>830</v>
       </c>
       <c r="AB33" s="27"/>
       <c r="AC33" s="21" t="s">
-        <v>736</v>
+        <v>831</v>
       </c>
       <c r="AD33" s="21" t="s">
-        <v>719</v>
+        <v>812</v>
       </c>
       <c r="AI33" s="22" t="s">
-        <v>737</v>
+        <v>832</v>
       </c>
       <c r="AJ33" s="22" t="s">
-        <v>738</v>
+        <v>833</v>
       </c>
       <c r="AN33" s="26"/>
       <c r="AO33" s="32" t="s">
-        <v>739</v>
+        <v>834</v>
       </c>
       <c r="AP33" s="32" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="34" ht="20" spans="1:42">
+        <v>835</v>
+      </c>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="32" t="s">
+        <v>836</v>
+      </c>
+      <c r="AS33" s="32" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="34" ht="20" spans="1:45">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
-        <v>741</v>
+        <v>838</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>742</v>
+        <v>839</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
-        <v>743</v>
+        <v>840</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>744</v>
+        <v>841</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="7" t="s">
-        <v>745</v>
+        <v>842</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>746</v>
+        <v>843</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>747</v>
+        <v>844</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>748</v>
+        <v>845</v>
       </c>
       <c r="M34" s="22"/>
       <c r="N34" s="22" t="s">
-        <v>749</v>
+        <v>846</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>750</v>
+        <v>847</v>
       </c>
       <c r="W34" s="22" t="s">
-        <v>751</v>
+        <v>848</v>
       </c>
       <c r="X34" s="22" t="s">
-        <v>752</v>
+        <v>849</v>
       </c>
       <c r="AB34" s="29"/>
       <c r="AC34" s="22" t="s">
-        <v>753</v>
+        <v>850</v>
       </c>
       <c r="AD34" s="22" t="s">
-        <v>754</v>
+        <v>851</v>
       </c>
       <c r="AH34" s="26"/>
       <c r="AI34" s="21" t="s">
-        <v>755</v>
+        <v>852</v>
       </c>
       <c r="AJ34" s="21" t="s">
-        <v>756</v>
+        <v>853</v>
       </c>
       <c r="AN34" s="26"/>
       <c r="AO34" s="32" t="s">
-        <v>757</v>
+        <v>854</v>
       </c>
       <c r="AP34" s="32" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="35" ht="20" spans="1:42">
+        <v>855</v>
+      </c>
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="AS34" s="32" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="35" ht="20" spans="1:45">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>759</v>
+        <v>858</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>760</v>
+        <v>859</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="5" t="s">
-        <v>761</v>
+        <v>860</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>762</v>
+        <v>861</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="5" t="s">
-        <v>763</v>
+        <v>862</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>764</v>
+        <v>863</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="21" t="s">
-        <v>765</v>
+        <v>864</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>766</v>
+        <v>865</v>
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="22" t="s">
-        <v>767</v>
+        <v>866</v>
       </c>
       <c r="O35" s="22" t="s">
-        <v>768</v>
+        <v>867</v>
       </c>
       <c r="V35" s="26"/>
       <c r="W35" s="21" t="s">
-        <v>769</v>
+        <v>868</v>
       </c>
       <c r="X35" s="21" t="s">
-        <v>770</v>
+        <v>869</v>
       </c>
       <c r="AB35" s="29"/>
       <c r="AC35" s="22" t="s">
-        <v>771</v>
+        <v>870</v>
       </c>
       <c r="AD35" s="22" t="s">
-        <v>772</v>
+        <v>871</v>
       </c>
       <c r="AH35" s="26"/>
       <c r="AI35" s="21" t="s">
-        <v>773</v>
+        <v>872</v>
       </c>
       <c r="AJ35" s="21" t="s">
-        <v>774</v>
+        <v>873</v>
       </c>
       <c r="AN35" s="26"/>
       <c r="AO35" s="32" t="s">
-        <v>775</v>
+        <v>874</v>
       </c>
       <c r="AP35" s="32" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="36" ht="20" spans="1:42">
+        <v>875</v>
+      </c>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="32" t="s">
+        <v>876</v>
+      </c>
+      <c r="AS35" s="32" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="36" ht="20" spans="1:45">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
-        <v>777</v>
+        <v>878</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>778</v>
+        <v>879</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>779</v>
+        <v>880</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>780</v>
+        <v>881</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="5" t="s">
-        <v>781</v>
+        <v>882</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>782</v>
+        <v>883</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>783</v>
+        <v>884</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>784</v>
+        <v>885</v>
       </c>
       <c r="M36" s="24"/>
       <c r="N36" s="21" t="s">
-        <v>785</v>
+        <v>886</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>786</v>
+        <v>887</v>
       </c>
       <c r="W36" s="22" t="s">
-        <v>787</v>
+        <v>888</v>
       </c>
       <c r="X36" s="22" t="s">
-        <v>788</v>
+        <v>889</v>
       </c>
       <c r="AB36" s="29"/>
       <c r="AC36" s="22" t="s">
-        <v>789</v>
+        <v>890</v>
       </c>
       <c r="AD36" s="22" t="s">
-        <v>790</v>
+        <v>891</v>
       </c>
       <c r="AH36" s="26"/>
       <c r="AI36" s="21" t="s">
-        <v>791</v>
+        <v>892</v>
       </c>
       <c r="AJ36" s="21" t="s">
-        <v>792</v>
+        <v>893</v>
       </c>
       <c r="AO36" s="33" t="s">
-        <v>793</v>
+        <v>894</v>
       </c>
       <c r="AP36" s="33" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="37" ht="20" spans="1:42">
+        <v>895</v>
+      </c>
+      <c r="AQ36" s="26"/>
+      <c r="AR36" s="32" t="s">
+        <v>896</v>
+      </c>
+      <c r="AS36" s="32" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="37" ht="20" spans="1:45">
       <c r="A37" s="9"/>
       <c r="B37" s="7" t="s">
-        <v>795</v>
+        <v>897</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>796</v>
+        <v>898</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="7" t="s">
-        <v>797</v>
+        <v>899</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>798</v>
+        <v>900</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="7" t="s">
-        <v>799</v>
+        <v>901</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>800</v>
+        <v>902</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>801</v>
+        <v>903</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>784</v>
+        <v>885</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="22" t="s">
-        <v>802</v>
+        <v>904</v>
       </c>
       <c r="O37" s="22" t="s">
-        <v>803</v>
+        <v>905</v>
       </c>
       <c r="W37" s="22" t="s">
-        <v>804</v>
+        <v>906</v>
       </c>
       <c r="X37" s="22" t="s">
-        <v>805</v>
+        <v>907</v>
       </c>
       <c r="AB37" s="29"/>
       <c r="AC37" s="22" t="s">
-        <v>806</v>
+        <v>908</v>
       </c>
       <c r="AD37" s="22" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="AH37" s="26"/>
       <c r="AI37" s="21" t="s">
-        <v>807</v>
+        <v>909</v>
       </c>
       <c r="AJ37" s="21" t="s">
-        <v>808</v>
+        <v>910</v>
       </c>
       <c r="AN37" s="26"/>
       <c r="AO37" s="32" t="s">
-        <v>809</v>
+        <v>911</v>
       </c>
       <c r="AP37" s="32" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="38" ht="20" spans="1:42">
+        <v>912</v>
+      </c>
+      <c r="AR37" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="AS37" s="33" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="38" ht="20" spans="1:45">
       <c r="A38" s="9"/>
       <c r="B38" s="7" t="s">
-        <v>811</v>
+        <v>915</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>812</v>
+        <v>916</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>813</v>
+        <v>917</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>814</v>
+        <v>918</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="7" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>815</v>
+        <v>919</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>816</v>
+        <v>920</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>817</v>
+        <v>921</v>
       </c>
       <c r="M38" s="24"/>
       <c r="N38" s="21" t="s">
-        <v>818</v>
+        <v>922</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>819</v>
+        <v>923</v>
       </c>
       <c r="V38" s="26"/>
       <c r="W38" s="21" t="s">
-        <v>820</v>
+        <v>924</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>821</v>
+        <v>925</v>
       </c>
       <c r="AB38" s="27"/>
       <c r="AC38" s="21" t="s">
-        <v>822</v>
+        <v>926</v>
       </c>
       <c r="AD38" s="21" t="s">
-        <v>823</v>
+        <v>927</v>
       </c>
       <c r="AI38" s="22" t="s">
-        <v>824</v>
+        <v>928</v>
       </c>
       <c r="AJ38" s="22" t="s">
-        <v>825</v>
+        <v>929</v>
       </c>
       <c r="AN38" s="26"/>
       <c r="AO38" s="32" t="s">
-        <v>826</v>
+        <v>930</v>
       </c>
       <c r="AP38" s="32" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="39" ht="20" spans="1:42">
+        <v>931</v>
+      </c>
+      <c r="AR38" s="33" t="s">
+        <v>932</v>
+      </c>
+      <c r="AS38" s="33" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="39" ht="20" spans="1:45">
       <c r="A39" s="9"/>
       <c r="B39" s="7" t="s">
-        <v>828</v>
+        <v>934</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>829</v>
+        <v>935</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>830</v>
+        <v>936</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>831</v>
+        <v>937</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="5" t="s">
-        <v>832</v>
+        <v>938</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>833</v>
+        <v>939</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>834</v>
+        <v>940</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>835</v>
+        <v>941</v>
       </c>
       <c r="M39" s="24"/>
       <c r="N39" s="21" t="s">
-        <v>836</v>
+        <v>942</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>837</v>
+        <v>943</v>
       </c>
       <c r="W39" s="22" t="s">
-        <v>838</v>
+        <v>944</v>
       </c>
       <c r="X39" s="22" t="s">
-        <v>839</v>
+        <v>945</v>
       </c>
       <c r="AB39" s="29"/>
       <c r="AC39" s="22" t="s">
-        <v>840</v>
+        <v>946</v>
       </c>
       <c r="AD39" s="22" t="s">
-        <v>841</v>
+        <v>947</v>
       </c>
       <c r="AH39" s="26"/>
       <c r="AI39" s="21" t="s">
-        <v>657</v>
+        <v>744</v>
       </c>
       <c r="AJ39" s="21" t="s">
-        <v>842</v>
+        <v>948</v>
       </c>
       <c r="AN39" s="26"/>
       <c r="AO39" s="32" t="s">
-        <v>843</v>
+        <v>949</v>
       </c>
       <c r="AP39" s="32" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="40" ht="20" spans="1:42">
+        <v>950</v>
+      </c>
+      <c r="AQ39" s="26"/>
+      <c r="AR39" s="32" t="s">
+        <v>951</v>
+      </c>
+      <c r="AS39" s="32" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="40" ht="20" spans="1:45">
       <c r="A40" s="9"/>
       <c r="B40" s="7" t="s">
-        <v>845</v>
+        <v>953</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>846</v>
+        <v>954</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="7" t="s">
-        <v>847</v>
+        <v>955</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>848</v>
+        <v>956</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="5" t="s">
-        <v>849</v>
+        <v>957</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>850</v>
+        <v>958</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>851</v>
+        <v>959</v>
       </c>
       <c r="L40" s="21" t="s">
-        <v>852</v>
+        <v>960</v>
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="22" t="s">
-        <v>853</v>
+        <v>961</v>
       </c>
       <c r="O40" s="22" t="s">
-        <v>854</v>
+        <v>962</v>
       </c>
       <c r="V40" s="26"/>
       <c r="W40" s="21" t="s">
-        <v>855</v>
+        <v>963</v>
       </c>
       <c r="X40" s="21" t="s">
-        <v>856</v>
+        <v>964</v>
       </c>
       <c r="AB40" s="30"/>
       <c r="AC40" s="23" t="s">
-        <v>857</v>
+        <v>965</v>
       </c>
       <c r="AD40" s="23" t="s">
-        <v>858</v>
+        <v>966</v>
       </c>
       <c r="AI40" s="22" t="s">
-        <v>859</v>
+        <v>967</v>
       </c>
       <c r="AJ40" s="22" t="s">
-        <v>860</v>
+        <v>968</v>
       </c>
       <c r="AN40" s="26"/>
       <c r="AO40" s="32" t="s">
-        <v>861</v>
+        <v>969</v>
       </c>
       <c r="AP40" s="32" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="41" ht="20" spans="1:42">
+        <v>970</v>
+      </c>
+      <c r="AQ40" s="26"/>
+      <c r="AR40" s="32" t="s">
+        <v>971</v>
+      </c>
+      <c r="AS40" s="32" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="41" ht="20" spans="1:45">
       <c r="A41" s="11"/>
       <c r="B41" s="5" t="s">
-        <v>863</v>
+        <v>973</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>864</v>
+        <v>974</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="7" t="s">
-        <v>865</v>
+        <v>975</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>866</v>
+        <v>976</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="7" t="s">
-        <v>867</v>
+        <v>977</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>868</v>
+        <v>978</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="21" t="s">
-        <v>869</v>
+        <v>979</v>
       </c>
       <c r="L41" s="21" t="s">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="M41" s="24"/>
       <c r="N41" s="21" t="s">
-        <v>871</v>
+        <v>981</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>872</v>
+        <v>982</v>
       </c>
       <c r="W41" s="22" t="s">
-        <v>873</v>
+        <v>983</v>
       </c>
       <c r="X41" s="22" t="s">
-        <v>874</v>
+        <v>984</v>
       </c>
       <c r="AH41" s="26"/>
       <c r="AI41" s="21" t="s">
-        <v>875</v>
+        <v>985</v>
       </c>
       <c r="AJ41" s="21" t="s">
-        <v>876</v>
+        <v>986</v>
       </c>
       <c r="AN41" s="26"/>
       <c r="AO41" s="32" t="s">
-        <v>877</v>
+        <v>987</v>
       </c>
       <c r="AP41" s="32" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="42" ht="20" spans="1:42">
+        <v>875</v>
+      </c>
+      <c r="AQ41" s="26"/>
+      <c r="AR41" s="32" t="s">
+        <v>988</v>
+      </c>
+      <c r="AS41" s="32" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="42" ht="20" spans="1:45">
       <c r="A42" s="9"/>
       <c r="B42" s="7" t="s">
-        <v>878</v>
+        <v>990</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>879</v>
+        <v>991</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>880</v>
+        <v>992</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>881</v>
+        <v>993</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="7" t="s">
-        <v>882</v>
+        <v>994</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>883</v>
+        <v>995</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>884</v>
+        <v>996</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>885</v>
+        <v>997</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="22" t="s">
-        <v>886</v>
+        <v>998</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>887</v>
+        <v>999</v>
       </c>
       <c r="V42" s="26"/>
       <c r="W42" s="21" t="s">
-        <v>888</v>
+        <v>1000</v>
       </c>
       <c r="X42" s="21" t="s">
-        <v>889</v>
+        <v>1001</v>
       </c>
       <c r="AH42" s="26"/>
       <c r="AI42" s="21" t="s">
-        <v>890</v>
+        <v>1002</v>
       </c>
       <c r="AJ42" s="21" t="s">
-        <v>891</v>
+        <v>1003</v>
       </c>
       <c r="AN42" s="26"/>
       <c r="AO42" s="32" t="s">
-        <v>892</v>
+        <v>1004</v>
       </c>
       <c r="AP42" s="32" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="43" ht="20" spans="1:42">
+        <v>1005</v>
+      </c>
+      <c r="AQ42" s="26"/>
+      <c r="AR42" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AS42" s="32" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="43" ht="20" spans="1:45">
       <c r="A43" s="9"/>
       <c r="B43" s="5" t="s">
-        <v>894</v>
+        <v>1008</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>895</v>
+        <v>1009</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="5" t="s">
-        <v>896</v>
+        <v>1010</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>897</v>
+        <v>1011</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="7" t="s">
-        <v>898</v>
+        <v>1012</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>899</v>
+        <v>1013</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>900</v>
+        <v>1014</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>901</v>
+        <v>1015</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="22" t="s">
-        <v>902</v>
+        <v>1016</v>
       </c>
       <c r="O43" s="22" t="s">
-        <v>903</v>
+        <v>1017</v>
       </c>
       <c r="V43" s="26"/>
       <c r="W43" s="21" t="s">
-        <v>904</v>
+        <v>1018</v>
       </c>
       <c r="X43" s="21" t="s">
-        <v>905</v>
+        <v>1019</v>
       </c>
       <c r="AH43" s="26"/>
       <c r="AI43" s="21" t="s">
-        <v>906</v>
+        <v>1020</v>
       </c>
       <c r="AJ43" s="21" t="s">
-        <v>907</v>
+        <v>1021</v>
       </c>
       <c r="AO43" s="33" t="s">
-        <v>908</v>
+        <v>1022</v>
       </c>
       <c r="AP43" s="33" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="44" ht="20" spans="1:42">
+        <v>1023</v>
+      </c>
+      <c r="AQ43" s="26"/>
+      <c r="AR43" s="32" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AS43" s="32" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="44" ht="20" spans="1:45">
       <c r="A44" s="9"/>
       <c r="B44" s="7" t="s">
-        <v>910</v>
+        <v>1026</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>895</v>
+        <v>1009</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
-        <v>911</v>
+        <v>1027</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>912</v>
+        <v>1028</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="7" t="s">
-        <v>913</v>
+        <v>1029</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>914</v>
+        <v>1030</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="21" t="s">
-        <v>915</v>
+        <v>1031</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>916</v>
+        <v>1032</v>
       </c>
       <c r="M44" s="22"/>
       <c r="N44" s="22" t="s">
-        <v>917</v>
+        <v>1033</v>
       </c>
       <c r="O44" s="22" t="s">
-        <v>918</v>
+        <v>1034</v>
       </c>
       <c r="V44" s="26"/>
       <c r="W44" s="21" t="s">
-        <v>919</v>
+        <v>1035</v>
       </c>
       <c r="X44" s="21" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="AH44" s="26"/>
       <c r="AI44" s="21" t="s">
-        <v>920</v>
+        <v>1036</v>
       </c>
       <c r="AJ44" s="21" t="s">
-        <v>891</v>
+        <v>1003</v>
       </c>
       <c r="AN44" s="26"/>
       <c r="AO44" s="32" t="s">
-        <v>921</v>
+        <v>1037</v>
       </c>
       <c r="AP44" s="32" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="45" ht="20" spans="1:42">
+        <v>1038</v>
+      </c>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AS44" s="32" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="45" ht="20" spans="1:45">
       <c r="A45" s="9"/>
       <c r="B45" s="5" t="s">
-        <v>923</v>
+        <v>1041</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>924</v>
+        <v>1042</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
-        <v>925</v>
+        <v>1043</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>926</v>
+        <v>1044</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="7" t="s">
-        <v>927</v>
+        <v>1045</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>928</v>
+        <v>1046</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="21" t="s">
-        <v>929</v>
+        <v>1047</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>930</v>
+        <v>1048</v>
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="21" t="s">
-        <v>931</v>
+        <v>1049</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>932</v>
+        <v>1050</v>
       </c>
       <c r="V45" s="26"/>
       <c r="W45" s="21" t="s">
-        <v>933</v>
+        <v>1051</v>
       </c>
       <c r="X45" s="21" t="s">
-        <v>934</v>
+        <v>1052</v>
       </c>
       <c r="AI45" s="22" t="s">
-        <v>935</v>
+        <v>1053</v>
       </c>
       <c r="AJ45" s="22" t="s">
-        <v>936</v>
+        <v>1054</v>
       </c>
       <c r="AO45" s="33" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="AP45" s="33" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="46" ht="20" spans="1:36">
+        <v>421</v>
+      </c>
+      <c r="AR45" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AS45" s="33" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="46" ht="20" spans="1:45">
       <c r="A46" s="9"/>
       <c r="B46" s="7" t="s">
-        <v>937</v>
+        <v>1057</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>938</v>
+        <v>1058</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="7" t="s">
-        <v>939</v>
+        <v>1059</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>926</v>
+        <v>1044</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="7" t="s">
-        <v>940</v>
+        <v>1060</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>941</v>
+        <v>1061</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>942</v>
+        <v>1062</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>766</v>
+        <v>865</v>
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="22" t="s">
-        <v>943</v>
+        <v>1063</v>
       </c>
       <c r="O46" s="22" t="s">
-        <v>944</v>
+        <v>1064</v>
       </c>
       <c r="W46" s="22" t="s">
-        <v>945</v>
+        <v>1065</v>
       </c>
       <c r="X46" s="22" t="s">
-        <v>946</v>
+        <v>1066</v>
       </c>
       <c r="AH46" s="26"/>
       <c r="AI46" s="21" t="s">
-        <v>947</v>
+        <v>1067</v>
       </c>
       <c r="AJ46" s="21" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="47" ht="20" spans="1:36">
+        <v>1068</v>
+      </c>
+      <c r="AR46" s="33" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AS46" s="33" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="47" ht="20" spans="1:45">
       <c r="A47" s="9"/>
       <c r="B47" s="7" t="s">
-        <v>949</v>
+        <v>1071</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>879</v>
+        <v>991</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="7" t="s">
-        <v>950</v>
+        <v>1072</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>951</v>
+        <v>1073</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="5" t="s">
-        <v>952</v>
+        <v>1074</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>953</v>
+        <v>1075</v>
       </c>
       <c r="J47" s="20"/>
       <c r="K47" s="21" t="s">
-        <v>954</v>
+        <v>1076</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>955</v>
+        <v>1077</v>
       </c>
       <c r="M47" s="22"/>
       <c r="N47" s="22" t="s">
-        <v>536</v>
+        <v>610</v>
       </c>
       <c r="O47" s="22" t="s">
-        <v>956</v>
+        <v>1078</v>
       </c>
       <c r="W47" s="22" t="s">
-        <v>957</v>
+        <v>1079</v>
       </c>
       <c r="X47" s="22" t="s">
-        <v>958</v>
+        <v>1080</v>
       </c>
       <c r="AH47" s="26"/>
       <c r="AI47" s="21" t="s">
-        <v>959</v>
+        <v>1081</v>
       </c>
       <c r="AJ47" s="21" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="48" ht="20" spans="1:36">
+        <v>1082</v>
+      </c>
+      <c r="AQ47" s="26"/>
+      <c r="AR47" s="32" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AS47" s="32" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="48" ht="20" spans="1:45">
       <c r="A48" s="9"/>
       <c r="B48" s="7" t="s">
-        <v>961</v>
+        <v>1085</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>962</v>
+        <v>1086</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="7" t="s">
-        <v>963</v>
+        <v>1087</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>964</v>
+        <v>1088</v>
       </c>
       <c r="G48" s="17"/>
       <c r="H48" s="5" t="s">
-        <v>965</v>
+        <v>1089</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>966</v>
+        <v>1090</v>
       </c>
       <c r="J48" s="20"/>
       <c r="K48" s="21" t="s">
-        <v>967</v>
+        <v>1091</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>968</v>
+        <v>1092</v>
       </c>
       <c r="M48" s="22"/>
       <c r="N48" s="22" t="s">
-        <v>969</v>
+        <v>1093</v>
       </c>
       <c r="O48" s="22" t="s">
-        <v>956</v>
+        <v>1078</v>
       </c>
       <c r="W48" s="22" t="s">
-        <v>970</v>
+        <v>1094</v>
       </c>
       <c r="X48" s="22" t="s">
-        <v>971</v>
+        <v>1095</v>
       </c>
       <c r="AH48" s="26"/>
       <c r="AI48" s="21" t="s">
-        <v>972</v>
+        <v>1096</v>
       </c>
       <c r="AJ48" s="21" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="49" ht="20" spans="1:36">
+        <v>1097</v>
+      </c>
+      <c r="AQ48" s="26"/>
+      <c r="AR48" s="32" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AS48" s="32" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="49" ht="20" spans="1:45">
       <c r="A49" s="9"/>
       <c r="B49" s="5" t="s">
-        <v>974</v>
+        <v>1100</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>975</v>
+        <v>1101</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="15"/>
       <c r="H49" s="7" t="s">
-        <v>976</v>
+        <v>1102</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>977</v>
+        <v>1103</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>978</v>
+        <v>1104</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>766</v>
+        <v>865</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="22" t="s">
-        <v>979</v>
+        <v>1105</v>
       </c>
       <c r="O49" s="22" t="s">
-        <v>980</v>
+        <v>1106</v>
       </c>
       <c r="V49" s="26"/>
       <c r="W49" s="21" t="s">
-        <v>981</v>
+        <v>1107</v>
       </c>
       <c r="X49" s="21" t="s">
-        <v>982</v>
+        <v>1108</v>
       </c>
       <c r="AH49" s="26"/>
       <c r="AI49" s="21" t="s">
-        <v>983</v>
+        <v>1109</v>
       </c>
       <c r="AJ49" s="21" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="50" ht="20" spans="1:36">
+        <v>1110</v>
+      </c>
+      <c r="AQ49" s="26"/>
+      <c r="AR49" s="32" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AS49" s="32" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="50" ht="20" spans="1:45">
       <c r="A50" s="9"/>
       <c r="B50" s="7" t="s">
-        <v>985</v>
+        <v>1113</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>535</v>
+        <v>609</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="15"/>
       <c r="H50" s="7" t="s">
-        <v>986</v>
+        <v>1114</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>941</v>
+        <v>1061</v>
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="21" t="s">
-        <v>987</v>
+        <v>1115</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>988</v>
+        <v>1116</v>
       </c>
       <c r="M50" s="22"/>
       <c r="N50" s="22" t="s">
-        <v>989</v>
+        <v>1117</v>
       </c>
       <c r="O50" s="22" t="s">
-        <v>990</v>
+        <v>1118</v>
       </c>
       <c r="W50" s="22" t="s">
-        <v>991</v>
+        <v>1119</v>
       </c>
       <c r="X50" s="22" t="s">
-        <v>992</v>
+        <v>1120</v>
       </c>
       <c r="AH50" s="26"/>
       <c r="AI50" s="21" t="s">
-        <v>993</v>
+        <v>1121</v>
       </c>
       <c r="AJ50" s="21" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="51" ht="20" spans="1:36">
+        <v>1122</v>
+      </c>
+      <c r="AQ50" s="26"/>
+      <c r="AR50" s="32" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AS50" s="32" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="51" ht="20" spans="1:45">
       <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
-        <v>995</v>
+        <v>1125</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>996</v>
+        <v>1126</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="17"/>
       <c r="H51" s="5" t="s">
-        <v>997</v>
+        <v>1127</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>998</v>
+        <v>1128</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>999</v>
+        <v>1129</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>1000</v>
+        <v>1130</v>
       </c>
       <c r="M51" s="24"/>
       <c r="N51" s="21" t="s">
-        <v>1001</v>
+        <v>1131</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>1002</v>
+        <v>1132</v>
       </c>
       <c r="V51" s="26"/>
       <c r="W51" s="21" t="s">
-        <v>1003</v>
+        <v>1133</v>
       </c>
       <c r="X51" s="21" t="s">
-        <v>1004</v>
+        <v>1134</v>
       </c>
       <c r="AH51" s="26"/>
       <c r="AI51" s="21" t="s">
-        <v>1005</v>
+        <v>1135</v>
       </c>
       <c r="AJ51" s="21" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="52" ht="20" spans="1:36">
+        <v>1136</v>
+      </c>
+      <c r="AR51" s="33" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AS51" s="33" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="52" ht="20" spans="1:45">
       <c r="A52" s="9"/>
       <c r="B52" s="7" t="s">
-        <v>1007</v>
+        <v>1139</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>1008</v>
+        <v>1140</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="17"/>
       <c r="H52" s="5" t="s">
-        <v>1009</v>
+        <v>1141</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>1010</v>
+        <v>1142</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>1011</v>
+        <v>1143</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>1012</v>
+        <v>1144</v>
       </c>
       <c r="M52" s="22"/>
       <c r="N52" s="22" t="s">
-        <v>1013</v>
+        <v>1145</v>
       </c>
       <c r="O52" s="22" t="s">
-        <v>990</v>
+        <v>1118</v>
       </c>
       <c r="W52" s="22" t="s">
-        <v>1014</v>
+        <v>1146</v>
       </c>
       <c r="X52" s="22" t="s">
-        <v>1015</v>
+        <v>1147</v>
       </c>
       <c r="AI52" s="22" t="s">
-        <v>1016</v>
+        <v>1148</v>
       </c>
       <c r="AJ52" s="22" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="53" ht="20" spans="1:36">
+        <v>1149</v>
+      </c>
+      <c r="AR52" s="33" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AS52" s="33" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="53" ht="20" spans="1:45">
       <c r="A53" s="9"/>
       <c r="B53" s="7" t="s">
-        <v>1018</v>
+        <v>1152</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>654</v>
+        <v>741</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="15"/>
       <c r="H53" s="7" t="s">
-        <v>1019</v>
+        <v>1153</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>1020</v>
+        <v>1154</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>1021</v>
+        <v>1155</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>1022</v>
+        <v>1156</v>
       </c>
       <c r="M53" s="22"/>
       <c r="N53" s="22" t="s">
-        <v>1023</v>
+        <v>1157</v>
       </c>
       <c r="O53" s="22" t="s">
-        <v>1024</v>
+        <v>1158</v>
       </c>
       <c r="V53" s="26"/>
       <c r="W53" s="21" t="s">
-        <v>1025</v>
+        <v>1159</v>
       </c>
       <c r="X53" s="21" t="s">
-        <v>1026</v>
+        <v>1160</v>
       </c>
       <c r="AH53" s="26"/>
       <c r="AI53" s="21" t="s">
-        <v>1027</v>
+        <v>1161</v>
       </c>
       <c r="AJ53" s="21" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="54" ht="20" spans="1:36">
+        <v>1149</v>
+      </c>
+      <c r="AQ53" s="26"/>
+      <c r="AR53" s="32" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AS53" s="32" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="54" ht="20" spans="1:45">
       <c r="A54" s="9"/>
       <c r="B54" s="7" t="s">
-        <v>1028</v>
+        <v>1163</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>1029</v>
+        <v>1164</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="17"/>
       <c r="H54" s="5" t="s">
-        <v>1030</v>
+        <v>1165</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>1031</v>
+        <v>1166</v>
       </c>
       <c r="J54" s="20"/>
       <c r="K54" s="21" t="s">
-        <v>1032</v>
+        <v>1167</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>1033</v>
+        <v>1168</v>
       </c>
       <c r="M54" s="22"/>
       <c r="N54" s="22" t="s">
-        <v>1034</v>
+        <v>1169</v>
       </c>
       <c r="O54" s="22" t="s">
-        <v>887</v>
+        <v>999</v>
       </c>
       <c r="W54" s="22" t="s">
-        <v>1035</v>
+        <v>1170</v>
       </c>
       <c r="X54" s="22" t="s">
-        <v>887</v>
+        <v>999</v>
       </c>
       <c r="AH54" s="26"/>
       <c r="AI54" s="21" t="s">
-        <v>1036</v>
+        <v>1171</v>
       </c>
       <c r="AJ54" s="21" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="55" ht="20" spans="1:24">
+        <v>1172</v>
+      </c>
+      <c r="AQ54" s="26"/>
+      <c r="AR54" s="32" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AS54" s="32" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="55" ht="20" spans="1:45">
       <c r="A55" s="9"/>
       <c r="B55" s="5" t="s">
-        <v>1038</v>
+        <v>1175</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1039</v>
+        <v>1176</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="17"/>
       <c r="H55" s="5" t="s">
-        <v>1040</v>
+        <v>1177</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>1041</v>
+        <v>1178</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>1042</v>
+        <v>1179</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>1012</v>
+        <v>1144</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="22" t="s">
-        <v>1043</v>
+        <v>1180</v>
       </c>
       <c r="O55" s="22" t="s">
-        <v>1044</v>
+        <v>1181</v>
       </c>
       <c r="V55" s="26"/>
       <c r="W55" s="21" t="s">
-        <v>1045</v>
+        <v>1182</v>
       </c>
       <c r="X55" s="21" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="56" ht="20" spans="1:24">
+        <v>1183</v>
+      </c>
+      <c r="AR55" s="33" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AS55" s="33" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="56" ht="20" spans="1:45">
       <c r="A56" s="9"/>
       <c r="B56" s="5" t="s">
-        <v>1047</v>
+        <v>1186</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1048</v>
+        <v>1187</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="17"/>
       <c r="H56" s="5" t="s">
-        <v>1049</v>
+        <v>1188</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>1050</v>
+        <v>1189</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>1051</v>
+        <v>1190</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>1052</v>
+        <v>1191</v>
       </c>
       <c r="M56" s="24"/>
       <c r="N56" s="21" t="s">
-        <v>1053</v>
+        <v>1192</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>1054</v>
+        <v>1193</v>
       </c>
       <c r="V56" s="26"/>
       <c r="W56" s="21" t="s">
-        <v>1055</v>
+        <v>1194</v>
       </c>
       <c r="X56" s="21" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="57" ht="20" spans="1:24">
+        <v>1195</v>
+      </c>
+      <c r="AR56" s="33" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AS56" s="33" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="57" ht="20" spans="1:45">
       <c r="A57" s="9"/>
       <c r="B57" s="5" t="s">
-        <v>1057</v>
+        <v>1198</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1048</v>
+        <v>1187</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="17"/>
       <c r="H57" s="5" t="s">
-        <v>1058</v>
+        <v>1199</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>1059</v>
+        <v>1200</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>1060</v>
+        <v>1201</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>1061</v>
+        <v>1202</v>
       </c>
       <c r="M57" s="22"/>
       <c r="N57" s="22" t="s">
-        <v>1062</v>
+        <v>1203</v>
       </c>
       <c r="O57" s="22" t="s">
-        <v>1063</v>
+        <v>1204</v>
       </c>
       <c r="W57" s="22" t="s">
-        <v>1064</v>
+        <v>1205</v>
       </c>
       <c r="X57" s="22" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="58" ht="20" spans="1:24">
+        <v>1206</v>
+      </c>
+      <c r="AQ57" s="26"/>
+      <c r="AR57" s="32" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AS57" s="32" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="58" ht="20" spans="1:45">
       <c r="A58" s="9"/>
       <c r="B58" s="5" t="s">
-        <v>1066</v>
+        <v>1209</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1067</v>
+        <v>1210</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="15"/>
       <c r="H58" s="7" t="s">
-        <v>1068</v>
+        <v>1211</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>1069</v>
+        <v>1212</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>1070</v>
+        <v>1213</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>1071</v>
+        <v>1214</v>
       </c>
       <c r="M58" s="24"/>
       <c r="N58" s="21" t="s">
-        <v>1072</v>
+        <v>1215</v>
       </c>
       <c r="O58" s="21" t="s">
-        <v>1073</v>
+        <v>1216</v>
       </c>
       <c r="W58" s="22" t="s">
-        <v>1074</v>
+        <v>1217</v>
       </c>
       <c r="X58" s="22" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="59" ht="20" spans="1:24">
+        <v>1218</v>
+      </c>
+      <c r="AR58" s="33" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AS58" s="33" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="59" ht="20" spans="1:45">
       <c r="A59" s="9"/>
       <c r="B59" s="5" t="s">
-        <v>1076</v>
+        <v>1221</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1077</v>
+        <v>1222</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="17"/>
       <c r="H59" s="5" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>1078</v>
+        <v>1223</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="21" t="s">
-        <v>1079</v>
+        <v>1224</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>1080</v>
+        <v>1225</v>
       </c>
       <c r="M59" s="22"/>
       <c r="N59" s="22" t="s">
-        <v>1081</v>
+        <v>1226</v>
       </c>
       <c r="O59" s="22" t="s">
-        <v>1082</v>
+        <v>1227</v>
       </c>
       <c r="V59" s="26"/>
       <c r="W59" s="21" t="s">
-        <v>1083</v>
+        <v>1228</v>
       </c>
       <c r="X59" s="21" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="60" ht="20" spans="1:24">
+        <v>1229</v>
+      </c>
+      <c r="AR59" s="33" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AS59" s="33" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="60" ht="20" spans="1:45">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
-        <v>1085</v>
+        <v>1232</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>1086</v>
+        <v>1233</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="17"/>
       <c r="H60" s="5" t="s">
-        <v>1087</v>
+        <v>1234</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>1088</v>
+        <v>1235</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>1089</v>
+        <v>1236</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>1090</v>
+        <v>1237</v>
       </c>
       <c r="M60" s="22"/>
       <c r="N60" s="22" t="s">
-        <v>1091</v>
+        <v>1238</v>
       </c>
       <c r="O60" s="22" t="s">
-        <v>1092</v>
+        <v>1239</v>
       </c>
       <c r="V60" s="26"/>
       <c r="W60" s="21" t="s">
-        <v>1093</v>
+        <v>1240</v>
       </c>
       <c r="X60" s="21" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="61" ht="20" spans="1:24">
+        <v>1241</v>
+      </c>
+      <c r="AR60" s="33" t="s">
+        <v>1242</v>
+      </c>
+      <c r="AS60" s="33" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="61" ht="20" spans="1:45">
       <c r="A61" s="9"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -9358,32 +10720,39 @@
       <c r="F61" s="6"/>
       <c r="G61" s="17"/>
       <c r="H61" s="5" t="s">
-        <v>1095</v>
+        <v>1244</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>1096</v>
+        <v>1245</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>1097</v>
+        <v>1246</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>1098</v>
+        <v>1247</v>
       </c>
       <c r="M61" s="24"/>
       <c r="N61" s="21" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="O61" s="21" t="s">
-        <v>1099</v>
+        <v>1248</v>
       </c>
       <c r="W61" s="22" t="s">
-        <v>1100</v>
+        <v>1249</v>
       </c>
       <c r="X61" s="22" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="62" ht="20" spans="1:24">
+        <v>1250</v>
+      </c>
+      <c r="AQ61" s="26"/>
+      <c r="AR61" s="32" t="s">
+        <v>1251</v>
+      </c>
+      <c r="AS61" s="32" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="62" ht="20" spans="1:45">
       <c r="A62" s="9"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -9392,33 +10761,40 @@
       <c r="F62" s="6"/>
       <c r="G62" s="17"/>
       <c r="H62" s="5" t="s">
-        <v>1102</v>
+        <v>1253</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>1103</v>
+        <v>1254</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="21" t="s">
-        <v>1104</v>
+        <v>1255</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>1105</v>
+        <v>1256</v>
       </c>
       <c r="M62" s="22"/>
       <c r="N62" s="22" t="s">
-        <v>1106</v>
+        <v>1257</v>
       </c>
       <c r="O62" s="22" t="s">
-        <v>1107</v>
+        <v>1258</v>
       </c>
       <c r="W62" s="22" t="s">
-        <v>1108</v>
+        <v>1259</v>
       </c>
       <c r="X62" s="22" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="63" ht="20" spans="1:24">
+        <v>1260</v>
+      </c>
+      <c r="AQ62" s="26"/>
+      <c r="AR62" s="32" t="s">
+        <v>1261</v>
+      </c>
+      <c r="AS62" s="32" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="63" ht="20" spans="1:45">
       <c r="A63" s="9"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -9427,33 +10803,40 @@
       <c r="F63" s="6"/>
       <c r="G63" s="15"/>
       <c r="H63" s="7" t="s">
-        <v>1110</v>
+        <v>1263</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>1096</v>
+        <v>1245</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="21" t="s">
-        <v>1111</v>
+        <v>1264</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>1112</v>
+        <v>1265</v>
       </c>
       <c r="M63" s="24"/>
       <c r="N63" s="21" t="s">
-        <v>1113</v>
+        <v>1266</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>1114</v>
+        <v>1267</v>
       </c>
       <c r="W63" s="22" t="s">
-        <v>1115</v>
+        <v>1268</v>
       </c>
       <c r="X63" s="22" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="64" ht="20" spans="1:24">
+        <v>1269</v>
+      </c>
+      <c r="AQ63" s="26"/>
+      <c r="AR63" s="32" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AS63" s="32" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="64" ht="20" spans="1:45">
       <c r="A64" s="9"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -9462,33 +10845,40 @@
       <c r="F64" s="6"/>
       <c r="G64" s="15"/>
       <c r="H64" s="5" t="s">
-        <v>1117</v>
+        <v>1272</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>1118</v>
+        <v>1273</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="21" t="s">
-        <v>1119</v>
+        <v>1274</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>1120</v>
+        <v>1275</v>
       </c>
       <c r="M64" s="22"/>
       <c r="N64" s="22" t="s">
-        <v>1121</v>
+        <v>1276</v>
       </c>
       <c r="O64" s="22" t="s">
-        <v>1122</v>
+        <v>1277</v>
       </c>
       <c r="W64" s="22" t="s">
-        <v>1123</v>
+        <v>1278</v>
       </c>
       <c r="X64" s="22" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="65" ht="20" spans="1:24">
+        <v>1279</v>
+      </c>
+      <c r="AQ64" s="26"/>
+      <c r="AR64" s="32" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AS64" s="32" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="65" ht="20" spans="1:45">
       <c r="A65" s="9"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -9497,32 +10887,39 @@
       <c r="F65" s="6"/>
       <c r="G65" s="15"/>
       <c r="H65" s="7" t="s">
-        <v>1125</v>
+        <v>1282</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>1126</v>
+        <v>1283</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>1127</v>
+        <v>1284</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>1128</v>
+        <v>1285</v>
       </c>
       <c r="M65" s="24"/>
       <c r="N65" s="21" t="s">
-        <v>1129</v>
+        <v>1286</v>
       </c>
       <c r="O65" s="21" t="s">
-        <v>1130</v>
+        <v>1287</v>
       </c>
       <c r="W65" s="22" t="s">
-        <v>1131</v>
+        <v>1288</v>
       </c>
       <c r="X65" s="22" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="66" ht="20" spans="1:24">
+        <v>1279</v>
+      </c>
+      <c r="AQ65" s="26"/>
+      <c r="AR65" s="32" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AS65" s="32" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="66" ht="20" spans="1:45">
       <c r="A66" s="9"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -9531,33 +10928,40 @@
       <c r="F66" s="6"/>
       <c r="G66" s="17"/>
       <c r="H66" s="5" t="s">
-        <v>1132</v>
+        <v>1291</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>1133</v>
+        <v>1292</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="21" t="s">
-        <v>1134</v>
+        <v>1293</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>1135</v>
+        <v>1294</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="21" t="s">
-        <v>1136</v>
+        <v>1295</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>1137</v>
+        <v>1296</v>
       </c>
       <c r="W66" s="22" t="s">
-        <v>1138</v>
+        <v>1297</v>
       </c>
       <c r="X66" s="22" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="67" ht="20" spans="1:24">
+        <v>1298</v>
+      </c>
+      <c r="AQ66" s="26"/>
+      <c r="AR66" s="32" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AS66" s="32" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" ht="20" spans="1:45">
       <c r="A67" s="9"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -9566,32 +10970,38 @@
       <c r="F67" s="6"/>
       <c r="G67" s="17"/>
       <c r="H67" s="5" t="s">
-        <v>1140</v>
+        <v>1301</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>1141</v>
+        <v>1302</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>1142</v>
+        <v>1303</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>1143</v>
+        <v>1304</v>
       </c>
       <c r="M67" s="24"/>
       <c r="N67" s="21" t="s">
-        <v>1144</v>
+        <v>1305</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>1145</v>
+        <v>1306</v>
       </c>
       <c r="W67" s="22" t="s">
-        <v>1146</v>
+        <v>1307</v>
       </c>
       <c r="X67" s="22" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="68" ht="20" spans="1:24">
+        <v>1308</v>
+      </c>
+      <c r="AR67" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AS67" s="33" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="68" ht="20" spans="1:45">
       <c r="A68" s="34"/>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -9600,33 +11010,40 @@
       <c r="F68" s="6"/>
       <c r="G68" s="15"/>
       <c r="H68" s="7" t="s">
-        <v>1148</v>
+        <v>1311</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>1149</v>
+        <v>1312</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="21" t="s">
-        <v>1150</v>
+        <v>1313</v>
       </c>
       <c r="L68" s="21" t="s">
-        <v>1151</v>
+        <v>1314</v>
       </c>
       <c r="M68" s="24"/>
       <c r="N68" s="21" t="s">
-        <v>1152</v>
+        <v>1315</v>
       </c>
       <c r="O68" s="21" t="s">
-        <v>1153</v>
+        <v>1316</v>
       </c>
       <c r="W68" s="22" t="s">
-        <v>1154</v>
+        <v>1317</v>
       </c>
       <c r="X68" s="22" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="69" ht="20" spans="1:24">
+        <v>689</v>
+      </c>
+      <c r="AQ68" s="26"/>
+      <c r="AR68" s="32" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AS68" s="32" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="69" ht="20" spans="1:45">
       <c r="A69" s="34"/>
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
@@ -9635,32 +11052,39 @@
       <c r="F69" s="6"/>
       <c r="G69" s="17"/>
       <c r="H69" s="5" t="s">
-        <v>1155</v>
+        <v>1320</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>1156</v>
+        <v>1321</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>1157</v>
+        <v>1322</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>1158</v>
+        <v>1323</v>
       </c>
       <c r="M69" s="22"/>
       <c r="N69" s="22" t="s">
-        <v>1159</v>
+        <v>1324</v>
       </c>
       <c r="O69" s="22" t="s">
-        <v>1160</v>
+        <v>1325</v>
       </c>
       <c r="W69" s="22" t="s">
-        <v>1161</v>
+        <v>1326</v>
       </c>
       <c r="X69" s="22" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="70" ht="20" spans="1:24">
+        <v>1327</v>
+      </c>
+      <c r="AQ69" s="26"/>
+      <c r="AR69" s="32" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AS69" s="32" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="70" ht="20" spans="1:45">
       <c r="A70" s="34"/>
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
@@ -9669,33 +11093,40 @@
       <c r="F70" s="6"/>
       <c r="G70" s="17"/>
       <c r="H70" s="5" t="s">
-        <v>1163</v>
+        <v>1330</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>1164</v>
+        <v>1331</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="21" t="s">
-        <v>1165</v>
+        <v>1332</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>1166</v>
+        <v>1333</v>
       </c>
       <c r="M70" s="22"/>
       <c r="N70" s="22" t="s">
-        <v>1167</v>
+        <v>1334</v>
       </c>
       <c r="O70" s="22" t="s">
-        <v>1168</v>
+        <v>1335</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>1169</v>
+        <v>1336</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="71" ht="20" spans="1:24">
+        <v>1327</v>
+      </c>
+      <c r="AQ70" s="26"/>
+      <c r="AR70" s="32" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AS70" s="32" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="71" ht="20" spans="1:45">
       <c r="A71" s="34"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -9704,34 +11135,40 @@
       <c r="F71" s="6"/>
       <c r="G71" s="15"/>
       <c r="H71" s="7" t="s">
-        <v>1170</v>
+        <v>1339</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>1171</v>
+        <v>1340</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="21" t="s">
-        <v>1172</v>
+        <v>1341</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>1173</v>
+        <v>1342</v>
       </c>
       <c r="M71" s="22"/>
       <c r="N71" s="22" t="s">
-        <v>1174</v>
+        <v>1343</v>
       </c>
       <c r="O71" s="22" t="s">
-        <v>1175</v>
+        <v>1344</v>
       </c>
       <c r="V71" s="26"/>
       <c r="W71" s="21" t="s">
-        <v>1176</v>
+        <v>1345</v>
       </c>
       <c r="X71" s="21" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="72" ht="20" spans="1:24">
+        <v>1346</v>
+      </c>
+      <c r="AR71" s="33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AS71" s="33" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="72" ht="20" spans="1:45">
       <c r="A72" s="35"/>
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
@@ -9740,33 +11177,39 @@
       <c r="F72" s="6"/>
       <c r="G72" s="15"/>
       <c r="H72" s="7" t="s">
-        <v>1178</v>
+        <v>1349</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>1179</v>
+        <v>1350</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>1180</v>
+        <v>1351</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>1181</v>
+        <v>1352</v>
       </c>
       <c r="M72" s="24"/>
       <c r="N72" s="21" t="s">
-        <v>1182</v>
+        <v>1353</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>1183</v>
+        <v>1354</v>
       </c>
       <c r="V72" s="26"/>
       <c r="W72" s="21" t="s">
-        <v>1184</v>
+        <v>1355</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="73" ht="20" spans="1:24">
+        <v>1356</v>
+      </c>
+      <c r="AR72" s="33" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AS72" s="33" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="73" ht="20" spans="1:45">
       <c r="A73" s="35"/>
       <c r="B73" s="35"/>
       <c r="C73" s="35"/>
@@ -9775,33 +11218,39 @@
       <c r="F73" s="6"/>
       <c r="G73" s="15"/>
       <c r="H73" s="7" t="s">
-        <v>1186</v>
+        <v>1359</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>1187</v>
+        <v>1360</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="21" t="s">
-        <v>1188</v>
+        <v>1361</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>1189</v>
+        <v>1362</v>
       </c>
       <c r="M73" s="22"/>
       <c r="N73" s="22" t="s">
-        <v>1190</v>
+        <v>1363</v>
       </c>
       <c r="O73" s="22" t="s">
-        <v>1191</v>
+        <v>1364</v>
       </c>
       <c r="W73" s="22" t="s">
-        <v>1192</v>
+        <v>1365</v>
       </c>
       <c r="X73" s="22" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="74" ht="20" spans="1:24">
+        <v>1366</v>
+      </c>
+      <c r="AR73" s="33" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AS73" s="33" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="74" ht="20" spans="1:45">
       <c r="A74" s="35"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -9810,32 +11259,39 @@
       <c r="F74" s="6"/>
       <c r="G74" s="17"/>
       <c r="H74" s="5" t="s">
-        <v>1194</v>
+        <v>1369</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>1195</v>
+        <v>1370</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>1196</v>
+        <v>1371</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>1197</v>
+        <v>1372</v>
       </c>
       <c r="M74" s="24"/>
       <c r="N74" s="21" t="s">
-        <v>1198</v>
+        <v>1373</v>
       </c>
       <c r="O74" s="21" t="s">
-        <v>1199</v>
+        <v>1374</v>
       </c>
       <c r="W74" s="22" t="s">
-        <v>1200</v>
+        <v>1375</v>
       </c>
       <c r="X74" s="22" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="75" ht="20" spans="1:24">
+        <v>1376</v>
+      </c>
+      <c r="AQ74" s="26"/>
+      <c r="AR74" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="AS74" s="32" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="75" ht="20" spans="1:45">
       <c r="A75" s="35"/>
       <c r="B75" s="35"/>
       <c r="C75" s="35"/>
@@ -9844,34 +11300,41 @@
       <c r="F75" s="6"/>
       <c r="G75" s="15"/>
       <c r="H75" s="7" t="s">
-        <v>1202</v>
+        <v>1378</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>1203</v>
+        <v>1379</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="21" t="s">
-        <v>1204</v>
+        <v>1380</v>
       </c>
       <c r="L75" s="21" t="s">
-        <v>1205</v>
+        <v>1381</v>
       </c>
       <c r="M75" s="24"/>
       <c r="N75" s="21" t="s">
-        <v>1206</v>
+        <v>1382</v>
       </c>
       <c r="O75" s="21" t="s">
-        <v>1207</v>
+        <v>1383</v>
       </c>
       <c r="V75" s="26"/>
       <c r="W75" s="21" t="s">
-        <v>1208</v>
+        <v>1384</v>
       </c>
       <c r="X75" s="21" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="76" ht="20" spans="1:24">
+        <v>1385</v>
+      </c>
+      <c r="AQ75" s="26"/>
+      <c r="AR75" s="32" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AS75" s="32" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="76" ht="20" spans="1:45">
       <c r="A76" s="35"/>
       <c r="B76" s="35"/>
       <c r="C76" s="35"/>
@@ -9880,33 +11343,40 @@
       <c r="F76" s="6"/>
       <c r="G76" s="17"/>
       <c r="H76" s="5" t="s">
-        <v>1210</v>
+        <v>1388</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>1211</v>
+        <v>1389</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="21" t="s">
-        <v>1212</v>
+        <v>1390</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>1213</v>
+        <v>1391</v>
       </c>
       <c r="M76" s="22"/>
       <c r="N76" s="22" t="s">
-        <v>1214</v>
+        <v>1392</v>
       </c>
       <c r="O76" s="22" t="s">
-        <v>1215</v>
+        <v>1393</v>
       </c>
       <c r="W76" s="22" t="s">
-        <v>1216</v>
+        <v>1394</v>
       </c>
       <c r="X76" s="22" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="77" ht="20" spans="1:24">
+        <v>1279</v>
+      </c>
+      <c r="AQ76" s="26"/>
+      <c r="AR76" s="32" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AS76" s="32" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="77" ht="20" spans="1:45">
       <c r="A77" s="35"/>
       <c r="B77" s="35"/>
       <c r="C77" s="35"/>
@@ -9915,25 +11385,31 @@
       <c r="F77" s="6"/>
       <c r="G77" s="17"/>
       <c r="H77" s="5" t="s">
-        <v>1217</v>
+        <v>1396</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>1218</v>
+        <v>1397</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>1219</v>
+        <v>1398</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>1220</v>
+        <v>1399</v>
       </c>
       <c r="W77" s="22" t="s">
-        <v>1221</v>
+        <v>1400</v>
       </c>
       <c r="X77" s="22" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="78" ht="20" spans="1:24">
+        <v>1279</v>
+      </c>
+      <c r="AR77" s="33" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AS77" s="33" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="78" ht="20" spans="1:45">
       <c r="A78" s="35"/>
       <c r="B78" s="35"/>
       <c r="C78" s="35"/>
@@ -9942,27 +11418,33 @@
       <c r="F78" s="6"/>
       <c r="G78" s="17"/>
       <c r="H78" s="5" t="s">
-        <v>1222</v>
+        <v>1403</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>1223</v>
+        <v>1404</v>
       </c>
       <c r="J78" s="20"/>
       <c r="K78" s="21" t="s">
-        <v>1224</v>
+        <v>1405</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>1225</v>
+        <v>1406</v>
       </c>
       <c r="V78" s="26"/>
       <c r="W78" s="21" t="s">
-        <v>1226</v>
+        <v>1407</v>
       </c>
       <c r="X78" s="21" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
+        <v>1408</v>
+      </c>
+      <c r="AR78" s="33" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AS78" s="33" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45">
       <c r="A79" s="35"/>
       <c r="B79" s="35"/>
       <c r="C79" s="35"/>
@@ -9971,25 +11453,31 @@
       <c r="F79" s="6"/>
       <c r="G79" s="15"/>
       <c r="H79" s="7" t="s">
-        <v>1228</v>
+        <v>1411</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>1229</v>
+        <v>1412</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>1230</v>
+        <v>1413</v>
       </c>
       <c r="L79" s="22" t="s">
-        <v>1231</v>
+        <v>1414</v>
       </c>
       <c r="W79" s="22" t="s">
-        <v>1232</v>
+        <v>1415</v>
       </c>
       <c r="X79" s="22" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="80" ht="20" spans="1:24">
+        <v>1416</v>
+      </c>
+      <c r="AR79" s="33" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AS79" s="33" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="80" ht="20" spans="1:45">
       <c r="A80" s="9"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9998,27 +11486,33 @@
       <c r="F80" s="6"/>
       <c r="G80" s="17"/>
       <c r="H80" s="5" t="s">
-        <v>1234</v>
+        <v>1419</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>1235</v>
+        <v>1420</v>
       </c>
       <c r="J80" s="20"/>
       <c r="K80" s="21" t="s">
-        <v>1236</v>
+        <v>1421</v>
       </c>
       <c r="L80" s="21" t="s">
-        <v>1225</v>
+        <v>1406</v>
       </c>
       <c r="V80" s="26"/>
       <c r="W80" s="21" t="s">
-        <v>1237</v>
+        <v>1422</v>
       </c>
       <c r="X80" s="21" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
+        <v>1095</v>
+      </c>
+      <c r="AR80" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="AS80" s="33" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="81" spans="1:45">
       <c r="A81" s="9"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -10027,25 +11521,31 @@
       <c r="F81" s="6"/>
       <c r="G81" s="15"/>
       <c r="H81" s="7" t="s">
-        <v>1238</v>
+        <v>1425</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>1239</v>
+        <v>1426</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>1240</v>
+        <v>1427</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>1241</v>
+        <v>1428</v>
       </c>
       <c r="W81" s="22" t="s">
-        <v>1242</v>
+        <v>1429</v>
       </c>
       <c r="X81" s="22" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="82" ht="20" spans="1:24">
+        <v>1430</v>
+      </c>
+      <c r="AR81" s="33" t="s">
+        <v>1431</v>
+      </c>
+      <c r="AS81" s="33" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="82" ht="20" spans="1:45">
       <c r="A82" s="9"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -10054,27 +11554,34 @@
       <c r="F82" s="6"/>
       <c r="G82" s="17"/>
       <c r="H82" s="5" t="s">
-        <v>1244</v>
+        <v>1433</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>1245</v>
+        <v>1434</v>
       </c>
       <c r="J82" s="20"/>
       <c r="K82" s="21" t="s">
-        <v>1246</v>
+        <v>1435</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>1247</v>
+        <v>1436</v>
       </c>
       <c r="V82" s="26"/>
       <c r="W82" s="21" t="s">
-        <v>1248</v>
+        <v>1437</v>
       </c>
       <c r="X82" s="21" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="83" ht="20" spans="1:24">
+        <v>1438</v>
+      </c>
+      <c r="AQ82" s="26"/>
+      <c r="AR82" s="32" t="s">
+        <v>1439</v>
+      </c>
+      <c r="AS82" s="32" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="83" ht="20" spans="1:45">
       <c r="A83" s="9"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -10083,26 +11590,33 @@
       <c r="F83" s="6"/>
       <c r="G83" s="17"/>
       <c r="H83" s="5" t="s">
-        <v>1250</v>
+        <v>1441</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>1251</v>
+        <v>1442</v>
       </c>
       <c r="J83" s="20"/>
       <c r="K83" s="21" t="s">
-        <v>1252</v>
+        <v>1443</v>
       </c>
       <c r="L83" s="21" t="s">
-        <v>1253</v>
+        <v>1444</v>
       </c>
       <c r="W83" s="22" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="X83" s="22" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="84" ht="20" spans="1:24">
+        <v>1445</v>
+      </c>
+      <c r="AQ83" s="26"/>
+      <c r="AR83" s="32" t="s">
+        <v>1446</v>
+      </c>
+      <c r="AS83" s="32" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="84" ht="20" spans="1:45">
       <c r="A84" s="9"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -10111,26 +11625,33 @@
       <c r="F84" s="6"/>
       <c r="G84" s="15"/>
       <c r="H84" s="7" t="s">
-        <v>1255</v>
+        <v>1448</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>1256</v>
+        <v>1449</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>1257</v>
+        <v>1450</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>1258</v>
+        <v>1451</v>
       </c>
       <c r="V84" s="26"/>
       <c r="W84" s="21" t="s">
-        <v>1259</v>
+        <v>1452</v>
       </c>
       <c r="X84" s="21" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="85" ht="20" spans="1:24">
+        <v>1453</v>
+      </c>
+      <c r="AQ84" s="26"/>
+      <c r="AR84" s="32" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AS84" s="32" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="85" ht="20" spans="1:45">
       <c r="A85" s="9"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -10139,26 +11660,33 @@
       <c r="F85" s="6"/>
       <c r="G85" s="15"/>
       <c r="H85" s="7" t="s">
-        <v>991</v>
+        <v>1119</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>992</v>
+        <v>1120</v>
       </c>
       <c r="J85" s="20"/>
       <c r="K85" s="21" t="s">
-        <v>1261</v>
+        <v>1456</v>
       </c>
       <c r="L85" s="21" t="s">
-        <v>1262</v>
+        <v>1457</v>
       </c>
       <c r="W85" s="22" t="s">
-        <v>1263</v>
+        <v>1458</v>
       </c>
       <c r="X85" s="22" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="86" ht="20" spans="1:24">
+        <v>1459</v>
+      </c>
+      <c r="AQ85" s="26"/>
+      <c r="AR85" s="32" t="s">
+        <v>1460</v>
+      </c>
+      <c r="AS85" s="32" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="86" ht="20" spans="1:45">
       <c r="A86" s="9"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -10167,25 +11695,32 @@
       <c r="F86" s="6"/>
       <c r="G86" s="17"/>
       <c r="H86" s="5" t="s">
-        <v>1265</v>
+        <v>1462</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>1266</v>
+        <v>1463</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>1267</v>
+        <v>1464</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>1268</v>
+        <v>1465</v>
       </c>
       <c r="W86" s="22" t="s">
-        <v>1269</v>
+        <v>1466</v>
       </c>
       <c r="X86" s="22" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="87" ht="20" spans="1:24">
+        <v>1467</v>
+      </c>
+      <c r="AQ86" s="26"/>
+      <c r="AR86" s="32" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AS86" s="32" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="87" ht="20" spans="1:45">
       <c r="A87" s="9"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -10194,27 +11729,34 @@
       <c r="F87" s="6"/>
       <c r="G87" s="17"/>
       <c r="H87" s="5" t="s">
-        <v>1271</v>
+        <v>1470</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>1272</v>
+        <v>1471</v>
       </c>
       <c r="J87" s="20"/>
       <c r="K87" s="21" t="s">
-        <v>991</v>
+        <v>1119</v>
       </c>
       <c r="L87" s="21" t="s">
-        <v>1273</v>
+        <v>1472</v>
       </c>
       <c r="V87" s="26"/>
       <c r="W87" s="21" t="s">
-        <v>1274</v>
+        <v>1473</v>
       </c>
       <c r="X87" s="21" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="88" ht="20" spans="1:24">
+        <v>1474</v>
+      </c>
+      <c r="AQ87" s="26"/>
+      <c r="AR87" s="32" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AS87" s="32" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="88" ht="20" spans="1:45">
       <c r="A88" s="9"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -10223,26 +11765,33 @@
       <c r="F88" s="6"/>
       <c r="G88" s="15"/>
       <c r="H88" s="7" t="s">
-        <v>1276</v>
+        <v>1477</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>1277</v>
+        <v>1478</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>1278</v>
+        <v>1479</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>1279</v>
+        <v>1480</v>
       </c>
       <c r="V88" s="26"/>
       <c r="W88" s="21" t="s">
-        <v>1280</v>
+        <v>1481</v>
       </c>
       <c r="X88" s="21" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="89" ht="20" spans="1:24">
+        <v>1482</v>
+      </c>
+      <c r="AQ88" s="26"/>
+      <c r="AR88" s="32" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AS88" s="32" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="89" ht="20" spans="1:45">
       <c r="A89" s="9"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -10251,26 +11800,33 @@
       <c r="F89" s="6"/>
       <c r="G89" s="17"/>
       <c r="H89" s="5" t="s">
-        <v>1282</v>
+        <v>1485</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>1283</v>
+        <v>1486</v>
       </c>
       <c r="J89" s="20"/>
       <c r="K89" s="21" t="s">
-        <v>1284</v>
+        <v>1487</v>
       </c>
       <c r="L89" s="21" t="s">
-        <v>1285</v>
+        <v>1488</v>
       </c>
       <c r="W89" s="22" t="s">
-        <v>1286</v>
+        <v>1489</v>
       </c>
       <c r="X89" s="22" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="90" ht="20" spans="1:24">
+        <v>1490</v>
+      </c>
+      <c r="AQ89" s="26"/>
+      <c r="AR89" s="32" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AS89" s="32" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="90" ht="20" spans="1:45">
       <c r="A90" s="9"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -10279,26 +11835,33 @@
       <c r="F90" s="6"/>
       <c r="G90" s="15"/>
       <c r="H90" s="7" t="s">
-        <v>1288</v>
+        <v>1493</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>1289</v>
+        <v>1494</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>1290</v>
+        <v>1495</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>1291</v>
+        <v>1496</v>
       </c>
       <c r="V90" s="26"/>
       <c r="W90" s="21" t="s">
-        <v>1292</v>
+        <v>1497</v>
       </c>
       <c r="X90" s="21" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="91" ht="20" spans="1:24">
+        <v>1498</v>
+      </c>
+      <c r="AQ90" s="26"/>
+      <c r="AR90" s="32" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AS90" s="32" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="91" ht="20" spans="1:45">
       <c r="A91" s="9"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -10307,26 +11870,32 @@
       <c r="F91" s="6"/>
       <c r="G91" s="15"/>
       <c r="H91" s="7" t="s">
-        <v>1294</v>
+        <v>1501</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1295</v>
+        <v>1502</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>1296</v>
+        <v>1503</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>1297</v>
+        <v>1504</v>
       </c>
       <c r="V91" s="26"/>
       <c r="W91" s="21" t="s">
-        <v>1298</v>
+        <v>1505</v>
       </c>
       <c r="X91" s="21" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="92" ht="20" spans="1:12">
+        <v>1506</v>
+      </c>
+      <c r="AR91" s="33" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AS91" s="33" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="92" ht="20" spans="1:45">
       <c r="A92" s="9"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -10335,20 +11904,26 @@
       <c r="F92" s="6"/>
       <c r="G92" s="17"/>
       <c r="H92" s="5" t="s">
-        <v>1300</v>
+        <v>1509</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>1301</v>
+        <v>1510</v>
       </c>
       <c r="J92" s="20"/>
       <c r="K92" s="21" t="s">
-        <v>1302</v>
+        <v>1511</v>
       </c>
       <c r="L92" s="21" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>1512</v>
+      </c>
+      <c r="AR92" s="33" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AS92" s="33" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:45">
       <c r="A93" s="9"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -10357,19 +11932,25 @@
       <c r="F93" s="6"/>
       <c r="G93" s="15"/>
       <c r="H93" s="10" t="s">
-        <v>1304</v>
+        <v>1515</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>1305</v>
+        <v>1516</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>1306</v>
+        <v>1517</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="94" ht="20" spans="1:12">
+        <v>1518</v>
+      </c>
+      <c r="AR93" s="33" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AS93" s="33" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="94" ht="20" spans="1:45">
       <c r="A94" s="9"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -10378,20 +11959,27 @@
       <c r="F94" s="6"/>
       <c r="G94" s="15"/>
       <c r="H94" s="7" t="s">
-        <v>1308</v>
+        <v>1521</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>1309</v>
+        <v>1522</v>
       </c>
       <c r="J94" s="20"/>
       <c r="K94" s="21" t="s">
-        <v>1310</v>
+        <v>1523</v>
       </c>
       <c r="L94" s="21" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>1524</v>
+      </c>
+      <c r="AQ94" s="26"/>
+      <c r="AR94" s="32" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AS94" s="32" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="95" ht="20" spans="1:45">
       <c r="A95" s="9"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -10400,19 +11988,26 @@
       <c r="F95" s="6"/>
       <c r="G95" s="15"/>
       <c r="H95" s="7" t="s">
-        <v>1312</v>
+        <v>1527</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>1313</v>
+        <v>1528</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>1314</v>
+        <v>1529</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="96" ht="20" spans="1:12">
+        <v>1530</v>
+      </c>
+      <c r="AQ95" s="26"/>
+      <c r="AR95" s="32" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AS95" s="32" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="96" ht="20" spans="1:45">
       <c r="A96" s="9"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -10421,20 +12016,27 @@
       <c r="F96" s="6"/>
       <c r="G96" s="17"/>
       <c r="H96" s="5" t="s">
-        <v>1316</v>
+        <v>1533</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>1317</v>
+        <v>1534</v>
       </c>
       <c r="J96" s="20"/>
       <c r="K96" s="21" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="L96" s="21" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="97" ht="20" spans="1:9">
+        <v>1535</v>
+      </c>
+      <c r="AQ96" s="26"/>
+      <c r="AR96" s="32" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AS96" s="32" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="97" ht="20" spans="1:45">
       <c r="A97" s="9"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -10443,13 +12045,19 @@
       <c r="F97" s="6"/>
       <c r="G97" s="17"/>
       <c r="H97" s="5" t="s">
-        <v>1319</v>
+        <v>1538</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>1539</v>
+      </c>
+      <c r="AR97" s="33" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AS97" s="33" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="98" spans="1:45">
       <c r="A98" s="9"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -10458,13 +12066,19 @@
       <c r="F98" s="6"/>
       <c r="G98" s="15"/>
       <c r="H98" s="7" t="s">
-        <v>1321</v>
+        <v>1542</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="99" ht="20" spans="1:9">
+        <v>1543</v>
+      </c>
+      <c r="AR98" s="33" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AS98" s="33" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="99" ht="20" spans="1:45">
       <c r="A99" s="9"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -10473,13 +12087,20 @@
       <c r="F99" s="6"/>
       <c r="G99" s="15"/>
       <c r="H99" s="5" t="s">
-        <v>1323</v>
+        <v>1546</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="100" ht="20" spans="1:9">
+        <v>1547</v>
+      </c>
+      <c r="AQ99" s="26"/>
+      <c r="AR99" s="32" t="s">
+        <v>1548</v>
+      </c>
+      <c r="AS99" s="32" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="100" ht="20" spans="1:45">
       <c r="A100" s="9"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -10488,13 +12109,20 @@
       <c r="F100" s="6"/>
       <c r="G100" s="17"/>
       <c r="H100" s="5" t="s">
-        <v>1325</v>
+        <v>1550</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>1551</v>
+      </c>
+      <c r="AQ100" s="26"/>
+      <c r="AR100" s="32" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AS100" s="32" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="101" spans="1:45">
       <c r="A101" s="9"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -10503,13 +12131,19 @@
       <c r="F101" s="6"/>
       <c r="G101" s="15"/>
       <c r="H101" s="7" t="s">
-        <v>1327</v>
+        <v>1554</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>1555</v>
+      </c>
+      <c r="AR101" s="33" t="s">
+        <v>1556</v>
+      </c>
+      <c r="AS101" s="33" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="102" ht="20" spans="1:45">
       <c r="A102" s="9"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -10518,13 +12152,20 @@
       <c r="F102" s="6"/>
       <c r="G102" s="15"/>
       <c r="H102" s="7" t="s">
-        <v>1329</v>
+        <v>1558</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="103" ht="20" spans="1:9">
+        <v>1559</v>
+      </c>
+      <c r="AQ102" s="26"/>
+      <c r="AR102" s="32" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AS102" s="32" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="103" ht="20" spans="1:45">
       <c r="A103" s="9"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -10533,13 +12174,20 @@
       <c r="F103" s="6"/>
       <c r="G103" s="17"/>
       <c r="H103" s="5" t="s">
-        <v>1331</v>
+        <v>1562</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>1563</v>
+      </c>
+      <c r="AQ103" s="26"/>
+      <c r="AR103" s="32" t="s">
+        <v>1564</v>
+      </c>
+      <c r="AS103" s="32" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:45">
       <c r="A104" s="9"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -10548,13 +12196,19 @@
       <c r="F104" s="6"/>
       <c r="G104" s="15"/>
       <c r="H104" s="7" t="s">
-        <v>1333</v>
+        <v>1566</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="105" ht="20" spans="1:9">
+        <v>1563</v>
+      </c>
+      <c r="AR104" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS104" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" ht="20" spans="1:45">
       <c r="A105" s="9"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
@@ -10563,13 +12217,19 @@
       <c r="F105" s="6"/>
       <c r="G105" s="17"/>
       <c r="H105" s="5" t="s">
-        <v>1334</v>
+        <v>1567</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>1568</v>
+      </c>
+      <c r="AR105" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="AS105" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:45">
       <c r="A106" s="9"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
@@ -10578,13 +12238,19 @@
       <c r="F106" s="6"/>
       <c r="G106" s="15"/>
       <c r="H106" s="7" t="s">
-        <v>1336</v>
+        <v>1569</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>1570</v>
+      </c>
+      <c r="AR106" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="AS106" s="33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="107" ht="20" spans="1:45">
       <c r="A107" s="9"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
@@ -10593,13 +12259,20 @@
       <c r="F107" s="6"/>
       <c r="G107" s="15"/>
       <c r="H107" s="7" t="s">
-        <v>1338</v>
+        <v>1571</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="108" ht="20" spans="1:9">
+        <v>1572</v>
+      </c>
+      <c r="AQ107" s="26"/>
+      <c r="AR107" s="32" t="s">
+        <v>1573</v>
+      </c>
+      <c r="AS107" s="32" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="108" ht="20" spans="1:45">
       <c r="A108" s="9"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
@@ -10608,13 +12281,19 @@
       <c r="F108" s="6"/>
       <c r="G108" s="17"/>
       <c r="H108" s="5" t="s">
-        <v>1340</v>
+        <v>1575</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="109" ht="20" spans="1:9">
+        <v>1576</v>
+      </c>
+      <c r="AR108" s="33" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AS108" s="33" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="109" ht="20" spans="1:45">
       <c r="A109" s="9"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15"/>
@@ -10623,13 +12302,20 @@
       <c r="F109" s="6"/>
       <c r="G109" s="17"/>
       <c r="H109" s="5" t="s">
-        <v>1342</v>
+        <v>1579</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>1580</v>
+      </c>
+      <c r="AQ109" s="26"/>
+      <c r="AR109" s="32" t="s">
+        <v>1581</v>
+      </c>
+      <c r="AS109" s="32" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="110" ht="20" spans="1:45">
       <c r="A110" s="9"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -10638,13 +12324,20 @@
       <c r="F110" s="6"/>
       <c r="G110" s="15"/>
       <c r="H110" s="7" t="s">
-        <v>1344</v>
+        <v>1583</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="111" ht="20" spans="1:9">
+        <v>1584</v>
+      </c>
+      <c r="AQ110" s="26"/>
+      <c r="AR110" s="32" t="s">
+        <v>1585</v>
+      </c>
+      <c r="AS110" s="32" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="111" ht="20" spans="1:45">
       <c r="A111" s="9"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15"/>
@@ -10653,13 +12346,19 @@
       <c r="F111" s="6"/>
       <c r="G111" s="17"/>
       <c r="H111" s="5" t="s">
-        <v>1346</v>
+        <v>1587</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="112" ht="20" spans="1:9">
+        <v>1588</v>
+      </c>
+      <c r="AR111" s="33" t="s">
+        <v>1589</v>
+      </c>
+      <c r="AS111" s="33" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="112" ht="20" spans="1:45">
       <c r="A112" s="9"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15"/>
@@ -10668,13 +12367,19 @@
       <c r="F112" s="6"/>
       <c r="G112" s="17"/>
       <c r="H112" s="5" t="s">
-        <v>1348</v>
+        <v>1591</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>1592</v>
+      </c>
+      <c r="AR112" s="33" t="s">
+        <v>1593</v>
+      </c>
+      <c r="AS112" s="33" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="113" spans="1:45">
       <c r="A113" s="9"/>
       <c r="B113" s="15"/>
       <c r="C113" s="15"/>
@@ -10683,14 +12388,177 @@
       <c r="F113" s="6"/>
       <c r="G113" s="15"/>
       <c r="H113" s="7" t="s">
-        <v>1350</v>
+        <v>1595</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>1351</v>
+        <v>1596</v>
+      </c>
+      <c r="AR113" s="33" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AS113" s="33" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="114" ht="20" spans="43:45">
+      <c r="AQ114" s="26"/>
+      <c r="AR114" s="32" t="s">
+        <v>1599</v>
+      </c>
+      <c r="AS114" s="32" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="115" spans="44:45">
+      <c r="AR115" s="33" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AS115" s="33" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="116" ht="20" spans="43:45">
+      <c r="AQ116" s="26"/>
+      <c r="AR116" s="32" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AS116" s="32" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="117" ht="20" spans="43:45">
+      <c r="AQ117" s="26"/>
+      <c r="AR117" s="32" t="s">
+        <v>1605</v>
+      </c>
+      <c r="AS117" s="32" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="118" ht="20" spans="43:45">
+      <c r="AQ118" s="26"/>
+      <c r="AR118" s="32" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AS118" s="32" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="119" ht="20" spans="43:45">
+      <c r="AQ119" s="26"/>
+      <c r="AR119" s="32" t="s">
+        <v>1609</v>
+      </c>
+      <c r="AS119" s="32" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="120" ht="20" spans="43:45">
+      <c r="AQ120" s="26"/>
+      <c r="AR120" s="32" t="s">
+        <v>1611</v>
+      </c>
+      <c r="AS120" s="32" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="121" ht="20" spans="43:45">
+      <c r="AQ121" s="26"/>
+      <c r="AR121" s="32" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AS121" s="32" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="122" spans="44:45">
+      <c r="AR122" s="33" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AS122" s="33" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="123" spans="44:45">
+      <c r="AR123" s="33" t="s">
+        <v>1617</v>
+      </c>
+      <c r="AS123" s="33" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="124" ht="20" spans="43:45">
+      <c r="AQ124" s="26"/>
+      <c r="AR124" s="32" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AS124" s="32" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="125" ht="20" spans="43:45">
+      <c r="AQ125" s="26"/>
+      <c r="AR125" s="32" t="s">
+        <v>1621</v>
+      </c>
+      <c r="AS125" s="32" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="126" ht="20" spans="43:45">
+      <c r="AQ126" s="26"/>
+      <c r="AR126" s="32" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AS126" s="32" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="127" ht="20" spans="43:45">
+      <c r="AQ127" s="26"/>
+      <c r="AR127" s="32" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AS127" s="32" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="128" ht="20" spans="43:45">
+      <c r="AQ128" s="26"/>
+      <c r="AR128" s="32" t="s">
+        <v>1627</v>
+      </c>
+      <c r="AS128" s="32" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="129" ht="20" spans="43:45">
+      <c r="AQ129" s="26"/>
+      <c r="AR129" s="32" t="s">
+        <v>1629</v>
+      </c>
+      <c r="AS129" s="32" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="130" spans="44:45">
+      <c r="AR130" s="33" t="s">
+        <v>1631</v>
+      </c>
+      <c r="AS130" s="33" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="131" spans="44:45">
+      <c r="AR131" s="33" t="s">
+        <v>1633</v>
+      </c>
+      <c r="AS131" s="33" t="s">
+        <v>1634</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -10705,6 +12573,8 @@
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AV1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/WORDS.xlsx
+++ b/WORDS.xlsx
@@ -4,17 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24800" windowHeight="11320"/>
+    <workbookView windowWidth="28800" windowHeight="11340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Discipline" sheetId="1" r:id="rId1"/>
+    <sheet name="Quality" sheetId="2" r:id="rId2"/>
+    <sheet name="Matter" sheetId="3" r:id="rId3"/>
+    <sheet name="Realization" sheetId="4" r:id="rId4"/>
+    <sheet name="Psychology" sheetId="5" r:id="rId5"/>
+    <sheet name="Behavior" sheetId="6" r:id="rId6"/>
+    <sheet name="Language" sheetId="7" r:id="rId7"/>
+    <sheet name="Property" sheetId="8" r:id="rId8"/>
+    <sheet name="Status" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706">
   <si>
     <t>Geography -地理</t>
   </si>
@@ -64,6 +72,9 @@
     <t>Sociology - 社会学</t>
   </si>
   <si>
+    <t>Biology - 生物学</t>
+  </si>
+  <si>
     <t>insular</t>
   </si>
   <si>
@@ -160,6 +171,12 @@
     <t>城市的</t>
   </si>
   <si>
+    <t>parasite</t>
+  </si>
+  <si>
+    <t>寄生虫</t>
+  </si>
+  <si>
     <t>island</t>
   </si>
   <si>
@@ -256,6 +273,12 @@
     <t>乡村的</t>
   </si>
   <si>
+    <t>parasitic</t>
+  </si>
+  <si>
+    <t>寄生的</t>
+  </si>
+  <si>
     <t>peninsula</t>
   </si>
   <si>
@@ -352,6 +375,12 @@
     <t>社区</t>
   </si>
   <si>
+    <t>mimicry</t>
+  </si>
+  <si>
+    <t>模仿的技巧</t>
+  </si>
+  <si>
     <t>islet</t>
   </si>
   <si>
@@ -442,6 +471,12 @@
     <t>大城市的</t>
   </si>
   <si>
+    <t>symbiosis</t>
+  </si>
+  <si>
+    <t>共生</t>
+  </si>
+  <si>
     <t>marine</t>
   </si>
   <si>
@@ -529,6 +564,12 @@
     <t>外来的</t>
   </si>
   <si>
+    <t>symbiotic</t>
+  </si>
+  <si>
+    <t>共生的</t>
+  </si>
+  <si>
     <t>maritime</t>
   </si>
   <si>
@@ -622,6 +663,12 @@
     <t>传统的</t>
   </si>
   <si>
+    <t>creature</t>
+  </si>
+  <si>
+    <t>生物</t>
+  </si>
+  <si>
     <t>moist</t>
   </si>
   <si>
@@ -709,6 +756,12 @@
     <t>传统</t>
   </si>
   <si>
+    <t>organism</t>
+  </si>
+  <si>
+    <t>有机体、生物</t>
+  </si>
+  <si>
     <t>ledge</t>
   </si>
   <si>
@@ -805,6 +858,12 @@
     <t>族长的</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>物种</t>
+  </si>
+  <si>
     <t>oasis</t>
   </si>
   <si>
@@ -892,6 +951,12 @@
     <t>使制度化</t>
   </si>
   <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>有生气的</t>
+  </si>
+  <si>
     <t>tide</t>
   </si>
   <si>
@@ -986,6 +1051,12 @@
   </si>
   <si>
     <t>宗族、部落</t>
+  </si>
+  <si>
+    <t>ripe</t>
+  </si>
+  <si>
+    <t>成熟的</t>
   </si>
   <si>
     <t>ebb</t>
@@ -1096,6 +1167,12 @@
     <t>地位</t>
   </si>
   <si>
+    <t>evolve</t>
+  </si>
+  <si>
+    <t>进化</t>
+  </si>
+  <si>
     <t>continent</t>
   </si>
   <si>
@@ -1183,6 +1260,9 @@
     <t>禁忌</t>
   </si>
   <si>
+    <t>evolutionary</t>
+  </si>
+  <si>
     <t>terrestrial</t>
   </si>
   <si>
@@ -1273,6 +1353,12 @@
     <t>伦理学</t>
   </si>
   <si>
+    <t>Darwinism</t>
+  </si>
+  <si>
+    <t>达尔文学说</t>
+  </si>
+  <si>
     <t>outskirt</t>
   </si>
   <si>
@@ -1363,6 +1449,12 @@
     <t>上流社会的</t>
   </si>
   <si>
+    <t>extinct</t>
+  </si>
+  <si>
+    <t>灭绝</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -1444,6 +1536,9 @@
     <t>婚姻的</t>
   </si>
   <si>
+    <t>extinction</t>
+  </si>
+  <si>
     <t>endemic</t>
   </si>
   <si>
@@ -1525,6 +1620,12 @@
     <t>一夫多妻制</t>
   </si>
   <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>饲养</t>
+  </si>
+  <si>
     <t>cosmopolitan</t>
   </si>
   <si>
@@ -1600,6 +1701,12 @@
     <t>家庭的</t>
   </si>
   <si>
+    <t>reproduction</t>
+  </si>
+  <si>
+    <t>繁殖</t>
+  </si>
+  <si>
     <t>subterrane</t>
   </si>
   <si>
@@ -1672,6 +1779,9 @@
     <t>地质学家</t>
   </si>
   <si>
+    <t>proliferate</t>
+  </si>
+  <si>
     <t>subterranean</t>
   </si>
   <si>
@@ -1741,6 +1851,12 @@
     <t>教育者</t>
   </si>
   <si>
+    <t>propagate</t>
+  </si>
+  <si>
+    <t>繁衍</t>
+  </si>
+  <si>
     <t>cavern</t>
   </si>
   <si>
@@ -1807,6 +1923,12 @@
     <t>从业人员</t>
   </si>
   <si>
+    <t>subsist</t>
+  </si>
+  <si>
+    <t>维持生活</t>
+  </si>
+  <si>
     <t>flaw</t>
   </si>
   <si>
@@ -1879,6 +2001,12 @@
     <t>财务主管</t>
   </si>
   <si>
+    <t>exist</t>
+  </si>
+  <si>
+    <t>存在</t>
+  </si>
+  <si>
     <t>cleft</t>
   </si>
   <si>
@@ -1951,6 +2079,12 @@
     <t>考古学家</t>
   </si>
   <si>
+    <t>posterity</t>
+  </si>
+  <si>
+    <t>后代、子孙</t>
+  </si>
+  <si>
     <t>crevice</t>
   </si>
   <si>
@@ -2011,6 +2145,12 @@
     <t>古人类学家</t>
   </si>
   <si>
+    <t>fermentation</t>
+  </si>
+  <si>
+    <t>发酵</t>
+  </si>
+  <si>
     <t>gap</t>
   </si>
   <si>
@@ -2074,6 +2214,12 @@
     <t>pilot</t>
   </si>
   <si>
+    <t>respiration</t>
+  </si>
+  <si>
+    <t>呼吸</t>
+  </si>
+  <si>
     <t>zone</t>
   </si>
   <si>
@@ -2137,6 +2283,12 @@
     <t>气象学家</t>
   </si>
   <si>
+    <t>stodgy</t>
+  </si>
+  <si>
+    <t>庸俗的</t>
+  </si>
+  <si>
     <t>equator</t>
   </si>
   <si>
@@ -2197,6 +2349,12 @@
     <t>人类学家</t>
   </si>
   <si>
+    <t>secrete</t>
+  </si>
+  <si>
+    <t>分泌</t>
+  </si>
+  <si>
     <t>longitude</t>
   </si>
   <si>
@@ -2257,6 +2415,12 @@
     <t>艺术家</t>
   </si>
   <si>
+    <t>secretion</t>
+  </si>
+  <si>
+    <t>分泌物</t>
+  </si>
+  <si>
     <t>altitude</t>
   </si>
   <si>
@@ -2317,6 +2481,12 @@
     <t>意象派诗人</t>
   </si>
   <si>
+    <t>assimilate</t>
+  </si>
+  <si>
+    <t>同化、吸收</t>
+  </si>
+  <si>
     <t>latitude</t>
   </si>
   <si>
@@ -2377,6 +2547,12 @@
     <t>发明家</t>
   </si>
   <si>
+    <t>immune</t>
+  </si>
+  <si>
+    <t>免疫</t>
+  </si>
+  <si>
     <t>meridian</t>
   </si>
   <si>
@@ -2434,6 +2610,9 @@
     <t>技工</t>
   </si>
   <si>
+    <t>immunity</t>
+  </si>
+  <si>
     <t>subsidiary</t>
   </si>
   <si>
@@ -2494,6 +2673,12 @@
     <t>传记作者</t>
   </si>
   <si>
+    <t>metabolism</t>
+  </si>
+  <si>
+    <t>新陈代谢</t>
+  </si>
+  <si>
     <t>Antarctic</t>
   </si>
   <si>
@@ -2551,6 +2736,12 @@
     <t>检察员</t>
   </si>
   <si>
+    <t>morphology</t>
+  </si>
+  <si>
+    <t>形态学</t>
+  </si>
+  <si>
     <t>Antarctica</t>
   </si>
   <si>
@@ -2611,6 +2802,12 @@
     <t>医生、内科医生</t>
   </si>
   <si>
+    <t>microscope</t>
+  </si>
+  <si>
+    <t>显微镜</t>
+  </si>
+  <si>
     <t>Arctic</t>
   </si>
   <si>
@@ -2671,6 +2868,12 @@
     <t>隐士</t>
   </si>
   <si>
+    <t>calorie</t>
+  </si>
+  <si>
+    <t>卡路里</t>
+  </si>
+  <si>
     <t>coastland</t>
   </si>
   <si>
@@ -2728,6 +2931,12 @@
     <t>recluse</t>
   </si>
   <si>
+    <t>carbohydrate</t>
+  </si>
+  <si>
+    <t>碳水化合物</t>
+  </si>
+  <si>
     <t>hemisphere</t>
   </si>
   <si>
@@ -2782,6 +2991,12 @@
     <t>生态学者</t>
   </si>
   <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>葡萄糖</t>
+  </si>
+  <si>
     <t>contour</t>
   </si>
   <si>
@@ -2839,6 +3054,12 @@
     <t>批评家</t>
   </si>
   <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>蛋白质</t>
+  </si>
+  <si>
     <t>geography</t>
   </si>
   <si>
@@ -2896,6 +3117,12 @@
     <t>慈善家</t>
   </si>
   <si>
+    <t>organ</t>
+  </si>
+  <si>
+    <t>器官</t>
+  </si>
+  <si>
     <t>horizon</t>
   </si>
   <si>
@@ -3215,12 +3442,6 @@
   </si>
   <si>
     <t>outburst</t>
-  </si>
-  <si>
-    <t>breed</t>
-  </si>
-  <si>
-    <t>繁殖</t>
   </si>
   <si>
     <t>forbid</t>
@@ -5639,7 +5860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5740,6 +5961,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6067,10 +6294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AV131"/>
+  <dimension ref="A1:AY131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+    <sheetView tabSelected="1" topLeftCell="AU15" workbookViewId="0">
+      <selection activeCell="AW17" sqref="AW17:AW20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.6"/>
@@ -6123,9 +6350,12 @@
     <col min="46" max="46" width="4.296875" customWidth="1"/>
     <col min="47" max="47" width="19.921875" customWidth="1"/>
     <col min="48" max="48" width="20.046875" customWidth="1"/>
+    <col min="49" max="49" width="4.953125" customWidth="1"/>
+    <col min="50" max="50" width="18.625" customWidth="1"/>
+    <col min="51" max="51" width="26.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" spans="1:48">
+    <row r="1" s="1" customFormat="1" ht="20" spans="1:51">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6206,4509 +6436,4781 @@
       </c>
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
+      <c r="AW1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20" spans="1:48">
+    <row r="2" s="1" customFormat="1" ht="20" spans="1:51">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="24"/>
       <c r="N2" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V2" s="20"/>
       <c r="W2" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="27"/>
       <c r="Z2" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="27"/>
       <c r="AC2" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF2" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG2" s="22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AI2" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ2" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL2" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM2" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AN2" s="20"/>
       <c r="AO2" s="32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AP2" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AQ2" s="20"/>
       <c r="AR2" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS2" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU2" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AV2" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY2" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20" spans="1:48">
+    <row r="3" s="1" customFormat="1" ht="20" spans="1:51">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="X3" s="22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AA3" s="22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AD3" s="22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AF3" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AG3" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AI3" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AJ3" s="22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AL3" s="22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AM3" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AO3" s="33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AP3" s="33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AQ3" s="20"/>
       <c r="AR3" s="32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AS3" s="32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AT3" s="20"/>
       <c r="AU3" s="32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AV3" s="32" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY3" s="32" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20" spans="1:48">
+    <row r="4" s="1" customFormat="1" ht="20" spans="1:51">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="V4" s="20"/>
       <c r="W4" s="21" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="27"/>
       <c r="Z4" s="21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AA4" s="21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AB4" s="27"/>
       <c r="AC4" s="21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD4" s="21" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AF4" s="22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AG4" s="22" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AI4" s="22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AJ4" s="22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AL4" s="22" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AM4" s="22" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AO4" s="33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AP4" s="33" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AQ4" s="20"/>
       <c r="AR4" s="32" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AS4" s="32" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AU4" s="33" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AV4" s="33" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY4" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="5" ht="20" spans="1:48">
+    <row r="5" ht="20" spans="1:51">
       <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="22" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="U5" s="22" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Y5" s="28"/>
       <c r="Z5" s="21" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AB5" s="27"/>
       <c r="AC5" s="21" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AD5" s="21" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AE5" s="26"/>
       <c r="AF5" s="21" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="AG5" s="21" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AH5" s="26"/>
       <c r="AI5" s="21" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AJ5" s="21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AK5" s="26"/>
       <c r="AL5" s="21" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AM5" s="21" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="AN5" s="26"/>
       <c r="AO5" s="32" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AP5" s="32" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AQ5" s="26"/>
       <c r="AR5" s="32" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AS5" s="32" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AT5" s="26"/>
       <c r="AU5" s="32" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AV5" s="32" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="AW5" s="34"/>
+      <c r="AX5" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY5" s="33" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="6" ht="20" spans="1:48">
+    <row r="6" ht="20" spans="1:51">
       <c r="A6" s="9"/>
       <c r="B6" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="21" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P6" s="24"/>
       <c r="Q6" s="21" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="S6" s="25"/>
       <c r="T6" s="21" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X6" s="22" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Y6" s="29"/>
       <c r="Z6" s="22" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AA6" s="22" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="AB6" s="27"/>
       <c r="AC6" s="21" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AD6" s="21" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AE6" s="26"/>
       <c r="AF6" s="21" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AG6" s="21" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AI6" s="22" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AJ6" s="22" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AL6" s="22" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AM6" s="22" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AN6" s="26"/>
       <c r="AO6" s="32" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AP6" s="32" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AR6" s="33" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AS6" s="33" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AU6" s="33" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AV6" s="33" t="s">
-        <v>170</v>
+        <v>179</v>
+      </c>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY6" s="33" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="7" ht="20" spans="1:48">
+    <row r="7" ht="20" spans="1:51">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="5" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M7" s="24"/>
       <c r="N7" s="21" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="22" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="U7" s="22" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="W7" s="22" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="X7" s="22" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Y7" s="29"/>
       <c r="Z7" s="22" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AA7" s="22" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AB7" s="27"/>
       <c r="AC7" s="21" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AD7" s="21" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AF7" s="22" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="AG7" s="22" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="AI7" s="22" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AJ7" s="22" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AK7" s="26"/>
       <c r="AL7" s="21" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="AM7" s="21" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AO7" s="33" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="AP7" s="33" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AR7" s="33" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AS7" s="33" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="AU7" s="33" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="AV7" s="33" t="s">
-        <v>201</v>
+        <v>212</v>
+      </c>
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="AY7" s="33" t="s">
+        <v>214</v>
       </c>
     </row>
-    <row r="8" ht="20" spans="1:48">
+    <row r="8" ht="20" spans="1:51">
       <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M8" s="24"/>
       <c r="N8" s="21" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="P8" s="24"/>
       <c r="Q8" s="21" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="S8" s="25"/>
       <c r="T8" s="21" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="W8" s="22" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="X8" s="22" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="Y8" s="29"/>
       <c r="Z8" s="22" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AA8" s="22" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="AB8" s="29"/>
       <c r="AC8" s="22" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="AD8" s="22" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="AF8" s="22" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="AG8" s="22" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="AH8" s="26"/>
       <c r="AI8"